--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6331B-F03A-4713-8172-F732764FF062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD45704-AED6-4FB1-AED6-E26BE838A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>비전 타워 밸런스 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4089,6 +4093,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <f>VLOOKUP(A138,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f>VLOOKUP(A138,Balance!E:J,2,FALSE)</f>
+        <v>1설</v>
+      </c>
+      <c r="D138" s="24">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1">
+        <f>VLOOKUP(A138,Balance!E:K,7,FALSE)</f>
+        <v>316</v>
+      </c>
+      <c r="F138" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <f>VLOOKUP(A139,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+132</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f>VLOOKUP(A139,Balance!E:J,2,FALSE)</f>
+        <v>5설</v>
+      </c>
+      <c r="D139" s="24">
+        <v>20</v>
+      </c>
+      <c r="E139" s="1">
+        <f>VLOOKUP(A139,Balance!E:K,7,FALSE)</f>
+        <v>320</v>
+      </c>
+      <c r="F139" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <f>VLOOKUP(A140,Balance!E:J,3,FALSE)</f>
+        <v>1E+133</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f>VLOOKUP(A140,Balance!E:J,2,FALSE)</f>
+        <v>10설</v>
+      </c>
+      <c r="D140" s="24">
+        <v>20</v>
+      </c>
+      <c r="E140" s="1">
+        <f>VLOOKUP(A140,Balance!E:K,7,FALSE)</f>
+        <v>324</v>
+      </c>
+      <c r="F140" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <f>VLOOKUP(A141,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999996E+133</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f>VLOOKUP(A141,Balance!E:J,2,FALSE)</f>
+        <v>50설</v>
+      </c>
+      <c r="D141" s="24">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1">
+        <f>VLOOKUP(A141,Balance!E:K,7,FALSE)</f>
+        <v>328</v>
+      </c>
+      <c r="F141" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <f>VLOOKUP(A142,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="C142" s="1" t="str">
+        <f>VLOOKUP(A142,Balance!E:J,2,FALSE)</f>
+        <v>100설</v>
+      </c>
+      <c r="D142" s="24">
+        <v>20</v>
+      </c>
+      <c r="E142" s="1">
+        <f>VLOOKUP(A142,Balance!E:K,7,FALSE)</f>
+        <v>332</v>
+      </c>
+      <c r="F142" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <f>VLOOKUP(A143,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999998E+134</v>
+      </c>
+      <c r="C143" s="1" t="str">
+        <f>VLOOKUP(A143,Balance!E:J,2,FALSE)</f>
+        <v>500설</v>
+      </c>
+      <c r="D143" s="24">
+        <v>20</v>
+      </c>
+      <c r="E143" s="1">
+        <f>VLOOKUP(A143,Balance!E:K,7,FALSE)</f>
+        <v>336</v>
+      </c>
+      <c r="F143" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <f>VLOOKUP(A144,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="C144" s="1" t="str">
+        <f>VLOOKUP(A144,Balance!E:J,2,FALSE)</f>
+        <v>1000설</v>
+      </c>
+      <c r="D144" s="24">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1">
+        <f>VLOOKUP(A144,Balance!E:K,7,FALSE)</f>
+        <v>340</v>
+      </c>
+      <c r="F144" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <f>VLOOKUP(A145,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999996E+135</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f>VLOOKUP(A145,Balance!E:J,2,FALSE)</f>
+        <v>5000설</v>
+      </c>
+      <c r="D145" s="24">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1">
+        <f>VLOOKUP(A145,Balance!E:K,7,FALSE)</f>
+        <v>344</v>
+      </c>
+      <c r="F145" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4101,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L119" sqref="L119"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4463,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" ref="O9:O39" si="1">POWER(10,N9)</f>
+        <f t="shared" ref="O9:O40" si="1">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
       <c r="P9" s="10" t="str">
@@ -4408,7 +4596,7 @@
         <v>1E+20</v>
       </c>
       <c r="P12" s="10" t="str">
-        <f t="shared" ref="P12:P39" si="4">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P40" si="4">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -5671,8 +5859,20 @@
         <v>15.5</v>
       </c>
       <c r="L40" s="20"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="M40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="9">
+        <v>132</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="P40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>1E+132</v>
+      </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -9094,23 +9294,23 @@
       </c>
       <c r="F145" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="G145" s="10" t="e">
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>9.9999999999999999E+131</v>
       </c>
       <c r="H145" s="10">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I145" s="9" cm="1">
+      <c r="I145" s="9" t="str" cm="1">
         <f t="array" ref="I145">IF(AND(H144&gt;1000,H145&lt;2),INDEX(M:M,MATCH(I144,M:M,0)+1,0),I144)</f>
-        <v>0</v>
-      </c>
-      <c r="J145" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J145" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K145" s="5">
         <f t="shared" si="13"/>
@@ -9124,23 +9324,23 @@
       </c>
       <c r="F146" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="G146" s="10" t="e">
+        <v>5설</v>
+      </c>
+      <c r="G146" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
         <f t="shared" ref="H146:H209" si="17">H138</f>
         <v>5</v>
       </c>
-      <c r="I146" s="9" cm="1">
+      <c r="I146" s="9" t="str" cm="1">
         <f t="array" ref="I146">IF(AND(H145&gt;1000,H146&lt;2),INDEX(M:M,MATCH(I145,M:M,0)+1,0),I145)</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J146" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K146" s="5">
         <f t="shared" si="13"/>
@@ -9154,23 +9354,23 @@
       </c>
       <c r="F147" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="G147" s="10" t="e">
+        <v>10설</v>
+      </c>
+      <c r="G147" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>1E+133</v>
       </c>
       <c r="H147" s="10">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="I147" s="9" cm="1">
+      <c r="I147" s="9" t="str" cm="1">
         <f t="array" ref="I147">IF(AND(H146&gt;1000,H147&lt;2),INDEX(M:M,MATCH(I146,M:M,0)+1,0),I146)</f>
-        <v>0</v>
-      </c>
-      <c r="J147" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J147" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K147" s="5">
         <f t="shared" si="13"/>
@@ -9184,23 +9384,23 @@
       </c>
       <c r="F148" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="G148" s="10" t="e">
+        <v>50설</v>
+      </c>
+      <c r="G148" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="I148" s="9" cm="1">
+      <c r="I148" s="9" t="str" cm="1">
         <f t="array" ref="I148">IF(AND(H147&gt;1000,H148&lt;2),INDEX(M:M,MATCH(I147,M:M,0)+1,0),I147)</f>
-        <v>0</v>
-      </c>
-      <c r="J148" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J148" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K148" s="5">
         <f t="shared" si="13"/>
@@ -9214,23 +9414,23 @@
       </c>
       <c r="F149" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>1000</v>
-      </c>
-      <c r="G149" s="10" t="e">
+        <v>100설</v>
+      </c>
+      <c r="G149" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="I149" s="9" cm="1">
+      <c r="I149" s="9" t="str" cm="1">
         <f t="array" ref="I149">IF(AND(H148&gt;1000,H149&lt;2),INDEX(M:M,MATCH(I148,M:M,0)+1,0),I148)</f>
-        <v>0</v>
-      </c>
-      <c r="J149" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J149" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K149" s="5">
         <f t="shared" si="13"/>
@@ -9244,23 +9444,23 @@
       </c>
       <c r="F150" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="G150" s="10" t="e">
+        <v>500설</v>
+      </c>
+      <c r="G150" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
         <f t="shared" si="17"/>
         <v>500</v>
       </c>
-      <c r="I150" s="9" cm="1">
+      <c r="I150" s="9" t="str" cm="1">
         <f t="array" ref="I150">IF(AND(H149&gt;1000,H150&lt;2),INDEX(M:M,MATCH(I149,M:M,0)+1,0),I149)</f>
-        <v>0</v>
-      </c>
-      <c r="J150" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J150" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K150" s="5">
         <f t="shared" si="13"/>
@@ -9274,23 +9474,23 @@
       </c>
       <c r="F151" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>10000</v>
-      </c>
-      <c r="G151" s="10" t="e">
+        <v>1000설</v>
+      </c>
+      <c r="G151" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
         <f t="shared" si="17"/>
         <v>1000</v>
       </c>
-      <c r="I151" s="9" cm="1">
+      <c r="I151" s="9" t="str" cm="1">
         <f t="array" ref="I151">IF(AND(H150&gt;1000,H151&lt;2),INDEX(M:M,MATCH(I150,M:M,0)+1,0),I150)</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J151" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K151" s="5">
         <f t="shared" si="13"/>
@@ -9304,23 +9504,23 @@
       </c>
       <c r="F152" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>50000</v>
-      </c>
-      <c r="G152" s="10" t="e">
+        <v>5000설</v>
+      </c>
+      <c r="G152" s="10">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
         <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="I152" s="9" cm="1">
+      <c r="I152" s="9" t="str" cm="1">
         <f t="array" ref="I152">IF(AND(H151&gt;1000,H152&lt;2),INDEX(M:M,MATCH(I151,M:M,0)+1,0),I151)</f>
-        <v>0</v>
-      </c>
-      <c r="J152" s="9" t="e">
+        <v>설</v>
+      </c>
+      <c r="J152" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>1E+132</v>
       </c>
       <c r="K152" s="5">
         <f t="shared" si="13"/>
@@ -9332,9 +9532,9 @@
       <c r="E153" s="9">
         <v>144</v>
       </c>
-      <c r="F153" s="10" t="e">
+      <c r="F153" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="G153" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9344,9 +9544,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="I153" s="9" t="e" cm="1">
+      <c r="I153" s="9" cm="1">
         <f t="array" ref="I153">IF(AND(H152&gt;1000,H153&lt;2),INDEX(M:M,MATCH(I152,M:M,0)+1,0),I152)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J153" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9362,9 +9562,9 @@
       <c r="E154" s="9">
         <v>145</v>
       </c>
-      <c r="F154" s="10" t="e">
+      <c r="F154" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="G154" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9374,9 +9574,9 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="I154" s="9" t="e" cm="1">
+      <c r="I154" s="9" cm="1">
         <f t="array" ref="I154">IF(AND(H153&gt;1000,H154&lt;2),INDEX(M:M,MATCH(I153,M:M,0)+1,0),I153)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J154" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9392,9 +9592,9 @@
       <c r="E155" s="9">
         <v>146</v>
       </c>
-      <c r="F155" s="10" t="e">
+      <c r="F155" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="G155" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9404,9 +9604,9 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="I155" s="9" t="e" cm="1">
+      <c r="I155" s="9" cm="1">
         <f t="array" ref="I155">IF(AND(H154&gt;1000,H155&lt;2),INDEX(M:M,MATCH(I154,M:M,0)+1,0),I154)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J155" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9422,9 +9622,9 @@
       <c r="E156" s="9">
         <v>147</v>
       </c>
-      <c r="F156" s="10" t="e">
+      <c r="F156" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>500</v>
       </c>
       <c r="G156" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9434,9 +9634,9 @@
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="I156" s="9" t="e" cm="1">
+      <c r="I156" s="9" cm="1">
         <f t="array" ref="I156">IF(AND(H155&gt;1000,H156&lt;2),INDEX(M:M,MATCH(I155,M:M,0)+1,0),I155)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J156" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9452,9 +9652,9 @@
       <c r="E157" s="9">
         <v>148</v>
       </c>
-      <c r="F157" s="10" t="e">
+      <c r="F157" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>1000</v>
       </c>
       <c r="G157" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9464,9 +9664,9 @@
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="I157" s="9" t="e" cm="1">
+      <c r="I157" s="9" cm="1">
         <f t="array" ref="I157">IF(AND(H156&gt;1000,H157&lt;2),INDEX(M:M,MATCH(I156,M:M,0)+1,0),I156)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J157" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9482,9 +9682,9 @@
       <c r="E158" s="9">
         <v>149</v>
       </c>
-      <c r="F158" s="10" t="e">
+      <c r="F158" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>5000</v>
       </c>
       <c r="G158" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9494,9 +9694,9 @@
         <f t="shared" si="17"/>
         <v>500</v>
       </c>
-      <c r="I158" s="9" t="e" cm="1">
+      <c r="I158" s="9" cm="1">
         <f t="array" ref="I158">IF(AND(H157&gt;1000,H158&lt;2),INDEX(M:M,MATCH(I157,M:M,0)+1,0),I157)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J158" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9512,9 +9712,9 @@
       <c r="E159" s="9">
         <v>150</v>
       </c>
-      <c r="F159" s="10" t="e">
+      <c r="F159" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>10000</v>
       </c>
       <c r="G159" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9524,9 +9724,9 @@
         <f t="shared" si="17"/>
         <v>1000</v>
       </c>
-      <c r="I159" s="9" t="e" cm="1">
+      <c r="I159" s="9" cm="1">
         <f t="array" ref="I159">IF(AND(H158&gt;1000,H159&lt;2),INDEX(M:M,MATCH(I158,M:M,0)+1,0),I158)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J159" s="9" t="e">
         <f t="shared" si="15"/>
@@ -9542,9 +9742,9 @@
       <c r="E160" s="9">
         <v>151</v>
       </c>
-      <c r="F160" s="10" t="e">
+      <c r="F160" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>50000</v>
       </c>
       <c r="G160" s="10" t="e">
         <f t="shared" si="16"/>
@@ -9554,9 +9754,9 @@
         <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="I160" s="9" t="e" cm="1">
+      <c r="I160" s="9" cm="1">
         <f t="array" ref="I160">IF(AND(H159&gt;1000,H160&lt;2),INDEX(M:M,MATCH(I159,M:M,0)+1,0),I159)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J160" s="9" t="e">
         <f t="shared" si="15"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD45704-AED6-4FB1-AED6-E26BE838A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0D4B4-1DB3-41D0-8D24-6CB3AEF2CAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4277,6 +4281,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <f>VLOOKUP(A146,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="C146" s="1" t="str">
+        <f>VLOOKUP(A146,Balance!E:J,2,FALSE)</f>
+        <v>1적</v>
+      </c>
+      <c r="D146" s="24">
+        <v>20</v>
+      </c>
+      <c r="E146" s="1">
+        <f>VLOOKUP(A146,Balance!E:K,7,FALSE)</f>
+        <v>348</v>
+      </c>
+      <c r="F146" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <f>VLOOKUP(A147,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="C147" s="1" t="str">
+        <f>VLOOKUP(A147,Balance!E:J,2,FALSE)</f>
+        <v>5적</v>
+      </c>
+      <c r="D147" s="24">
+        <v>20</v>
+      </c>
+      <c r="E147" s="1">
+        <f>VLOOKUP(A147,Balance!E:K,7,FALSE)</f>
+        <v>352</v>
+      </c>
+      <c r="F147" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <f>VLOOKUP(A148,Balance!E:J,3,FALSE)</f>
+        <v>1E+137</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <f>VLOOKUP(A148,Balance!E:J,2,FALSE)</f>
+        <v>10적</v>
+      </c>
+      <c r="D148" s="24">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1">
+        <f>VLOOKUP(A148,Balance!E:K,7,FALSE)</f>
+        <v>356</v>
+      </c>
+      <c r="F148" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <f>VLOOKUP(A149,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <f>VLOOKUP(A149,Balance!E:J,2,FALSE)</f>
+        <v>50적</v>
+      </c>
+      <c r="D149" s="24">
+        <v>20</v>
+      </c>
+      <c r="E149" s="1">
+        <f>VLOOKUP(A149,Balance!E:K,7,FALSE)</f>
+        <v>360</v>
+      </c>
+      <c r="F149" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <f>VLOOKUP(A150,Balance!E:J,3,FALSE)</f>
+        <v>1E+138</v>
+      </c>
+      <c r="C150" s="1" t="str">
+        <f>VLOOKUP(A150,Balance!E:J,2,FALSE)</f>
+        <v>100적</v>
+      </c>
+      <c r="D150" s="24">
+        <v>20</v>
+      </c>
+      <c r="E150" s="1">
+        <f>VLOOKUP(A150,Balance!E:K,7,FALSE)</f>
+        <v>364</v>
+      </c>
+      <c r="F150" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <f>VLOOKUP(A151,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="C151" s="1" t="str">
+        <f>VLOOKUP(A151,Balance!E:J,2,FALSE)</f>
+        <v>500적</v>
+      </c>
+      <c r="D151" s="24">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1">
+        <f>VLOOKUP(A151,Balance!E:K,7,FALSE)</f>
+        <v>368</v>
+      </c>
+      <c r="F151" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <f>VLOOKUP(A152,Balance!E:J,3,FALSE)</f>
+        <v>1E+139</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <f>VLOOKUP(A152,Balance!E:J,2,FALSE)</f>
+        <v>1000적</v>
+      </c>
+      <c r="D152" s="24">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1">
+        <f>VLOOKUP(A152,Balance!E:K,7,FALSE)</f>
+        <v>372</v>
+      </c>
+      <c r="F152" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <f>VLOOKUP(A153,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="C153" s="1" t="str">
+        <f>VLOOKUP(A153,Balance!E:J,2,FALSE)</f>
+        <v>5000적</v>
+      </c>
+      <c r="D153" s="24">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1">
+        <f>VLOOKUP(A153,Balance!E:K,7,FALSE)</f>
+        <v>376</v>
+      </c>
+      <c r="F153" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4289,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157:K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5865,12 +6053,12 @@
       <c r="N40" s="9">
         <v>132</v>
       </c>
-      <c r="O40" s="5">
-        <f t="shared" si="1"/>
+      <c r="O40" s="10">
+        <f t="shared" ref="O40:O41" si="7">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
-      <c r="P40" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="P40" s="10" t="str">
+        <f t="shared" ref="P40:P41" si="8">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="5"/>
@@ -5911,8 +6099,20 @@
         <v>16</v>
       </c>
       <c r="L41" s="20"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="M41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="9">
+        <v>136</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="P41" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>1E+136</v>
+      </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
@@ -5989,7 +6189,7 @@
         <v>1E+80</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" ref="K43:K64" si="7">K42+1</f>
+        <f t="shared" ref="K43:K64" si="9">K42+1</f>
         <v>18</v>
       </c>
       <c r="L43" s="20"/>
@@ -6030,7 +6230,7 @@
         <v>1E+80</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="L44" s="20"/>
@@ -6071,7 +6271,7 @@
         <v>1E+80</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="L45" s="20"/>
@@ -6112,7 +6312,7 @@
         <v>1E+80</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="L46" s="20"/>
@@ -6153,7 +6353,7 @@
         <v>1E+80</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="L47" s="20"/>
@@ -6194,7 +6394,7 @@
         <v>1E+80</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="L48" s="20"/>
@@ -6235,7 +6435,7 @@
         <v>1E+84</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="L49" s="20"/>
@@ -6276,7 +6476,7 @@
         <v>1E+84</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="L50" s="20"/>
@@ -6317,7 +6517,7 @@
         <v>1E+84</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="L51" s="20"/>
@@ -6358,7 +6558,7 @@
         <v>1E+84</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="L52" s="20"/>
@@ -6399,7 +6599,7 @@
         <v>1E+84</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="L53" s="20"/>
@@ -6440,7 +6640,7 @@
         <v>1E+84</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="L54" s="20"/>
@@ -6481,7 +6681,7 @@
         <v>1E+84</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="L55" s="20"/>
@@ -6522,7 +6722,7 @@
         <v>1E+84</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="L56" s="20"/>
@@ -6563,7 +6763,7 @@
         <v>1E+88</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L57" s="20"/>
@@ -6604,7 +6804,7 @@
         <v>1E+88</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="L58" s="20"/>
@@ -6645,7 +6845,7 @@
         <v>1E+88</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="L59" s="20"/>
@@ -6686,7 +6886,7 @@
         <v>1E+88</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="L60" s="20"/>
@@ -6727,7 +6927,7 @@
         <v>1E+88</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="L61" s="20"/>
@@ -6768,7 +6968,7 @@
         <v>1E+88</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="L62" s="20"/>
@@ -6809,7 +7009,7 @@
         <v>1E+88</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="L63" s="20"/>
@@ -6850,7 +7050,7 @@
         <v>1E+88</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="L64" s="20"/>
@@ -6932,7 +7132,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="8">K65+3</f>
+        <f t="shared" ref="K66:K112" si="10">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -6973,7 +7173,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -7003,7 +7203,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -7013,7 +7213,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="9">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="11">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -7033,7 +7233,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -7043,7 +7243,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -7063,7 +7263,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -7073,7 +7273,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -7093,7 +7293,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -7103,7 +7303,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -7123,7 +7323,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -7133,7 +7333,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -7149,11 +7349,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="10">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="12">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -7163,11 +7363,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="11">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="13">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -7179,11 +7379,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -7193,11 +7393,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -7209,11 +7409,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -7223,11 +7423,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -7239,11 +7439,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -7253,11 +7453,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -7269,11 +7469,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -7283,11 +7483,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -7299,11 +7499,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -7313,11 +7513,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -7329,11 +7529,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -7343,11 +7543,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -7359,11 +7559,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="10"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -7373,11 +7573,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -7389,11 +7589,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -7403,15 +7603,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="12">H74</f>
+        <f t="shared" ref="H82:H145" si="14">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -7419,11 +7619,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -7433,15 +7633,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -7449,11 +7649,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -7463,15 +7663,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -7479,11 +7679,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -7493,15 +7693,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -7509,11 +7709,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -7523,15 +7723,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -7539,11 +7739,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -7553,15 +7753,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -7569,11 +7769,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -7583,15 +7783,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -7599,11 +7799,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="10"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -7613,15 +7813,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -7629,7 +7829,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -7643,15 +7843,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -7659,11 +7859,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -7673,15 +7873,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -7689,11 +7889,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -7703,15 +7903,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -7719,11 +7919,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -7733,15 +7933,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -7749,11 +7949,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -7763,15 +7963,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -7779,11 +7979,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -7793,15 +7993,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -7809,11 +8009,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -7823,15 +8023,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -7839,11 +8039,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="10"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="8"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -7853,15 +8053,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -7869,11 +8069,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -7883,15 +8083,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -7899,11 +8099,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -7913,15 +8113,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -7929,11 +8129,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -7943,15 +8143,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -7959,11 +8159,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -7973,15 +8173,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -7989,11 +8189,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="8"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -8003,15 +8203,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -8019,11 +8219,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -8033,15 +8233,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -8049,11 +8249,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -8063,15 +8263,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -8079,11 +8279,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -8093,15 +8293,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -8109,11 +8309,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -8123,15 +8323,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -8139,11 +8339,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -8153,15 +8353,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -8169,11 +8369,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -8183,15 +8383,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -8199,11 +8399,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -8213,15 +8413,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -8229,11 +8429,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -8243,15 +8443,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -8259,11 +8459,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -8273,15 +8473,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -8289,11 +8489,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="8"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -8303,15 +8503,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -8319,11 +8519,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="10"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -8333,15 +8533,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -8349,7 +8549,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -8363,15 +8563,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -8379,11 +8579,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="13">K113+4</f>
+        <f t="shared" ref="K114:K177" si="15">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -8393,15 +8593,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -8409,11 +8609,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -8423,15 +8623,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -8439,11 +8639,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -8453,15 +8653,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -8469,11 +8669,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -8483,15 +8683,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -8499,11 +8699,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -8513,15 +8713,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -8529,11 +8729,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -8543,15 +8743,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -8559,11 +8759,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -8573,15 +8773,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -8589,11 +8789,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -8603,15 +8803,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -8619,11 +8819,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -8633,15 +8833,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -8649,11 +8849,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -8663,15 +8863,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -8679,11 +8879,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -8693,15 +8893,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -8709,11 +8909,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -8723,15 +8923,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -8739,11 +8939,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -8753,15 +8953,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -8769,11 +8969,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -8783,15 +8983,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -8799,11 +8999,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -8813,15 +9013,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -8829,11 +9029,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -8843,15 +9043,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -8859,11 +9059,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -8873,15 +9073,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -8889,11 +9089,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -8903,15 +9103,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -8919,11 +9119,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -8933,15 +9133,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="14">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="16">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -8949,11 +9149,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -8963,15 +9163,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="14"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="11"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -8979,11 +9179,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -8993,15 +9193,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="14"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="11"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -9009,11 +9209,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -9023,15 +9223,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="14"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="11"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -9039,11 +9239,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -9053,15 +9253,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="14"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="11"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -9069,11 +9269,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="15">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="17">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -9083,15 +9283,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="18">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="14"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="16">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -9099,11 +9299,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -9113,15 +9313,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="18"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="14"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="16"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -9129,11 +9329,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="13"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -9143,15 +9343,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="14"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="16"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -9159,11 +9359,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="13"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -9173,15 +9373,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="18"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="14"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="16"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -9189,11 +9389,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -9203,15 +9403,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="14"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="16"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -9219,11 +9419,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -9233,15 +9433,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="18"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="14"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="16"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -9249,11 +9449,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="13"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -9263,15 +9463,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="14"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="16"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -9279,11 +9479,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="15"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="13"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -9293,15 +9493,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="18"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="14"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="16"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -9309,11 +9509,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="13"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -9323,15 +9523,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="17">H138</f>
+        <f t="shared" ref="H146:H209" si="19">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -9339,11 +9539,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="13"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -9353,15 +9553,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -9369,11 +9569,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="13"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -9383,15 +9583,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -9399,11 +9599,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="13"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -9413,15 +9613,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -9429,11 +9629,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="13"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -9443,15 +9643,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -9459,11 +9659,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="13"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -9473,15 +9673,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -9489,11 +9689,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="13"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -9503,15 +9703,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -9519,11 +9719,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="15"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="13"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -9533,27 +9733,27 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="G153" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>1적</v>
+      </c>
+      <c r="G153" s="10">
+        <f t="shared" si="18"/>
+        <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="I153" s="9" t="str" cm="1">
+        <f t="array" ref="I153">IF(AND(H152&gt;1000,H153&lt;2),INDEX(M:M,MATCH(I152,M:M,0)+1,0),I152)</f>
+        <v>적</v>
+      </c>
+      <c r="J153" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="I153" s="9" cm="1">
-        <f t="array" ref="I153">IF(AND(H152&gt;1000,H153&lt;2),INDEX(M:M,MATCH(I152,M:M,0)+1,0),I152)</f>
-        <v>0</v>
-      </c>
-      <c r="J153" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="13"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -9563,27 +9763,27 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="G154" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>5적</v>
+      </c>
+      <c r="G154" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="I154" s="9" t="str" cm="1">
+        <f t="array" ref="I154">IF(AND(H153&gt;1000,H154&lt;2),INDEX(M:M,MATCH(I153,M:M,0)+1,0),I153)</f>
+        <v>적</v>
+      </c>
+      <c r="J154" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="I154" s="9" cm="1">
-        <f t="array" ref="I154">IF(AND(H153&gt;1000,H154&lt;2),INDEX(M:M,MATCH(I153,M:M,0)+1,0),I153)</f>
-        <v>0</v>
-      </c>
-      <c r="J154" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="13"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -9593,27 +9793,27 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="G155" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>10적</v>
+      </c>
+      <c r="G155" s="10">
+        <f t="shared" si="18"/>
+        <v>1E+137</v>
       </c>
       <c r="H155" s="10">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="I155" s="9" t="str" cm="1">
+        <f t="array" ref="I155">IF(AND(H154&gt;1000,H155&lt;2),INDEX(M:M,MATCH(I154,M:M,0)+1,0),I154)</f>
+        <v>적</v>
+      </c>
+      <c r="J155" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="I155" s="9" cm="1">
-        <f t="array" ref="I155">IF(AND(H154&gt;1000,H155&lt;2),INDEX(M:M,MATCH(I154,M:M,0)+1,0),I154)</f>
-        <v>0</v>
-      </c>
-      <c r="J155" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="13"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -9623,27 +9823,27 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="G156" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>50적</v>
+      </c>
+      <c r="G156" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="I156" s="9" t="str" cm="1">
+        <f t="array" ref="I156">IF(AND(H155&gt;1000,H156&lt;2),INDEX(M:M,MATCH(I155,M:M,0)+1,0),I155)</f>
+        <v>적</v>
+      </c>
+      <c r="J156" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>50</v>
-      </c>
-      <c r="I156" s="9" cm="1">
-        <f t="array" ref="I156">IF(AND(H155&gt;1000,H156&lt;2),INDEX(M:M,MATCH(I155,M:M,0)+1,0),I155)</f>
-        <v>0</v>
-      </c>
-      <c r="J156" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -9653,27 +9853,27 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>1000</v>
-      </c>
-      <c r="G157" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>100적</v>
+      </c>
+      <c r="G157" s="10">
+        <f t="shared" si="18"/>
+        <v>1E+138</v>
       </c>
       <c r="H157" s="10">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="I157" s="9" t="str" cm="1">
+        <f t="array" ref="I157">IF(AND(H156&gt;1000,H157&lt;2),INDEX(M:M,MATCH(I156,M:M,0)+1,0),I156)</f>
+        <v>적</v>
+      </c>
+      <c r="J157" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="I157" s="9" cm="1">
-        <f t="array" ref="I157">IF(AND(H156&gt;1000,H157&lt;2),INDEX(M:M,MATCH(I156,M:M,0)+1,0),I156)</f>
-        <v>0</v>
-      </c>
-      <c r="J157" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="13"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -9683,27 +9883,27 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="G158" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>500적</v>
+      </c>
+      <c r="G158" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
+        <f t="shared" si="19"/>
+        <v>500</v>
+      </c>
+      <c r="I158" s="9" t="str" cm="1">
+        <f t="array" ref="I158">IF(AND(H157&gt;1000,H158&lt;2),INDEX(M:M,MATCH(I157,M:M,0)+1,0),I157)</f>
+        <v>적</v>
+      </c>
+      <c r="J158" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>500</v>
-      </c>
-      <c r="I158" s="9" cm="1">
-        <f t="array" ref="I158">IF(AND(H157&gt;1000,H158&lt;2),INDEX(M:M,MATCH(I157,M:M,0)+1,0),I157)</f>
-        <v>0</v>
-      </c>
-      <c r="J158" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="13"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -9713,27 +9913,27 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>10000</v>
-      </c>
-      <c r="G159" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>1000적</v>
+      </c>
+      <c r="G159" s="10">
+        <f t="shared" si="18"/>
+        <v>1E+139</v>
       </c>
       <c r="H159" s="10">
+        <f t="shared" si="19"/>
+        <v>1000</v>
+      </c>
+      <c r="I159" s="9" t="str" cm="1">
+        <f t="array" ref="I159">IF(AND(H158&gt;1000,H159&lt;2),INDEX(M:M,MATCH(I158,M:M,0)+1,0),I158)</f>
+        <v>적</v>
+      </c>
+      <c r="J159" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="I159" s="9" cm="1">
-        <f t="array" ref="I159">IF(AND(H158&gt;1000,H159&lt;2),INDEX(M:M,MATCH(I158,M:M,0)+1,0),I158)</f>
-        <v>0</v>
-      </c>
-      <c r="J159" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="13"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -9743,27 +9943,27 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>50000</v>
-      </c>
-      <c r="G160" s="10" t="e">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>5000적</v>
+      </c>
+      <c r="G160" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
+        <f t="shared" si="19"/>
+        <v>5000</v>
+      </c>
+      <c r="I160" s="9" t="str" cm="1">
+        <f t="array" ref="I160">IF(AND(H159&gt;1000,H160&lt;2),INDEX(M:M,MATCH(I159,M:M,0)+1,0),I159)</f>
+        <v>적</v>
+      </c>
+      <c r="J160" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="I160" s="9" cm="1">
-        <f t="array" ref="I160">IF(AND(H159&gt;1000,H160&lt;2),INDEX(M:M,MATCH(I159,M:M,0)+1,0),I159)</f>
-        <v>0</v>
-      </c>
-      <c r="J160" s="9" t="e">
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="13"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -9772,28 +9972,28 @@
       <c r="E161" s="9">
         <v>152</v>
       </c>
-      <c r="F161" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F161" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="G161" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H161" s="10">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="I161" s="9" cm="1">
+        <f t="array" ref="I161">IF(AND(H160&gt;1000,H161&lt;2),INDEX(M:M,MATCH(I160,M:M,0)+1,0),I160)</f>
+        <v>0</v>
+      </c>
+      <c r="J161" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="I161" s="9" t="e" cm="1">
-        <f t="array" ref="I161">IF(AND(H160&gt;1000,H161&lt;2),INDEX(M:M,MATCH(I160,M:M,0)+1,0),I160)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J161" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -9802,28 +10002,28 @@
       <c r="E162" s="9">
         <v>153</v>
       </c>
-      <c r="F162" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F162" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>50</v>
       </c>
       <c r="G162" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H162" s="10">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="I162" s="9" cm="1">
+        <f t="array" ref="I162">IF(AND(H161&gt;1000,H162&lt;2),INDEX(M:M,MATCH(I161,M:M,0)+1,0),I161)</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="I162" s="9" t="e" cm="1">
-        <f t="array" ref="I162">IF(AND(H161&gt;1000,H162&lt;2),INDEX(M:M,MATCH(I161,M:M,0)+1,0),I161)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J162" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="13"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -9832,28 +10032,28 @@
       <c r="E163" s="9">
         <v>154</v>
       </c>
-      <c r="F163" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F163" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="G163" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H163" s="10">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="I163" s="9" cm="1">
+        <f t="array" ref="I163">IF(AND(H162&gt;1000,H163&lt;2),INDEX(M:M,MATCH(I162,M:M,0)+1,0),I162)</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="I163" s="9" t="e" cm="1">
-        <f t="array" ref="I163">IF(AND(H162&gt;1000,H163&lt;2),INDEX(M:M,MATCH(I162,M:M,0)+1,0),I162)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J163" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="13"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -9862,28 +10062,28 @@
       <c r="E164" s="9">
         <v>155</v>
       </c>
-      <c r="F164" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F164" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>500</v>
       </c>
       <c r="G164" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H164" s="10">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="I164" s="9" cm="1">
+        <f t="array" ref="I164">IF(AND(H163&gt;1000,H164&lt;2),INDEX(M:M,MATCH(I163,M:M,0)+1,0),I163)</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>50</v>
-      </c>
-      <c r="I164" s="9" t="e" cm="1">
-        <f t="array" ref="I164">IF(AND(H163&gt;1000,H164&lt;2),INDEX(M:M,MATCH(I163,M:M,0)+1,0),I163)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="13"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -9892,28 +10092,28 @@
       <c r="E165" s="9">
         <v>156</v>
       </c>
-      <c r="F165" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F165" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>1000</v>
       </c>
       <c r="G165" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H165" s="10">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="I165" s="9" cm="1">
+        <f t="array" ref="I165">IF(AND(H164&gt;1000,H165&lt;2),INDEX(M:M,MATCH(I164,M:M,0)+1,0),I164)</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="I165" s="9" t="e" cm="1">
-        <f t="array" ref="I165">IF(AND(H164&gt;1000,H165&lt;2),INDEX(M:M,MATCH(I164,M:M,0)+1,0),I164)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J165" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="13"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -9922,28 +10122,28 @@
       <c r="E166" s="9">
         <v>157</v>
       </c>
-      <c r="F166" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F166" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>5000</v>
       </c>
       <c r="G166" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H166" s="10">
+        <f t="shared" si="19"/>
+        <v>500</v>
+      </c>
+      <c r="I166" s="9" cm="1">
+        <f t="array" ref="I166">IF(AND(H165&gt;1000,H166&lt;2),INDEX(M:M,MATCH(I165,M:M,0)+1,0),I165)</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>500</v>
-      </c>
-      <c r="I166" s="9" t="e" cm="1">
-        <f t="array" ref="I166">IF(AND(H165&gt;1000,H166&lt;2),INDEX(M:M,MATCH(I165,M:M,0)+1,0),I165)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J166" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -9952,28 +10152,28 @@
       <c r="E167" s="9">
         <v>158</v>
       </c>
-      <c r="F167" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F167" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>10000</v>
       </c>
       <c r="G167" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H167" s="10">
+        <f t="shared" si="19"/>
+        <v>1000</v>
+      </c>
+      <c r="I167" s="9" cm="1">
+        <f t="array" ref="I167">IF(AND(H166&gt;1000,H167&lt;2),INDEX(M:M,MATCH(I166,M:M,0)+1,0),I166)</f>
+        <v>0</v>
+      </c>
+      <c r="J167" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="I167" s="9" t="e" cm="1">
-        <f t="array" ref="I167">IF(AND(H166&gt;1000,H167&lt;2),INDEX(M:M,MATCH(I166,M:M,0)+1,0),I166)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J167" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="13"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -9982,28 +10182,28 @@
       <c r="E168" s="9">
         <v>159</v>
       </c>
-      <c r="F168" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="F168" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>50000</v>
       </c>
       <c r="G168" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H168" s="10">
+        <f t="shared" si="19"/>
+        <v>5000</v>
+      </c>
+      <c r="I168" s="9" cm="1">
+        <f t="array" ref="I168">IF(AND(H167&gt;1000,H168&lt;2),INDEX(M:M,MATCH(I167,M:M,0)+1,0),I167)</f>
+        <v>0</v>
+      </c>
+      <c r="J168" s="9" t="e">
         <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="I168" s="9" t="e" cm="1">
-        <f t="array" ref="I168">IF(AND(H167&gt;1000,H168&lt;2),INDEX(M:M,MATCH(I167,M:M,0)+1,0),I167)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J168" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -10013,15 +10213,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G169" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="e" cm="1">
@@ -10029,11 +10229,11 @@
         <v>#N/A</v>
       </c>
       <c r="J169" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="13"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -10043,15 +10243,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G170" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="e" cm="1">
@@ -10059,11 +10259,11 @@
         <v>#N/A</v>
       </c>
       <c r="J170" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="13"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -10073,15 +10273,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G171" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="e" cm="1">
@@ -10089,11 +10289,11 @@
         <v>#N/A</v>
       </c>
       <c r="J171" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -10103,15 +10303,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G172" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="e" cm="1">
@@ -10119,11 +10319,11 @@
         <v>#N/A</v>
       </c>
       <c r="J172" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="13"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -10133,15 +10333,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G173" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="e" cm="1">
@@ -10149,11 +10349,11 @@
         <v>#N/A</v>
       </c>
       <c r="J173" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="13"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -10163,15 +10363,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G174" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="e" cm="1">
@@ -10179,11 +10379,11 @@
         <v>#N/A</v>
       </c>
       <c r="J174" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -10193,15 +10393,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G175" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="e" cm="1">
@@ -10209,11 +10409,11 @@
         <v>#N/A</v>
       </c>
       <c r="J175" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="13"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -10223,15 +10423,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G176" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="e" cm="1">
@@ -10239,11 +10439,11 @@
         <v>#N/A</v>
       </c>
       <c r="J176" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="13"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -10253,15 +10453,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G177" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="e" cm="1">
@@ -10269,11 +10469,11 @@
         <v>#N/A</v>
       </c>
       <c r="J177" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="13"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -10283,15 +10483,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G178" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="e" cm="1">
@@ -10299,11 +10499,11 @@
         <v>#N/A</v>
       </c>
       <c r="J178" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="18">K177+4</f>
+        <f t="shared" ref="K178:K241" si="20">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -10313,15 +10513,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G179" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="e" cm="1">
@@ -10329,11 +10529,11 @@
         <v>#N/A</v>
       </c>
       <c r="J179" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -10343,15 +10543,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G180" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="e" cm="1">
@@ -10359,11 +10559,11 @@
         <v>#N/A</v>
       </c>
       <c r="J180" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -10373,15 +10573,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G181" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="e" cm="1">
@@ -10389,11 +10589,11 @@
         <v>#N/A</v>
       </c>
       <c r="J181" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -10403,15 +10603,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G182" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="e" cm="1">
@@ -10419,11 +10619,11 @@
         <v>#N/A</v>
       </c>
       <c r="J182" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -10433,15 +10633,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G183" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="e" cm="1">
@@ -10449,11 +10649,11 @@
         <v>#N/A</v>
       </c>
       <c r="J183" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -10463,15 +10663,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G184" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="e" cm="1">
@@ -10479,11 +10679,11 @@
         <v>#N/A</v>
       </c>
       <c r="J184" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -10493,15 +10693,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G185" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="e" cm="1">
@@ -10509,11 +10709,11 @@
         <v>#N/A</v>
       </c>
       <c r="J185" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -10523,15 +10723,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G186" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="e" cm="1">
@@ -10539,11 +10739,11 @@
         <v>#N/A</v>
       </c>
       <c r="J186" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -10553,15 +10753,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G187" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="e" cm="1">
@@ -10569,11 +10769,11 @@
         <v>#N/A</v>
       </c>
       <c r="J187" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -10583,15 +10783,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G188" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="e" cm="1">
@@ -10599,11 +10799,11 @@
         <v>#N/A</v>
       </c>
       <c r="J188" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -10613,15 +10813,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G189" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="e" cm="1">
@@ -10629,11 +10829,11 @@
         <v>#N/A</v>
       </c>
       <c r="J189" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -10643,15 +10843,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G190" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="e" cm="1">
@@ -10659,11 +10859,11 @@
         <v>#N/A</v>
       </c>
       <c r="J190" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -10673,15 +10873,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G191" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="e" cm="1">
@@ -10689,11 +10889,11 @@
         <v>#N/A</v>
       </c>
       <c r="J191" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -10703,15 +10903,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G192" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="e" cm="1">
@@ -10719,11 +10919,11 @@
         <v>#N/A</v>
       </c>
       <c r="J192" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -10733,15 +10933,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="e" cm="1">
@@ -10749,11 +10949,11 @@
         <v>#N/A</v>
       </c>
       <c r="J193" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -10763,15 +10963,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="e" cm="1">
@@ -10779,11 +10979,11 @@
         <v>#N/A</v>
       </c>
       <c r="J194" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -10793,15 +10993,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G195" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="e" cm="1">
@@ -10809,11 +11009,11 @@
         <v>#N/A</v>
       </c>
       <c r="J195" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -10823,15 +11023,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="G196" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="e" cm="1">
@@ -10839,11 +11039,11 @@
         <v>#N/A</v>
       </c>
       <c r="J196" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -10853,15 +11053,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="e">
-        <f t="shared" ref="F197:F256" si="19">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="21">H197&amp;I197</f>
         <v>#N/A</v>
       </c>
       <c r="G197" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="e" cm="1">
@@ -10869,11 +11069,11 @@
         <v>#N/A</v>
       </c>
       <c r="J197" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -10883,15 +11083,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G198" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G198" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="e" cm="1">
@@ -10899,11 +11099,11 @@
         <v>#N/A</v>
       </c>
       <c r="J198" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -10913,15 +11113,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G199" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G199" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="e" cm="1">
@@ -10929,11 +11129,11 @@
         <v>#N/A</v>
       </c>
       <c r="J199" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -10943,15 +11143,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G200" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G200" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="e" cm="1">
@@ -10959,11 +11159,11 @@
         <v>#N/A</v>
       </c>
       <c r="J200" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -10973,15 +11173,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G201" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G201" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="e" cm="1">
@@ -10989,11 +11189,11 @@
         <v>#N/A</v>
       </c>
       <c r="J201" s="9" t="e">
-        <f t="shared" ref="J201:J256" si="20">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="22">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -11003,15 +11203,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G202" s="10" t="e">
+        <f t="shared" ref="G202:G256" si="23">H202*J202</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G202" s="10" t="e">
-        <f t="shared" ref="G202:G256" si="21">H202*J202</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="e" cm="1">
@@ -11019,11 +11219,11 @@
         <v>#N/A</v>
       </c>
       <c r="J202" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="18"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -11033,15 +11233,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G203" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G203" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="e" cm="1">
@@ -11049,11 +11249,11 @@
         <v>#N/A</v>
       </c>
       <c r="J203" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="18"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -11063,15 +11263,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G204" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G204" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="e" cm="1">
@@ -11079,11 +11279,11 @@
         <v>#N/A</v>
       </c>
       <c r="J204" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="18"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -11093,15 +11293,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G205" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G205" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="e" cm="1">
@@ -11109,11 +11309,11 @@
         <v>#N/A</v>
       </c>
       <c r="J205" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="18"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -11123,15 +11323,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G206" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G206" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="e" cm="1">
@@ -11139,11 +11339,11 @@
         <v>#N/A</v>
       </c>
       <c r="J206" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="18"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -11153,15 +11353,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G207" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G207" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="e" cm="1">
@@ -11169,11 +11369,11 @@
         <v>#N/A</v>
       </c>
       <c r="J207" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="18"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -11183,15 +11383,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G208" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G208" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="e" cm="1">
@@ -11199,11 +11399,11 @@
         <v>#N/A</v>
       </c>
       <c r="J208" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="18"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -11213,15 +11413,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G209" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G209" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="e" cm="1">
@@ -11229,11 +11429,11 @@
         <v>#N/A</v>
       </c>
       <c r="J209" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="18"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -11243,15 +11443,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="22">H202</f>
+        <f t="shared" ref="H210:H256" si="24">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="e" cm="1">
@@ -11259,11 +11459,11 @@
         <v>#N/A</v>
       </c>
       <c r="J210" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="18"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -11273,15 +11473,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="e" cm="1">
@@ -11289,11 +11489,11 @@
         <v>#N/A</v>
       </c>
       <c r="J211" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="18"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -11303,15 +11503,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="e" cm="1">
@@ -11319,11 +11519,11 @@
         <v>#N/A</v>
       </c>
       <c r="J212" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="18"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -11333,15 +11533,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="e" cm="1">
@@ -11349,11 +11549,11 @@
         <v>#N/A</v>
       </c>
       <c r="J213" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="18"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -11363,15 +11563,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="e" cm="1">
@@ -11379,11 +11579,11 @@
         <v>#N/A</v>
       </c>
       <c r="J214" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="18"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -11393,15 +11593,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="e" cm="1">
@@ -11409,11 +11609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J215" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="18"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -11423,15 +11623,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="e" cm="1">
@@ -11439,11 +11639,11 @@
         <v>#N/A</v>
       </c>
       <c r="J216" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -11453,15 +11653,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="e" cm="1">
@@ -11469,11 +11669,11 @@
         <v>#N/A</v>
       </c>
       <c r="J217" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K217" s="5">
-        <f t="shared" si="18"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -11483,15 +11683,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="e" cm="1">
@@ -11499,11 +11699,11 @@
         <v>#N/A</v>
       </c>
       <c r="J218" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K218" s="5">
-        <f t="shared" si="18"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -11513,15 +11713,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="e" cm="1">
@@ -11529,11 +11729,11 @@
         <v>#N/A</v>
       </c>
       <c r="J219" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K219" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K219" s="5">
-        <f t="shared" si="18"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -11543,15 +11743,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="e" cm="1">
@@ -11559,11 +11759,11 @@
         <v>#N/A</v>
       </c>
       <c r="J220" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K220" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K220" s="5">
-        <f t="shared" si="18"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -11573,15 +11773,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="e" cm="1">
@@ -11589,11 +11789,11 @@
         <v>#N/A</v>
       </c>
       <c r="J221" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K221" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K221" s="5">
-        <f t="shared" si="18"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -11603,15 +11803,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="e" cm="1">
@@ -11619,11 +11819,11 @@
         <v>#N/A</v>
       </c>
       <c r="J222" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K222" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K222" s="5">
-        <f t="shared" si="18"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -11633,15 +11833,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="e" cm="1">
@@ -11649,11 +11849,11 @@
         <v>#N/A</v>
       </c>
       <c r="J223" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K223" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K223" s="5">
-        <f t="shared" si="18"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -11663,15 +11863,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="e" cm="1">
@@ -11679,11 +11879,11 @@
         <v>#N/A</v>
       </c>
       <c r="J224" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K224" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K224" s="5">
-        <f t="shared" si="18"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -11693,15 +11893,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="e" cm="1">
@@ -11709,11 +11909,11 @@
         <v>#N/A</v>
       </c>
       <c r="J225" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K225" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K225" s="5">
-        <f t="shared" si="18"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -11723,15 +11923,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="e" cm="1">
@@ -11739,11 +11939,11 @@
         <v>#N/A</v>
       </c>
       <c r="J226" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K226" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K226" s="5">
-        <f t="shared" si="18"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -11753,15 +11953,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="e" cm="1">
@@ -11769,11 +11969,11 @@
         <v>#N/A</v>
       </c>
       <c r="J227" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K227" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K227" s="5">
-        <f t="shared" si="18"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -11783,15 +11983,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="e" cm="1">
@@ -11799,11 +11999,11 @@
         <v>#N/A</v>
       </c>
       <c r="J228" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K228" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K228" s="5">
-        <f t="shared" si="18"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -11813,15 +12013,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="e" cm="1">
@@ -11829,11 +12029,11 @@
         <v>#N/A</v>
       </c>
       <c r="J229" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K229" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K229" s="5">
-        <f t="shared" si="18"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -11843,15 +12043,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="e" cm="1">
@@ -11859,11 +12059,11 @@
         <v>#N/A</v>
       </c>
       <c r="J230" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K230" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K230" s="5">
-        <f t="shared" si="18"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -11873,15 +12073,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="e" cm="1">
@@ -11889,11 +12089,11 @@
         <v>#N/A</v>
       </c>
       <c r="J231" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K231" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K231" s="5">
-        <f t="shared" si="18"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -11903,15 +12103,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="e" cm="1">
@@ -11919,11 +12119,11 @@
         <v>#N/A</v>
       </c>
       <c r="J232" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K232" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K232" s="5">
-        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -11933,15 +12133,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="e" cm="1">
@@ -11949,11 +12149,11 @@
         <v>#N/A</v>
       </c>
       <c r="J233" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K233" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K233" s="5">
-        <f t="shared" si="18"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -11963,15 +12163,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="e" cm="1">
@@ -11979,11 +12179,11 @@
         <v>#N/A</v>
       </c>
       <c r="J234" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K234" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K234" s="5">
-        <f t="shared" si="18"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -11993,15 +12193,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="e" cm="1">
@@ -12009,11 +12209,11 @@
         <v>#N/A</v>
       </c>
       <c r="J235" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K235" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K235" s="5">
-        <f t="shared" si="18"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -12023,15 +12223,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="e" cm="1">
@@ -12039,11 +12239,11 @@
         <v>#N/A</v>
       </c>
       <c r="J236" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K236" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K236" s="5">
-        <f t="shared" si="18"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -12053,15 +12253,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="e" cm="1">
@@ -12069,11 +12269,11 @@
         <v>#N/A</v>
       </c>
       <c r="J237" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K237" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K237" s="5">
-        <f t="shared" si="18"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -12083,15 +12283,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="e" cm="1">
@@ -12099,11 +12299,11 @@
         <v>#N/A</v>
       </c>
       <c r="J238" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K238" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K238" s="5">
-        <f t="shared" si="18"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -12113,15 +12313,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="e" cm="1">
@@ -12129,11 +12329,11 @@
         <v>#N/A</v>
       </c>
       <c r="J239" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K239" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K239" s="5">
-        <f t="shared" si="18"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -12143,15 +12343,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="e" cm="1">
@@ -12159,11 +12359,11 @@
         <v>#N/A</v>
       </c>
       <c r="J240" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K240" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K240" s="5">
-        <f t="shared" si="18"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -12173,15 +12373,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -12189,11 +12389,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K241" s="5">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K241" s="5">
-        <f t="shared" si="18"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -12203,15 +12403,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -12219,11 +12419,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="23">K241+4</f>
+        <f t="shared" ref="K242:K256" si="25">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -12233,15 +12433,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -12249,11 +12449,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -12263,15 +12463,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -12279,11 +12479,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -12293,15 +12493,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -12309,11 +12509,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -12323,15 +12523,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -12339,11 +12539,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -12353,15 +12553,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -12369,11 +12569,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -12383,15 +12583,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -12399,11 +12599,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -12413,15 +12613,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -12429,11 +12629,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -12443,15 +12643,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -12459,11 +12659,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -12473,15 +12673,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -12489,11 +12689,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -12503,15 +12703,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -12519,11 +12719,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -12533,15 +12733,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -12549,11 +12749,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -12563,15 +12763,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -12579,11 +12779,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -12593,15 +12793,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -12609,11 +12809,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -12623,15 +12823,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -12639,11 +12839,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0D4B4-1DB3-41D0-8D24-6CB3AEF2CAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958E85EF-72C8-4783-AB51-5B5D09A09670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4465,6 +4469,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <f>VLOOKUP(A154,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="C154" s="1" t="str">
+        <f>VLOOKUP(A154,Balance!E:J,2,FALSE)</f>
+        <v>1고</v>
+      </c>
+      <c r="D154" s="24">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1">
+        <f>VLOOKUP(A154,Balance!E:K,7,FALSE)</f>
+        <v>380</v>
+      </c>
+      <c r="F154" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <f>VLOOKUP(A155,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="C155" s="1" t="str">
+        <f>VLOOKUP(A155,Balance!E:J,2,FALSE)</f>
+        <v>5고</v>
+      </c>
+      <c r="D155" s="24">
+        <v>20</v>
+      </c>
+      <c r="E155" s="1">
+        <f>VLOOKUP(A155,Balance!E:K,7,FALSE)</f>
+        <v>384</v>
+      </c>
+      <c r="F155" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <f>VLOOKUP(A156,Balance!E:J,3,FALSE)</f>
+        <v>1E+141</v>
+      </c>
+      <c r="C156" s="1" t="str">
+        <f>VLOOKUP(A156,Balance!E:J,2,FALSE)</f>
+        <v>10고</v>
+      </c>
+      <c r="D156" s="24">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1">
+        <f>VLOOKUP(A156,Balance!E:K,7,FALSE)</f>
+        <v>388</v>
+      </c>
+      <c r="F156" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <f>VLOOKUP(A157,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="C157" s="1" t="str">
+        <f>VLOOKUP(A157,Balance!E:J,2,FALSE)</f>
+        <v>50고</v>
+      </c>
+      <c r="D157" s="24">
+        <v>20</v>
+      </c>
+      <c r="E157" s="1">
+        <f>VLOOKUP(A157,Balance!E:K,7,FALSE)</f>
+        <v>392</v>
+      </c>
+      <c r="F157" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <f>VLOOKUP(A158,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="C158" s="1" t="str">
+        <f>VLOOKUP(A158,Balance!E:J,2,FALSE)</f>
+        <v>100고</v>
+      </c>
+      <c r="D158" s="24">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1">
+        <f>VLOOKUP(A158,Balance!E:K,7,FALSE)</f>
+        <v>396</v>
+      </c>
+      <c r="F158" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <f>VLOOKUP(A159,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="C159" s="1" t="str">
+        <f>VLOOKUP(A159,Balance!E:J,2,FALSE)</f>
+        <v>500고</v>
+      </c>
+      <c r="D159" s="24">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1">
+        <f>VLOOKUP(A159,Balance!E:K,7,FALSE)</f>
+        <v>400</v>
+      </c>
+      <c r="F159" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <f>VLOOKUP(A160,Balance!E:J,3,FALSE)</f>
+        <v>1E+143</v>
+      </c>
+      <c r="C160" s="1" t="str">
+        <f>VLOOKUP(A160,Balance!E:J,2,FALSE)</f>
+        <v>1000고</v>
+      </c>
+      <c r="D160" s="24">
+        <v>20</v>
+      </c>
+      <c r="E160" s="1">
+        <f>VLOOKUP(A160,Balance!E:K,7,FALSE)</f>
+        <v>404</v>
+      </c>
+      <c r="F160" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <f>VLOOKUP(A161,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="C161" s="1" t="str">
+        <f>VLOOKUP(A161,Balance!E:J,2,FALSE)</f>
+        <v>5000고</v>
+      </c>
+      <c r="D161" s="24">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1">
+        <f>VLOOKUP(A161,Balance!E:K,7,FALSE)</f>
+        <v>408</v>
+      </c>
+      <c r="F161" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4477,8 +4665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157:K160"/>
+    <sheetView topLeftCell="B150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I255" sqref="I255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4651,7 +4839,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" ref="O9:O40" si="1">POWER(10,N9)</f>
+        <f t="shared" ref="O9:O39" si="1">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
       <c r="P9" s="10" t="str">
@@ -4784,7 +4972,7 @@
         <v>1E+20</v>
       </c>
       <c r="P12" s="10" t="str">
-        <f t="shared" ref="P12:P40" si="4">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P39" si="4">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -6152,8 +6340,20 @@
         <v>17</v>
       </c>
       <c r="L42" s="20"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="M42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="9">
+        <v>140</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" ref="O42" si="9">POWER(10,N42)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="P42" s="10" t="str">
+        <f t="shared" ref="P42" si="10">RIGHT(O42,N42)</f>
+        <v>1E+140</v>
+      </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
@@ -6189,7 +6389,7 @@
         <v>1E+80</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" ref="K43:K64" si="9">K42+1</f>
+        <f t="shared" ref="K43:K64" si="11">K42+1</f>
         <v>18</v>
       </c>
       <c r="L43" s="20"/>
@@ -6230,7 +6430,7 @@
         <v>1E+80</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="L44" s="20"/>
@@ -6271,7 +6471,7 @@
         <v>1E+80</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="L45" s="20"/>
@@ -6312,7 +6512,7 @@
         <v>1E+80</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="L46" s="20"/>
@@ -6353,7 +6553,7 @@
         <v>1E+80</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="L47" s="20"/>
@@ -6394,7 +6594,7 @@
         <v>1E+80</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="L48" s="20"/>
@@ -6435,7 +6635,7 @@
         <v>1E+84</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="L49" s="20"/>
@@ -6476,7 +6676,7 @@
         <v>1E+84</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="L50" s="20"/>
@@ -6517,7 +6717,7 @@
         <v>1E+84</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="L51" s="20"/>
@@ -6558,7 +6758,7 @@
         <v>1E+84</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="L52" s="20"/>
@@ -6599,7 +6799,7 @@
         <v>1E+84</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="L53" s="20"/>
@@ -6640,7 +6840,7 @@
         <v>1E+84</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="L54" s="20"/>
@@ -6681,7 +6881,7 @@
         <v>1E+84</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="L55" s="20"/>
@@ -6722,7 +6922,7 @@
         <v>1E+84</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="L56" s="20"/>
@@ -6763,7 +6963,7 @@
         <v>1E+88</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="L57" s="20"/>
@@ -6804,7 +7004,7 @@
         <v>1E+88</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="L58" s="20"/>
@@ -6845,7 +7045,7 @@
         <v>1E+88</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="L59" s="20"/>
@@ -6886,7 +7086,7 @@
         <v>1E+88</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="L60" s="20"/>
@@ -6927,7 +7127,7 @@
         <v>1E+88</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="L61" s="20"/>
@@ -6968,7 +7168,7 @@
         <v>1E+88</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="L62" s="20"/>
@@ -7009,7 +7209,7 @@
         <v>1E+88</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="L63" s="20"/>
@@ -7050,7 +7250,7 @@
         <v>1E+88</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="L64" s="20"/>
@@ -7132,7 +7332,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="10">K65+3</f>
+        <f t="shared" ref="K66:K112" si="12">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -7173,7 +7373,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -7203,7 +7403,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -7213,7 +7413,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="11">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="13">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -7233,7 +7433,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -7243,7 +7443,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -7263,7 +7463,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -7273,7 +7473,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -7293,7 +7493,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -7303,7 +7503,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -7323,7 +7523,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -7333,7 +7533,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -7349,11 +7549,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="12">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="14">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -7363,11 +7563,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="13">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="15">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -7379,11 +7579,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -7393,11 +7593,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -7409,11 +7609,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -7423,11 +7623,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -7439,11 +7639,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -7453,11 +7653,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -7469,11 +7669,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -7483,11 +7683,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -7499,11 +7699,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -7513,11 +7713,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -7529,11 +7729,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -7543,11 +7743,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -7559,11 +7759,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="12"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -7573,11 +7773,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -7589,11 +7789,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -7603,15 +7803,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="14">H74</f>
+        <f t="shared" ref="H82:H145" si="16">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -7619,11 +7819,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -7633,15 +7833,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -7649,11 +7849,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -7663,15 +7863,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -7679,11 +7879,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -7693,15 +7893,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -7709,11 +7909,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -7723,15 +7923,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -7739,11 +7939,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -7753,15 +7953,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -7769,11 +7969,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -7783,15 +7983,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -7799,11 +7999,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="12"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -7813,15 +8013,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -7829,7 +8029,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -7843,15 +8043,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -7859,11 +8059,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -7873,15 +8073,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -7889,11 +8089,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -7903,15 +8103,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -7919,11 +8119,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -7933,15 +8133,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -7949,11 +8149,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="10"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -7963,15 +8163,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -7979,11 +8179,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="10"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -7993,15 +8193,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -8009,11 +8209,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="10"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -8023,15 +8223,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -8039,11 +8239,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -8053,15 +8253,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -8069,11 +8269,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -8083,15 +8283,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -8099,11 +8299,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -8113,15 +8313,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -8129,11 +8329,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -8143,15 +8343,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -8159,11 +8359,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -8173,15 +8373,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -8189,11 +8389,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -8203,15 +8403,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -8219,11 +8419,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -8233,15 +8433,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -8249,11 +8449,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -8263,15 +8463,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -8279,11 +8479,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -8293,15 +8493,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -8309,11 +8509,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -8323,15 +8523,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -8339,11 +8539,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -8353,15 +8553,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -8369,11 +8569,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -8383,15 +8583,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -8399,11 +8599,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -8413,15 +8613,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -8429,11 +8629,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -8443,15 +8643,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -8459,11 +8659,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -8473,15 +8673,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -8489,11 +8689,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -8503,15 +8703,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -8519,11 +8719,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="12"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="10"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -8533,15 +8733,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -8549,7 +8749,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -8563,15 +8763,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -8579,11 +8779,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="15">K113+4</f>
+        <f t="shared" ref="K114:K177" si="17">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -8593,15 +8793,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -8609,11 +8809,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -8623,15 +8823,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -8639,11 +8839,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -8653,15 +8853,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -8669,11 +8869,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -8683,15 +8883,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -8699,11 +8899,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -8713,15 +8913,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -8729,11 +8929,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -8743,15 +8943,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -8759,11 +8959,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -8773,15 +8973,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -8789,11 +8989,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -8803,15 +9003,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -8819,11 +9019,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -8833,15 +9033,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -8849,11 +9049,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -8863,15 +9063,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -8879,11 +9079,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -8893,15 +9093,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -8909,11 +9109,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -8923,15 +9123,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -8939,11 +9139,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -8953,15 +9153,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -8969,11 +9169,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -8983,15 +9183,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -8999,11 +9199,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -9013,15 +9213,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -9029,11 +9229,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -9043,15 +9243,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -9059,11 +9259,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -9073,15 +9273,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -9089,11 +9289,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -9103,15 +9303,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -9119,11 +9319,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -9133,15 +9333,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="16">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="18">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -9149,11 +9349,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -9163,15 +9363,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="16"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="13"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -9179,11 +9379,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -9193,15 +9393,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="16"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="13"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -9209,11 +9409,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -9223,15 +9423,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="16"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="13"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -9239,11 +9439,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -9253,15 +9453,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="15"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="16"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -9269,11 +9469,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="17">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="19">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -9283,15 +9483,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="20">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="16"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="18">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -9299,11 +9499,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="15"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -9313,15 +9513,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="20"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="16"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="18"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -9329,11 +9529,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="15"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -9343,15 +9543,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="16"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -9359,11 +9559,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="15"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -9373,15 +9573,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="20"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="16"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="18"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -9389,11 +9589,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -9403,15 +9603,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="16"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -9419,11 +9619,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="15"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -9433,15 +9633,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="20"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="16"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="18"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -9449,11 +9649,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="15"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -9463,15 +9663,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="16"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="18"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -9479,11 +9679,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="17"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="15"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -9493,15 +9693,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="20"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="16"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="18"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -9509,11 +9709,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="15"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -9523,15 +9723,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="19">H138</f>
+        <f t="shared" ref="H146:H209" si="21">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -9539,11 +9739,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="15"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -9553,15 +9753,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -9569,11 +9769,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="15"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -9583,15 +9783,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -9599,11 +9799,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="15"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -9613,15 +9813,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -9629,11 +9829,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="15"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -9643,15 +9843,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -9659,11 +9859,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="15"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -9673,15 +9873,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -9689,11 +9889,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="15"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -9703,15 +9903,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -9719,11 +9919,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="17"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="15"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -9733,15 +9933,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -9749,11 +9949,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="15"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -9763,15 +9963,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -9779,11 +9979,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="15"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -9793,15 +9993,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -9809,11 +10009,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="15"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -9823,15 +10023,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -9839,11 +10039,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="15"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -9853,15 +10053,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -9869,11 +10069,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -9883,15 +10083,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -9899,11 +10099,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -9913,15 +10113,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -9929,11 +10129,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="15"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -9943,15 +10143,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -9959,11 +10159,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="17"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="15"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -9973,27 +10173,27 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="G161" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>1고</v>
+      </c>
+      <c r="G161" s="10">
+        <f t="shared" si="20"/>
+        <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="I161" s="9" t="str" cm="1">
+        <f t="array" ref="I161">IF(AND(H160&gt;1000,H161&lt;2),INDEX(M:M,MATCH(I160,M:M,0)+1,0),I160)</f>
+        <v>고</v>
+      </c>
+      <c r="J161" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I161" s="9" cm="1">
-        <f t="array" ref="I161">IF(AND(H160&gt;1000,H161&lt;2),INDEX(M:M,MATCH(I160,M:M,0)+1,0),I160)</f>
-        <v>0</v>
-      </c>
-      <c r="J161" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="15"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -10003,27 +10203,27 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="G162" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>5고</v>
+      </c>
+      <c r="G162" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I162" s="9" t="str" cm="1">
+        <f t="array" ref="I162">IF(AND(H161&gt;1000,H162&lt;2),INDEX(M:M,MATCH(I161,M:M,0)+1,0),I161)</f>
+        <v>고</v>
+      </c>
+      <c r="J162" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="I162" s="9" cm="1">
-        <f t="array" ref="I162">IF(AND(H161&gt;1000,H162&lt;2),INDEX(M:M,MATCH(I161,M:M,0)+1,0),I161)</f>
-        <v>0</v>
-      </c>
-      <c r="J162" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="15"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -10033,27 +10233,27 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="G163" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>10고</v>
+      </c>
+      <c r="G163" s="10">
+        <f t="shared" si="20"/>
+        <v>1E+141</v>
       </c>
       <c r="H163" s="10">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="I163" s="9" t="str" cm="1">
+        <f t="array" ref="I163">IF(AND(H162&gt;1000,H163&lt;2),INDEX(M:M,MATCH(I162,M:M,0)+1,0),I162)</f>
+        <v>고</v>
+      </c>
+      <c r="J163" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="I163" s="9" cm="1">
-        <f t="array" ref="I163">IF(AND(H162&gt;1000,H163&lt;2),INDEX(M:M,MATCH(I162,M:M,0)+1,0),I162)</f>
-        <v>0</v>
-      </c>
-      <c r="J163" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="15"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -10063,27 +10263,27 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>500</v>
-      </c>
-      <c r="G164" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>50고</v>
+      </c>
+      <c r="G164" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="I164" s="9" t="str" cm="1">
+        <f t="array" ref="I164">IF(AND(H163&gt;1000,H164&lt;2),INDEX(M:M,MATCH(I163,M:M,0)+1,0),I163)</f>
+        <v>고</v>
+      </c>
+      <c r="J164" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>50</v>
-      </c>
-      <c r="I164" s="9" cm="1">
-        <f t="array" ref="I164">IF(AND(H163&gt;1000,H164&lt;2),INDEX(M:M,MATCH(I163,M:M,0)+1,0),I163)</f>
-        <v>0</v>
-      </c>
-      <c r="J164" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="15"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -10093,27 +10293,27 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="G165" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>100고</v>
+      </c>
+      <c r="G165" s="10">
+        <f t="shared" si="20"/>
+        <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="I165" s="9" t="str" cm="1">
+        <f t="array" ref="I165">IF(AND(H164&gt;1000,H165&lt;2),INDEX(M:M,MATCH(I164,M:M,0)+1,0),I164)</f>
+        <v>고</v>
+      </c>
+      <c r="J165" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>100</v>
-      </c>
-      <c r="I165" s="9" cm="1">
-        <f t="array" ref="I165">IF(AND(H164&gt;1000,H165&lt;2),INDEX(M:M,MATCH(I164,M:M,0)+1,0),I164)</f>
-        <v>0</v>
-      </c>
-      <c r="J165" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="15"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -10123,27 +10323,27 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>5000</v>
-      </c>
-      <c r="G166" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>500고</v>
+      </c>
+      <c r="G166" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
+        <f t="shared" si="21"/>
+        <v>500</v>
+      </c>
+      <c r="I166" s="9" t="str" cm="1">
+        <f t="array" ref="I166">IF(AND(H165&gt;1000,H166&lt;2),INDEX(M:M,MATCH(I165,M:M,0)+1,0),I165)</f>
+        <v>고</v>
+      </c>
+      <c r="J166" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>500</v>
-      </c>
-      <c r="I166" s="9" cm="1">
-        <f t="array" ref="I166">IF(AND(H165&gt;1000,H166&lt;2),INDEX(M:M,MATCH(I165,M:M,0)+1,0),I165)</f>
-        <v>0</v>
-      </c>
-      <c r="J166" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -10153,27 +10353,27 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>10000</v>
-      </c>
-      <c r="G167" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>1000고</v>
+      </c>
+      <c r="G167" s="10">
+        <f t="shared" si="20"/>
+        <v>1E+143</v>
       </c>
       <c r="H167" s="10">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="I167" s="9" t="str" cm="1">
+        <f t="array" ref="I167">IF(AND(H166&gt;1000,H167&lt;2),INDEX(M:M,MATCH(I166,M:M,0)+1,0),I166)</f>
+        <v>고</v>
+      </c>
+      <c r="J167" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>1000</v>
-      </c>
-      <c r="I167" s="9" cm="1">
-        <f t="array" ref="I167">IF(AND(H166&gt;1000,H167&lt;2),INDEX(M:M,MATCH(I166,M:M,0)+1,0),I166)</f>
-        <v>0</v>
-      </c>
-      <c r="J167" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="15"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -10183,27 +10383,27 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>50000</v>
-      </c>
-      <c r="G168" s="10" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>5000고</v>
+      </c>
+      <c r="G168" s="10">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
+        <f t="shared" si="21"/>
+        <v>5000</v>
+      </c>
+      <c r="I168" s="9" t="str" cm="1">
+        <f t="array" ref="I168">IF(AND(H167&gt;1000,H168&lt;2),INDEX(M:M,MATCH(I167,M:M,0)+1,0),I167)</f>
+        <v>고</v>
+      </c>
+      <c r="J168" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>5000</v>
-      </c>
-      <c r="I168" s="9" cm="1">
-        <f t="array" ref="I168">IF(AND(H167&gt;1000,H168&lt;2),INDEX(M:M,MATCH(I167,M:M,0)+1,0),I167)</f>
-        <v>0</v>
-      </c>
-      <c r="J168" s="9" t="e">
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="15"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -10212,28 +10412,28 @@
       <c r="E169" s="9">
         <v>160</v>
       </c>
-      <c r="F169" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F169" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="G169" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H169" s="10">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="I169" s="9" cm="1">
+        <f t="array" ref="I169">IF(AND(H168&gt;1000,H169&lt;2),INDEX(M:M,MATCH(I168,M:M,0)+1,0),I168)</f>
+        <v>0</v>
+      </c>
+      <c r="J169" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I169" s="9" t="e" cm="1">
-        <f t="array" ref="I169">IF(AND(H168&gt;1000,H169&lt;2),INDEX(M:M,MATCH(I168,M:M,0)+1,0),I168)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J169" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -10242,28 +10442,28 @@
       <c r="E170" s="9">
         <v>161</v>
       </c>
-      <c r="F170" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F170" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>50</v>
       </c>
       <c r="G170" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H170" s="10">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I170" s="9" cm="1">
+        <f t="array" ref="I170">IF(AND(H169&gt;1000,H170&lt;2),INDEX(M:M,MATCH(I169,M:M,0)+1,0),I169)</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="I170" s="9" t="e" cm="1">
-        <f t="array" ref="I170">IF(AND(H169&gt;1000,H170&lt;2),INDEX(M:M,MATCH(I169,M:M,0)+1,0),I169)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J170" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="15"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -10272,28 +10472,28 @@
       <c r="E171" s="9">
         <v>162</v>
       </c>
-      <c r="F171" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F171" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>100</v>
       </c>
       <c r="G171" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H171" s="10">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="I171" s="9" cm="1">
+        <f t="array" ref="I171">IF(AND(H170&gt;1000,H171&lt;2),INDEX(M:M,MATCH(I170,M:M,0)+1,0),I170)</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="I171" s="9" t="e" cm="1">
-        <f t="array" ref="I171">IF(AND(H170&gt;1000,H171&lt;2),INDEX(M:M,MATCH(I170,M:M,0)+1,0),I170)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J171" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="15"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -10302,28 +10502,28 @@
       <c r="E172" s="9">
         <v>163</v>
       </c>
-      <c r="F172" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F172" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="G172" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H172" s="10">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="I172" s="9" cm="1">
+        <f t="array" ref="I172">IF(AND(H171&gt;1000,H172&lt;2),INDEX(M:M,MATCH(I171,M:M,0)+1,0),I171)</f>
+        <v>0</v>
+      </c>
+      <c r="J172" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>50</v>
-      </c>
-      <c r="I172" s="9" t="e" cm="1">
-        <f t="array" ref="I172">IF(AND(H171&gt;1000,H172&lt;2),INDEX(M:M,MATCH(I171,M:M,0)+1,0),I171)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J172" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="15"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -10332,28 +10532,28 @@
       <c r="E173" s="9">
         <v>164</v>
       </c>
-      <c r="F173" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F173" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>1000</v>
       </c>
       <c r="G173" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H173" s="10">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="I173" s="9" cm="1">
+        <f t="array" ref="I173">IF(AND(H172&gt;1000,H173&lt;2),INDEX(M:M,MATCH(I172,M:M,0)+1,0),I172)</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>100</v>
-      </c>
-      <c r="I173" s="9" t="e" cm="1">
-        <f t="array" ref="I173">IF(AND(H172&gt;1000,H173&lt;2),INDEX(M:M,MATCH(I172,M:M,0)+1,0),I172)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J173" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="15"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -10362,28 +10562,28 @@
       <c r="E174" s="9">
         <v>165</v>
       </c>
-      <c r="F174" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F174" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>5000</v>
       </c>
       <c r="G174" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H174" s="10">
+        <f t="shared" si="21"/>
+        <v>500</v>
+      </c>
+      <c r="I174" s="9" cm="1">
+        <f t="array" ref="I174">IF(AND(H173&gt;1000,H174&lt;2),INDEX(M:M,MATCH(I173,M:M,0)+1,0),I173)</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>500</v>
-      </c>
-      <c r="I174" s="9" t="e" cm="1">
-        <f t="array" ref="I174">IF(AND(H173&gt;1000,H174&lt;2),INDEX(M:M,MATCH(I173,M:M,0)+1,0),I173)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J174" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="15"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -10392,28 +10592,28 @@
       <c r="E175" s="9">
         <v>166</v>
       </c>
-      <c r="F175" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F175" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>10000</v>
       </c>
       <c r="G175" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H175" s="10">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="I175" s="9" cm="1">
+        <f t="array" ref="I175">IF(AND(H174&gt;1000,H175&lt;2),INDEX(M:M,MATCH(I174,M:M,0)+1,0),I174)</f>
+        <v>0</v>
+      </c>
+      <c r="J175" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>1000</v>
-      </c>
-      <c r="I175" s="9" t="e" cm="1">
-        <f t="array" ref="I175">IF(AND(H174&gt;1000,H175&lt;2),INDEX(M:M,MATCH(I174,M:M,0)+1,0),I174)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J175" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="15"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -10422,28 +10622,28 @@
       <c r="E176" s="9">
         <v>167</v>
       </c>
-      <c r="F176" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="F176" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>50000</v>
       </c>
       <c r="G176" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H176" s="10">
+        <f t="shared" si="21"/>
+        <v>5000</v>
+      </c>
+      <c r="I176" s="9" cm="1">
+        <f t="array" ref="I176">IF(AND(H175&gt;1000,H176&lt;2),INDEX(M:M,MATCH(I175,M:M,0)+1,0),I175)</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="9" t="e">
         <f t="shared" si="19"/>
-        <v>5000</v>
-      </c>
-      <c r="I176" s="9" t="e" cm="1">
-        <f t="array" ref="I176">IF(AND(H175&gt;1000,H176&lt;2),INDEX(M:M,MATCH(I175,M:M,0)+1,0),I175)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J176" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="15"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -10453,15 +10653,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G177" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="e" cm="1">
@@ -10469,11 +10669,11 @@
         <v>#N/A</v>
       </c>
       <c r="J177" s="9" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="15"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -10483,15 +10683,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G178" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="e" cm="1">
@@ -10499,11 +10699,11 @@
         <v>#N/A</v>
       </c>
       <c r="J178" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="20">K177+4</f>
+        <f t="shared" ref="K178:K241" si="22">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -10513,15 +10713,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G179" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="e" cm="1">
@@ -10529,11 +10729,11 @@
         <v>#N/A</v>
       </c>
       <c r="J179" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -10543,15 +10743,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G180" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="e" cm="1">
@@ -10559,11 +10759,11 @@
         <v>#N/A</v>
       </c>
       <c r="J180" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -10573,15 +10773,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G181" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="e" cm="1">
@@ -10589,11 +10789,11 @@
         <v>#N/A</v>
       </c>
       <c r="J181" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -10603,15 +10803,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G182" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="e" cm="1">
@@ -10619,11 +10819,11 @@
         <v>#N/A</v>
       </c>
       <c r="J182" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -10633,15 +10833,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G183" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="e" cm="1">
@@ -10649,11 +10849,11 @@
         <v>#N/A</v>
       </c>
       <c r="J183" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -10663,15 +10863,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G184" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="e" cm="1">
@@ -10679,11 +10879,11 @@
         <v>#N/A</v>
       </c>
       <c r="J184" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -10693,15 +10893,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G185" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="e" cm="1">
@@ -10709,11 +10909,11 @@
         <v>#N/A</v>
       </c>
       <c r="J185" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -10723,15 +10923,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G186" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="e" cm="1">
@@ -10739,11 +10939,11 @@
         <v>#N/A</v>
       </c>
       <c r="J186" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -10753,15 +10953,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G187" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="e" cm="1">
@@ -10769,11 +10969,11 @@
         <v>#N/A</v>
       </c>
       <c r="J187" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -10783,15 +10983,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G188" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="e" cm="1">
@@ -10799,11 +10999,11 @@
         <v>#N/A</v>
       </c>
       <c r="J188" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -10813,15 +11013,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G189" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="e" cm="1">
@@ -10829,11 +11029,11 @@
         <v>#N/A</v>
       </c>
       <c r="J189" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -10843,15 +11043,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G190" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="e" cm="1">
@@ -10859,11 +11059,11 @@
         <v>#N/A</v>
       </c>
       <c r="J190" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -10873,15 +11073,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G191" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="e" cm="1">
@@ -10889,11 +11089,11 @@
         <v>#N/A</v>
       </c>
       <c r="J191" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -10903,15 +11103,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G192" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="e" cm="1">
@@ -10919,11 +11119,11 @@
         <v>#N/A</v>
       </c>
       <c r="J192" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -10933,15 +11133,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="e" cm="1">
@@ -10949,11 +11149,11 @@
         <v>#N/A</v>
       </c>
       <c r="J193" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -10963,15 +11163,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="e" cm="1">
@@ -10979,11 +11179,11 @@
         <v>#N/A</v>
       </c>
       <c r="J194" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -10993,15 +11193,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G195" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="e" cm="1">
@@ -11009,11 +11209,11 @@
         <v>#N/A</v>
       </c>
       <c r="J195" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -11023,15 +11223,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="G196" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="e" cm="1">
@@ -11039,11 +11239,11 @@
         <v>#N/A</v>
       </c>
       <c r="J196" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -11053,15 +11253,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="e">
-        <f t="shared" ref="F197:F256" si="21">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="23">H197&amp;I197</f>
         <v>#N/A</v>
       </c>
       <c r="G197" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="e" cm="1">
@@ -11069,11 +11269,11 @@
         <v>#N/A</v>
       </c>
       <c r="J197" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -11083,15 +11283,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G198" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G198" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="e" cm="1">
@@ -11099,11 +11299,11 @@
         <v>#N/A</v>
       </c>
       <c r="J198" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -11113,15 +11313,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G199" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G199" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="e" cm="1">
@@ -11129,11 +11329,11 @@
         <v>#N/A</v>
       </c>
       <c r="J199" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -11143,15 +11343,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G200" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G200" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="e" cm="1">
@@ -11159,11 +11359,11 @@
         <v>#N/A</v>
       </c>
       <c r="J200" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -11173,15 +11373,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G201" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G201" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="e" cm="1">
@@ -11189,11 +11389,11 @@
         <v>#N/A</v>
       </c>
       <c r="J201" s="9" t="e">
-        <f t="shared" ref="J201:J256" si="22">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="24">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -11203,15 +11403,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G202" s="10" t="e">
+        <f t="shared" ref="G202:G256" si="25">H202*J202</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G202" s="10" t="e">
-        <f t="shared" ref="G202:G256" si="23">H202*J202</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="e" cm="1">
@@ -11219,11 +11419,11 @@
         <v>#N/A</v>
       </c>
       <c r="J202" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="20"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -11233,15 +11433,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G203" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G203" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="e" cm="1">
@@ -11249,11 +11449,11 @@
         <v>#N/A</v>
       </c>
       <c r="J203" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="20"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -11263,15 +11463,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G204" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G204" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="e" cm="1">
@@ -11279,11 +11479,11 @@
         <v>#N/A</v>
       </c>
       <c r="J204" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="20"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -11293,15 +11493,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G205" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G205" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="e" cm="1">
@@ -11309,11 +11509,11 @@
         <v>#N/A</v>
       </c>
       <c r="J205" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="20"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -11323,15 +11523,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G206" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G206" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="e" cm="1">
@@ -11339,11 +11539,11 @@
         <v>#N/A</v>
       </c>
       <c r="J206" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="20"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -11353,15 +11553,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G207" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G207" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="e" cm="1">
@@ -11369,11 +11569,11 @@
         <v>#N/A</v>
       </c>
       <c r="J207" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="20"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -11383,15 +11583,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G208" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G208" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="e" cm="1">
@@ -11399,11 +11599,11 @@
         <v>#N/A</v>
       </c>
       <c r="J208" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="20"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -11413,15 +11613,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G209" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G209" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="e" cm="1">
@@ -11429,11 +11629,11 @@
         <v>#N/A</v>
       </c>
       <c r="J209" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="20"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -11443,15 +11643,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="24">H202</f>
+        <f t="shared" ref="H210:H256" si="26">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="e" cm="1">
@@ -11459,11 +11659,11 @@
         <v>#N/A</v>
       </c>
       <c r="J210" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="20"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -11473,15 +11673,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="e" cm="1">
@@ -11489,11 +11689,11 @@
         <v>#N/A</v>
       </c>
       <c r="J211" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="20"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -11503,15 +11703,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="e" cm="1">
@@ -11519,11 +11719,11 @@
         <v>#N/A</v>
       </c>
       <c r="J212" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="20"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -11533,15 +11733,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="e" cm="1">
@@ -11549,11 +11749,11 @@
         <v>#N/A</v>
       </c>
       <c r="J213" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="20"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -11563,15 +11763,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="e" cm="1">
@@ -11579,11 +11779,11 @@
         <v>#N/A</v>
       </c>
       <c r="J214" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="20"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -11593,15 +11793,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="e" cm="1">
@@ -11609,11 +11809,11 @@
         <v>#N/A</v>
       </c>
       <c r="J215" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="20"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -11623,15 +11823,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="e" cm="1">
@@ -11639,11 +11839,11 @@
         <v>#N/A</v>
       </c>
       <c r="J216" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="20"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -11653,15 +11853,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="e" cm="1">
@@ -11669,11 +11869,11 @@
         <v>#N/A</v>
       </c>
       <c r="J217" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K217" s="5">
-        <f t="shared" si="20"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -11683,15 +11883,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="e" cm="1">
@@ -11699,11 +11899,11 @@
         <v>#N/A</v>
       </c>
       <c r="J218" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K218" s="5">
-        <f t="shared" si="20"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -11713,15 +11913,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="e" cm="1">
@@ -11729,11 +11929,11 @@
         <v>#N/A</v>
       </c>
       <c r="J219" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K219" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K219" s="5">
-        <f t="shared" si="20"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -11743,15 +11943,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="e" cm="1">
@@ -11759,11 +11959,11 @@
         <v>#N/A</v>
       </c>
       <c r="J220" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K220" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K220" s="5">
-        <f t="shared" si="20"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -11773,15 +11973,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="e" cm="1">
@@ -11789,11 +11989,11 @@
         <v>#N/A</v>
       </c>
       <c r="J221" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K221" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K221" s="5">
-        <f t="shared" si="20"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -11803,15 +12003,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="e" cm="1">
@@ -11819,11 +12019,11 @@
         <v>#N/A</v>
       </c>
       <c r="J222" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K222" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K222" s="5">
-        <f t="shared" si="20"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -11833,15 +12033,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="e" cm="1">
@@ -11849,11 +12049,11 @@
         <v>#N/A</v>
       </c>
       <c r="J223" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K223" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K223" s="5">
-        <f t="shared" si="20"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -11863,15 +12063,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="e" cm="1">
@@ -11879,11 +12079,11 @@
         <v>#N/A</v>
       </c>
       <c r="J224" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K224" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K224" s="5">
-        <f t="shared" si="20"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -11893,15 +12093,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="e" cm="1">
@@ -11909,11 +12109,11 @@
         <v>#N/A</v>
       </c>
       <c r="J225" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K225" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K225" s="5">
-        <f t="shared" si="20"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -11923,15 +12123,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="e" cm="1">
@@ -11939,11 +12139,11 @@
         <v>#N/A</v>
       </c>
       <c r="J226" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K226" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K226" s="5">
-        <f t="shared" si="20"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -11953,15 +12153,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="e" cm="1">
@@ -11969,11 +12169,11 @@
         <v>#N/A</v>
       </c>
       <c r="J227" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K227" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K227" s="5">
-        <f t="shared" si="20"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -11983,15 +12183,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="e" cm="1">
@@ -11999,11 +12199,11 @@
         <v>#N/A</v>
       </c>
       <c r="J228" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K228" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K228" s="5">
-        <f t="shared" si="20"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -12013,15 +12213,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="e" cm="1">
@@ -12029,11 +12229,11 @@
         <v>#N/A</v>
       </c>
       <c r="J229" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K229" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K229" s="5">
-        <f t="shared" si="20"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -12043,15 +12243,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="e" cm="1">
@@ -12059,11 +12259,11 @@
         <v>#N/A</v>
       </c>
       <c r="J230" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K230" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K230" s="5">
-        <f t="shared" si="20"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -12073,15 +12273,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="e" cm="1">
@@ -12089,11 +12289,11 @@
         <v>#N/A</v>
       </c>
       <c r="J231" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K231" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K231" s="5">
-        <f t="shared" si="20"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -12103,15 +12303,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="e" cm="1">
@@ -12119,11 +12319,11 @@
         <v>#N/A</v>
       </c>
       <c r="J232" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K232" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K232" s="5">
-        <f t="shared" si="20"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -12133,15 +12333,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="e" cm="1">
@@ -12149,11 +12349,11 @@
         <v>#N/A</v>
       </c>
       <c r="J233" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K233" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K233" s="5">
-        <f t="shared" si="20"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -12163,15 +12363,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="e" cm="1">
@@ -12179,11 +12379,11 @@
         <v>#N/A</v>
       </c>
       <c r="J234" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K234" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K234" s="5">
-        <f t="shared" si="20"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -12193,15 +12393,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="e" cm="1">
@@ -12209,11 +12409,11 @@
         <v>#N/A</v>
       </c>
       <c r="J235" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K235" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K235" s="5">
-        <f t="shared" si="20"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -12223,15 +12423,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="e" cm="1">
@@ -12239,11 +12439,11 @@
         <v>#N/A</v>
       </c>
       <c r="J236" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K236" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K236" s="5">
-        <f t="shared" si="20"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -12253,15 +12453,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="e" cm="1">
@@ -12269,11 +12469,11 @@
         <v>#N/A</v>
       </c>
       <c r="J237" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K237" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K237" s="5">
-        <f t="shared" si="20"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -12283,15 +12483,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="e" cm="1">
@@ -12299,11 +12499,11 @@
         <v>#N/A</v>
       </c>
       <c r="J238" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K238" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K238" s="5">
-        <f t="shared" si="20"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -12313,15 +12513,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="e" cm="1">
@@ -12329,11 +12529,11 @@
         <v>#N/A</v>
       </c>
       <c r="J239" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K239" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K239" s="5">
-        <f t="shared" si="20"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -12343,15 +12543,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="e" cm="1">
@@ -12359,11 +12559,11 @@
         <v>#N/A</v>
       </c>
       <c r="J240" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K240" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K240" s="5">
-        <f t="shared" si="20"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -12373,15 +12573,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -12389,11 +12589,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K241" s="5">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K241" s="5">
-        <f t="shared" si="20"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -12403,15 +12603,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -12419,11 +12619,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="25">K241+4</f>
+        <f t="shared" ref="K242:K256" si="27">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -12433,15 +12633,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -12449,11 +12649,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -12463,15 +12663,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -12479,11 +12679,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -12493,15 +12693,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -12509,11 +12709,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -12523,15 +12723,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -12539,11 +12739,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -12553,15 +12753,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -12569,11 +12769,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -12583,15 +12783,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -12599,11 +12799,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -12613,15 +12813,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -12629,11 +12829,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -12643,15 +12843,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -12659,11 +12859,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -12673,15 +12873,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -12689,11 +12889,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -12703,15 +12903,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -12719,11 +12919,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -12733,15 +12933,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -12749,11 +12949,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -12763,15 +12963,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -12779,11 +12979,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -12793,15 +12993,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -12809,11 +13009,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -12823,15 +13023,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -12839,11 +13039,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958E85EF-72C8-4783-AB51-5B5D09A09670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757D41E7-AB1B-4BE8-8CF5-0078C7CB6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4653,6 +4657,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <f>VLOOKUP(A162,Balance!E:J,3,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="C162" s="1" t="str">
+        <f>VLOOKUP(A162,Balance!E:J,2,FALSE)</f>
+        <v>1화</v>
+      </c>
+      <c r="D162" s="24">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1">
+        <f>VLOOKUP(A162,Balance!E:K,7,FALSE)</f>
+        <v>412</v>
+      </c>
+      <c r="F162" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <f>VLOOKUP(A163,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f>VLOOKUP(A163,Balance!E:J,2,FALSE)</f>
+        <v>5화</v>
+      </c>
+      <c r="D163" s="24">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1">
+        <f>VLOOKUP(A163,Balance!E:K,7,FALSE)</f>
+        <v>416</v>
+      </c>
+      <c r="F163" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <f>VLOOKUP(A164,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="C164" s="1" t="str">
+        <f>VLOOKUP(A164,Balance!E:J,2,FALSE)</f>
+        <v>10화</v>
+      </c>
+      <c r="D164" s="24">
+        <v>20</v>
+      </c>
+      <c r="E164" s="1">
+        <f>VLOOKUP(A164,Balance!E:K,7,FALSE)</f>
+        <v>420</v>
+      </c>
+      <c r="F164" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <f>VLOOKUP(A165,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="C165" s="1" t="str">
+        <f>VLOOKUP(A165,Balance!E:J,2,FALSE)</f>
+        <v>50화</v>
+      </c>
+      <c r="D165" s="24">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1">
+        <f>VLOOKUP(A165,Balance!E:K,7,FALSE)</f>
+        <v>424</v>
+      </c>
+      <c r="F165" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <f>VLOOKUP(A166,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="C166" s="1" t="str">
+        <f>VLOOKUP(A166,Balance!E:J,2,FALSE)</f>
+        <v>100화</v>
+      </c>
+      <c r="D166" s="24">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1">
+        <f>VLOOKUP(A166,Balance!E:K,7,FALSE)</f>
+        <v>428</v>
+      </c>
+      <c r="F166" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <f>VLOOKUP(A167,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="C167" s="1" t="str">
+        <f>VLOOKUP(A167,Balance!E:J,2,FALSE)</f>
+        <v>500화</v>
+      </c>
+      <c r="D167" s="24">
+        <v>20</v>
+      </c>
+      <c r="E167" s="1">
+        <f>VLOOKUP(A167,Balance!E:K,7,FALSE)</f>
+        <v>432</v>
+      </c>
+      <c r="F167" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <f>VLOOKUP(A168,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <f>VLOOKUP(A168,Balance!E:J,2,FALSE)</f>
+        <v>1000화</v>
+      </c>
+      <c r="D168" s="24">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1">
+        <f>VLOOKUP(A168,Balance!E:K,7,FALSE)</f>
+        <v>436</v>
+      </c>
+      <c r="F168" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <f>VLOOKUP(A169,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <f>VLOOKUP(A169,Balance!E:J,2,FALSE)</f>
+        <v>5000화</v>
+      </c>
+      <c r="D169" s="24">
+        <v>20</v>
+      </c>
+      <c r="E169" s="1">
+        <f>VLOOKUP(A169,Balance!E:K,7,FALSE)</f>
+        <v>440</v>
+      </c>
+      <c r="F169" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4665,8 +4853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I255" sqref="I255"/>
+    <sheetView topLeftCell="B165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6393,8 +6581,20 @@
         <v>18</v>
       </c>
       <c r="L43" s="20"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="M43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="9">
+        <v>144</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" ref="O43" si="12">POWER(10,N43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="P43" s="10" t="str">
+        <f t="shared" ref="P43" si="13">RIGHT(O43,N43)</f>
+        <v>1E+144</v>
+      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
@@ -7332,7 +7532,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="12">K65+3</f>
+        <f t="shared" ref="K66:K112" si="14">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -7373,7 +7573,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -7403,7 +7603,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -7413,7 +7613,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="13">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="15">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -7433,7 +7633,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -7443,7 +7643,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -7463,7 +7663,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -7473,7 +7673,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -7493,7 +7693,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -7503,7 +7703,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -7523,7 +7723,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -7533,7 +7733,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -7549,11 +7749,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="14">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="16">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -7563,11 +7763,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="15">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="17">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -7579,11 +7779,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -7593,11 +7793,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -7609,11 +7809,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -7623,11 +7823,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -7639,11 +7839,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -7653,11 +7853,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -7669,11 +7869,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -7683,11 +7883,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -7699,11 +7899,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -7713,11 +7913,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -7729,11 +7929,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -7743,11 +7943,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -7759,11 +7959,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="14"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -7773,11 +7973,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -7789,11 +7989,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -7803,15 +8003,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="16">H74</f>
+        <f t="shared" ref="H82:H145" si="18">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -7819,11 +8019,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -7833,15 +8033,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -7849,11 +8049,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -7863,15 +8063,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -7879,11 +8079,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -7893,15 +8093,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -7909,11 +8109,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -7923,15 +8123,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -7939,11 +8139,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -7953,15 +8153,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -7969,11 +8169,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -7983,15 +8183,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -7999,11 +8199,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="14"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="12"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -8013,15 +8213,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -8029,7 +8229,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -8043,15 +8243,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -8059,11 +8259,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="12"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -8073,15 +8273,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -8089,11 +8289,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="12"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -8103,15 +8303,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -8119,11 +8319,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="12"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -8133,15 +8333,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -8149,11 +8349,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="12"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -8163,15 +8363,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -8179,11 +8379,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -8193,15 +8393,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -8209,11 +8409,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -8223,15 +8423,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -8239,11 +8439,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="14"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -8253,15 +8453,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -8269,11 +8469,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -8283,15 +8483,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -8299,11 +8499,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -8313,15 +8513,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -8329,11 +8529,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -8343,15 +8543,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -8359,11 +8559,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -8373,15 +8573,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -8389,11 +8589,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -8403,15 +8603,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -8419,11 +8619,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -8433,15 +8633,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -8449,11 +8649,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="12"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -8463,15 +8663,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -8479,11 +8679,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="14"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="12"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -8493,15 +8693,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -8509,11 +8709,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="12"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -8523,15 +8723,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -8539,11 +8739,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="12"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -8553,15 +8753,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -8569,11 +8769,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="12"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -8583,15 +8783,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -8599,11 +8799,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="12"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -8613,15 +8813,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -8629,11 +8829,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -8643,15 +8843,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -8659,11 +8859,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="12"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -8673,15 +8873,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -8689,11 +8889,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -8703,15 +8903,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -8719,11 +8919,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="14"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -8733,15 +8933,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -8749,7 +8949,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -8763,15 +8963,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -8779,11 +8979,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="17">K113+4</f>
+        <f t="shared" ref="K114:K177" si="19">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -8793,15 +8993,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -8809,11 +9009,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -8823,15 +9023,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -8839,11 +9039,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -8853,15 +9053,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -8869,11 +9069,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -8883,15 +9083,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -8899,11 +9099,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -8913,15 +9113,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -8929,11 +9129,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -8943,15 +9143,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -8959,11 +9159,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -8973,15 +9173,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -8989,11 +9189,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -9003,15 +9203,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -9019,11 +9219,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -9033,15 +9233,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -9049,11 +9249,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -9063,15 +9263,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -9079,11 +9279,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -9093,15 +9293,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -9109,11 +9309,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -9123,15 +9323,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -9139,11 +9339,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -9153,15 +9353,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -9169,11 +9369,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -9183,15 +9383,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -9199,11 +9399,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -9213,15 +9413,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -9229,11 +9429,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -9243,15 +9443,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -9259,11 +9459,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -9273,15 +9473,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -9289,11 +9489,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -9303,15 +9503,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -9319,11 +9519,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -9333,15 +9533,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="18">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="20">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -9349,11 +9549,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -9363,15 +9563,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="17"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="18"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="15"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -9379,11 +9579,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -9393,15 +9593,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="18"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="15"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -9409,11 +9609,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -9423,15 +9623,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="17"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="18"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="15"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -9439,11 +9639,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -9453,15 +9653,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="18"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="15"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -9469,11 +9669,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="19">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="21">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -9483,15 +9683,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="22">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="18"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="20">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -9499,11 +9699,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="17"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -9513,15 +9713,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="22"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="18"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="20"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -9529,11 +9729,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="17"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -9543,15 +9743,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="18"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="20"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -9559,11 +9759,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="17"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -9573,15 +9773,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="18"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="20"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -9589,11 +9789,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -9603,15 +9803,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="18"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="20"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -9619,11 +9819,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="17"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -9633,15 +9833,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="18"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="20"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -9649,11 +9849,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="17"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -9663,15 +9863,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="18"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="20"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -9679,11 +9879,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="19"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="17"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -9693,15 +9893,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="22"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="18"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="20"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -9709,11 +9909,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="17"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -9723,15 +9923,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="21">H138</f>
+        <f t="shared" ref="H146:H209" si="23">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -9739,11 +9939,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="17"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -9753,15 +9953,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -9769,11 +9969,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="17"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -9783,15 +9983,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -9799,11 +9999,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="17"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -9813,15 +10013,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -9829,11 +10029,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="17"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -9843,15 +10043,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -9859,11 +10059,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="17"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -9873,15 +10073,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -9889,11 +10089,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="17"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -9903,15 +10103,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -9919,11 +10119,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="19"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="17"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -9933,15 +10133,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -9949,11 +10149,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="17"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -9963,15 +10163,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -9979,11 +10179,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="17"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -9993,15 +10193,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -10009,11 +10209,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="17"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -10023,15 +10223,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -10039,11 +10239,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="17"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -10053,15 +10253,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -10069,11 +10269,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="17"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -10083,15 +10283,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -10099,11 +10299,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="17"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -10113,15 +10313,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -10129,11 +10329,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="17"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -10143,15 +10343,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -10159,11 +10359,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="19"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="17"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -10173,15 +10373,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -10189,11 +10389,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="17"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -10203,15 +10403,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -10219,11 +10419,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="17"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -10233,15 +10433,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -10249,11 +10449,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="17"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -10263,15 +10463,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -10279,11 +10479,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="17"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -10293,15 +10493,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -10309,11 +10509,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="17"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -10323,15 +10523,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -10339,11 +10539,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -10353,15 +10553,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -10369,11 +10569,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="17"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -10383,15 +10583,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -10399,11 +10599,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="19"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="17"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -10413,27 +10613,27 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="G169" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>1화</v>
+      </c>
+      <c r="G169" s="10">
+        <f t="shared" si="22"/>
+        <v>1E+144</v>
       </c>
       <c r="H169" s="10">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="I169" s="9" t="str" cm="1">
+        <f t="array" ref="I169">IF(AND(H168&gt;1000,H169&lt;2),INDEX(M:M,MATCH(I168,M:M,0)+1,0),I168)</f>
+        <v>화</v>
+      </c>
+      <c r="J169" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I169" s="9" cm="1">
-        <f t="array" ref="I169">IF(AND(H168&gt;1000,H169&lt;2),INDEX(M:M,MATCH(I168,M:M,0)+1,0),I168)</f>
-        <v>0</v>
-      </c>
-      <c r="J169" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="17"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -10443,27 +10643,27 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>50</v>
-      </c>
-      <c r="G170" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>5화</v>
+      </c>
+      <c r="G170" s="10">
+        <f t="shared" si="22"/>
+        <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="I170" s="9" t="str" cm="1">
+        <f t="array" ref="I170">IF(AND(H169&gt;1000,H170&lt;2),INDEX(M:M,MATCH(I169,M:M,0)+1,0),I169)</f>
+        <v>화</v>
+      </c>
+      <c r="J170" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="I170" s="9" cm="1">
-        <f t="array" ref="I170">IF(AND(H169&gt;1000,H170&lt;2),INDEX(M:M,MATCH(I169,M:M,0)+1,0),I169)</f>
-        <v>0</v>
-      </c>
-      <c r="J170" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="17"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -10473,27 +10673,27 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="G171" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>10화</v>
+      </c>
+      <c r="G171" s="10">
+        <f t="shared" si="22"/>
+        <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="I171" s="9" t="str" cm="1">
+        <f t="array" ref="I171">IF(AND(H170&gt;1000,H171&lt;2),INDEX(M:M,MATCH(I170,M:M,0)+1,0),I170)</f>
+        <v>화</v>
+      </c>
+      <c r="J171" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="I171" s="9" cm="1">
-        <f t="array" ref="I171">IF(AND(H170&gt;1000,H171&lt;2),INDEX(M:M,MATCH(I170,M:M,0)+1,0),I170)</f>
-        <v>0</v>
-      </c>
-      <c r="J171" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="17"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -10503,27 +10703,27 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>500</v>
-      </c>
-      <c r="G172" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>50화</v>
+      </c>
+      <c r="G172" s="10">
+        <f t="shared" si="22"/>
+        <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="I172" s="9" t="str" cm="1">
+        <f t="array" ref="I172">IF(AND(H171&gt;1000,H172&lt;2),INDEX(M:M,MATCH(I171,M:M,0)+1,0),I171)</f>
+        <v>화</v>
+      </c>
+      <c r="J172" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>50</v>
-      </c>
-      <c r="I172" s="9" cm="1">
-        <f t="array" ref="I172">IF(AND(H171&gt;1000,H172&lt;2),INDEX(M:M,MATCH(I171,M:M,0)+1,0),I171)</f>
-        <v>0</v>
-      </c>
-      <c r="J172" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="17"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -10533,27 +10733,27 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="G173" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>100화</v>
+      </c>
+      <c r="G173" s="10">
+        <f t="shared" si="22"/>
+        <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="I173" s="9" t="str" cm="1">
+        <f t="array" ref="I173">IF(AND(H172&gt;1000,H173&lt;2),INDEX(M:M,MATCH(I172,M:M,0)+1,0),I172)</f>
+        <v>화</v>
+      </c>
+      <c r="J173" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="I173" s="9" cm="1">
-        <f t="array" ref="I173">IF(AND(H172&gt;1000,H173&lt;2),INDEX(M:M,MATCH(I172,M:M,0)+1,0),I172)</f>
-        <v>0</v>
-      </c>
-      <c r="J173" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="17"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -10563,27 +10763,27 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>5000</v>
-      </c>
-      <c r="G174" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>500화</v>
+      </c>
+      <c r="G174" s="10">
+        <f t="shared" si="22"/>
+        <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
+        <f t="shared" si="23"/>
+        <v>500</v>
+      </c>
+      <c r="I174" s="9" t="str" cm="1">
+        <f t="array" ref="I174">IF(AND(H173&gt;1000,H174&lt;2),INDEX(M:M,MATCH(I173,M:M,0)+1,0),I173)</f>
+        <v>화</v>
+      </c>
+      <c r="J174" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>500</v>
-      </c>
-      <c r="I174" s="9" cm="1">
-        <f t="array" ref="I174">IF(AND(H173&gt;1000,H174&lt;2),INDEX(M:M,MATCH(I173,M:M,0)+1,0),I173)</f>
-        <v>0</v>
-      </c>
-      <c r="J174" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="17"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -10593,27 +10793,27 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>10000</v>
-      </c>
-      <c r="G175" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>1000화</v>
+      </c>
+      <c r="G175" s="10">
+        <f t="shared" si="22"/>
+        <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
+        <f t="shared" si="23"/>
+        <v>1000</v>
+      </c>
+      <c r="I175" s="9" t="str" cm="1">
+        <f t="array" ref="I175">IF(AND(H174&gt;1000,H175&lt;2),INDEX(M:M,MATCH(I174,M:M,0)+1,0),I174)</f>
+        <v>화</v>
+      </c>
+      <c r="J175" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>1000</v>
-      </c>
-      <c r="I175" s="9" cm="1">
-        <f t="array" ref="I175">IF(AND(H174&gt;1000,H175&lt;2),INDEX(M:M,MATCH(I174,M:M,0)+1,0),I174)</f>
-        <v>0</v>
-      </c>
-      <c r="J175" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="17"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -10623,27 +10823,27 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>50000</v>
-      </c>
-      <c r="G176" s="10" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>5000화</v>
+      </c>
+      <c r="G176" s="10">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
+        <f t="shared" si="23"/>
+        <v>5000</v>
+      </c>
+      <c r="I176" s="9" t="str" cm="1">
+        <f t="array" ref="I176">IF(AND(H175&gt;1000,H176&lt;2),INDEX(M:M,MATCH(I175,M:M,0)+1,0),I175)</f>
+        <v>화</v>
+      </c>
+      <c r="J176" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>5000</v>
-      </c>
-      <c r="I176" s="9" cm="1">
-        <f t="array" ref="I176">IF(AND(H175&gt;1000,H176&lt;2),INDEX(M:M,MATCH(I175,M:M,0)+1,0),I175)</f>
-        <v>0</v>
-      </c>
-      <c r="J176" s="9" t="e">
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="17"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -10652,28 +10852,28 @@
       <c r="E177" s="9">
         <v>168</v>
       </c>
-      <c r="F177" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F177" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="G177" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H177" s="10">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="I177" s="9" cm="1">
+        <f t="array" ref="I177">IF(AND(H176&gt;1000,H177&lt;2),INDEX(M:M,MATCH(I176,M:M,0)+1,0),I176)</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I177" s="9" t="e" cm="1">
-        <f t="array" ref="I177">IF(AND(H176&gt;1000,H177&lt;2),INDEX(M:M,MATCH(I176,M:M,0)+1,0),I176)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J177" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="17"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -10682,28 +10882,28 @@
       <c r="E178" s="9">
         <v>169</v>
       </c>
-      <c r="F178" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F178" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
       </c>
       <c r="G178" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H178" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="I178" s="9" cm="1">
+        <f t="array" ref="I178">IF(AND(H177&gt;1000,H178&lt;2),INDEX(M:M,MATCH(I177,M:M,0)+1,0),I177)</f>
+        <v>0</v>
+      </c>
+      <c r="J178" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="I178" s="9" t="e" cm="1">
-        <f t="array" ref="I178">IF(AND(H177&gt;1000,H178&lt;2),INDEX(M:M,MATCH(I177,M:M,0)+1,0),I177)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J178" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="22">K177+4</f>
+        <f t="shared" ref="K178:K241" si="24">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -10712,28 +10912,28 @@
       <c r="E179" s="9">
         <v>170</v>
       </c>
-      <c r="F179" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F179" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>100</v>
       </c>
       <c r="G179" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H179" s="10">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="I179" s="9" cm="1">
+        <f t="array" ref="I179">IF(AND(H178&gt;1000,H179&lt;2),INDEX(M:M,MATCH(I178,M:M,0)+1,0),I178)</f>
+        <v>0</v>
+      </c>
+      <c r="J179" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="I179" s="9" t="e" cm="1">
-        <f t="array" ref="I179">IF(AND(H178&gt;1000,H179&lt;2),INDEX(M:M,MATCH(I178,M:M,0)+1,0),I178)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J179" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -10742,28 +10942,28 @@
       <c r="E180" s="9">
         <v>171</v>
       </c>
-      <c r="F180" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F180" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>500</v>
       </c>
       <c r="G180" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H180" s="10">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="I180" s="9" cm="1">
+        <f t="array" ref="I180">IF(AND(H179&gt;1000,H180&lt;2),INDEX(M:M,MATCH(I179,M:M,0)+1,0),I179)</f>
+        <v>0</v>
+      </c>
+      <c r="J180" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>50</v>
-      </c>
-      <c r="I180" s="9" t="e" cm="1">
-        <f t="array" ref="I180">IF(AND(H179&gt;1000,H180&lt;2),INDEX(M:M,MATCH(I179,M:M,0)+1,0),I179)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J180" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -10772,28 +10972,28 @@
       <c r="E181" s="9">
         <v>172</v>
       </c>
-      <c r="F181" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F181" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>1000</v>
       </c>
       <c r="G181" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H181" s="10">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="I181" s="9" cm="1">
+        <f t="array" ref="I181">IF(AND(H180&gt;1000,H181&lt;2),INDEX(M:M,MATCH(I180,M:M,0)+1,0),I180)</f>
+        <v>0</v>
+      </c>
+      <c r="J181" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="I181" s="9" t="e" cm="1">
-        <f t="array" ref="I181">IF(AND(H180&gt;1000,H181&lt;2),INDEX(M:M,MATCH(I180,M:M,0)+1,0),I180)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J181" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -10802,28 +11002,28 @@
       <c r="E182" s="9">
         <v>173</v>
       </c>
-      <c r="F182" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F182" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>5000</v>
       </c>
       <c r="G182" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H182" s="10">
+        <f t="shared" si="23"/>
+        <v>500</v>
+      </c>
+      <c r="I182" s="9" cm="1">
+        <f t="array" ref="I182">IF(AND(H181&gt;1000,H182&lt;2),INDEX(M:M,MATCH(I181,M:M,0)+1,0),I181)</f>
+        <v>0</v>
+      </c>
+      <c r="J182" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>500</v>
-      </c>
-      <c r="I182" s="9" t="e" cm="1">
-        <f t="array" ref="I182">IF(AND(H181&gt;1000,H182&lt;2),INDEX(M:M,MATCH(I181,M:M,0)+1,0),I181)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J182" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -10832,28 +11032,28 @@
       <c r="E183" s="9">
         <v>174</v>
       </c>
-      <c r="F183" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F183" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>10000</v>
       </c>
       <c r="G183" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H183" s="10">
+        <f t="shared" si="23"/>
+        <v>1000</v>
+      </c>
+      <c r="I183" s="9" cm="1">
+        <f t="array" ref="I183">IF(AND(H182&gt;1000,H183&lt;2),INDEX(M:M,MATCH(I182,M:M,0)+1,0),I182)</f>
+        <v>0</v>
+      </c>
+      <c r="J183" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>1000</v>
-      </c>
-      <c r="I183" s="9" t="e" cm="1">
-        <f t="array" ref="I183">IF(AND(H182&gt;1000,H183&lt;2),INDEX(M:M,MATCH(I182,M:M,0)+1,0),I182)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J183" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -10862,28 +11062,28 @@
       <c r="E184" s="9">
         <v>175</v>
       </c>
-      <c r="F184" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="F184" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>50000</v>
       </c>
       <c r="G184" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H184" s="10">
+        <f t="shared" si="23"/>
+        <v>5000</v>
+      </c>
+      <c r="I184" s="9" cm="1">
+        <f t="array" ref="I184">IF(AND(H183&gt;1000,H184&lt;2),INDEX(M:M,MATCH(I183,M:M,0)+1,0),I183)</f>
+        <v>0</v>
+      </c>
+      <c r="J184" s="9" t="e">
         <f t="shared" si="21"/>
-        <v>5000</v>
-      </c>
-      <c r="I184" s="9" t="e" cm="1">
-        <f t="array" ref="I184">IF(AND(H183&gt;1000,H184&lt;2),INDEX(M:M,MATCH(I183,M:M,0)+1,0),I183)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J184" s="9" t="e">
-        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -10893,15 +11093,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G185" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="e" cm="1">
@@ -10909,11 +11109,11 @@
         <v>#N/A</v>
       </c>
       <c r="J185" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -10923,15 +11123,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G186" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="e" cm="1">
@@ -10939,11 +11139,11 @@
         <v>#N/A</v>
       </c>
       <c r="J186" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -10953,15 +11153,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G187" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="e" cm="1">
@@ -10969,11 +11169,11 @@
         <v>#N/A</v>
       </c>
       <c r="J187" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -10983,15 +11183,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G188" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="e" cm="1">
@@ -10999,11 +11199,11 @@
         <v>#N/A</v>
       </c>
       <c r="J188" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -11013,15 +11213,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G189" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="e" cm="1">
@@ -11029,11 +11229,11 @@
         <v>#N/A</v>
       </c>
       <c r="J189" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -11043,15 +11243,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G190" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="e" cm="1">
@@ -11059,11 +11259,11 @@
         <v>#N/A</v>
       </c>
       <c r="J190" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -11073,15 +11273,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G191" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="e" cm="1">
@@ -11089,11 +11289,11 @@
         <v>#N/A</v>
       </c>
       <c r="J191" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -11103,15 +11303,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G192" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="e" cm="1">
@@ -11119,11 +11319,11 @@
         <v>#N/A</v>
       </c>
       <c r="J192" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -11133,15 +11333,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="e" cm="1">
@@ -11149,11 +11349,11 @@
         <v>#N/A</v>
       </c>
       <c r="J193" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -11163,15 +11363,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="e" cm="1">
@@ -11179,11 +11379,11 @@
         <v>#N/A</v>
       </c>
       <c r="J194" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -11193,15 +11393,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G195" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="e" cm="1">
@@ -11209,11 +11409,11 @@
         <v>#N/A</v>
       </c>
       <c r="J195" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -11223,15 +11423,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="G196" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="e" cm="1">
@@ -11239,11 +11439,11 @@
         <v>#N/A</v>
       </c>
       <c r="J196" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -11253,15 +11453,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="e">
-        <f t="shared" ref="F197:F256" si="23">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="25">H197&amp;I197</f>
         <v>#N/A</v>
       </c>
       <c r="G197" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="e" cm="1">
@@ -11269,11 +11469,11 @@
         <v>#N/A</v>
       </c>
       <c r="J197" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -11283,15 +11483,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G198" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G198" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="e" cm="1">
@@ -11299,11 +11499,11 @@
         <v>#N/A</v>
       </c>
       <c r="J198" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -11313,15 +11513,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G199" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G199" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="e" cm="1">
@@ -11329,11 +11529,11 @@
         <v>#N/A</v>
       </c>
       <c r="J199" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -11343,15 +11543,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G200" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G200" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="21"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="e" cm="1">
@@ -11359,11 +11559,11 @@
         <v>#N/A</v>
       </c>
       <c r="J200" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -11373,15 +11573,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G201" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G201" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="e" cm="1">
@@ -11389,11 +11589,11 @@
         <v>#N/A</v>
       </c>
       <c r="J201" s="9" t="e">
-        <f t="shared" ref="J201:J256" si="24">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="26">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -11403,15 +11603,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G202" s="10" t="e">
+        <f t="shared" ref="G202:G256" si="27">H202*J202</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G202" s="10" t="e">
-        <f t="shared" ref="G202:G256" si="25">H202*J202</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="e" cm="1">
@@ -11419,11 +11619,11 @@
         <v>#N/A</v>
       </c>
       <c r="J202" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="22"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -11433,15 +11633,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G203" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G203" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="e" cm="1">
@@ -11449,11 +11649,11 @@
         <v>#N/A</v>
       </c>
       <c r="J203" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="22"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -11463,15 +11663,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G204" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G204" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="e" cm="1">
@@ -11479,11 +11679,11 @@
         <v>#N/A</v>
       </c>
       <c r="J204" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="22"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -11493,15 +11693,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G205" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G205" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="e" cm="1">
@@ -11509,11 +11709,11 @@
         <v>#N/A</v>
       </c>
       <c r="J205" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="22"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -11523,15 +11723,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G206" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G206" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="e" cm="1">
@@ -11539,11 +11739,11 @@
         <v>#N/A</v>
       </c>
       <c r="J206" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="22"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -11553,15 +11753,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G207" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G207" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="e" cm="1">
@@ -11569,11 +11769,11 @@
         <v>#N/A</v>
       </c>
       <c r="J207" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="22"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -11583,15 +11783,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G208" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G208" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="21"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="e" cm="1">
@@ -11599,11 +11799,11 @@
         <v>#N/A</v>
       </c>
       <c r="J208" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="22"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -11613,15 +11813,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G209" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G209" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="e" cm="1">
@@ -11629,11 +11829,11 @@
         <v>#N/A</v>
       </c>
       <c r="J209" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="22"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -11643,15 +11843,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="26">H202</f>
+        <f t="shared" ref="H210:H256" si="28">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="e" cm="1">
@@ -11659,11 +11859,11 @@
         <v>#N/A</v>
       </c>
       <c r="J210" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="22"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -11673,15 +11873,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="e" cm="1">
@@ -11689,11 +11889,11 @@
         <v>#N/A</v>
       </c>
       <c r="J211" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="22"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -11703,15 +11903,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="e" cm="1">
@@ -11719,11 +11919,11 @@
         <v>#N/A</v>
       </c>
       <c r="J212" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="22"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -11733,15 +11933,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="e" cm="1">
@@ -11749,11 +11949,11 @@
         <v>#N/A</v>
       </c>
       <c r="J213" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="22"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -11763,15 +11963,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="e" cm="1">
@@ -11779,11 +11979,11 @@
         <v>#N/A</v>
       </c>
       <c r="J214" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="22"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -11793,15 +11993,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="e" cm="1">
@@ -11809,11 +12009,11 @@
         <v>#N/A</v>
       </c>
       <c r="J215" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="22"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -11823,15 +12023,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="e" cm="1">
@@ -11839,11 +12039,11 @@
         <v>#N/A</v>
       </c>
       <c r="J216" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="22"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -11853,15 +12053,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="e" cm="1">
@@ -11869,11 +12069,11 @@
         <v>#N/A</v>
       </c>
       <c r="J217" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K217" s="5">
-        <f t="shared" si="22"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -11883,15 +12083,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="e" cm="1">
@@ -11899,11 +12099,11 @@
         <v>#N/A</v>
       </c>
       <c r="J218" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K218" s="5">
-        <f t="shared" si="22"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -11913,15 +12113,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="e" cm="1">
@@ -11929,11 +12129,11 @@
         <v>#N/A</v>
       </c>
       <c r="J219" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K219" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K219" s="5">
-        <f t="shared" si="22"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -11943,15 +12143,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="e" cm="1">
@@ -11959,11 +12159,11 @@
         <v>#N/A</v>
       </c>
       <c r="J220" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K220" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K220" s="5">
-        <f t="shared" si="22"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -11973,15 +12173,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="e" cm="1">
@@ -11989,11 +12189,11 @@
         <v>#N/A</v>
       </c>
       <c r="J221" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K221" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K221" s="5">
-        <f t="shared" si="22"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -12003,15 +12203,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="e" cm="1">
@@ -12019,11 +12219,11 @@
         <v>#N/A</v>
       </c>
       <c r="J222" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K222" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K222" s="5">
-        <f t="shared" si="22"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -12033,15 +12233,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="e" cm="1">
@@ -12049,11 +12249,11 @@
         <v>#N/A</v>
       </c>
       <c r="J223" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K223" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K223" s="5">
-        <f t="shared" si="22"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -12063,15 +12263,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="e" cm="1">
@@ -12079,11 +12279,11 @@
         <v>#N/A</v>
       </c>
       <c r="J224" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K224" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K224" s="5">
-        <f t="shared" si="22"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -12093,15 +12293,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="e" cm="1">
@@ -12109,11 +12309,11 @@
         <v>#N/A</v>
       </c>
       <c r="J225" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K225" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K225" s="5">
-        <f t="shared" si="22"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -12123,15 +12323,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="e" cm="1">
@@ -12139,11 +12339,11 @@
         <v>#N/A</v>
       </c>
       <c r="J226" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K226" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K226" s="5">
-        <f t="shared" si="22"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -12153,15 +12353,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="e" cm="1">
@@ -12169,11 +12369,11 @@
         <v>#N/A</v>
       </c>
       <c r="J227" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K227" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K227" s="5">
-        <f t="shared" si="22"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -12183,15 +12383,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="e" cm="1">
@@ -12199,11 +12399,11 @@
         <v>#N/A</v>
       </c>
       <c r="J228" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K228" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K228" s="5">
-        <f t="shared" si="22"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -12213,15 +12413,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="e" cm="1">
@@ -12229,11 +12429,11 @@
         <v>#N/A</v>
       </c>
       <c r="J229" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K229" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K229" s="5">
-        <f t="shared" si="22"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -12243,15 +12443,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="e" cm="1">
@@ -12259,11 +12459,11 @@
         <v>#N/A</v>
       </c>
       <c r="J230" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K230" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K230" s="5">
-        <f t="shared" si="22"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -12273,15 +12473,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="e" cm="1">
@@ -12289,11 +12489,11 @@
         <v>#N/A</v>
       </c>
       <c r="J231" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K231" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K231" s="5">
-        <f t="shared" si="22"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -12303,15 +12503,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="e" cm="1">
@@ -12319,11 +12519,11 @@
         <v>#N/A</v>
       </c>
       <c r="J232" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K232" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K232" s="5">
-        <f t="shared" si="22"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -12333,15 +12533,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="e" cm="1">
@@ -12349,11 +12549,11 @@
         <v>#N/A</v>
       </c>
       <c r="J233" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K233" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K233" s="5">
-        <f t="shared" si="22"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -12363,15 +12563,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="e" cm="1">
@@ -12379,11 +12579,11 @@
         <v>#N/A</v>
       </c>
       <c r="J234" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K234" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K234" s="5">
-        <f t="shared" si="22"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -12393,15 +12593,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="e" cm="1">
@@ -12409,11 +12609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J235" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K235" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K235" s="5">
-        <f t="shared" si="22"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -12423,15 +12623,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="e" cm="1">
@@ -12439,11 +12639,11 @@
         <v>#N/A</v>
       </c>
       <c r="J236" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K236" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K236" s="5">
-        <f t="shared" si="22"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -12453,15 +12653,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="e" cm="1">
@@ -12469,11 +12669,11 @@
         <v>#N/A</v>
       </c>
       <c r="J237" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K237" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K237" s="5">
-        <f t="shared" si="22"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -12483,15 +12683,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="e" cm="1">
@@ -12499,11 +12699,11 @@
         <v>#N/A</v>
       </c>
       <c r="J238" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K238" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K238" s="5">
-        <f t="shared" si="22"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -12513,15 +12713,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="e" cm="1">
@@ -12529,11 +12729,11 @@
         <v>#N/A</v>
       </c>
       <c r="J239" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K239" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K239" s="5">
-        <f t="shared" si="22"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -12543,15 +12743,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="e" cm="1">
@@ -12559,11 +12759,11 @@
         <v>#N/A</v>
       </c>
       <c r="J240" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K240" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K240" s="5">
-        <f t="shared" si="22"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -12573,15 +12773,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -12589,11 +12789,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K241" s="5">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K241" s="5">
-        <f t="shared" si="22"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -12603,15 +12803,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -12619,11 +12819,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="27">K241+4</f>
+        <f t="shared" ref="K242:K256" si="29">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -12633,15 +12833,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -12649,11 +12849,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -12663,15 +12863,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -12679,11 +12879,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -12693,15 +12893,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -12709,11 +12909,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -12723,15 +12923,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -12739,11 +12939,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -12753,15 +12953,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -12769,11 +12969,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -12783,15 +12983,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -12799,11 +12999,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -12813,15 +13013,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -12829,11 +13029,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -12843,15 +13043,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -12859,11 +13059,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -12873,15 +13073,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -12889,11 +13089,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -12903,15 +13103,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -12919,11 +13119,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -12933,15 +13133,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -12949,11 +13149,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -12963,15 +13163,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -12979,11 +13179,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -12993,15 +13193,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -13009,11 +13209,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -13023,15 +13223,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -13039,11 +13239,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757D41E7-AB1B-4BE8-8CF5-0078C7CB6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D1811-47F7-4710-8131-524E43A6070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4841,6 +4845,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <f>VLOOKUP(A170,Balance!E:J,3,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="C170" s="1" t="str">
+        <f>VLOOKUP(A170,Balance!E:J,2,FALSE)</f>
+        <v>1명</v>
+      </c>
+      <c r="D170" s="24">
+        <v>20</v>
+      </c>
+      <c r="E170" s="1">
+        <f>VLOOKUP(A170,Balance!E:K,7,FALSE)</f>
+        <v>444</v>
+      </c>
+      <c r="F170" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <f>VLOOKUP(A171,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="C171" s="1" t="str">
+        <f>VLOOKUP(A171,Balance!E:J,2,FALSE)</f>
+        <v>5명</v>
+      </c>
+      <c r="D171" s="24">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1">
+        <f>VLOOKUP(A171,Balance!E:K,7,FALSE)</f>
+        <v>448</v>
+      </c>
+      <c r="F171" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <f>VLOOKUP(A172,Balance!E:J,3,FALSE)</f>
+        <v>1E+149</v>
+      </c>
+      <c r="C172" s="1" t="str">
+        <f>VLOOKUP(A172,Balance!E:J,2,FALSE)</f>
+        <v>10명</v>
+      </c>
+      <c r="D172" s="24">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1">
+        <f>VLOOKUP(A172,Balance!E:K,7,FALSE)</f>
+        <v>452</v>
+      </c>
+      <c r="F172" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <f>VLOOKUP(A173,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="C173" s="1" t="str">
+        <f>VLOOKUP(A173,Balance!E:J,2,FALSE)</f>
+        <v>50명</v>
+      </c>
+      <c r="D173" s="24">
+        <v>20</v>
+      </c>
+      <c r="E173" s="1">
+        <f>VLOOKUP(A173,Balance!E:K,7,FALSE)</f>
+        <v>456</v>
+      </c>
+      <c r="F173" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <f>VLOOKUP(A174,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="C174" s="1" t="str">
+        <f>VLOOKUP(A174,Balance!E:J,2,FALSE)</f>
+        <v>100명</v>
+      </c>
+      <c r="D174" s="24">
+        <v>20</v>
+      </c>
+      <c r="E174" s="1">
+        <f>VLOOKUP(A174,Balance!E:K,7,FALSE)</f>
+        <v>460</v>
+      </c>
+      <c r="F174" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <f>VLOOKUP(A175,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="C175" s="1" t="str">
+        <f>VLOOKUP(A175,Balance!E:J,2,FALSE)</f>
+        <v>500명</v>
+      </c>
+      <c r="D175" s="24">
+        <v>20</v>
+      </c>
+      <c r="E175" s="1">
+        <f>VLOOKUP(A175,Balance!E:K,7,FALSE)</f>
+        <v>464</v>
+      </c>
+      <c r="F175" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <f>VLOOKUP(A176,Balance!E:J,3,FALSE)</f>
+        <v>1E+151</v>
+      </c>
+      <c r="C176" s="1" t="str">
+        <f>VLOOKUP(A176,Balance!E:J,2,FALSE)</f>
+        <v>1000명</v>
+      </c>
+      <c r="D176" s="24">
+        <v>20</v>
+      </c>
+      <c r="E176" s="1">
+        <f>VLOOKUP(A176,Balance!E:K,7,FALSE)</f>
+        <v>468</v>
+      </c>
+      <c r="F176" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <f>VLOOKUP(A177,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="C177" s="1" t="str">
+        <f>VLOOKUP(A177,Balance!E:J,2,FALSE)</f>
+        <v>5000명</v>
+      </c>
+      <c r="D177" s="24">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1">
+        <f>VLOOKUP(A177,Balance!E:K,7,FALSE)</f>
+        <v>472</v>
+      </c>
+      <c r="F177" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4853,8 +5041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6634,8 +6822,20 @@
         <v>19</v>
       </c>
       <c r="L44" s="20"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="M44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44" s="9">
+        <v>148</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" ref="O44" si="14">POWER(10,N44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="P44" s="10" t="str">
+        <f t="shared" ref="P44" si="15">RIGHT(O44,N44)</f>
+        <v>1E+148</v>
+      </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
@@ -7532,7 +7732,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="14">K65+3</f>
+        <f t="shared" ref="K66:K112" si="16">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -7573,7 +7773,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -7603,7 +7803,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -7613,7 +7813,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="15">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="17">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -7633,7 +7833,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -7643,7 +7843,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -7663,7 +7863,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -7673,7 +7873,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -7693,7 +7893,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -7703,7 +7903,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -7723,7 +7923,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -7733,7 +7933,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -7749,11 +7949,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="16">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="18">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -7763,11 +7963,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="17">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="19">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -7779,11 +7979,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -7793,11 +7993,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -7809,11 +8009,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -7823,11 +8023,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -7839,11 +8039,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -7853,11 +8053,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -7869,11 +8069,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -7883,11 +8083,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -7899,11 +8099,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -7913,11 +8113,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -7929,11 +8129,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -7943,11 +8143,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -7959,11 +8159,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -7973,11 +8173,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -7989,11 +8189,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -8003,15 +8203,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="18">H74</f>
+        <f t="shared" ref="H82:H145" si="20">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -8019,11 +8219,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -8033,15 +8233,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -8049,11 +8249,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -8063,15 +8263,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -8079,11 +8279,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -8093,15 +8293,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -8109,11 +8309,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -8123,15 +8323,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -8139,11 +8339,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="14"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -8153,15 +8353,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -8169,11 +8369,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="14"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -8183,15 +8383,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -8199,11 +8399,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="16"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="14"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -8213,15 +8413,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -8229,7 +8429,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -8243,15 +8443,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -8259,11 +8459,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="14"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -8273,15 +8473,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -8289,11 +8489,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="14"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -8303,15 +8503,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -8319,11 +8519,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="14"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -8333,15 +8533,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -8349,11 +8549,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="14"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -8363,15 +8563,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -8379,11 +8579,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -8393,15 +8593,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -8409,11 +8609,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="14"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -8423,15 +8623,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -8439,11 +8639,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="16"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="14"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -8453,15 +8653,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -8469,11 +8669,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="14"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -8483,15 +8683,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -8499,11 +8699,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="14"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -8513,15 +8713,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -8529,11 +8729,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="14"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -8543,15 +8743,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -8559,11 +8759,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="14"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -8573,15 +8773,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -8589,11 +8789,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="14"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -8603,15 +8803,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -8619,11 +8819,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="14"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -8633,15 +8833,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -8649,11 +8849,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="14"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -8663,15 +8863,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -8679,11 +8879,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="16"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="14"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -8693,15 +8893,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -8709,11 +8909,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="14"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -8723,15 +8923,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -8739,11 +8939,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="14"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -8753,15 +8953,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -8769,11 +8969,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="14"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -8783,15 +8983,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -8799,11 +8999,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -8813,15 +9013,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -8829,11 +9029,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="14"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -8843,15 +9043,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -8859,11 +9059,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="14"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -8873,15 +9073,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -8889,11 +9089,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -8903,15 +9103,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -8919,11 +9119,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="16"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="14"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -8933,15 +9133,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -8949,7 +9149,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -8963,15 +9163,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -8979,11 +9179,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="19">K113+4</f>
+        <f t="shared" ref="K114:K177" si="21">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -8993,15 +9193,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -9009,11 +9209,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -9023,15 +9223,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -9039,11 +9239,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -9053,15 +9253,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -9069,11 +9269,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -9083,15 +9283,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -9099,11 +9299,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -9113,15 +9313,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -9129,11 +9329,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -9143,15 +9343,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -9159,11 +9359,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -9173,15 +9373,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -9189,11 +9389,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -9203,15 +9403,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -9219,11 +9419,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -9233,15 +9433,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -9249,11 +9449,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -9263,15 +9463,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -9279,11 +9479,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -9293,15 +9493,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -9309,11 +9509,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -9323,15 +9523,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -9339,11 +9539,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -9353,15 +9553,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -9369,11 +9569,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -9383,15 +9583,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -9399,11 +9599,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -9413,15 +9613,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -9429,11 +9629,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -9443,15 +9643,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -9459,11 +9659,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -9473,15 +9673,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -9489,11 +9689,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -9503,15 +9703,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -9519,11 +9719,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -9533,15 +9733,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="20">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="22">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -9549,11 +9749,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -9563,15 +9763,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="19"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="20"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -9579,11 +9779,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -9593,15 +9793,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="20"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -9609,11 +9809,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -9623,15 +9823,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="19"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="20"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -9639,11 +9839,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -9653,15 +9853,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="19"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="20"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="17"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -9669,11 +9869,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="21">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="23">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -9683,15 +9883,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="24">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="20"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="22">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -9699,11 +9899,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="19"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -9713,15 +9913,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="24"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="20"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="22"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -9729,11 +9929,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="19"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -9743,15 +9943,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="20"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="22"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -9759,11 +9959,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="19"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -9773,15 +9973,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="20"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="22"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -9789,11 +9989,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -9803,15 +10003,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="20"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="22"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -9819,11 +10019,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="19"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -9833,15 +10033,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="20"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="22"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -9849,11 +10049,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="19"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -9863,15 +10063,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="20"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="22"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -9879,11 +10079,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="21"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="19"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -9893,15 +10093,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="20"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="22"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -9909,11 +10109,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="19"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -9923,15 +10123,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="23">H138</f>
+        <f t="shared" ref="H146:H209" si="25">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -9939,11 +10139,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="19"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -9953,15 +10153,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -9969,11 +10169,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="19"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -9983,15 +10183,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -9999,11 +10199,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="19"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -10013,15 +10213,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -10029,11 +10229,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="19"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -10043,15 +10243,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -10059,11 +10259,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="19"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -10073,15 +10273,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -10089,11 +10289,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="19"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -10103,15 +10303,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -10119,11 +10319,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="19"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -10133,15 +10333,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -10149,11 +10349,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="19"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -10163,15 +10363,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -10179,11 +10379,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="19"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -10193,15 +10393,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -10209,11 +10409,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="19"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -10223,15 +10423,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -10239,11 +10439,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="19"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -10253,15 +10453,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -10269,11 +10469,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="19"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -10283,15 +10483,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -10299,11 +10499,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="19"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -10313,15 +10513,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -10329,11 +10529,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="19"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -10343,15 +10543,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -10359,11 +10559,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="21"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="19"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -10373,15 +10573,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -10389,11 +10589,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="19"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -10403,15 +10603,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -10419,11 +10619,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="19"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -10433,15 +10633,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -10449,11 +10649,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="19"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -10463,15 +10663,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -10479,11 +10679,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="19"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -10493,15 +10693,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -10509,11 +10709,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="19"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -10523,15 +10723,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -10539,11 +10739,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -10553,15 +10753,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -10569,11 +10769,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="19"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -10583,15 +10783,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -10599,11 +10799,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="21"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="19"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -10613,15 +10813,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -10629,11 +10829,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="19"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -10643,15 +10843,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -10659,11 +10859,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="19"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -10673,15 +10873,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -10689,11 +10889,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="19"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -10703,15 +10903,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -10719,11 +10919,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="19"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -10733,15 +10933,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -10749,11 +10949,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="19"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -10763,15 +10963,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -10779,11 +10979,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="19"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -10793,15 +10993,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -10809,11 +11009,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="19"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -10823,15 +11023,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -10839,11 +11039,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="21"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="19"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -10853,27 +11053,27 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="G177" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>1명</v>
+      </c>
+      <c r="G177" s="10">
+        <f t="shared" si="24"/>
+        <v>1E+148</v>
       </c>
       <c r="H177" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I177" s="9" t="str" cm="1">
+        <f t="array" ref="I177">IF(AND(H176&gt;1000,H177&lt;2),INDEX(M:M,MATCH(I176,M:M,0)+1,0),I176)</f>
+        <v>명</v>
+      </c>
+      <c r="J177" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="I177" s="9" cm="1">
-        <f t="array" ref="I177">IF(AND(H176&gt;1000,H177&lt;2),INDEX(M:M,MATCH(I176,M:M,0)+1,0),I176)</f>
-        <v>0</v>
-      </c>
-      <c r="J177" s="9" t="e">
+        <v>1E+148</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="19"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -10883,27 +11083,27 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="G178" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>5명</v>
+      </c>
+      <c r="G178" s="10">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I178" s="9" t="str" cm="1">
+        <f t="array" ref="I178">IF(AND(H177&gt;1000,H178&lt;2),INDEX(M:M,MATCH(I177,M:M,0)+1,0),I177)</f>
+        <v>명</v>
+      </c>
+      <c r="J178" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="I178" s="9" cm="1">
-        <f t="array" ref="I178">IF(AND(H177&gt;1000,H178&lt;2),INDEX(M:M,MATCH(I177,M:M,0)+1,0),I177)</f>
-        <v>0</v>
-      </c>
-      <c r="J178" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="24">K177+4</f>
+        <f t="shared" ref="K178:K241" si="26">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -10913,27 +11113,27 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="G179" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>10명</v>
+      </c>
+      <c r="G179" s="10">
+        <f t="shared" si="24"/>
+        <v>1E+149</v>
       </c>
       <c r="H179" s="10">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="I179" s="9" t="str" cm="1">
+        <f t="array" ref="I179">IF(AND(H178&gt;1000,H179&lt;2),INDEX(M:M,MATCH(I178,M:M,0)+1,0),I178)</f>
+        <v>명</v>
+      </c>
+      <c r="J179" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="I179" s="9" cm="1">
-        <f t="array" ref="I179">IF(AND(H178&gt;1000,H179&lt;2),INDEX(M:M,MATCH(I178,M:M,0)+1,0),I178)</f>
-        <v>0</v>
-      </c>
-      <c r="J179" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -10943,27 +11143,27 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>500</v>
-      </c>
-      <c r="G180" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>50명</v>
+      </c>
+      <c r="G180" s="10">
+        <f t="shared" si="24"/>
+        <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="I180" s="9" t="str" cm="1">
+        <f t="array" ref="I180">IF(AND(H179&gt;1000,H180&lt;2),INDEX(M:M,MATCH(I179,M:M,0)+1,0),I179)</f>
+        <v>명</v>
+      </c>
+      <c r="J180" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>50</v>
-      </c>
-      <c r="I180" s="9" cm="1">
-        <f t="array" ref="I180">IF(AND(H179&gt;1000,H180&lt;2),INDEX(M:M,MATCH(I179,M:M,0)+1,0),I179)</f>
-        <v>0</v>
-      </c>
-      <c r="J180" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -10973,27 +11173,27 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>1000</v>
-      </c>
-      <c r="G181" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>100명</v>
+      </c>
+      <c r="G181" s="10">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="I181" s="9" t="str" cm="1">
+        <f t="array" ref="I181">IF(AND(H180&gt;1000,H181&lt;2),INDEX(M:M,MATCH(I180,M:M,0)+1,0),I180)</f>
+        <v>명</v>
+      </c>
+      <c r="J181" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-      <c r="I181" s="9" cm="1">
-        <f t="array" ref="I181">IF(AND(H180&gt;1000,H181&lt;2),INDEX(M:M,MATCH(I180,M:M,0)+1,0),I180)</f>
-        <v>0</v>
-      </c>
-      <c r="J181" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -11003,27 +11203,27 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>5000</v>
-      </c>
-      <c r="G182" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>500명</v>
+      </c>
+      <c r="G182" s="10">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
+        <f t="shared" si="25"/>
+        <v>500</v>
+      </c>
+      <c r="I182" s="9" t="str" cm="1">
+        <f t="array" ref="I182">IF(AND(H181&gt;1000,H182&lt;2),INDEX(M:M,MATCH(I181,M:M,0)+1,0),I181)</f>
+        <v>명</v>
+      </c>
+      <c r="J182" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>500</v>
-      </c>
-      <c r="I182" s="9" cm="1">
-        <f t="array" ref="I182">IF(AND(H181&gt;1000,H182&lt;2),INDEX(M:M,MATCH(I181,M:M,0)+1,0),I181)</f>
-        <v>0</v>
-      </c>
-      <c r="J182" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -11033,27 +11233,27 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>10000</v>
-      </c>
-      <c r="G183" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>1000명</v>
+      </c>
+      <c r="G183" s="10">
+        <f t="shared" si="24"/>
+        <v>1E+151</v>
       </c>
       <c r="H183" s="10">
+        <f t="shared" si="25"/>
+        <v>1000</v>
+      </c>
+      <c r="I183" s="9" t="str" cm="1">
+        <f t="array" ref="I183">IF(AND(H182&gt;1000,H183&lt;2),INDEX(M:M,MATCH(I182,M:M,0)+1,0),I182)</f>
+        <v>명</v>
+      </c>
+      <c r="J183" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>1000</v>
-      </c>
-      <c r="I183" s="9" cm="1">
-        <f t="array" ref="I183">IF(AND(H182&gt;1000,H183&lt;2),INDEX(M:M,MATCH(I182,M:M,0)+1,0),I182)</f>
-        <v>0</v>
-      </c>
-      <c r="J183" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -11063,27 +11263,27 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>50000</v>
-      </c>
-      <c r="G184" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>5000명</v>
+      </c>
+      <c r="G184" s="10">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
+        <f t="shared" si="25"/>
+        <v>5000</v>
+      </c>
+      <c r="I184" s="9" t="str" cm="1">
+        <f t="array" ref="I184">IF(AND(H183&gt;1000,H184&lt;2),INDEX(M:M,MATCH(I183,M:M,0)+1,0),I183)</f>
+        <v>명</v>
+      </c>
+      <c r="J184" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="I184" s="9" cm="1">
-        <f t="array" ref="I184">IF(AND(H183&gt;1000,H184&lt;2),INDEX(M:M,MATCH(I183,M:M,0)+1,0),I183)</f>
-        <v>0</v>
-      </c>
-      <c r="J184" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -11092,28 +11292,28 @@
       <c r="E185" s="9">
         <v>176</v>
       </c>
-      <c r="F185" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F185" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="G185" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H185" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I185" s="9" cm="1">
+        <f t="array" ref="I185">IF(AND(H184&gt;1000,H185&lt;2),INDEX(M:M,MATCH(I184,M:M,0)+1,0),I184)</f>
+        <v>0</v>
+      </c>
+      <c r="J185" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="I185" s="9" t="e" cm="1">
-        <f t="array" ref="I185">IF(AND(H184&gt;1000,H185&lt;2),INDEX(M:M,MATCH(I184,M:M,0)+1,0),I184)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J185" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -11122,28 +11322,28 @@
       <c r="E186" s="9">
         <v>177</v>
       </c>
-      <c r="F186" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F186" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>50</v>
       </c>
       <c r="G186" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H186" s="10">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I186" s="9" cm="1">
+        <f t="array" ref="I186">IF(AND(H185&gt;1000,H186&lt;2),INDEX(M:M,MATCH(I185,M:M,0)+1,0),I185)</f>
+        <v>0</v>
+      </c>
+      <c r="J186" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="I186" s="9" t="e" cm="1">
-        <f t="array" ref="I186">IF(AND(H185&gt;1000,H186&lt;2),INDEX(M:M,MATCH(I185,M:M,0)+1,0),I185)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J186" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -11152,28 +11352,28 @@
       <c r="E187" s="9">
         <v>178</v>
       </c>
-      <c r="F187" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F187" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>100</v>
       </c>
       <c r="G187" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H187" s="10">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="I187" s="9" cm="1">
+        <f t="array" ref="I187">IF(AND(H186&gt;1000,H187&lt;2),INDEX(M:M,MATCH(I186,M:M,0)+1,0),I186)</f>
+        <v>0</v>
+      </c>
+      <c r="J187" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="I187" s="9" t="e" cm="1">
-        <f t="array" ref="I187">IF(AND(H186&gt;1000,H187&lt;2),INDEX(M:M,MATCH(I186,M:M,0)+1,0),I186)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J187" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -11182,28 +11382,28 @@
       <c r="E188" s="9">
         <v>179</v>
       </c>
-      <c r="F188" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F188" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>500</v>
       </c>
       <c r="G188" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H188" s="10">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="I188" s="9" cm="1">
+        <f t="array" ref="I188">IF(AND(H187&gt;1000,H188&lt;2),INDEX(M:M,MATCH(I187,M:M,0)+1,0),I187)</f>
+        <v>0</v>
+      </c>
+      <c r="J188" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>50</v>
-      </c>
-      <c r="I188" s="9" t="e" cm="1">
-        <f t="array" ref="I188">IF(AND(H187&gt;1000,H188&lt;2),INDEX(M:M,MATCH(I187,M:M,0)+1,0),I187)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J188" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -11212,28 +11412,28 @@
       <c r="E189" s="9">
         <v>180</v>
       </c>
-      <c r="F189" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F189" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1000</v>
       </c>
       <c r="G189" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H189" s="10">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="I189" s="9" cm="1">
+        <f t="array" ref="I189">IF(AND(H188&gt;1000,H189&lt;2),INDEX(M:M,MATCH(I188,M:M,0)+1,0),I188)</f>
+        <v>0</v>
+      </c>
+      <c r="J189" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-      <c r="I189" s="9" t="e" cm="1">
-        <f t="array" ref="I189">IF(AND(H188&gt;1000,H189&lt;2),INDEX(M:M,MATCH(I188,M:M,0)+1,0),I188)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J189" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -11242,28 +11442,28 @@
       <c r="E190" s="9">
         <v>181</v>
       </c>
-      <c r="F190" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F190" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>5000</v>
       </c>
       <c r="G190" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H190" s="10">
+        <f t="shared" si="25"/>
+        <v>500</v>
+      </c>
+      <c r="I190" s="9" cm="1">
+        <f t="array" ref="I190">IF(AND(H189&gt;1000,H190&lt;2),INDEX(M:M,MATCH(I189,M:M,0)+1,0),I189)</f>
+        <v>0</v>
+      </c>
+      <c r="J190" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>500</v>
-      </c>
-      <c r="I190" s="9" t="e" cm="1">
-        <f t="array" ref="I190">IF(AND(H189&gt;1000,H190&lt;2),INDEX(M:M,MATCH(I189,M:M,0)+1,0),I189)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J190" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -11272,28 +11472,28 @@
       <c r="E191" s="9">
         <v>182</v>
       </c>
-      <c r="F191" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F191" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>10000</v>
       </c>
       <c r="G191" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H191" s="10">
+        <f t="shared" si="25"/>
+        <v>1000</v>
+      </c>
+      <c r="I191" s="9" cm="1">
+        <f t="array" ref="I191">IF(AND(H190&gt;1000,H191&lt;2),INDEX(M:M,MATCH(I190,M:M,0)+1,0),I190)</f>
+        <v>0</v>
+      </c>
+      <c r="J191" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>1000</v>
-      </c>
-      <c r="I191" s="9" t="e" cm="1">
-        <f t="array" ref="I191">IF(AND(H190&gt;1000,H191&lt;2),INDEX(M:M,MATCH(I190,M:M,0)+1,0),I190)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J191" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -11302,28 +11502,28 @@
       <c r="E192" s="9">
         <v>183</v>
       </c>
-      <c r="F192" s="10" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
+      <c r="F192" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>50000</v>
       </c>
       <c r="G192" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H192" s="10">
+        <f t="shared" si="25"/>
+        <v>5000</v>
+      </c>
+      <c r="I192" s="9" cm="1">
+        <f t="array" ref="I192">IF(AND(H191&gt;1000,H192&lt;2),INDEX(M:M,MATCH(I191,M:M,0)+1,0),I191)</f>
+        <v>0</v>
+      </c>
+      <c r="J192" s="9" t="e">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="I192" s="9" t="e" cm="1">
-        <f t="array" ref="I192">IF(AND(H191&gt;1000,H192&lt;2),INDEX(M:M,MATCH(I191,M:M,0)+1,0),I191)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J192" s="9" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -11333,15 +11533,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="e" cm="1">
@@ -11349,11 +11549,11 @@
         <v>#N/A</v>
       </c>
       <c r="J193" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -11363,15 +11563,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="e" cm="1">
@@ -11379,11 +11579,11 @@
         <v>#N/A</v>
       </c>
       <c r="J194" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -11393,15 +11593,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="G195" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="e" cm="1">
@@ -11409,11 +11609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J195" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -11423,15 +11623,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="G196" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="e" cm="1">
@@ -11439,11 +11639,11 @@
         <v>#N/A</v>
       </c>
       <c r="J196" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -11453,15 +11653,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="e">
-        <f t="shared" ref="F197:F256" si="25">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="27">H197&amp;I197</f>
         <v>#N/A</v>
       </c>
       <c r="G197" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="e" cm="1">
@@ -11469,11 +11669,11 @@
         <v>#N/A</v>
       </c>
       <c r="J197" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -11483,15 +11683,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G198" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G198" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="e" cm="1">
@@ -11499,11 +11699,11 @@
         <v>#N/A</v>
       </c>
       <c r="J198" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -11513,15 +11713,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G199" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G199" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="e" cm="1">
@@ -11529,11 +11729,11 @@
         <v>#N/A</v>
       </c>
       <c r="J199" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -11543,15 +11743,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G200" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G200" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="e" cm="1">
@@ -11559,11 +11759,11 @@
         <v>#N/A</v>
       </c>
       <c r="J200" s="9" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -11573,15 +11773,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G201" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G201" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="e" cm="1">
@@ -11589,11 +11789,11 @@
         <v>#N/A</v>
       </c>
       <c r="J201" s="9" t="e">
-        <f t="shared" ref="J201:J256" si="26">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="28">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -11603,15 +11803,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G202" s="10" t="e">
+        <f t="shared" ref="G202:G256" si="29">H202*J202</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G202" s="10" t="e">
-        <f t="shared" ref="G202:G256" si="27">H202*J202</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="e" cm="1">
@@ -11619,11 +11819,11 @@
         <v>#N/A</v>
       </c>
       <c r="J202" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="24"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -11633,15 +11833,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G203" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G203" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="e" cm="1">
@@ -11649,11 +11849,11 @@
         <v>#N/A</v>
       </c>
       <c r="J203" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="24"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -11663,15 +11863,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G204" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G204" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="e" cm="1">
@@ -11679,11 +11879,11 @@
         <v>#N/A</v>
       </c>
       <c r="J204" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="24"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -11693,15 +11893,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G205" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G205" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="e" cm="1">
@@ -11709,11 +11909,11 @@
         <v>#N/A</v>
       </c>
       <c r="J205" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="24"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -11723,15 +11923,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G206" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G206" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="e" cm="1">
@@ -11739,11 +11939,11 @@
         <v>#N/A</v>
       </c>
       <c r="J206" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="24"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -11753,15 +11953,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G207" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G207" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="e" cm="1">
@@ -11769,11 +11969,11 @@
         <v>#N/A</v>
       </c>
       <c r="J207" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="24"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -11783,15 +11983,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G208" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G208" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="e" cm="1">
@@ -11799,11 +11999,11 @@
         <v>#N/A</v>
       </c>
       <c r="J208" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="24"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -11813,15 +12013,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G209" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G209" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="e" cm="1">
@@ -11829,11 +12029,11 @@
         <v>#N/A</v>
       </c>
       <c r="J209" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="24"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -11843,15 +12043,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="28">H202</f>
+        <f t="shared" ref="H210:H256" si="30">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="e" cm="1">
@@ -11859,11 +12059,11 @@
         <v>#N/A</v>
       </c>
       <c r="J210" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="24"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -11873,15 +12073,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="e" cm="1">
@@ -11889,11 +12089,11 @@
         <v>#N/A</v>
       </c>
       <c r="J211" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="24"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -11903,15 +12103,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="e" cm="1">
@@ -11919,11 +12119,11 @@
         <v>#N/A</v>
       </c>
       <c r="J212" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="24"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -11933,15 +12133,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="e" cm="1">
@@ -11949,11 +12149,11 @@
         <v>#N/A</v>
       </c>
       <c r="J213" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="24"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -11963,15 +12163,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="e" cm="1">
@@ -11979,11 +12179,11 @@
         <v>#N/A</v>
       </c>
       <c r="J214" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="24"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -11993,15 +12193,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="e" cm="1">
@@ -12009,11 +12209,11 @@
         <v>#N/A</v>
       </c>
       <c r="J215" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="24"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -12023,15 +12223,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="e" cm="1">
@@ -12039,11 +12239,11 @@
         <v>#N/A</v>
       </c>
       <c r="J216" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -12053,15 +12253,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="e" cm="1">
@@ -12069,11 +12269,11 @@
         <v>#N/A</v>
       </c>
       <c r="J217" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K217" s="5">
-        <f t="shared" si="24"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -12083,15 +12283,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="e" cm="1">
@@ -12099,11 +12299,11 @@
         <v>#N/A</v>
       </c>
       <c r="J218" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K218" s="5">
-        <f t="shared" si="24"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -12113,15 +12313,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="e" cm="1">
@@ -12129,11 +12329,11 @@
         <v>#N/A</v>
       </c>
       <c r="J219" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K219" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K219" s="5">
-        <f t="shared" si="24"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -12143,15 +12343,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="e" cm="1">
@@ -12159,11 +12359,11 @@
         <v>#N/A</v>
       </c>
       <c r="J220" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K220" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K220" s="5">
-        <f t="shared" si="24"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -12173,15 +12373,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="e" cm="1">
@@ -12189,11 +12389,11 @@
         <v>#N/A</v>
       </c>
       <c r="J221" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K221" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K221" s="5">
-        <f t="shared" si="24"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -12203,15 +12403,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="e" cm="1">
@@ -12219,11 +12419,11 @@
         <v>#N/A</v>
       </c>
       <c r="J222" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K222" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K222" s="5">
-        <f t="shared" si="24"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -12233,15 +12433,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="e" cm="1">
@@ -12249,11 +12449,11 @@
         <v>#N/A</v>
       </c>
       <c r="J223" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K223" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K223" s="5">
-        <f t="shared" si="24"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -12263,15 +12463,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="e" cm="1">
@@ -12279,11 +12479,11 @@
         <v>#N/A</v>
       </c>
       <c r="J224" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K224" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K224" s="5">
-        <f t="shared" si="24"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -12293,15 +12493,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="e" cm="1">
@@ -12309,11 +12509,11 @@
         <v>#N/A</v>
       </c>
       <c r="J225" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K225" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K225" s="5">
-        <f t="shared" si="24"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -12323,15 +12523,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="e" cm="1">
@@ -12339,11 +12539,11 @@
         <v>#N/A</v>
       </c>
       <c r="J226" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K226" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K226" s="5">
-        <f t="shared" si="24"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -12353,15 +12553,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="e" cm="1">
@@ -12369,11 +12569,11 @@
         <v>#N/A</v>
       </c>
       <c r="J227" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K227" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K227" s="5">
-        <f t="shared" si="24"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -12383,15 +12583,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="e" cm="1">
@@ -12399,11 +12599,11 @@
         <v>#N/A</v>
       </c>
       <c r="J228" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K228" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K228" s="5">
-        <f t="shared" si="24"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -12413,15 +12613,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="e" cm="1">
@@ -12429,11 +12629,11 @@
         <v>#N/A</v>
       </c>
       <c r="J229" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K229" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K229" s="5">
-        <f t="shared" si="24"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -12443,15 +12643,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="e" cm="1">
@@ -12459,11 +12659,11 @@
         <v>#N/A</v>
       </c>
       <c r="J230" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K230" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K230" s="5">
-        <f t="shared" si="24"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -12473,15 +12673,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="e" cm="1">
@@ -12489,11 +12689,11 @@
         <v>#N/A</v>
       </c>
       <c r="J231" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K231" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K231" s="5">
-        <f t="shared" si="24"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -12503,15 +12703,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="e" cm="1">
@@ -12519,11 +12719,11 @@
         <v>#N/A</v>
       </c>
       <c r="J232" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K232" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K232" s="5">
-        <f t="shared" si="24"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -12533,15 +12733,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="e" cm="1">
@@ -12549,11 +12749,11 @@
         <v>#N/A</v>
       </c>
       <c r="J233" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K233" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K233" s="5">
-        <f t="shared" si="24"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -12563,15 +12763,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="e" cm="1">
@@ -12579,11 +12779,11 @@
         <v>#N/A</v>
       </c>
       <c r="J234" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K234" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K234" s="5">
-        <f t="shared" si="24"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -12593,15 +12793,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="e" cm="1">
@@ -12609,11 +12809,11 @@
         <v>#N/A</v>
       </c>
       <c r="J235" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K235" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K235" s="5">
-        <f t="shared" si="24"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -12623,15 +12823,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="e" cm="1">
@@ -12639,11 +12839,11 @@
         <v>#N/A</v>
       </c>
       <c r="J236" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K236" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K236" s="5">
-        <f t="shared" si="24"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -12653,15 +12853,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="e" cm="1">
@@ -12669,11 +12869,11 @@
         <v>#N/A</v>
       </c>
       <c r="J237" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K237" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K237" s="5">
-        <f t="shared" si="24"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -12683,15 +12883,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="e" cm="1">
@@ -12699,11 +12899,11 @@
         <v>#N/A</v>
       </c>
       <c r="J238" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K238" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K238" s="5">
-        <f t="shared" si="24"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -12713,15 +12913,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="e" cm="1">
@@ -12729,11 +12929,11 @@
         <v>#N/A</v>
       </c>
       <c r="J239" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K239" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K239" s="5">
-        <f t="shared" si="24"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -12743,15 +12943,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="e" cm="1">
@@ -12759,11 +12959,11 @@
         <v>#N/A</v>
       </c>
       <c r="J240" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K240" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K240" s="5">
-        <f t="shared" si="24"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -12773,15 +12973,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -12789,11 +12989,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K241" s="5">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K241" s="5">
-        <f t="shared" si="24"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -12803,15 +13003,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -12819,11 +13019,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="29">K241+4</f>
+        <f t="shared" ref="K242:K256" si="31">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -12833,15 +13033,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -12849,11 +13049,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -12863,15 +13063,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -12879,11 +13079,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -12893,15 +13093,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -12909,11 +13109,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -12923,15 +13123,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -12939,11 +13139,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -12953,15 +13153,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -12969,11 +13169,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -12983,15 +13183,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -12999,11 +13199,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -13013,15 +13213,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -13029,11 +13229,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -13043,15 +13243,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -13059,11 +13259,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -13073,15 +13273,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -13089,11 +13289,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -13103,15 +13303,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -13119,11 +13319,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -13133,15 +13333,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -13149,11 +13349,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -13163,15 +13363,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -13179,11 +13379,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -13193,15 +13393,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -13209,11 +13409,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -13223,15 +13423,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -13239,11 +13439,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D1811-47F7-4710-8131-524E43A6070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B797A9AA-71FF-4F4A-8517-C5946BD01058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,11 +953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5029,6 +5037,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <f>VLOOKUP(A178,Balance!E:J,3,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="C178" s="1" t="str">
+        <f>VLOOKUP(A178,Balance!E:J,2,FALSE)</f>
+        <v>1월</v>
+      </c>
+      <c r="D178" s="24">
+        <v>20</v>
+      </c>
+      <c r="E178" s="1">
+        <f>VLOOKUP(A178,Balance!E:K,7,FALSE)</f>
+        <v>476</v>
+      </c>
+      <c r="F178" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <f>VLOOKUP(A179,Balance!E:J,3,FALSE)</f>
+        <v>5E+152</v>
+      </c>
+      <c r="C179" s="1" t="str">
+        <f>VLOOKUP(A179,Balance!E:J,2,FALSE)</f>
+        <v>5월</v>
+      </c>
+      <c r="D179" s="24">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1">
+        <f>VLOOKUP(A179,Balance!E:K,7,FALSE)</f>
+        <v>480</v>
+      </c>
+      <c r="F179" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <f>VLOOKUP(A180,Balance!E:J,3,FALSE)</f>
+        <v>1E+153</v>
+      </c>
+      <c r="C180" s="1" t="str">
+        <f>VLOOKUP(A180,Balance!E:J,2,FALSE)</f>
+        <v>10월</v>
+      </c>
+      <c r="D180" s="24">
+        <v>20</v>
+      </c>
+      <c r="E180" s="1">
+        <f>VLOOKUP(A180,Balance!E:K,7,FALSE)</f>
+        <v>484</v>
+      </c>
+      <c r="F180" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <f>VLOOKUP(A181,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="C181" s="1" t="str">
+        <f>VLOOKUP(A181,Balance!E:J,2,FALSE)</f>
+        <v>50월</v>
+      </c>
+      <c r="D181" s="24">
+        <v>20</v>
+      </c>
+      <c r="E181" s="1">
+        <f>VLOOKUP(A181,Balance!E:K,7,FALSE)</f>
+        <v>488</v>
+      </c>
+      <c r="F181" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <f>VLOOKUP(A182,Balance!E:J,3,FALSE)</f>
+        <v>1E+154</v>
+      </c>
+      <c r="C182" s="1" t="str">
+        <f>VLOOKUP(A182,Balance!E:J,2,FALSE)</f>
+        <v>100월</v>
+      </c>
+      <c r="D182" s="24">
+        <v>20</v>
+      </c>
+      <c r="E182" s="1">
+        <f>VLOOKUP(A182,Balance!E:K,7,FALSE)</f>
+        <v>492</v>
+      </c>
+      <c r="F182" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <f>VLOOKUP(A183,Balance!E:J,3,FALSE)</f>
+        <v>5E+154</v>
+      </c>
+      <c r="C183" s="1" t="str">
+        <f>VLOOKUP(A183,Balance!E:J,2,FALSE)</f>
+        <v>500월</v>
+      </c>
+      <c r="D183" s="24">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1">
+        <f>VLOOKUP(A183,Balance!E:K,7,FALSE)</f>
+        <v>496</v>
+      </c>
+      <c r="F183" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <f>VLOOKUP(A184,Balance!E:J,3,FALSE)</f>
+        <v>1E+155</v>
+      </c>
+      <c r="C184" s="1" t="str">
+        <f>VLOOKUP(A184,Balance!E:J,2,FALSE)</f>
+        <v>1000월</v>
+      </c>
+      <c r="D184" s="24">
+        <v>20</v>
+      </c>
+      <c r="E184" s="1">
+        <f>VLOOKUP(A184,Balance!E:K,7,FALSE)</f>
+        <v>500</v>
+      </c>
+      <c r="F184" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <f>VLOOKUP(A185,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="C185" s="1" t="str">
+        <f>VLOOKUP(A185,Balance!E:J,2,FALSE)</f>
+        <v>5000월</v>
+      </c>
+      <c r="D185" s="24">
+        <v>20</v>
+      </c>
+      <c r="E185" s="1">
+        <f>VLOOKUP(A185,Balance!E:K,7,FALSE)</f>
+        <v>504</v>
+      </c>
+      <c r="F185" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5041,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="B173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6875,8 +7067,20 @@
         <v>20</v>
       </c>
       <c r="L45" s="20"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="M45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="9">
+        <v>152</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" ref="O45" si="16">POWER(10,N45)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="P45" s="10" t="str">
+        <f t="shared" ref="P45" si="17">RIGHT(O45,N45)</f>
+        <v>1E+152</v>
+      </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
@@ -6916,8 +7120,20 @@
         <v>21</v>
       </c>
       <c r="L46" s="20"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="M46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N46" s="9">
+        <v>156</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" ref="O46" si="18">POWER(10,N46)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="P46" s="10" t="str">
+        <f t="shared" ref="P46" si="19">RIGHT(O46,N46)</f>
+        <v>1E+156</v>
+      </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
@@ -7732,7 +7948,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="16">K65+3</f>
+        <f t="shared" ref="K66:K112" si="20">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -7773,7 +7989,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -7803,7 +8019,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -7813,7 +8029,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="17">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="21">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -7833,7 +8049,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -7843,7 +8059,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -7863,7 +8079,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -7873,7 +8089,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -7893,7 +8109,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -7903,7 +8119,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -7923,7 +8139,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -7933,7 +8149,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -7949,11 +8165,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="18">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="22">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -7963,11 +8179,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="19">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="23">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -7979,11 +8195,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -7993,11 +8209,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -8009,11 +8225,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -8023,11 +8239,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -8039,11 +8255,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -8053,11 +8269,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -8069,11 +8285,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -8083,11 +8299,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -8099,11 +8315,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -8113,11 +8329,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -8129,11 +8345,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -8143,11 +8359,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -8159,11 +8375,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -8173,11 +8389,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -8189,11 +8405,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -8203,15 +8419,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="20">H74</f>
+        <f t="shared" ref="H82:H145" si="24">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -8219,11 +8435,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -8233,15 +8449,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -8249,11 +8465,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -8263,15 +8479,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -8279,11 +8495,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -8293,15 +8509,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -8309,11 +8525,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -8323,15 +8539,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -8339,11 +8555,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -8353,15 +8569,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -8369,11 +8585,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -8383,15 +8599,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -8399,11 +8615,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -8413,15 +8629,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -8429,7 +8645,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -8443,15 +8659,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -8459,11 +8675,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -8473,15 +8689,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -8489,11 +8705,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -8503,15 +8719,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -8519,11 +8735,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -8533,15 +8749,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -8549,11 +8765,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -8563,15 +8779,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -8579,11 +8795,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -8593,15 +8809,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -8609,11 +8825,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K95" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -8623,15 +8839,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -8639,11 +8855,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -8653,15 +8869,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -8669,11 +8885,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -8683,15 +8899,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -8699,11 +8915,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -8713,15 +8929,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -8729,11 +8945,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -8743,15 +8959,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -8759,11 +8975,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -8773,15 +8989,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -8789,11 +9005,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -8803,15 +9019,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -8819,11 +9035,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K102" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -8833,15 +9049,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -8849,11 +9065,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -8863,15 +9079,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -8879,11 +9095,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -8893,15 +9109,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -8909,11 +9125,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -8923,15 +9139,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -8939,11 +9155,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -8953,15 +9169,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -8969,11 +9185,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -8983,15 +9199,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -8999,11 +9215,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -9013,15 +9229,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -9029,11 +9245,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -9043,15 +9259,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -9059,11 +9275,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K110" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -9073,15 +9289,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -9089,11 +9305,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K111" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -9103,15 +9319,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -9119,11 +9335,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K112" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -9133,15 +9349,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -9149,7 +9365,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -9163,15 +9379,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -9179,11 +9395,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="21">K113+4</f>
+        <f t="shared" ref="K114:K177" si="25">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -9193,15 +9409,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -9209,11 +9425,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -9223,15 +9439,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -9239,11 +9455,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -9253,15 +9469,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -9269,11 +9485,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -9283,15 +9499,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -9299,11 +9515,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -9313,15 +9529,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -9329,11 +9545,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -9343,15 +9559,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -9359,11 +9575,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -9373,15 +9589,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -9389,11 +9605,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -9403,15 +9619,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -9419,11 +9635,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -9433,15 +9649,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -9449,11 +9665,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -9463,15 +9679,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -9479,11 +9695,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -9493,15 +9709,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -9509,11 +9725,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -9523,15 +9739,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -9539,11 +9755,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -9553,15 +9769,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -9569,11 +9785,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -9583,15 +9799,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -9599,11 +9815,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -9613,15 +9829,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -9629,11 +9845,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -9643,15 +9859,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -9659,11 +9875,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -9673,15 +9889,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -9689,11 +9905,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -9703,15 +9919,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -9719,11 +9935,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -9733,15 +9949,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="22">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="26">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -9749,11 +9965,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -9763,15 +9979,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500교</v>
       </c>
       <c r="G134" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+126</v>
       </c>
       <c r="H134" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -9779,11 +9995,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -9793,15 +10009,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000교</v>
       </c>
       <c r="G135" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H135" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -9809,11 +10025,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -9823,15 +10039,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000교</v>
       </c>
       <c r="G136" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999994E+127</v>
       </c>
       <c r="H136" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -9839,11 +10055,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -9853,15 +10069,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1위</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H137" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -9869,11 +10085,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="23">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="27">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -9883,15 +10099,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5위</v>
       </c>
       <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="24">H138*J138</f>
+        <f t="shared" ref="G138:G201" si="28">H138*J138</f>
         <v>5E+128</v>
       </c>
       <c r="H138" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -9899,11 +10115,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -9913,15 +10129,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10위</v>
       </c>
       <c r="G139" s="10">
+        <f t="shared" si="28"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="24"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -9929,11 +10145,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K139" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -9943,15 +10159,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50위</v>
       </c>
       <c r="G140" s="10">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="24"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -9959,11 +10175,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K140" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -9973,15 +10189,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100위</v>
       </c>
       <c r="G141" s="10">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -9989,11 +10205,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K141" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -10003,15 +10219,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500위</v>
       </c>
       <c r="G142" s="10">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="24"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -10019,11 +10235,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K142" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -10033,15 +10249,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000위</v>
       </c>
       <c r="G143" s="10">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -10049,11 +10265,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -10063,15 +10279,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000위</v>
       </c>
       <c r="G144" s="10">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="24"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -10079,11 +10295,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+128</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -10093,15 +10309,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1설</v>
       </c>
       <c r="G145" s="10">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="24"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -10109,11 +10325,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -10123,15 +10339,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="25">H138</f>
+        <f t="shared" ref="H146:H209" si="29">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -10139,11 +10355,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -10153,15 +10369,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -10169,11 +10385,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -10183,15 +10399,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -10199,11 +10415,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -10213,15 +10429,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -10229,11 +10445,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -10243,15 +10459,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -10259,11 +10475,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -10273,15 +10489,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -10289,11 +10505,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -10303,15 +10519,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -10319,11 +10535,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+132</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -10333,15 +10549,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -10349,11 +10565,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -10363,15 +10579,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -10379,11 +10595,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -10393,15 +10609,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -10409,11 +10625,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -10423,15 +10639,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -10439,11 +10655,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -10453,15 +10669,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -10469,11 +10685,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -10483,15 +10699,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -10499,11 +10715,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -10513,15 +10729,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -10529,11 +10745,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -10543,15 +10759,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -10559,11 +10775,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+136</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -10573,15 +10789,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -10589,11 +10805,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -10603,15 +10819,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -10619,11 +10835,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -10633,15 +10849,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -10649,11 +10865,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -10663,15 +10879,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -10679,11 +10895,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -10693,15 +10909,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -10709,11 +10925,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K165" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -10723,15 +10939,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -10739,11 +10955,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K166" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -10753,15 +10969,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -10769,11 +10985,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K167" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -10783,15 +10999,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -10799,11 +11015,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="K168" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -10813,15 +11029,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -10829,11 +11045,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -10843,15 +11059,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -10859,11 +11075,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -10873,15 +11089,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -10889,11 +11105,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -10903,15 +11119,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -10919,11 +11135,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -10933,15 +11149,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -10949,11 +11165,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -10963,15 +11179,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -10979,11 +11195,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -10993,15 +11209,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -11009,11 +11225,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -11023,15 +11239,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -11039,11 +11255,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="K176" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -11053,15 +11269,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -11069,11 +11285,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K177" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -11083,15 +11299,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -11099,11 +11315,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="26">K177+4</f>
+        <f t="shared" ref="K178:K241" si="30">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -11113,15 +11329,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -11129,11 +11345,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -11143,15 +11359,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -11159,11 +11375,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -11173,15 +11389,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -11189,11 +11405,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -11203,15 +11419,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -11219,11 +11435,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -11233,15 +11449,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -11249,11 +11465,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -11263,15 +11479,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -11279,11 +11495,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -11293,27 +11509,27 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="G185" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>1월</v>
+      </c>
+      <c r="G185" s="10">
+        <f t="shared" si="28"/>
+        <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="I185" s="9" cm="1">
+      <c r="I185" s="9" t="str" cm="1">
         <f t="array" ref="I185">IF(AND(H184&gt;1000,H185&lt;2),INDEX(M:M,MATCH(I184,M:M,0)+1,0),I184)</f>
-        <v>0</v>
-      </c>
-      <c r="J185" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J185" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -11323,27 +11539,27 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="G186" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>5월</v>
+      </c>
+      <c r="G186" s="10">
+        <f t="shared" si="28"/>
+        <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="I186" s="9" cm="1">
+      <c r="I186" s="9" t="str" cm="1">
         <f t="array" ref="I186">IF(AND(H185&gt;1000,H186&lt;2),INDEX(M:M,MATCH(I185,M:M,0)+1,0),I185)</f>
-        <v>0</v>
-      </c>
-      <c r="J186" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J186" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -11353,27 +11569,27 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="G187" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>10월</v>
+      </c>
+      <c r="G187" s="10">
+        <f t="shared" si="28"/>
+        <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="I187" s="9" cm="1">
+      <c r="I187" s="9" t="str" cm="1">
         <f t="array" ref="I187">IF(AND(H186&gt;1000,H187&lt;2),INDEX(M:M,MATCH(I186,M:M,0)+1,0),I186)</f>
-        <v>0</v>
-      </c>
-      <c r="J187" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J187" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -11383,27 +11599,27 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="G188" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>50월</v>
+      </c>
+      <c r="G188" s="10">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="I188" s="9" cm="1">
+      <c r="I188" s="9" t="str" cm="1">
         <f t="array" ref="I188">IF(AND(H187&gt;1000,H188&lt;2),INDEX(M:M,MATCH(I187,M:M,0)+1,0),I187)</f>
-        <v>0</v>
-      </c>
-      <c r="J188" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J188" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -11413,27 +11629,27 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>1000</v>
-      </c>
-      <c r="G189" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>100월</v>
+      </c>
+      <c r="G189" s="10">
+        <f t="shared" si="28"/>
+        <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="I189" s="9" cm="1">
+      <c r="I189" s="9" t="str" cm="1">
         <f t="array" ref="I189">IF(AND(H188&gt;1000,H189&lt;2),INDEX(M:M,MATCH(I188,M:M,0)+1,0),I188)</f>
-        <v>0</v>
-      </c>
-      <c r="J189" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J189" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -11443,27 +11659,27 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>5000</v>
-      </c>
-      <c r="G190" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>500월</v>
+      </c>
+      <c r="G190" s="10">
+        <f t="shared" si="28"/>
+        <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
-      <c r="I190" s="9" cm="1">
+      <c r="I190" s="9" t="str" cm="1">
         <f t="array" ref="I190">IF(AND(H189&gt;1000,H190&lt;2),INDEX(M:M,MATCH(I189,M:M,0)+1,0),I189)</f>
-        <v>0</v>
-      </c>
-      <c r="J190" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J190" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -11473,27 +11689,27 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>10000</v>
-      </c>
-      <c r="G191" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>1000월</v>
+      </c>
+      <c r="G191" s="10">
+        <f t="shared" si="28"/>
+        <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
-      <c r="I191" s="9" cm="1">
+      <c r="I191" s="9" t="str" cm="1">
         <f t="array" ref="I191">IF(AND(H190&gt;1000,H191&lt;2),INDEX(M:M,MATCH(I190,M:M,0)+1,0),I190)</f>
-        <v>0</v>
-      </c>
-      <c r="J191" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J191" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -11503,27 +11719,27 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>50000</v>
-      </c>
-      <c r="G192" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>5000월</v>
+      </c>
+      <c r="G192" s="10">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
-      <c r="I192" s="9" cm="1">
+      <c r="I192" s="9" t="str" cm="1">
         <f t="array" ref="I192">IF(AND(H191&gt;1000,H192&lt;2),INDEX(M:M,MATCH(I191,M:M,0)+1,0),I191)</f>
-        <v>0</v>
-      </c>
-      <c r="J192" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>월</v>
+      </c>
+      <c r="J192" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -11532,28 +11748,28 @@
       <c r="E193" s="9">
         <v>184</v>
       </c>
-      <c r="F193" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G193" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+      <c r="F193" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>1a</v>
+      </c>
+      <c r="G193" s="10">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="I193" s="9" t="e" cm="1">
+      <c r="I193" s="9" t="str" cm="1">
         <f t="array" ref="I193">IF(AND(H192&gt;1000,H193&lt;2),INDEX(M:M,MATCH(I192,M:M,0)+1,0),I192)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J193" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J193" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -11562,28 +11778,28 @@
       <c r="E194" s="9">
         <v>185</v>
       </c>
-      <c r="F194" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G194" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+      <c r="F194" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>5a</v>
+      </c>
+      <c r="G194" s="10">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="I194" s="9" t="e" cm="1">
+      <c r="I194" s="9" t="str" cm="1">
         <f t="array" ref="I194">IF(AND(H193&gt;1000,H194&lt;2),INDEX(M:M,MATCH(I193,M:M,0)+1,0),I193)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J194" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J194" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -11592,28 +11808,28 @@
       <c r="E195" s="9">
         <v>186</v>
       </c>
-      <c r="F195" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G195" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+      <c r="F195" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>10a</v>
+      </c>
+      <c r="G195" s="10">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="I195" s="9" t="e" cm="1">
+      <c r="I195" s="9" t="str" cm="1">
         <f t="array" ref="I195">IF(AND(H194&gt;1000,H195&lt;2),INDEX(M:M,MATCH(I194,M:M,0)+1,0),I194)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J195" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J195" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -11622,28 +11838,28 @@
       <c r="E196" s="9">
         <v>187</v>
       </c>
-      <c r="F196" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G196" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+      <c r="F196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>50a</v>
+      </c>
+      <c r="G196" s="10">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="I196" s="9" t="e" cm="1">
+      <c r="I196" s="9" t="str" cm="1">
         <f t="array" ref="I196">IF(AND(H195&gt;1000,H196&lt;2),INDEX(M:M,MATCH(I195,M:M,0)+1,0),I195)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J196" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J196" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -11652,28 +11868,28 @@
       <c r="E197" s="9">
         <v>188</v>
       </c>
-      <c r="F197" s="10" t="e">
-        <f t="shared" ref="F197:F256" si="27">H197&amp;I197</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G197" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
+      <c r="F197" s="10" t="str">
+        <f t="shared" ref="F197:F256" si="31">H197&amp;I197</f>
+        <v>100a</v>
+      </c>
+      <c r="G197" s="10">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="I197" s="9" t="e" cm="1">
+      <c r="I197" s="9" t="str" cm="1">
         <f t="array" ref="I197">IF(AND(H196&gt;1000,H197&lt;2),INDEX(M:M,MATCH(I196,M:M,0)+1,0),I196)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J197" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J197" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -11682,28 +11898,28 @@
       <c r="E198" s="9">
         <v>189</v>
       </c>
-      <c r="F198" s="10" t="e">
+      <c r="F198" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>500a</v>
+      </c>
+      <c r="G198" s="10">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H198" s="10">
+        <f t="shared" si="29"/>
+        <v>500</v>
+      </c>
+      <c r="I198" s="9" t="str" cm="1">
+        <f t="array" ref="I198">IF(AND(H197&gt;1000,H198&lt;2),INDEX(M:M,MATCH(I197,M:M,0)+1,0),I197)</f>
+        <v>a</v>
+      </c>
+      <c r="J198" s="9" t="str">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G198" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="25"/>
-        <v>500</v>
-      </c>
-      <c r="I198" s="9" t="e" cm="1">
-        <f t="array" ref="I198">IF(AND(H197&gt;1000,H198&lt;2),INDEX(M:M,MATCH(I197,M:M,0)+1,0),I197)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J198" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -11712,28 +11928,28 @@
       <c r="E199" s="9">
         <v>190</v>
       </c>
-      <c r="F199" s="10" t="e">
+      <c r="F199" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>1000a</v>
+      </c>
+      <c r="G199" s="10">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H199" s="10">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="I199" s="9" t="str" cm="1">
+        <f t="array" ref="I199">IF(AND(H198&gt;1000,H199&lt;2),INDEX(M:M,MATCH(I198,M:M,0)+1,0),I198)</f>
+        <v>a</v>
+      </c>
+      <c r="J199" s="9" t="str">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G199" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="25"/>
-        <v>1000</v>
-      </c>
-      <c r="I199" s="9" t="e" cm="1">
-        <f t="array" ref="I199">IF(AND(H198&gt;1000,H199&lt;2),INDEX(M:M,MATCH(I198,M:M,0)+1,0),I198)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J199" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -11742,28 +11958,28 @@
       <c r="E200" s="9">
         <v>191</v>
       </c>
-      <c r="F200" s="10" t="e">
+      <c r="F200" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>5000a</v>
+      </c>
+      <c r="G200" s="10">
+        <f t="shared" si="28"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H200" s="10">
+        <f t="shared" si="29"/>
+        <v>5000</v>
+      </c>
+      <c r="I200" s="9" t="str" cm="1">
+        <f t="array" ref="I200">IF(AND(H199&gt;1000,H200&lt;2),INDEX(M:M,MATCH(I199,M:M,0)+1,0),I199)</f>
+        <v>a</v>
+      </c>
+      <c r="J200" s="9" t="str">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G200" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="25"/>
-        <v>5000</v>
-      </c>
-      <c r="I200" s="9" t="e" cm="1">
-        <f t="array" ref="I200">IF(AND(H199&gt;1000,H200&lt;2),INDEX(M:M,MATCH(I199,M:M,0)+1,0),I199)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J200" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -11772,28 +11988,28 @@
       <c r="E201" s="9">
         <v>192</v>
       </c>
-      <c r="F201" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F201" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>10</v>
       </c>
       <c r="G201" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="H201" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="I201" s="9" t="e" cm="1">
+      <c r="I201" s="9" cm="1">
         <f t="array" ref="I201">IF(AND(H200&gt;1000,H201&lt;2),INDEX(M:M,MATCH(I200,M:M,0)+1,0),I200)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J201" s="9" t="e">
-        <f t="shared" ref="J201:J256" si="28">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="32">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -11802,28 +12018,28 @@
       <c r="E202" s="9">
         <v>193</v>
       </c>
-      <c r="F202" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F202" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>50</v>
       </c>
       <c r="G202" s="10" t="e">
-        <f t="shared" ref="G202:G256" si="29">H202*J202</f>
+        <f t="shared" ref="G202:G256" si="33">H202*J202</f>
         <v>#N/A</v>
       </c>
       <c r="H202" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="I202" s="9" t="e" cm="1">
+      <c r="I202" s="9" cm="1">
         <f t="array" ref="I202">IF(AND(H201&gt;1000,H202&lt;2),INDEX(M:M,MATCH(I201,M:M,0)+1,0),I201)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J202" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K202" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -11832,28 +12048,28 @@
       <c r="E203" s="9">
         <v>194</v>
       </c>
-      <c r="F203" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F203" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>100</v>
       </c>
       <c r="G203" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="I203" s="9" t="e" cm="1">
+      <c r="I203" s="9" cm="1">
         <f t="array" ref="I203">IF(AND(H202&gt;1000,H203&lt;2),INDEX(M:M,MATCH(I202,M:M,0)+1,0),I202)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J203" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K203" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -11862,28 +12078,28 @@
       <c r="E204" s="9">
         <v>195</v>
       </c>
-      <c r="F204" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F204" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>500</v>
       </c>
       <c r="G204" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="25"/>
         <v>50</v>
       </c>
-      <c r="I204" s="9" t="e" cm="1">
+      <c r="I204" s="9" cm="1">
         <f t="array" ref="I204">IF(AND(H203&gt;1000,H204&lt;2),INDEX(M:M,MATCH(I203,M:M,0)+1,0),I203)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J204" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K204" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -11892,28 +12108,28 @@
       <c r="E205" s="9">
         <v>196</v>
       </c>
-      <c r="F205" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F205" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>1000</v>
       </c>
       <c r="G205" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="I205" s="9" t="e" cm="1">
+      <c r="I205" s="9" cm="1">
         <f t="array" ref="I205">IF(AND(H204&gt;1000,H205&lt;2),INDEX(M:M,MATCH(I204,M:M,0)+1,0),I204)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J205" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K205" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -11922,28 +12138,28 @@
       <c r="E206" s="9">
         <v>197</v>
       </c>
-      <c r="F206" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F206" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>5000</v>
       </c>
       <c r="G206" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="25"/>
         <v>500</v>
       </c>
-      <c r="I206" s="9" t="e" cm="1">
+      <c r="I206" s="9" cm="1">
         <f t="array" ref="I206">IF(AND(H205&gt;1000,H206&lt;2),INDEX(M:M,MATCH(I205,M:M,0)+1,0),I205)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J206" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K206" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -11952,28 +12168,28 @@
       <c r="E207" s="9">
         <v>198</v>
       </c>
-      <c r="F207" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F207" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>10000</v>
       </c>
       <c r="G207" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
-      <c r="I207" s="9" t="e" cm="1">
+      <c r="I207" s="9" cm="1">
         <f t="array" ref="I207">IF(AND(H206&gt;1000,H207&lt;2),INDEX(M:M,MATCH(I206,M:M,0)+1,0),I206)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J207" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K207" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -11982,28 +12198,28 @@
       <c r="E208" s="9">
         <v>199</v>
       </c>
-      <c r="F208" s="10" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
+      <c r="F208" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>50000</v>
       </c>
       <c r="G208" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="25"/>
         <v>5000</v>
       </c>
-      <c r="I208" s="9" t="e" cm="1">
+      <c r="I208" s="9" cm="1">
         <f t="array" ref="I208">IF(AND(H207&gt;1000,H208&lt;2),INDEX(M:M,MATCH(I207,M:M,0)+1,0),I207)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J208" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K208" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -12013,15 +12229,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G209" s="10" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="e" cm="1">
@@ -12029,11 +12245,11 @@
         <v>#N/A</v>
       </c>
       <c r="J209" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K209" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -12043,15 +12259,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="30">H202</f>
+        <f t="shared" ref="H210:H256" si="34">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="e" cm="1">
@@ -12059,11 +12275,11 @@
         <v>#N/A</v>
       </c>
       <c r="J210" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K210" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -12073,15 +12289,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="e" cm="1">
@@ -12089,11 +12305,11 @@
         <v>#N/A</v>
       </c>
       <c r="J211" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K211" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -12103,15 +12319,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="e" cm="1">
@@ -12119,11 +12335,11 @@
         <v>#N/A</v>
       </c>
       <c r="J212" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K212" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -12133,15 +12349,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="e" cm="1">
@@ -12149,11 +12365,11 @@
         <v>#N/A</v>
       </c>
       <c r="J213" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K213" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -12163,15 +12379,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="e" cm="1">
@@ -12179,11 +12395,11 @@
         <v>#N/A</v>
       </c>
       <c r="J214" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K214" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -12193,15 +12409,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="e" cm="1">
@@ -12209,11 +12425,11 @@
         <v>#N/A</v>
       </c>
       <c r="J215" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K215" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -12223,15 +12439,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="e" cm="1">
@@ -12239,11 +12455,11 @@
         <v>#N/A</v>
       </c>
       <c r="J216" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K216" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -12253,15 +12469,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="e" cm="1">
@@ -12269,11 +12485,11 @@
         <v>#N/A</v>
       </c>
       <c r="J217" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K217" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -12283,15 +12499,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="e" cm="1">
@@ -12299,11 +12515,11 @@
         <v>#N/A</v>
       </c>
       <c r="J218" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -12313,15 +12529,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="e" cm="1">
@@ -12329,11 +12545,11 @@
         <v>#N/A</v>
       </c>
       <c r="J219" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -12343,15 +12559,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="e" cm="1">
@@ -12359,11 +12575,11 @@
         <v>#N/A</v>
       </c>
       <c r="J220" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -12373,15 +12589,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="e" cm="1">
@@ -12389,11 +12605,11 @@
         <v>#N/A</v>
       </c>
       <c r="J221" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -12403,15 +12619,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="e" cm="1">
@@ -12419,11 +12635,11 @@
         <v>#N/A</v>
       </c>
       <c r="J222" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -12433,15 +12649,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="e" cm="1">
@@ -12449,11 +12665,11 @@
         <v>#N/A</v>
       </c>
       <c r="J223" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -12463,15 +12679,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="e" cm="1">
@@ -12479,11 +12695,11 @@
         <v>#N/A</v>
       </c>
       <c r="J224" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -12493,15 +12709,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="e" cm="1">
@@ -12509,11 +12725,11 @@
         <v>#N/A</v>
       </c>
       <c r="J225" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -12523,15 +12739,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="e" cm="1">
@@ -12539,11 +12755,11 @@
         <v>#N/A</v>
       </c>
       <c r="J226" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -12553,15 +12769,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="e" cm="1">
@@ -12569,11 +12785,11 @@
         <v>#N/A</v>
       </c>
       <c r="J227" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -12583,15 +12799,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="e" cm="1">
@@ -12599,11 +12815,11 @@
         <v>#N/A</v>
       </c>
       <c r="J228" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -12613,15 +12829,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="e" cm="1">
@@ -12629,11 +12845,11 @@
         <v>#N/A</v>
       </c>
       <c r="J229" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -12643,15 +12859,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="e" cm="1">
@@ -12659,11 +12875,11 @@
         <v>#N/A</v>
       </c>
       <c r="J230" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -12673,15 +12889,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="e" cm="1">
@@ -12689,11 +12905,11 @@
         <v>#N/A</v>
       </c>
       <c r="J231" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -12703,15 +12919,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="e" cm="1">
@@ -12719,11 +12935,11 @@
         <v>#N/A</v>
       </c>
       <c r="J232" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -12733,15 +12949,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="e" cm="1">
@@ -12749,11 +12965,11 @@
         <v>#N/A</v>
       </c>
       <c r="J233" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -12763,15 +12979,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="e" cm="1">
@@ -12779,11 +12995,11 @@
         <v>#N/A</v>
       </c>
       <c r="J234" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -12793,15 +13009,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="e" cm="1">
@@ -12809,11 +13025,11 @@
         <v>#N/A</v>
       </c>
       <c r="J235" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -12823,15 +13039,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="e" cm="1">
@@ -12839,11 +13055,11 @@
         <v>#N/A</v>
       </c>
       <c r="J236" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -12853,15 +13069,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="e" cm="1">
@@ -12869,11 +13085,11 @@
         <v>#N/A</v>
       </c>
       <c r="J237" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -12883,15 +13099,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="e" cm="1">
@@ -12899,11 +13115,11 @@
         <v>#N/A</v>
       </c>
       <c r="J238" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -12913,15 +13129,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="e" cm="1">
@@ -12929,11 +13145,11 @@
         <v>#N/A</v>
       </c>
       <c r="J239" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -12943,15 +13159,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="e" cm="1">
@@ -12959,11 +13175,11 @@
         <v>#N/A</v>
       </c>
       <c r="J240" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -12973,15 +13189,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -12989,11 +13205,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -13003,15 +13219,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -13019,11 +13235,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="31">K241+4</f>
+        <f t="shared" ref="K242:K256" si="35">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -13033,15 +13249,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -13049,11 +13265,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -13063,15 +13279,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -13079,11 +13295,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -13093,15 +13309,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -13109,11 +13325,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -13123,15 +13339,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -13139,11 +13355,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -13153,15 +13369,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -13169,11 +13385,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -13183,15 +13399,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -13199,11 +13415,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -13213,15 +13429,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -13229,11 +13445,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -13243,15 +13459,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -13259,11 +13475,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -13273,15 +13489,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -13289,11 +13505,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -13303,15 +13519,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -13319,11 +13535,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -13333,15 +13549,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -13349,11 +13565,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -13363,15 +13579,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -13379,11 +13595,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -13393,15 +13609,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -13409,11 +13625,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -13423,15 +13639,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -13439,11 +13655,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B797A9AA-71FF-4F4A-8517-C5946BD01058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E1D6B2-5764-4CF0-AEAB-CA3BEADC550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,11 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5221,6 +5229,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <f>VLOOKUP(A186,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="C186" s="1" t="str">
+        <f>VLOOKUP(A186,Balance!E:J,2,FALSE)</f>
+        <v>1후</v>
+      </c>
+      <c r="D186" s="24">
+        <v>20</v>
+      </c>
+      <c r="E186" s="1">
+        <f>VLOOKUP(A186,Balance!E:K,7,FALSE)</f>
+        <v>508</v>
+      </c>
+      <c r="F186" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <f>VLOOKUP(A187,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+156</v>
+      </c>
+      <c r="C187" s="1" t="str">
+        <f>VLOOKUP(A187,Balance!E:J,2,FALSE)</f>
+        <v>5후</v>
+      </c>
+      <c r="D187" s="24">
+        <v>20</v>
+      </c>
+      <c r="E187" s="1">
+        <f>VLOOKUP(A187,Balance!E:K,7,FALSE)</f>
+        <v>512</v>
+      </c>
+      <c r="F187" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <f>VLOOKUP(A188,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="C188" s="1" t="str">
+        <f>VLOOKUP(A188,Balance!E:J,2,FALSE)</f>
+        <v>10후</v>
+      </c>
+      <c r="D188" s="24">
+        <v>20</v>
+      </c>
+      <c r="E188" s="1">
+        <f>VLOOKUP(A188,Balance!E:K,7,FALSE)</f>
+        <v>516</v>
+      </c>
+      <c r="F188" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <f>VLOOKUP(A189,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999998E+157</v>
+      </c>
+      <c r="C189" s="1" t="str">
+        <f>VLOOKUP(A189,Balance!E:J,2,FALSE)</f>
+        <v>50후</v>
+      </c>
+      <c r="D189" s="24">
+        <v>20</v>
+      </c>
+      <c r="E189" s="1">
+        <f>VLOOKUP(A189,Balance!E:K,7,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="F189" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <f>VLOOKUP(A190,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="C190" s="1" t="str">
+        <f>VLOOKUP(A190,Balance!E:J,2,FALSE)</f>
+        <v>100후</v>
+      </c>
+      <c r="D190" s="24">
+        <v>20</v>
+      </c>
+      <c r="E190" s="1">
+        <f>VLOOKUP(A190,Balance!E:K,7,FALSE)</f>
+        <v>524</v>
+      </c>
+      <c r="F190" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <f>VLOOKUP(A191,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="C191" s="1" t="str">
+        <f>VLOOKUP(A191,Balance!E:J,2,FALSE)</f>
+        <v>500후</v>
+      </c>
+      <c r="D191" s="24">
+        <v>20</v>
+      </c>
+      <c r="E191" s="1">
+        <f>VLOOKUP(A191,Balance!E:K,7,FALSE)</f>
+        <v>528</v>
+      </c>
+      <c r="F191" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <f>VLOOKUP(A192,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="C192" s="1" t="str">
+        <f>VLOOKUP(A192,Balance!E:J,2,FALSE)</f>
+        <v>1000후</v>
+      </c>
+      <c r="D192" s="24">
+        <v>20</v>
+      </c>
+      <c r="E192" s="1">
+        <f>VLOOKUP(A192,Balance!E:K,7,FALSE)</f>
+        <v>532</v>
+      </c>
+      <c r="F192" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <f>VLOOKUP(A193,Balance!E:J,3,FALSE)</f>
+        <v>5E+159</v>
+      </c>
+      <c r="C193" s="1" t="str">
+        <f>VLOOKUP(A193,Balance!E:J,2,FALSE)</f>
+        <v>5000후</v>
+      </c>
+      <c r="D193" s="24">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1">
+        <f>VLOOKUP(A193,Balance!E:K,7,FALSE)</f>
+        <v>536</v>
+      </c>
+      <c r="F193" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5233,7 +5425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B173" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B185" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
@@ -7121,7 +7313,7 @@
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N46" s="9">
         <v>156</v>
@@ -7173,8 +7365,20 @@
         <v>22</v>
       </c>
       <c r="L47" s="20"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="M47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N47" s="9">
+        <v>160</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" ref="O47" si="20">POWER(10,N47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="P47" s="10" t="str">
+        <f t="shared" ref="P47" si="21">RIGHT(O47,N47)</f>
+        <v>1E+160</v>
+      </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
@@ -7214,8 +7418,20 @@
         <v>23</v>
       </c>
       <c r="L48" s="20"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="M48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N48" s="9">
+        <v>164</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" ref="O48" si="22">POWER(10,N48)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="P48" s="10" t="str">
+        <f t="shared" ref="P48" si="23">RIGHT(O48,N48)</f>
+        <v>1E+164</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -7948,7 +8164,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="20">K65+3</f>
+        <f t="shared" ref="K66:K112" si="24">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -7989,7 +8205,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -8019,7 +8235,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -8029,7 +8245,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="21">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="25">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -8049,7 +8265,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -8059,7 +8275,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -8079,7 +8295,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -8089,7 +8305,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -8109,7 +8325,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -8119,7 +8335,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -8139,7 +8355,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -8149,7 +8365,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -8165,11 +8381,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="22">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -8179,11 +8395,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="23">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="27">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -8195,11 +8411,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -8209,11 +8425,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -8225,11 +8441,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -8239,11 +8455,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -8255,11 +8471,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -8269,11 +8485,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -8285,11 +8501,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -8299,11 +8515,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -8315,11 +8531,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -8329,11 +8545,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -8345,11 +8561,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -8359,11 +8575,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -8375,11 +8591,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -8389,11 +8605,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -8405,11 +8621,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -8419,15 +8635,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="24">H74</f>
+        <f t="shared" ref="H82:H145" si="28">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -8435,11 +8651,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -8449,15 +8665,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -8465,11 +8681,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -8479,15 +8695,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -8495,11 +8711,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -8509,15 +8725,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -8525,11 +8741,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -8539,15 +8755,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -8555,11 +8771,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -8569,15 +8785,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -8585,11 +8801,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -8599,15 +8815,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -8615,11 +8831,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -8629,15 +8845,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -8645,7 +8861,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -8659,15 +8875,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -8675,11 +8891,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -8689,15 +8905,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -8705,11 +8921,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -8719,15 +8935,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -8735,11 +8951,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -8749,15 +8965,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -8765,11 +8981,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -8779,15 +8995,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -8795,11 +9011,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -8809,15 +9025,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -8825,11 +9041,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K95" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -8839,15 +9055,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -8855,11 +9071,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -8869,15 +9085,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -8885,11 +9101,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -8899,15 +9115,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -8915,11 +9131,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -8929,15 +9145,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -8945,11 +9161,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -8959,15 +9175,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -8975,11 +9191,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -8989,15 +9205,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -9005,11 +9221,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -9019,15 +9235,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -9035,11 +9251,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K102" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -9049,15 +9265,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -9065,11 +9281,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -9079,15 +9295,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -9095,11 +9311,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -9109,15 +9325,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -9125,11 +9341,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -9139,15 +9355,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -9155,11 +9371,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -9169,15 +9385,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -9185,11 +9401,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -9199,15 +9415,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -9215,11 +9431,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -9229,15 +9445,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -9245,11 +9461,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -9259,15 +9475,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -9275,11 +9491,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K110" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -9289,15 +9505,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -9305,11 +9521,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K111" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -9319,15 +9535,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -9335,11 +9551,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K112" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -9349,15 +9565,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -9365,7 +9581,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -9379,15 +9595,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -9395,11 +9611,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="25">K113+4</f>
+        <f t="shared" ref="K114:K177" si="29">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -9409,15 +9625,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -9425,11 +9641,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -9439,15 +9655,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -9455,11 +9671,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -9469,15 +9685,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -9485,11 +9701,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -9499,15 +9715,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -9515,11 +9731,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -9529,15 +9745,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -9545,11 +9761,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -9559,15 +9775,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -9575,11 +9791,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -9589,15 +9805,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -9605,11 +9821,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -9619,15 +9835,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -9635,11 +9851,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -9649,15 +9865,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -9665,11 +9881,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -9679,15 +9895,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -9695,11 +9911,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -9709,15 +9925,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -9725,11 +9941,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -9739,15 +9955,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -9755,11 +9971,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -9769,15 +9985,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -9785,11 +10001,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -9799,15 +10015,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -9815,11 +10031,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -9829,15 +10045,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -9845,11 +10061,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -9859,15 +10075,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -9875,11 +10091,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -9889,15 +10105,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -9905,11 +10121,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -9919,15 +10135,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -9935,11 +10151,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -9949,15 +10165,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="26">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="30">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -9965,11 +10181,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -9979,15 +10195,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500교</v>
       </c>
       <c r="G134" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+126</v>
       </c>
       <c r="H134" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -9995,11 +10211,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -10009,15 +10225,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000교</v>
       </c>
       <c r="G135" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H135" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -10025,11 +10241,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -10039,15 +10255,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000교</v>
       </c>
       <c r="G136" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999994E+127</v>
       </c>
       <c r="H136" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -10055,11 +10271,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -10069,15 +10285,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1위</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H137" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -10085,11 +10301,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="27">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="31">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -10099,15 +10315,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5위</v>
       </c>
       <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="28">H138*J138</f>
+        <f t="shared" ref="G138:G201" si="32">H138*J138</f>
         <v>5E+128</v>
       </c>
       <c r="H138" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -10115,11 +10331,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -10129,15 +10345,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10위</v>
       </c>
       <c r="G139" s="10">
+        <f t="shared" si="32"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="28"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -10145,11 +10361,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K139" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -10159,15 +10375,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50위</v>
       </c>
       <c r="G140" s="10">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="28"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -10175,11 +10391,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K140" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -10189,15 +10405,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100위</v>
       </c>
       <c r="G141" s="10">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -10205,11 +10421,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K141" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -10219,15 +10435,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500위</v>
       </c>
       <c r="G142" s="10">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="28"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -10235,11 +10451,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K142" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -10249,15 +10465,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000위</v>
       </c>
       <c r="G143" s="10">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -10265,11 +10481,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -10279,15 +10495,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000위</v>
       </c>
       <c r="G144" s="10">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="28"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -10295,11 +10511,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+128</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -10309,15 +10525,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1설</v>
       </c>
       <c r="G145" s="10">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="28"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -10325,11 +10541,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -10339,15 +10555,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="29">H138</f>
+        <f t="shared" ref="H146:H209" si="33">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -10355,11 +10571,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -10369,15 +10585,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -10385,11 +10601,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -10399,15 +10615,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -10415,11 +10631,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -10429,15 +10645,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -10445,11 +10661,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -10459,15 +10675,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -10475,11 +10691,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -10489,15 +10705,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -10505,11 +10721,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -10519,15 +10735,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -10535,11 +10751,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+132</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -10549,15 +10765,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -10565,11 +10781,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -10579,15 +10795,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -10595,11 +10811,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -10609,15 +10825,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -10625,11 +10841,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -10639,15 +10855,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -10655,11 +10871,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -10669,15 +10885,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -10685,11 +10901,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -10699,15 +10915,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -10715,11 +10931,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -10729,15 +10945,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -10745,11 +10961,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -10759,15 +10975,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -10775,11 +10991,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+136</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -10789,15 +11005,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -10805,11 +11021,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -10819,15 +11035,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -10835,11 +11051,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -10849,15 +11065,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -10865,11 +11081,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -10879,15 +11095,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -10895,11 +11111,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -10909,15 +11125,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -10925,11 +11141,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K165" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -10939,15 +11155,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -10955,11 +11171,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K166" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -10969,15 +11185,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -10985,11 +11201,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K167" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -10999,15 +11215,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -11015,11 +11231,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K168" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -11029,15 +11245,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -11045,11 +11261,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -11059,15 +11275,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -11075,11 +11291,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -11089,15 +11305,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -11105,11 +11321,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -11119,15 +11335,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -11135,11 +11351,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -11149,15 +11365,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -11165,11 +11381,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -11179,15 +11395,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -11195,11 +11411,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -11209,15 +11425,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -11225,11 +11441,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -11239,15 +11455,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -11255,11 +11471,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K176" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -11269,15 +11485,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -11285,11 +11501,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K177" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -11299,15 +11515,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -11315,11 +11531,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="30">K177+4</f>
+        <f t="shared" ref="K178:K241" si="34">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -11329,15 +11545,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -11345,11 +11561,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -11359,15 +11575,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -11375,11 +11591,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -11389,15 +11605,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -11405,11 +11621,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -11419,15 +11635,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -11435,11 +11651,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -11449,15 +11665,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -11465,11 +11681,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -11479,15 +11695,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -11495,11 +11711,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -11509,15 +11725,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1월</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="str" cm="1">
@@ -11525,11 +11741,11 @@
         <v>월</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -11539,15 +11755,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5월</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="str" cm="1">
@@ -11555,11 +11771,11 @@
         <v>월</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -11569,15 +11785,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10월</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="str" cm="1">
@@ -11585,11 +11801,11 @@
         <v>월</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -11599,15 +11815,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50월</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="str" cm="1">
@@ -11615,11 +11831,11 @@
         <v>월</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -11629,15 +11845,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100월</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="str" cm="1">
@@ -11645,11 +11861,11 @@
         <v>월</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -11659,15 +11875,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>500월</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="str" cm="1">
@@ -11675,11 +11891,11 @@
         <v>월</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -11689,15 +11905,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000월</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="str" cm="1">
@@ -11705,11 +11921,11 @@
         <v>월</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -11719,15 +11935,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5000월</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="str" cm="1">
@@ -11735,11 +11951,11 @@
         <v>월</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -11749,27 +11965,27 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>1a</v>
+        <f t="shared" si="30"/>
+        <v>1후</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="str" cm="1">
         <f t="array" ref="I193">IF(AND(H192&gt;1000,H193&lt;2),INDEX(M:M,MATCH(I192,M:M,0)+1,0),I192)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -11779,27 +11995,27 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>5a</v>
+        <f t="shared" si="30"/>
+        <v>5후</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="str" cm="1">
         <f t="array" ref="I194">IF(AND(H193&gt;1000,H194&lt;2),INDEX(M:M,MATCH(I193,M:M,0)+1,0),I193)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -11809,27 +12025,27 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>10a</v>
+        <f t="shared" si="30"/>
+        <v>10후</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="str" cm="1">
         <f t="array" ref="I195">IF(AND(H194&gt;1000,H195&lt;2),INDEX(M:M,MATCH(I194,M:M,0)+1,0),I194)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -11839,27 +12055,27 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>50a</v>
+        <f t="shared" si="30"/>
+        <v>50후</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="str" cm="1">
         <f t="array" ref="I196">IF(AND(H195&gt;1000,H196&lt;2),INDEX(M:M,MATCH(I195,M:M,0)+1,0),I195)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -11869,27 +12085,27 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="str">
-        <f t="shared" ref="F197:F256" si="31">H197&amp;I197</f>
-        <v>100a</v>
+        <f t="shared" ref="F197:F256" si="35">H197&amp;I197</f>
+        <v>100후</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="str" cm="1">
         <f t="array" ref="I197">IF(AND(H196&gt;1000,H197&lt;2),INDEX(M:M,MATCH(I196,M:M,0)+1,0),I196)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -11899,27 +12115,27 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>500a</v>
+        <f t="shared" si="35"/>
+        <v>500후</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.9999999999999996E+158</v>
       </c>
       <c r="H198" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="str" cm="1">
         <f t="array" ref="I198">IF(AND(H197&gt;1000,H198&lt;2),INDEX(M:M,MATCH(I197,M:M,0)+1,0),I197)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -11929,27 +12145,27 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>1000a</v>
+        <f t="shared" si="35"/>
+        <v>1000후</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H199" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="str" cm="1">
         <f t="array" ref="I199">IF(AND(H198&gt;1000,H199&lt;2),INDEX(M:M,MATCH(I198,M:M,0)+1,0),I198)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -11959,27 +12175,27 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>5000a</v>
+        <f t="shared" si="35"/>
+        <v>5000후</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5E+159</v>
       </c>
       <c r="H200" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="str" cm="1">
         <f t="array" ref="I200">IF(AND(H199&gt;1000,H200&lt;2),INDEX(M:M,MATCH(I199,M:M,0)+1,0),I199)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -11989,27 +12205,27 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>10</v>
-      </c>
-      <c r="G201" s="10" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <f t="shared" si="35"/>
+        <v>1단</v>
+      </c>
+      <c r="G201" s="10">
+        <f t="shared" si="32"/>
+        <v>1E+160</v>
       </c>
       <c r="H201" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="I201" s="9" cm="1">
+      <c r="I201" s="9" t="str" cm="1">
         <f t="array" ref="I201">IF(AND(H200&gt;1000,H201&lt;2),INDEX(M:M,MATCH(I200,M:M,0)+1,0),I200)</f>
-        <v>0</v>
-      </c>
-      <c r="J201" s="9" t="e">
-        <f t="shared" ref="J201:J256" si="32">VLOOKUP(I201,M:P,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J201" s="9" t="str">
+        <f t="shared" ref="J201:J256" si="36">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <v>1E+160</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -12019,27 +12235,27 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>50</v>
-      </c>
-      <c r="G202" s="10" t="e">
-        <f t="shared" ref="G202:G256" si="33">H202*J202</f>
-        <v>#N/A</v>
+        <f t="shared" si="35"/>
+        <v>5단</v>
+      </c>
+      <c r="G202" s="10">
+        <f t="shared" ref="G202:G256" si="37">H202*J202</f>
+        <v>5.0000000000000002E+160</v>
       </c>
       <c r="H202" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
-      <c r="I202" s="9" cm="1">
+      <c r="I202" s="9" t="str" cm="1">
         <f t="array" ref="I202">IF(AND(H201&gt;1000,H202&lt;2),INDEX(M:M,MATCH(I201,M:M,0)+1,0),I201)</f>
-        <v>0</v>
-      </c>
-      <c r="J202" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J202" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K202" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -12049,27 +12265,27 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>100</v>
-      </c>
-      <c r="G203" s="10" t="e">
+        <f t="shared" si="35"/>
+        <v>10단</v>
+      </c>
+      <c r="G203" s="10">
+        <f t="shared" si="37"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="I203" s="9" cm="1">
+      <c r="I203" s="9" t="str" cm="1">
         <f t="array" ref="I203">IF(AND(H202&gt;1000,H203&lt;2),INDEX(M:M,MATCH(I202,M:M,0)+1,0),I202)</f>
-        <v>0</v>
-      </c>
-      <c r="J203" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J203" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K203" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -12079,27 +12295,27 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>500</v>
-      </c>
-      <c r="G204" s="10" t="e">
+        <f t="shared" si="35"/>
+        <v>50단</v>
+      </c>
+      <c r="G204" s="10">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="I204" s="9" cm="1">
+      <c r="I204" s="9" t="str" cm="1">
         <f t="array" ref="I204">IF(AND(H203&gt;1000,H204&lt;2),INDEX(M:M,MATCH(I203,M:M,0)+1,0),I203)</f>
-        <v>0</v>
-      </c>
-      <c r="J204" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J204" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K204" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -12109,27 +12325,27 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>1000</v>
-      </c>
-      <c r="G205" s="10" t="e">
+        <f t="shared" si="35"/>
+        <v>100단</v>
+      </c>
+      <c r="G205" s="10">
+        <f t="shared" si="37"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="I205" s="9" cm="1">
+      <c r="I205" s="9" t="str" cm="1">
         <f t="array" ref="I205">IF(AND(H204&gt;1000,H205&lt;2),INDEX(M:M,MATCH(I204,M:M,0)+1,0),I204)</f>
-        <v>0</v>
-      </c>
-      <c r="J205" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J205" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K205" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -12139,27 +12355,27 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>5000</v>
-      </c>
-      <c r="G206" s="10" t="e">
+        <f t="shared" si="35"/>
+        <v>500단</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="29"/>
         <v>500</v>
       </c>
-      <c r="I206" s="9" cm="1">
+      <c r="I206" s="9" t="str" cm="1">
         <f t="array" ref="I206">IF(AND(H205&gt;1000,H206&lt;2),INDEX(M:M,MATCH(I205,M:M,0)+1,0),I205)</f>
-        <v>0</v>
-      </c>
-      <c r="J206" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J206" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K206" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -12169,27 +12385,27 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>10000</v>
-      </c>
-      <c r="G207" s="10" t="e">
+        <f t="shared" si="35"/>
+        <v>1000단</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="37"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
-      <c r="I207" s="9" cm="1">
+      <c r="I207" s="9" t="str" cm="1">
         <f t="array" ref="I207">IF(AND(H206&gt;1000,H207&lt;2),INDEX(M:M,MATCH(I206,M:M,0)+1,0),I206)</f>
-        <v>0</v>
-      </c>
-      <c r="J207" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J207" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K207" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -12199,27 +12415,27 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>50000</v>
-      </c>
-      <c r="G208" s="10" t="e">
+        <f t="shared" si="35"/>
+        <v>5000단</v>
+      </c>
+      <c r="G208" s="10">
+        <f t="shared" si="37"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
-      <c r="I208" s="9" cm="1">
+      <c r="I208" s="9" t="str" cm="1">
         <f t="array" ref="I208">IF(AND(H207&gt;1000,H208&lt;2),INDEX(M:M,MATCH(I207,M:M,0)+1,0),I207)</f>
-        <v>0</v>
-      </c>
-      <c r="J208" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J208" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
       </c>
       <c r="K208" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -12228,28 +12444,28 @@
       <c r="E209" s="9">
         <v>200</v>
       </c>
-      <c r="F209" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G209" s="10" t="e">
+      <c r="F209" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>1a</v>
+      </c>
+      <c r="G209" s="10">
+        <f t="shared" si="37"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="I209" s="9" t="e" cm="1">
+      <c r="I209" s="9" t="str" cm="1">
         <f t="array" ref="I209">IF(AND(H208&gt;1000,H209&lt;2),INDEX(M:M,MATCH(I208,M:M,0)+1,0),I208)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J209" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J209" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
       </c>
       <c r="K209" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -12258,28 +12474,28 @@
       <c r="E210" s="9">
         <v>201</v>
       </c>
-      <c r="F210" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G210" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F210" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>5a</v>
+      </c>
+      <c r="G210" s="10">
+        <f t="shared" si="37"/>
+        <v>5.0000000000000005E+164</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="34">H202</f>
+        <f t="shared" ref="H210:H256" si="38">H202</f>
         <v>5</v>
       </c>
-      <c r="I210" s="9" t="e" cm="1">
+      <c r="I210" s="9" t="str" cm="1">
         <f t="array" ref="I210">IF(AND(H209&gt;1000,H210&lt;2),INDEX(M:M,MATCH(I209,M:M,0)+1,0),I209)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J210" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>a</v>
+      </c>
+      <c r="J210" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
       </c>
       <c r="K210" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -12288,28 +12504,28 @@
       <c r="E211" s="9">
         <v>202</v>
       </c>
-      <c r="F211" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G211" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F211" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>10a</v>
+      </c>
+      <c r="G211" s="10">
+        <f t="shared" si="37"/>
+        <v>1.0000000000000001E+165</v>
       </c>
       <c r="H211" s="10">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="I211" s="9" t="str" cm="1">
+        <f t="array" ref="I211">IF(AND(H210&gt;1000,H211&lt;2),INDEX(M:M,MATCH(I210,M:M,0)+1,0),I210)</f>
+        <v>a</v>
+      </c>
+      <c r="J211" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="I211" s="9" t="e" cm="1">
-        <f t="array" ref="I211">IF(AND(H210&gt;1000,H211&lt;2),INDEX(M:M,MATCH(I210,M:M,0)+1,0),I210)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J211" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="30"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -12318,28 +12534,28 @@
       <c r="E212" s="9">
         <v>203</v>
       </c>
-      <c r="F212" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G212" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F212" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>50a</v>
+      </c>
+      <c r="G212" s="10">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999997E+165</v>
       </c>
       <c r="H212" s="10">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="I212" s="9" t="str" cm="1">
+        <f t="array" ref="I212">IF(AND(H211&gt;1000,H212&lt;2),INDEX(M:M,MATCH(I211,M:M,0)+1,0),I211)</f>
+        <v>a</v>
+      </c>
+      <c r="J212" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="34"/>
-        <v>50</v>
-      </c>
-      <c r="I212" s="9" t="e" cm="1">
-        <f t="array" ref="I212">IF(AND(H211&gt;1000,H212&lt;2),INDEX(M:M,MATCH(I211,M:M,0)+1,0),I211)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J212" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="30"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -12348,28 +12564,28 @@
       <c r="E213" s="9">
         <v>204</v>
       </c>
-      <c r="F213" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G213" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F213" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>100a</v>
+      </c>
+      <c r="G213" s="10">
+        <f t="shared" si="37"/>
+        <v>9.9999999999999994E+165</v>
       </c>
       <c r="H213" s="10">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="I213" s="9" t="str" cm="1">
+        <f t="array" ref="I213">IF(AND(H212&gt;1000,H213&lt;2),INDEX(M:M,MATCH(I212,M:M,0)+1,0),I212)</f>
+        <v>a</v>
+      </c>
+      <c r="J213" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="I213" s="9" t="e" cm="1">
-        <f t="array" ref="I213">IF(AND(H212&gt;1000,H213&lt;2),INDEX(M:M,MATCH(I212,M:M,0)+1,0),I212)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J213" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="30"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -12378,28 +12594,28 @@
       <c r="E214" s="9">
         <v>205</v>
       </c>
-      <c r="F214" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G214" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F214" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>500a</v>
+      </c>
+      <c r="G214" s="10">
+        <f t="shared" si="37"/>
+        <v>5.0000000000000002E+166</v>
       </c>
       <c r="H214" s="10">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="I214" s="9" t="str" cm="1">
+        <f t="array" ref="I214">IF(AND(H213&gt;1000,H214&lt;2),INDEX(M:M,MATCH(I213,M:M,0)+1,0),I213)</f>
+        <v>a</v>
+      </c>
+      <c r="J214" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="34"/>
-        <v>500</v>
-      </c>
-      <c r="I214" s="9" t="e" cm="1">
-        <f t="array" ref="I214">IF(AND(H213&gt;1000,H214&lt;2),INDEX(M:M,MATCH(I213,M:M,0)+1,0),I213)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J214" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="30"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -12408,28 +12624,28 @@
       <c r="E215" s="9">
         <v>206</v>
       </c>
-      <c r="F215" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G215" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F215" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>1000a</v>
+      </c>
+      <c r="G215" s="10">
+        <f t="shared" si="37"/>
+        <v>1E+167</v>
       </c>
       <c r="H215" s="10">
+        <f t="shared" si="38"/>
+        <v>1000</v>
+      </c>
+      <c r="I215" s="9" t="str" cm="1">
+        <f t="array" ref="I215">IF(AND(H214&gt;1000,H215&lt;2),INDEX(M:M,MATCH(I214,M:M,0)+1,0),I214)</f>
+        <v>a</v>
+      </c>
+      <c r="J215" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="I215" s="9" t="e" cm="1">
-        <f t="array" ref="I215">IF(AND(H214&gt;1000,H215&lt;2),INDEX(M:M,MATCH(I214,M:M,0)+1,0),I214)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J215" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="30"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -12438,28 +12654,28 @@
       <c r="E216" s="9">
         <v>207</v>
       </c>
-      <c r="F216" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G216" s="10" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
+      <c r="F216" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>5000a</v>
+      </c>
+      <c r="G216" s="10">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999997E+167</v>
       </c>
       <c r="H216" s="10">
+        <f t="shared" si="38"/>
+        <v>5000</v>
+      </c>
+      <c r="I216" s="9" t="str" cm="1">
+        <f t="array" ref="I216">IF(AND(H215&gt;1000,H216&lt;2),INDEX(M:M,MATCH(I215,M:M,0)+1,0),I215)</f>
+        <v>a</v>
+      </c>
+      <c r="J216" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="34"/>
-        <v>5000</v>
-      </c>
-      <c r="I216" s="9" t="e" cm="1">
-        <f t="array" ref="I216">IF(AND(H215&gt;1000,H216&lt;2),INDEX(M:M,MATCH(I215,M:M,0)+1,0),I215)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J216" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="30"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -12468,28 +12684,28 @@
       <c r="E217" s="9">
         <v>208</v>
       </c>
-      <c r="F217" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F217" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>10</v>
       </c>
       <c r="G217" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="10">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I217" s="9" cm="1">
+        <f t="array" ref="I217">IF(AND(H216&gt;1000,H217&lt;2),INDEX(M:M,MATCH(I216,M:M,0)+1,0),I216)</f>
+        <v>0</v>
+      </c>
+      <c r="J217" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" s="5">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="I217" s="9" t="e" cm="1">
-        <f t="array" ref="I217">IF(AND(H216&gt;1000,H217&lt;2),INDEX(M:M,MATCH(I216,M:M,0)+1,0),I216)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J217" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K217" s="5">
-        <f t="shared" si="30"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -12498,28 +12714,28 @@
       <c r="E218" s="9">
         <v>209</v>
       </c>
-      <c r="F218" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F218" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>50</v>
       </c>
       <c r="G218" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="10">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="I218" s="9" cm="1">
+        <f t="array" ref="I218">IF(AND(H217&gt;1000,H218&lt;2),INDEX(M:M,MATCH(I217,M:M,0)+1,0),I217)</f>
+        <v>0</v>
+      </c>
+      <c r="J218" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" s="5">
         <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="I218" s="9" t="e" cm="1">
-        <f t="array" ref="I218">IF(AND(H217&gt;1000,H218&lt;2),INDEX(M:M,MATCH(I217,M:M,0)+1,0),I217)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J218" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K218" s="5">
-        <f t="shared" si="30"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -12528,28 +12744,28 @@
       <c r="E219" s="9">
         <v>210</v>
       </c>
-      <c r="F219" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F219" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>100</v>
       </c>
       <c r="G219" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="10">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="I219" s="9" cm="1">
+        <f t="array" ref="I219">IF(AND(H218&gt;1000,H219&lt;2),INDEX(M:M,MATCH(I218,M:M,0)+1,0),I218)</f>
+        <v>0</v>
+      </c>
+      <c r="J219" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K219" s="5">
         <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="I219" s="9" t="e" cm="1">
-        <f t="array" ref="I219">IF(AND(H218&gt;1000,H219&lt;2),INDEX(M:M,MATCH(I218,M:M,0)+1,0),I218)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J219" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K219" s="5">
-        <f t="shared" si="30"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -12558,28 +12774,28 @@
       <c r="E220" s="9">
         <v>211</v>
       </c>
-      <c r="F220" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F220" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>500</v>
       </c>
       <c r="G220" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="10">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="I220" s="9" cm="1">
+        <f t="array" ref="I220">IF(AND(H219&gt;1000,H220&lt;2),INDEX(M:M,MATCH(I219,M:M,0)+1,0),I219)</f>
+        <v>0</v>
+      </c>
+      <c r="J220" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K220" s="5">
         <f t="shared" si="34"/>
-        <v>50</v>
-      </c>
-      <c r="I220" s="9" t="e" cm="1">
-        <f t="array" ref="I220">IF(AND(H219&gt;1000,H220&lt;2),INDEX(M:M,MATCH(I219,M:M,0)+1,0),I219)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J220" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K220" s="5">
-        <f t="shared" si="30"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -12588,28 +12804,28 @@
       <c r="E221" s="9">
         <v>212</v>
       </c>
-      <c r="F221" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F221" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>1000</v>
       </c>
       <c r="G221" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="10">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="I221" s="9" cm="1">
+        <f t="array" ref="I221">IF(AND(H220&gt;1000,H221&lt;2),INDEX(M:M,MATCH(I220,M:M,0)+1,0),I220)</f>
+        <v>0</v>
+      </c>
+      <c r="J221" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K221" s="5">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="I221" s="9" t="e" cm="1">
-        <f t="array" ref="I221">IF(AND(H220&gt;1000,H221&lt;2),INDEX(M:M,MATCH(I220,M:M,0)+1,0),I220)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J221" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K221" s="5">
-        <f t="shared" si="30"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -12618,28 +12834,28 @@
       <c r="E222" s="9">
         <v>213</v>
       </c>
-      <c r="F222" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F222" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>5000</v>
       </c>
       <c r="G222" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="10">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="I222" s="9" cm="1">
+        <f t="array" ref="I222">IF(AND(H221&gt;1000,H222&lt;2),INDEX(M:M,MATCH(I221,M:M,0)+1,0),I221)</f>
+        <v>0</v>
+      </c>
+      <c r="J222" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K222" s="5">
         <f t="shared" si="34"/>
-        <v>500</v>
-      </c>
-      <c r="I222" s="9" t="e" cm="1">
-        <f t="array" ref="I222">IF(AND(H221&gt;1000,H222&lt;2),INDEX(M:M,MATCH(I221,M:M,0)+1,0),I221)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J222" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K222" s="5">
-        <f t="shared" si="30"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -12648,28 +12864,28 @@
       <c r="E223" s="9">
         <v>214</v>
       </c>
-      <c r="F223" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F223" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>10000</v>
       </c>
       <c r="G223" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="10">
+        <f t="shared" si="38"/>
+        <v>1000</v>
+      </c>
+      <c r="I223" s="9" cm="1">
+        <f t="array" ref="I223">IF(AND(H222&gt;1000,H223&lt;2),INDEX(M:M,MATCH(I222,M:M,0)+1,0),I222)</f>
+        <v>0</v>
+      </c>
+      <c r="J223" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K223" s="5">
         <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="I223" s="9" t="e" cm="1">
-        <f t="array" ref="I223">IF(AND(H222&gt;1000,H223&lt;2),INDEX(M:M,MATCH(I222,M:M,0)+1,0),I222)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J223" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K223" s="5">
-        <f t="shared" si="30"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -12678,28 +12894,28 @@
       <c r="E224" s="9">
         <v>215</v>
       </c>
-      <c r="F224" s="10" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
+      <c r="F224" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>50000</v>
       </c>
       <c r="G224" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="10">
+        <f t="shared" si="38"/>
+        <v>5000</v>
+      </c>
+      <c r="I224" s="9" cm="1">
+        <f t="array" ref="I224">IF(AND(H223&gt;1000,H224&lt;2),INDEX(M:M,MATCH(I223,M:M,0)+1,0),I223)</f>
+        <v>0</v>
+      </c>
+      <c r="J224" s="9" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K224" s="5">
         <f t="shared" si="34"/>
-        <v>5000</v>
-      </c>
-      <c r="I224" s="9" t="e" cm="1">
-        <f t="array" ref="I224">IF(AND(H223&gt;1000,H224&lt;2),INDEX(M:M,MATCH(I223,M:M,0)+1,0),I223)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J224" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K224" s="5">
-        <f t="shared" si="30"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -12709,15 +12925,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="e" cm="1">
@@ -12725,11 +12941,11 @@
         <v>#N/A</v>
       </c>
       <c r="J225" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -12739,15 +12955,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="e" cm="1">
@@ -12755,11 +12971,11 @@
         <v>#N/A</v>
       </c>
       <c r="J226" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -12769,15 +12985,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="e" cm="1">
@@ -12785,11 +13001,11 @@
         <v>#N/A</v>
       </c>
       <c r="J227" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -12799,15 +13015,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="e" cm="1">
@@ -12815,11 +13031,11 @@
         <v>#N/A</v>
       </c>
       <c r="J228" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -12829,15 +13045,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="e" cm="1">
@@ -12845,11 +13061,11 @@
         <v>#N/A</v>
       </c>
       <c r="J229" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -12859,15 +13075,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="e" cm="1">
@@ -12875,11 +13091,11 @@
         <v>#N/A</v>
       </c>
       <c r="J230" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -12889,15 +13105,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="e" cm="1">
@@ -12905,11 +13121,11 @@
         <v>#N/A</v>
       </c>
       <c r="J231" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -12919,15 +13135,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="e" cm="1">
@@ -12935,11 +13151,11 @@
         <v>#N/A</v>
       </c>
       <c r="J232" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -12949,15 +13165,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="e" cm="1">
@@ -12965,11 +13181,11 @@
         <v>#N/A</v>
       </c>
       <c r="J233" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -12979,15 +13195,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="e" cm="1">
@@ -12995,11 +13211,11 @@
         <v>#N/A</v>
       </c>
       <c r="J234" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -13009,15 +13225,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="e" cm="1">
@@ -13025,11 +13241,11 @@
         <v>#N/A</v>
       </c>
       <c r="J235" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -13039,15 +13255,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="e" cm="1">
@@ -13055,11 +13271,11 @@
         <v>#N/A</v>
       </c>
       <c r="J236" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -13069,15 +13285,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="e" cm="1">
@@ -13085,11 +13301,11 @@
         <v>#N/A</v>
       </c>
       <c r="J237" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -13099,15 +13315,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="e" cm="1">
@@ -13115,11 +13331,11 @@
         <v>#N/A</v>
       </c>
       <c r="J238" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -13129,15 +13345,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="e" cm="1">
@@ -13145,11 +13361,11 @@
         <v>#N/A</v>
       </c>
       <c r="J239" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -13159,15 +13375,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="e" cm="1">
@@ -13175,11 +13391,11 @@
         <v>#N/A</v>
       </c>
       <c r="J240" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -13189,15 +13405,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -13205,11 +13421,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -13219,15 +13435,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -13235,11 +13451,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="35">K241+4</f>
+        <f t="shared" ref="K242:K256" si="39">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -13249,15 +13465,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -13265,11 +13481,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -13279,15 +13495,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -13295,11 +13511,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -13309,15 +13525,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -13325,11 +13541,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -13339,15 +13555,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -13355,11 +13571,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -13369,15 +13585,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -13385,11 +13601,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -13399,15 +13615,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -13415,11 +13631,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -13429,15 +13645,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -13445,11 +13661,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -13459,15 +13675,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -13475,11 +13691,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -13489,15 +13705,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -13505,11 +13721,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -13519,15 +13735,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -13535,11 +13751,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -13549,15 +13765,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -13565,11 +13781,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -13579,15 +13795,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -13595,11 +13811,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -13609,15 +13825,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -13625,11 +13841,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -13639,15 +13855,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -13655,11 +13871,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E1D6B2-5764-4CF0-AEAB-CA3BEADC550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AA099-1DF4-4A19-9629-29C90FFEC695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,14 @@
   </si>
   <si>
     <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5413,6 +5421,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <f>VLOOKUP(A194,Balance!E:J,3,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="C194" s="1" t="str">
+        <f>VLOOKUP(A194,Balance!E:J,2,FALSE)</f>
+        <v>1단</v>
+      </c>
+      <c r="D194" s="24">
+        <v>20</v>
+      </c>
+      <c r="E194" s="1">
+        <f>VLOOKUP(A194,Balance!E:K,7,FALSE)</f>
+        <v>540</v>
+      </c>
+      <c r="F194" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <f>VLOOKUP(A195,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="C195" s="1" t="str">
+        <f>VLOOKUP(A195,Balance!E:J,2,FALSE)</f>
+        <v>5단</v>
+      </c>
+      <c r="D195" s="24">
+        <v>20</v>
+      </c>
+      <c r="E195" s="1">
+        <f>VLOOKUP(A195,Balance!E:K,7,FALSE)</f>
+        <v>544</v>
+      </c>
+      <c r="F195" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <f>VLOOKUP(A196,Balance!E:J,3,FALSE)</f>
+        <v>1E+161</v>
+      </c>
+      <c r="C196" s="1" t="str">
+        <f>VLOOKUP(A196,Balance!E:J,2,FALSE)</f>
+        <v>10단</v>
+      </c>
+      <c r="D196" s="24">
+        <v>20</v>
+      </c>
+      <c r="E196" s="1">
+        <f>VLOOKUP(A196,Balance!E:K,7,FALSE)</f>
+        <v>548</v>
+      </c>
+      <c r="F196" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <f>VLOOKUP(A197,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="C197" s="1" t="str">
+        <f>VLOOKUP(A197,Balance!E:J,2,FALSE)</f>
+        <v>50단</v>
+      </c>
+      <c r="D197" s="24">
+        <v>20</v>
+      </c>
+      <c r="E197" s="1">
+        <f>VLOOKUP(A197,Balance!E:K,7,FALSE)</f>
+        <v>552</v>
+      </c>
+      <c r="F197" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <f>VLOOKUP(A198,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="C198" s="1" t="str">
+        <f>VLOOKUP(A198,Balance!E:J,2,FALSE)</f>
+        <v>100단</v>
+      </c>
+      <c r="D198" s="24">
+        <v>20</v>
+      </c>
+      <c r="E198" s="1">
+        <f>VLOOKUP(A198,Balance!E:K,7,FALSE)</f>
+        <v>556</v>
+      </c>
+      <c r="F198" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <f>VLOOKUP(A199,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="C199" s="1" t="str">
+        <f>VLOOKUP(A199,Balance!E:J,2,FALSE)</f>
+        <v>500단</v>
+      </c>
+      <c r="D199" s="24">
+        <v>20</v>
+      </c>
+      <c r="E199" s="1">
+        <f>VLOOKUP(A199,Balance!E:K,7,FALSE)</f>
+        <v>560</v>
+      </c>
+      <c r="F199" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <f>VLOOKUP(A200,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="C200" s="1" t="str">
+        <f>VLOOKUP(A200,Balance!E:J,2,FALSE)</f>
+        <v>1000단</v>
+      </c>
+      <c r="D200" s="24">
+        <v>20</v>
+      </c>
+      <c r="E200" s="1">
+        <f>VLOOKUP(A200,Balance!E:K,7,FALSE)</f>
+        <v>564</v>
+      </c>
+      <c r="F200" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <f>VLOOKUP(A201,Balance!E:J,3,FALSE)</f>
+        <v>5E+163</v>
+      </c>
+      <c r="C201" s="1" t="str">
+        <f>VLOOKUP(A201,Balance!E:J,2,FALSE)</f>
+        <v>5000단</v>
+      </c>
+      <c r="D201" s="24">
+        <v>20</v>
+      </c>
+      <c r="E201" s="1">
+        <f>VLOOKUP(A201,Balance!E:K,7,FALSE)</f>
+        <v>568</v>
+      </c>
+      <c r="F201" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5425,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I256" sqref="I256"/>
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7471,8 +7663,20 @@
         <v>24</v>
       </c>
       <c r="L49" s="20"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="M49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="9">
+        <v>168</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" ref="O49:O50" si="24">POWER(10,N49)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="P49" s="10" t="str">
+        <f t="shared" ref="P49:P50" si="25">RIGHT(O49,N49)</f>
+        <v>1E+168</v>
+      </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -7512,8 +7716,20 @@
         <v>25</v>
       </c>
       <c r="L50" s="20"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="M50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50" s="9">
+        <v>172</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="P50" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+172</v>
+      </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
@@ -8164,7 +8380,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="24">K65+3</f>
+        <f t="shared" ref="K66:K112" si="26">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -8205,7 +8421,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -8235,7 +8451,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -8245,7 +8461,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="25">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="27">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -8265,7 +8481,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -8275,7 +8491,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -8295,7 +8511,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -8305,7 +8521,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -8325,7 +8541,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -8335,7 +8551,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -8355,7 +8571,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -8365,7 +8581,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -8381,11 +8597,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="28">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -8395,11 +8611,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="27">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="29">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -8411,11 +8627,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -8425,11 +8641,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -8441,11 +8657,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -8455,11 +8671,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -8471,11 +8687,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -8485,11 +8701,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -8501,11 +8717,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -8515,11 +8731,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -8531,11 +8747,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -8545,11 +8761,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -8561,11 +8777,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -8575,11 +8791,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -8591,11 +8807,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="26"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -8605,11 +8821,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -8621,11 +8837,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -8635,15 +8851,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="28">H74</f>
+        <f t="shared" ref="H82:H145" si="30">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -8651,11 +8867,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="24"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -8665,15 +8881,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -8681,11 +8897,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="24"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -8695,15 +8911,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -8711,11 +8927,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="24"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -8725,15 +8941,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -8741,11 +8957,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -8755,15 +8971,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -8771,11 +8987,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -8785,15 +9001,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -8801,11 +9017,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="24"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -8815,15 +9031,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -8831,11 +9047,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="26"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="24"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -8845,15 +9061,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -8861,7 +9077,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -8875,15 +9091,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -8891,11 +9107,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -8905,15 +9121,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -8921,11 +9137,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="24"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -8935,15 +9151,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -8951,11 +9167,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -8965,15 +9181,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -8981,11 +9197,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="24"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -8995,15 +9211,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -9011,11 +9227,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="24"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -9025,15 +9241,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -9041,11 +9257,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="24"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -9055,15 +9271,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -9071,11 +9287,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="26"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="24"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -9085,15 +9301,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -9101,11 +9317,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="24"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -9115,15 +9331,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -9131,11 +9347,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -9145,15 +9361,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -9161,11 +9377,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="24"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -9175,15 +9391,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -9191,11 +9407,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="24"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -9205,15 +9421,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -9221,11 +9437,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -9235,15 +9451,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -9251,11 +9467,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="24"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -9265,15 +9481,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -9281,11 +9497,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="24"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -9295,15 +9511,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -9311,11 +9527,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="24"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -9325,15 +9541,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -9341,11 +9557,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="24"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -9355,15 +9571,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -9371,11 +9587,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="24"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -9385,15 +9601,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -9401,11 +9617,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="24"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -9415,15 +9631,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -9431,11 +9647,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -9445,15 +9661,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -9461,11 +9677,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="24"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -9475,15 +9691,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -9491,11 +9707,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="24"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -9505,15 +9721,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -9521,11 +9737,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="24"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -9535,15 +9751,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -9551,11 +9767,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="26"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="24"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -9565,15 +9781,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -9581,7 +9797,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -9595,15 +9811,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -9611,11 +9827,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="29">K113+4</f>
+        <f t="shared" ref="K114:K177" si="31">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -9625,15 +9841,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -9641,11 +9857,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -9655,15 +9871,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -9671,11 +9887,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -9685,15 +9901,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -9701,11 +9917,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -9715,15 +9931,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -9731,11 +9947,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -9745,15 +9961,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -9761,11 +9977,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -9775,15 +9991,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -9791,11 +10007,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -9805,15 +10021,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -9821,11 +10037,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -9835,15 +10051,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -9851,11 +10067,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -9865,15 +10081,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -9881,11 +10097,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -9895,15 +10111,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -9911,11 +10127,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -9925,15 +10141,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -9941,11 +10157,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -9955,15 +10171,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -9971,11 +10187,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -9985,15 +10201,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -10001,11 +10217,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -10015,15 +10231,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -10031,11 +10247,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -10045,15 +10261,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -10061,11 +10277,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -10075,15 +10291,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -10091,11 +10307,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -10105,15 +10321,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -10121,11 +10337,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -10135,15 +10351,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -10151,11 +10367,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -10165,15 +10381,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="30">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="32">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -10181,11 +10397,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -10195,15 +10411,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="29"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="30"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="27"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -10211,11 +10427,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -10225,15 +10441,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="29"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="30"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="27"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -10241,11 +10457,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -10255,15 +10471,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="29"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="30"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="27"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -10271,11 +10487,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -10285,15 +10501,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="30"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="27"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -10301,11 +10517,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="31">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="33">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -10315,15 +10531,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="34">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="30"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="32">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -10331,11 +10547,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="29"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -10345,15 +10561,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="34"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="30"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="32"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -10361,11 +10577,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="29"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -10375,15 +10591,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="30"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="32"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -10391,11 +10607,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="29"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -10405,15 +10621,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="30"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="32"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -10421,11 +10637,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -10435,15 +10651,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="30"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="32"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -10451,11 +10667,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="29"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -10465,15 +10681,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="30"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="32"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -10481,11 +10697,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="29"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -10495,15 +10711,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="30"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="32"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -10511,11 +10727,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="29"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -10525,15 +10741,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="30"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="32"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -10541,11 +10757,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="29"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -10555,15 +10771,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="33">H138</f>
+        <f t="shared" ref="H146:H209" si="35">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -10571,11 +10787,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="29"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -10585,15 +10801,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -10601,11 +10817,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="29"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -10615,15 +10831,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -10631,11 +10847,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="29"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -10645,15 +10861,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -10661,11 +10877,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="29"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -10675,15 +10891,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -10691,11 +10907,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="29"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -10705,15 +10921,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -10721,11 +10937,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="29"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -10735,15 +10951,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -10751,11 +10967,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="31"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="29"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -10765,15 +10981,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -10781,11 +10997,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="29"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -10795,15 +11011,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -10811,11 +11027,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="29"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -10825,15 +11041,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -10841,11 +11057,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="29"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -10855,15 +11071,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -10871,11 +11087,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="29"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -10885,15 +11101,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -10901,11 +11117,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="29"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -10915,15 +11131,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -10931,11 +11147,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="29"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -10945,15 +11161,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -10961,11 +11177,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="29"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -10975,15 +11191,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -10991,11 +11207,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="31"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="29"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -11005,15 +11221,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -11021,11 +11237,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="29"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -11035,15 +11251,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -11051,11 +11267,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="29"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -11065,15 +11281,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -11081,11 +11297,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="29"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -11095,15 +11311,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -11111,11 +11327,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="29"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -11125,15 +11341,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -11141,11 +11357,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="29"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -11155,15 +11371,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -11171,11 +11387,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -11185,15 +11401,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -11201,11 +11417,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="29"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -11215,15 +11431,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -11231,11 +11447,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="31"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="29"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -11245,15 +11461,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -11261,11 +11477,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="29"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -11275,15 +11491,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -11291,11 +11507,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="29"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -11305,15 +11521,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -11321,11 +11537,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="29"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -11335,15 +11551,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -11351,11 +11567,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="29"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -11365,15 +11581,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -11381,11 +11597,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="29"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -11395,15 +11611,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -11411,11 +11627,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="29"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -11425,15 +11641,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -11441,11 +11657,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="29"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -11455,15 +11671,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -11471,11 +11687,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="31"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="29"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -11485,15 +11701,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -11501,11 +11717,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="31"/>
-        <v>1E+148</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="29"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -11515,15 +11731,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -11531,11 +11747,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="34">K177+4</f>
+        <f t="shared" ref="K178:K241" si="36">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -11545,15 +11761,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -11561,11 +11777,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -11575,15 +11791,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -11591,11 +11807,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -11605,15 +11821,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -11621,11 +11837,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -11635,15 +11851,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -11651,11 +11867,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -11665,15 +11881,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -11681,11 +11897,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -11695,15 +11911,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -11711,11 +11927,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -11725,15 +11941,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1월</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="str" cm="1">
@@ -11741,11 +11957,11 @@
         <v>월</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -11755,15 +11971,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5월</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="str" cm="1">
@@ -11771,11 +11987,11 @@
         <v>월</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -11785,15 +12001,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10월</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="str" cm="1">
@@ -11801,11 +12017,11 @@
         <v>월</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -11815,15 +12031,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50월</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="str" cm="1">
@@ -11831,11 +12047,11 @@
         <v>월</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -11845,15 +12061,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100월</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="str" cm="1">
@@ -11861,11 +12077,11 @@
         <v>월</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -11875,15 +12091,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500월</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="str" cm="1">
@@ -11891,11 +12107,11 @@
         <v>월</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -11905,15 +12121,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000월</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="str" cm="1">
@@ -11921,11 +12137,11 @@
         <v>월</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -11935,15 +12151,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000월</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="str" cm="1">
@@ -11951,11 +12167,11 @@
         <v>월</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -11965,15 +12181,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1후</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="str" cm="1">
@@ -11981,11 +12197,11 @@
         <v>후</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -11995,15 +12211,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5후</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="str" cm="1">
@@ -12011,11 +12227,11 @@
         <v>후</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -12025,15 +12241,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10후</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="str" cm="1">
@@ -12041,11 +12257,11 @@
         <v>후</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -12055,15 +12271,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50후</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="str" cm="1">
@@ -12071,11 +12287,11 @@
         <v>후</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -12085,15 +12301,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="str">
-        <f t="shared" ref="F197:F256" si="35">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="37">H197&amp;I197</f>
         <v>100후</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="str" cm="1">
@@ -12101,11 +12317,11 @@
         <v>후</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -12115,15 +12331,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>500후</v>
+      </c>
+      <c r="G198" s="10">
+        <f t="shared" si="34"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="35"/>
-        <v>500후</v>
-      </c>
-      <c r="G198" s="10">
-        <f t="shared" si="32"/>
-        <v>4.9999999999999996E+158</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="str" cm="1">
@@ -12131,11 +12347,11 @@
         <v>후</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -12145,15 +12361,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>1000후</v>
+      </c>
+      <c r="G199" s="10">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="35"/>
-        <v>1000후</v>
-      </c>
-      <c r="G199" s="10">
-        <f t="shared" si="32"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="str" cm="1">
@@ -12161,11 +12377,11 @@
         <v>후</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -12175,15 +12391,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>5000후</v>
+      </c>
+      <c r="G200" s="10">
+        <f t="shared" si="34"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="35"/>
-        <v>5000후</v>
-      </c>
-      <c r="G200" s="10">
-        <f t="shared" si="32"/>
-        <v>5E+159</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="str" cm="1">
@@ -12191,11 +12407,11 @@
         <v>후</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -12205,15 +12421,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>1단</v>
+      </c>
+      <c r="G201" s="10">
+        <f t="shared" si="34"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="35"/>
-        <v>1단</v>
-      </c>
-      <c r="G201" s="10">
-        <f t="shared" si="32"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="str" cm="1">
@@ -12221,11 +12437,11 @@
         <v>단</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" ref="J201:J256" si="36">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="38">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -12235,15 +12451,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>5단</v>
+      </c>
+      <c r="G202" s="10">
+        <f t="shared" ref="G202:G256" si="39">H202*J202</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="35"/>
-        <v>5단</v>
-      </c>
-      <c r="G202" s="10">
-        <f t="shared" ref="G202:G256" si="37">H202*J202</f>
-        <v>5.0000000000000002E+160</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="str" cm="1">
@@ -12251,11 +12467,11 @@
         <v>단</v>
       </c>
       <c r="J202" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="34"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -12265,15 +12481,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>10단</v>
+      </c>
+      <c r="G203" s="10">
+        <f t="shared" si="39"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="35"/>
-        <v>10단</v>
-      </c>
-      <c r="G203" s="10">
-        <f t="shared" si="37"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="str" cm="1">
@@ -12281,11 +12497,11 @@
         <v>단</v>
       </c>
       <c r="J203" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="34"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -12295,15 +12511,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>50단</v>
+      </c>
+      <c r="G204" s="10">
+        <f t="shared" si="39"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="35"/>
-        <v>50단</v>
-      </c>
-      <c r="G204" s="10">
-        <f t="shared" si="37"/>
-        <v>4.9999999999999997E+161</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="str" cm="1">
@@ -12311,11 +12527,11 @@
         <v>단</v>
       </c>
       <c r="J204" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="34"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -12325,15 +12541,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>100단</v>
+      </c>
+      <c r="G205" s="10">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="35"/>
-        <v>100단</v>
-      </c>
-      <c r="G205" s="10">
-        <f t="shared" si="37"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="str" cm="1">
@@ -12341,11 +12557,11 @@
         <v>단</v>
       </c>
       <c r="J205" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="34"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -12355,15 +12571,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>500단</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="39"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="35"/>
-        <v>500단</v>
-      </c>
-      <c r="G206" s="10">
-        <f t="shared" si="37"/>
-        <v>4.9999999999999997E+162</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="str" cm="1">
@@ -12371,11 +12587,11 @@
         <v>단</v>
       </c>
       <c r="J206" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="34"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -12385,15 +12601,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>1000단</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="35"/>
-        <v>1000단</v>
-      </c>
-      <c r="G207" s="10">
-        <f t="shared" si="37"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="str" cm="1">
@@ -12401,11 +12617,11 @@
         <v>단</v>
       </c>
       <c r="J207" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="34"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -12415,15 +12631,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>5000단</v>
+      </c>
+      <c r="G208" s="10">
+        <f t="shared" si="39"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="35"/>
-        <v>5000단</v>
-      </c>
-      <c r="G208" s="10">
-        <f t="shared" si="37"/>
-        <v>5E+163</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="33"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="str" cm="1">
@@ -12431,11 +12647,11 @@
         <v>단</v>
       </c>
       <c r="J208" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="34"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -12445,15 +12661,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>1a</v>
+      </c>
+      <c r="G209" s="10">
+        <f t="shared" si="39"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="35"/>
-        <v>1a</v>
-      </c>
-      <c r="G209" s="10">
-        <f t="shared" si="37"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="str" cm="1">
@@ -12461,11 +12677,11 @@
         <v>a</v>
       </c>
       <c r="J209" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="34"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -12475,15 +12691,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5a</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.0000000000000005E+164</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="38">H202</f>
+        <f t="shared" ref="H210:H256" si="40">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="str" cm="1">
@@ -12491,11 +12707,11 @@
         <v>a</v>
       </c>
       <c r="J210" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="34"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -12505,15 +12721,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10a</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="str" cm="1">
@@ -12521,11 +12737,11 @@
         <v>a</v>
       </c>
       <c r="J211" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="34"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -12535,15 +12751,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50a</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.9999999999999997E+165</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="str" cm="1">
@@ -12551,11 +12767,11 @@
         <v>a</v>
       </c>
       <c r="J212" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="34"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -12565,15 +12781,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100a</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="str" cm="1">
@@ -12581,11 +12797,11 @@
         <v>a</v>
       </c>
       <c r="J213" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="34"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -12595,15 +12811,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500a</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.0000000000000002E+166</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="str" cm="1">
@@ -12611,11 +12827,11 @@
         <v>a</v>
       </c>
       <c r="J214" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="34"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -12625,15 +12841,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000a</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+167</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="str" cm="1">
@@ -12641,11 +12857,11 @@
         <v>a</v>
       </c>
       <c r="J215" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="34"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -12655,15 +12871,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000a</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.9999999999999997E+167</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="str" cm="1">
@@ -12671,11 +12887,11 @@
         <v>a</v>
       </c>
       <c r="J216" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="36"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="34"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -12685,27 +12901,27 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>10</v>
-      </c>
-      <c r="G217" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>1b</v>
+      </c>
+      <c r="G217" s="10">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999993E+167</v>
       </c>
       <c r="H217" s="10">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="I217" s="9" t="str" cm="1">
+        <f t="array" ref="I217">IF(AND(H216&gt;1000,H217&lt;2),INDEX(M:M,MATCH(I216,M:M,0)+1,0),I216)</f>
+        <v>b</v>
+      </c>
+      <c r="J217" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="I217" s="9" cm="1">
-        <f t="array" ref="I217">IF(AND(H216&gt;1000,H217&lt;2),INDEX(M:M,MATCH(I216,M:M,0)+1,0),I216)</f>
-        <v>0</v>
-      </c>
-      <c r="J217" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K217" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K217" s="5">
-        <f t="shared" si="34"/>
         <v>604</v>
       </c>
       <c r="L217" s="20"/>
@@ -12715,27 +12931,27 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>50</v>
-      </c>
-      <c r="G218" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>5b</v>
+      </c>
+      <c r="G218" s="10">
+        <f t="shared" si="39"/>
+        <v>4.9999999999999997E+168</v>
       </c>
       <c r="H218" s="10">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="I218" s="9" t="str" cm="1">
+        <f t="array" ref="I218">IF(AND(H217&gt;1000,H218&lt;2),INDEX(M:M,MATCH(I217,M:M,0)+1,0),I217)</f>
+        <v>b</v>
+      </c>
+      <c r="J218" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="I218" s="9" cm="1">
-        <f t="array" ref="I218">IF(AND(H217&gt;1000,H218&lt;2),INDEX(M:M,MATCH(I217,M:M,0)+1,0),I217)</f>
-        <v>0</v>
-      </c>
-      <c r="J218" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K218" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K218" s="5">
-        <f t="shared" si="34"/>
         <v>608</v>
       </c>
       <c r="L218" s="20"/>
@@ -12745,27 +12961,27 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>100</v>
-      </c>
-      <c r="G219" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>10b</v>
+      </c>
+      <c r="G219" s="10">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999993E+168</v>
       </c>
       <c r="H219" s="10">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="I219" s="9" t="str" cm="1">
+        <f t="array" ref="I219">IF(AND(H218&gt;1000,H219&lt;2),INDEX(M:M,MATCH(I218,M:M,0)+1,0),I218)</f>
+        <v>b</v>
+      </c>
+      <c r="J219" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="I219" s="9" cm="1">
-        <f t="array" ref="I219">IF(AND(H218&gt;1000,H219&lt;2),INDEX(M:M,MATCH(I218,M:M,0)+1,0),I218)</f>
-        <v>0</v>
-      </c>
-      <c r="J219" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K219" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K219" s="5">
-        <f t="shared" si="34"/>
         <v>612</v>
       </c>
       <c r="L219" s="20"/>
@@ -12775,27 +12991,27 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>500</v>
-      </c>
-      <c r="G220" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>50b</v>
+      </c>
+      <c r="G220" s="10">
+        <f t="shared" si="39"/>
+        <v>4.9999999999999995E+169</v>
       </c>
       <c r="H220" s="10">
+        <f t="shared" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="I220" s="9" t="str" cm="1">
+        <f t="array" ref="I220">IF(AND(H219&gt;1000,H220&lt;2),INDEX(M:M,MATCH(I219,M:M,0)+1,0),I219)</f>
+        <v>b</v>
+      </c>
+      <c r="J220" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>50</v>
-      </c>
-      <c r="I220" s="9" cm="1">
-        <f t="array" ref="I220">IF(AND(H219&gt;1000,H220&lt;2),INDEX(M:M,MATCH(I219,M:M,0)+1,0),I219)</f>
-        <v>0</v>
-      </c>
-      <c r="J220" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K220" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K220" s="5">
-        <f t="shared" si="34"/>
         <v>616</v>
       </c>
       <c r="L220" s="20"/>
@@ -12805,27 +13021,27 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>1000</v>
-      </c>
-      <c r="G221" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>100b</v>
+      </c>
+      <c r="G221" s="10">
+        <f t="shared" si="39"/>
+        <v>9.999999999999999E+169</v>
       </c>
       <c r="H221" s="10">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="I221" s="9" t="str" cm="1">
+        <f t="array" ref="I221">IF(AND(H220&gt;1000,H221&lt;2),INDEX(M:M,MATCH(I220,M:M,0)+1,0),I220)</f>
+        <v>b</v>
+      </c>
+      <c r="J221" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="I221" s="9" cm="1">
-        <f t="array" ref="I221">IF(AND(H220&gt;1000,H221&lt;2),INDEX(M:M,MATCH(I220,M:M,0)+1,0),I220)</f>
-        <v>0</v>
-      </c>
-      <c r="J221" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K221" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K221" s="5">
-        <f t="shared" si="34"/>
         <v>620</v>
       </c>
       <c r="L221" s="20"/>
@@ -12835,27 +13051,27 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>5000</v>
-      </c>
-      <c r="G222" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>500b</v>
+      </c>
+      <c r="G222" s="10">
+        <f t="shared" si="39"/>
+        <v>4.9999999999999998E+170</v>
       </c>
       <c r="H222" s="10">
+        <f t="shared" si="40"/>
+        <v>500</v>
+      </c>
+      <c r="I222" s="9" t="str" cm="1">
+        <f t="array" ref="I222">IF(AND(H221&gt;1000,H222&lt;2),INDEX(M:M,MATCH(I221,M:M,0)+1,0),I221)</f>
+        <v>b</v>
+      </c>
+      <c r="J222" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>500</v>
-      </c>
-      <c r="I222" s="9" cm="1">
-        <f t="array" ref="I222">IF(AND(H221&gt;1000,H222&lt;2),INDEX(M:M,MATCH(I221,M:M,0)+1,0),I221)</f>
-        <v>0</v>
-      </c>
-      <c r="J222" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K222" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K222" s="5">
-        <f t="shared" si="34"/>
         <v>624</v>
       </c>
       <c r="L222" s="20"/>
@@ -12865,27 +13081,27 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>10000</v>
-      </c>
-      <c r="G223" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>1000b</v>
+      </c>
+      <c r="G223" s="10">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999995E+170</v>
       </c>
       <c r="H223" s="10">
+        <f t="shared" si="40"/>
+        <v>1000</v>
+      </c>
+      <c r="I223" s="9" t="str" cm="1">
+        <f t="array" ref="I223">IF(AND(H222&gt;1000,H223&lt;2),INDEX(M:M,MATCH(I222,M:M,0)+1,0),I222)</f>
+        <v>b</v>
+      </c>
+      <c r="J223" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>1000</v>
-      </c>
-      <c r="I223" s="9" cm="1">
-        <f t="array" ref="I223">IF(AND(H222&gt;1000,H223&lt;2),INDEX(M:M,MATCH(I222,M:M,0)+1,0),I222)</f>
-        <v>0</v>
-      </c>
-      <c r="J223" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K223" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K223" s="5">
-        <f t="shared" si="34"/>
         <v>628</v>
       </c>
       <c r="L223" s="20"/>
@@ -12895,27 +13111,27 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>50000</v>
-      </c>
-      <c r="G224" s="10" t="e">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>5000b</v>
+      </c>
+      <c r="G224" s="10">
+        <f t="shared" si="39"/>
+        <v>4.9999999999999996E+171</v>
       </c>
       <c r="H224" s="10">
+        <f t="shared" si="40"/>
+        <v>5000</v>
+      </c>
+      <c r="I224" s="9" t="str" cm="1">
+        <f t="array" ref="I224">IF(AND(H223&gt;1000,H224&lt;2),INDEX(M:M,MATCH(I223,M:M,0)+1,0),I223)</f>
+        <v>b</v>
+      </c>
+      <c r="J224" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>5000</v>
-      </c>
-      <c r="I224" s="9" cm="1">
-        <f t="array" ref="I224">IF(AND(H223&gt;1000,H224&lt;2),INDEX(M:M,MATCH(I223,M:M,0)+1,0),I223)</f>
-        <v>0</v>
-      </c>
-      <c r="J224" s="9" t="e">
+        <v>1E+168</v>
+      </c>
+      <c r="K224" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K224" s="5">
-        <f t="shared" si="34"/>
         <v>632</v>
       </c>
       <c r="L224" s="20"/>
@@ -12924,28 +13140,28 @@
       <c r="E225" s="9">
         <v>216</v>
       </c>
-      <c r="F225" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G225" s="10" t="e">
+      <c r="F225" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>1c</v>
+      </c>
+      <c r="G225" s="10">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+172</v>
       </c>
       <c r="H225" s="10">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="I225" s="9" t="str" cm="1">
+        <f t="array" ref="I225">IF(AND(H224&gt;1000,H225&lt;2),INDEX(M:M,MATCH(I224,M:M,0)+1,0),I224)</f>
+        <v>c</v>
+      </c>
+      <c r="J225" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="I225" s="9" t="e" cm="1">
-        <f t="array" ref="I225">IF(AND(H224&gt;1000,H225&lt;2),INDEX(M:M,MATCH(I224,M:M,0)+1,0),I224)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J225" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K225" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K225" s="5">
-        <f t="shared" si="34"/>
         <v>636</v>
       </c>
       <c r="L225" s="20"/>
@@ -12954,28 +13170,28 @@
       <c r="E226" s="9">
         <v>217</v>
       </c>
-      <c r="F226" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G226" s="10" t="e">
+      <c r="F226" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>5c</v>
+      </c>
+      <c r="G226" s="10">
+        <f t="shared" si="39"/>
+        <v>5.0000000000000001E+172</v>
       </c>
       <c r="H226" s="10">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="I226" s="9" t="str" cm="1">
+        <f t="array" ref="I226">IF(AND(H225&gt;1000,H226&lt;2),INDEX(M:M,MATCH(I225,M:M,0)+1,0),I225)</f>
+        <v>c</v>
+      </c>
+      <c r="J226" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="I226" s="9" t="e" cm="1">
-        <f t="array" ref="I226">IF(AND(H225&gt;1000,H226&lt;2),INDEX(M:M,MATCH(I225,M:M,0)+1,0),I225)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J226" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K226" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K226" s="5">
-        <f t="shared" si="34"/>
         <v>640</v>
       </c>
       <c r="L226" s="20"/>
@@ -12984,28 +13200,28 @@
       <c r="E227" s="9">
         <v>218</v>
       </c>
-      <c r="F227" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G227" s="10" t="e">
+      <c r="F227" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>10c</v>
+      </c>
+      <c r="G227" s="10">
+        <f t="shared" si="39"/>
+        <v>1E+173</v>
       </c>
       <c r="H227" s="10">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="I227" s="9" t="str" cm="1">
+        <f t="array" ref="I227">IF(AND(H226&gt;1000,H227&lt;2),INDEX(M:M,MATCH(I226,M:M,0)+1,0),I226)</f>
+        <v>c</v>
+      </c>
+      <c r="J227" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="I227" s="9" t="e" cm="1">
-        <f t="array" ref="I227">IF(AND(H226&gt;1000,H227&lt;2),INDEX(M:M,MATCH(I226,M:M,0)+1,0),I226)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J227" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K227" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K227" s="5">
-        <f t="shared" si="34"/>
         <v>644</v>
       </c>
       <c r="L227" s="20"/>
@@ -13014,28 +13230,28 @@
       <c r="E228" s="9">
         <v>219</v>
       </c>
-      <c r="F228" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G228" s="10" t="e">
+      <c r="F228" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>50c</v>
+      </c>
+      <c r="G228" s="10">
+        <f t="shared" si="39"/>
+        <v>5.0000000000000003E+173</v>
       </c>
       <c r="H228" s="10">
+        <f t="shared" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="I228" s="9" t="str" cm="1">
+        <f t="array" ref="I228">IF(AND(H227&gt;1000,H228&lt;2),INDEX(M:M,MATCH(I227,M:M,0)+1,0),I227)</f>
+        <v>c</v>
+      </c>
+      <c r="J228" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>50</v>
-      </c>
-      <c r="I228" s="9" t="e" cm="1">
-        <f t="array" ref="I228">IF(AND(H227&gt;1000,H228&lt;2),INDEX(M:M,MATCH(I227,M:M,0)+1,0),I227)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J228" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K228" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K228" s="5">
-        <f t="shared" si="34"/>
         <v>648</v>
       </c>
       <c r="L228" s="20"/>
@@ -13044,28 +13260,28 @@
       <c r="E229" s="9">
         <v>220</v>
       </c>
-      <c r="F229" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G229" s="10" t="e">
+      <c r="F229" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>100c</v>
+      </c>
+      <c r="G229" s="10">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+174</v>
       </c>
       <c r="H229" s="10">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="I229" s="9" t="str" cm="1">
+        <f t="array" ref="I229">IF(AND(H228&gt;1000,H229&lt;2),INDEX(M:M,MATCH(I228,M:M,0)+1,0),I228)</f>
+        <v>c</v>
+      </c>
+      <c r="J229" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="I229" s="9" t="e" cm="1">
-        <f t="array" ref="I229">IF(AND(H228&gt;1000,H229&lt;2),INDEX(M:M,MATCH(I228,M:M,0)+1,0),I228)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J229" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K229" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K229" s="5">
-        <f t="shared" si="34"/>
         <v>652</v>
       </c>
       <c r="L229" s="20"/>
@@ -13074,28 +13290,28 @@
       <c r="E230" s="9">
         <v>221</v>
       </c>
-      <c r="F230" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G230" s="10" t="e">
+      <c r="F230" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>500c</v>
+      </c>
+      <c r="G230" s="10">
+        <f t="shared" si="39"/>
+        <v>5.0000000000000006E+174</v>
       </c>
       <c r="H230" s="10">
+        <f t="shared" si="40"/>
+        <v>500</v>
+      </c>
+      <c r="I230" s="9" t="str" cm="1">
+        <f t="array" ref="I230">IF(AND(H229&gt;1000,H230&lt;2),INDEX(M:M,MATCH(I229,M:M,0)+1,0),I229)</f>
+        <v>c</v>
+      </c>
+      <c r="J230" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>500</v>
-      </c>
-      <c r="I230" s="9" t="e" cm="1">
-        <f t="array" ref="I230">IF(AND(H229&gt;1000,H230&lt;2),INDEX(M:M,MATCH(I229,M:M,0)+1,0),I229)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J230" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K230" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K230" s="5">
-        <f t="shared" si="34"/>
         <v>656</v>
       </c>
       <c r="L230" s="20"/>
@@ -13104,28 +13320,28 @@
       <c r="E231" s="9">
         <v>222</v>
       </c>
-      <c r="F231" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G231" s="10" t="e">
+      <c r="F231" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>1000c</v>
+      </c>
+      <c r="G231" s="10">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+175</v>
       </c>
       <c r="H231" s="10">
+        <f t="shared" si="40"/>
+        <v>1000</v>
+      </c>
+      <c r="I231" s="9" t="str" cm="1">
+        <f t="array" ref="I231">IF(AND(H230&gt;1000,H231&lt;2),INDEX(M:M,MATCH(I230,M:M,0)+1,0),I230)</f>
+        <v>c</v>
+      </c>
+      <c r="J231" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>1000</v>
-      </c>
-      <c r="I231" s="9" t="e" cm="1">
-        <f t="array" ref="I231">IF(AND(H230&gt;1000,H231&lt;2),INDEX(M:M,MATCH(I230,M:M,0)+1,0),I230)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J231" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K231" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K231" s="5">
-        <f t="shared" si="34"/>
         <v>660</v>
       </c>
       <c r="L231" s="20"/>
@@ -13134,28 +13350,28 @@
       <c r="E232" s="9">
         <v>223</v>
       </c>
-      <c r="F232" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G232" s="10" t="e">
+      <c r="F232" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>#N/A</v>
+        <v>5000c</v>
+      </c>
+      <c r="G232" s="10">
+        <f t="shared" si="39"/>
+        <v>5.0000000000000007E+175</v>
       </c>
       <c r="H232" s="10">
+        <f t="shared" si="40"/>
+        <v>5000</v>
+      </c>
+      <c r="I232" s="9" t="str" cm="1">
+        <f t="array" ref="I232">IF(AND(H231&gt;1000,H232&lt;2),INDEX(M:M,MATCH(I231,M:M,0)+1,0),I231)</f>
+        <v>c</v>
+      </c>
+      <c r="J232" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>5000</v>
-      </c>
-      <c r="I232" s="9" t="e" cm="1">
-        <f t="array" ref="I232">IF(AND(H231&gt;1000,H232&lt;2),INDEX(M:M,MATCH(I231,M:M,0)+1,0),I231)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J232" s="9" t="e">
+        <v>1E+172</v>
+      </c>
+      <c r="K232" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K232" s="5">
-        <f t="shared" si="34"/>
         <v>664</v>
       </c>
       <c r="L232" s="20"/>
@@ -13164,28 +13380,28 @@
       <c r="E233" s="9">
         <v>224</v>
       </c>
-      <c r="F233" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F233" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="G233" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G233" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H233" s="10">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="I233" s="9" cm="1">
+        <f t="array" ref="I233">IF(AND(H232&gt;1000,H233&lt;2),INDEX(M:M,MATCH(I232,M:M,0)+1,0),I232)</f>
+        <v>0</v>
+      </c>
+      <c r="J233" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H233" s="10">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="I233" s="9" t="e" cm="1">
-        <f t="array" ref="I233">IF(AND(H232&gt;1000,H233&lt;2),INDEX(M:M,MATCH(I232,M:M,0)+1,0),I232)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J233" s="9" t="e">
+      <c r="K233" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K233" s="5">
-        <f t="shared" si="34"/>
         <v>668</v>
       </c>
       <c r="L233" s="20"/>
@@ -13194,28 +13410,28 @@
       <c r="E234" s="9">
         <v>225</v>
       </c>
-      <c r="F234" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F234" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>50</v>
+      </c>
+      <c r="G234" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G234" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H234" s="10">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="I234" s="9" cm="1">
+        <f t="array" ref="I234">IF(AND(H233&gt;1000,H234&lt;2),INDEX(M:M,MATCH(I233,M:M,0)+1,0),I233)</f>
+        <v>0</v>
+      </c>
+      <c r="J234" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H234" s="10">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="I234" s="9" t="e" cm="1">
-        <f t="array" ref="I234">IF(AND(H233&gt;1000,H234&lt;2),INDEX(M:M,MATCH(I233,M:M,0)+1,0),I233)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J234" s="9" t="e">
+      <c r="K234" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K234" s="5">
-        <f t="shared" si="34"/>
         <v>672</v>
       </c>
       <c r="L234" s="20"/>
@@ -13224,28 +13440,28 @@
       <c r="E235" s="9">
         <v>226</v>
       </c>
-      <c r="F235" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F235" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G235" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G235" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H235" s="10">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="I235" s="9" cm="1">
+        <f t="array" ref="I235">IF(AND(H234&gt;1000,H235&lt;2),INDEX(M:M,MATCH(I234,M:M,0)+1,0),I234)</f>
+        <v>0</v>
+      </c>
+      <c r="J235" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H235" s="10">
-        <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="I235" s="9" t="e" cm="1">
-        <f t="array" ref="I235">IF(AND(H234&gt;1000,H235&lt;2),INDEX(M:M,MATCH(I234,M:M,0)+1,0),I234)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J235" s="9" t="e">
+      <c r="K235" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K235" s="5">
-        <f t="shared" si="34"/>
         <v>676</v>
       </c>
       <c r="L235" s="20"/>
@@ -13254,28 +13470,28 @@
       <c r="E236" s="9">
         <v>227</v>
       </c>
-      <c r="F236" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F236" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>500</v>
+      </c>
+      <c r="G236" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G236" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H236" s="10">
+        <f t="shared" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="I236" s="9" cm="1">
+        <f t="array" ref="I236">IF(AND(H235&gt;1000,H236&lt;2),INDEX(M:M,MATCH(I235,M:M,0)+1,0),I235)</f>
+        <v>0</v>
+      </c>
+      <c r="J236" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H236" s="10">
-        <f t="shared" si="38"/>
-        <v>50</v>
-      </c>
-      <c r="I236" s="9" t="e" cm="1">
-        <f t="array" ref="I236">IF(AND(H235&gt;1000,H236&lt;2),INDEX(M:M,MATCH(I235,M:M,0)+1,0),I235)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J236" s="9" t="e">
+      <c r="K236" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K236" s="5">
-        <f t="shared" si="34"/>
         <v>680</v>
       </c>
       <c r="L236" s="20"/>
@@ -13284,28 +13500,28 @@
       <c r="E237" s="9">
         <v>228</v>
       </c>
-      <c r="F237" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F237" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="G237" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G237" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H237" s="10">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="I237" s="9" cm="1">
+        <f t="array" ref="I237">IF(AND(H236&gt;1000,H237&lt;2),INDEX(M:M,MATCH(I236,M:M,0)+1,0),I236)</f>
+        <v>0</v>
+      </c>
+      <c r="J237" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H237" s="10">
-        <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="I237" s="9" t="e" cm="1">
-        <f t="array" ref="I237">IF(AND(H236&gt;1000,H237&lt;2),INDEX(M:M,MATCH(I236,M:M,0)+1,0),I236)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J237" s="9" t="e">
+      <c r="K237" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K237" s="5">
-        <f t="shared" si="34"/>
         <v>684</v>
       </c>
       <c r="L237" s="20"/>
@@ -13314,28 +13530,28 @@
       <c r="E238" s="9">
         <v>229</v>
       </c>
-      <c r="F238" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F238" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>5000</v>
+      </c>
+      <c r="G238" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G238" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H238" s="10">
+        <f t="shared" si="40"/>
+        <v>500</v>
+      </c>
+      <c r="I238" s="9" cm="1">
+        <f t="array" ref="I238">IF(AND(H237&gt;1000,H238&lt;2),INDEX(M:M,MATCH(I237,M:M,0)+1,0),I237)</f>
+        <v>0</v>
+      </c>
+      <c r="J238" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H238" s="10">
-        <f t="shared" si="38"/>
-        <v>500</v>
-      </c>
-      <c r="I238" s="9" t="e" cm="1">
-        <f t="array" ref="I238">IF(AND(H237&gt;1000,H238&lt;2),INDEX(M:M,MATCH(I237,M:M,0)+1,0),I237)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J238" s="9" t="e">
+      <c r="K238" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K238" s="5">
-        <f t="shared" si="34"/>
         <v>688</v>
       </c>
       <c r="L238" s="20"/>
@@ -13344,28 +13560,28 @@
       <c r="E239" s="9">
         <v>230</v>
       </c>
-      <c r="F239" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F239" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>10000</v>
+      </c>
+      <c r="G239" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G239" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H239" s="10">
+        <f t="shared" si="40"/>
+        <v>1000</v>
+      </c>
+      <c r="I239" s="9" cm="1">
+        <f t="array" ref="I239">IF(AND(H238&gt;1000,H239&lt;2),INDEX(M:M,MATCH(I238,M:M,0)+1,0),I238)</f>
+        <v>0</v>
+      </c>
+      <c r="J239" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H239" s="10">
-        <f t="shared" si="38"/>
-        <v>1000</v>
-      </c>
-      <c r="I239" s="9" t="e" cm="1">
-        <f t="array" ref="I239">IF(AND(H238&gt;1000,H239&lt;2),INDEX(M:M,MATCH(I238,M:M,0)+1,0),I238)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J239" s="9" t="e">
+      <c r="K239" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K239" s="5">
-        <f t="shared" si="34"/>
         <v>692</v>
       </c>
       <c r="L239" s="20"/>
@@ -13374,28 +13590,28 @@
       <c r="E240" s="9">
         <v>231</v>
       </c>
-      <c r="F240" s="10" t="e">
-        <f t="shared" si="35"/>
+      <c r="F240" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>50000</v>
+      </c>
+      <c r="G240" s="10" t="e">
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="G240" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="H240" s="10">
+        <f t="shared" si="40"/>
+        <v>5000</v>
+      </c>
+      <c r="I240" s="9" cm="1">
+        <f t="array" ref="I240">IF(AND(H239&gt;1000,H240&lt;2),INDEX(M:M,MATCH(I239,M:M,0)+1,0),I239)</f>
+        <v>0</v>
+      </c>
+      <c r="J240" s="9" t="e">
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="H240" s="10">
-        <f t="shared" si="38"/>
-        <v>5000</v>
-      </c>
-      <c r="I240" s="9" t="e" cm="1">
-        <f t="array" ref="I240">IF(AND(H239&gt;1000,H240&lt;2),INDEX(M:M,MATCH(I239,M:M,0)+1,0),I239)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J240" s="9" t="e">
+      <c r="K240" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K240" s="5">
-        <f t="shared" si="34"/>
         <v>696</v>
       </c>
       <c r="L240" s="20"/>
@@ -13405,15 +13621,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G241" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G241" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H241" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="e" cm="1">
@@ -13421,11 +13637,11 @@
         <v>#N/A</v>
       </c>
       <c r="J241" s="9" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K241" s="5">
         <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K241" s="5">
-        <f t="shared" si="34"/>
         <v>700</v>
       </c>
       <c r="L241" s="20"/>
@@ -13435,15 +13651,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G242" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G242" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H242" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="e" cm="1">
@@ -13451,11 +13667,11 @@
         <v>#N/A</v>
       </c>
       <c r="J242" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="39">K241+4</f>
+        <f t="shared" ref="K242:K256" si="41">K241+4</f>
         <v>704</v>
       </c>
       <c r="L242" s="20"/>
@@ -13465,15 +13681,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G243" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G243" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H243" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="e" cm="1">
@@ -13481,11 +13697,11 @@
         <v>#N/A</v>
       </c>
       <c r="J243" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>708</v>
       </c>
       <c r="L243" s="20"/>
@@ -13495,15 +13711,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G244" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G244" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H244" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="e" cm="1">
@@ -13511,11 +13727,11 @@
         <v>#N/A</v>
       </c>
       <c r="J244" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>712</v>
       </c>
       <c r="L244" s="20"/>
@@ -13525,15 +13741,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G245" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G245" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H245" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="e" cm="1">
@@ -13541,11 +13757,11 @@
         <v>#N/A</v>
       </c>
       <c r="J245" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>716</v>
       </c>
       <c r="L245" s="20"/>
@@ -13555,15 +13771,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G246" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G246" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H246" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="e" cm="1">
@@ -13571,11 +13787,11 @@
         <v>#N/A</v>
       </c>
       <c r="J246" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>720</v>
       </c>
       <c r="L246" s="20"/>
@@ -13585,15 +13801,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G247" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G247" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H247" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="e" cm="1">
@@ -13601,11 +13817,11 @@
         <v>#N/A</v>
       </c>
       <c r="J247" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>724</v>
       </c>
       <c r="L247" s="20"/>
@@ -13615,15 +13831,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G248" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G248" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H248" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="e" cm="1">
@@ -13631,11 +13847,11 @@
         <v>#N/A</v>
       </c>
       <c r="J248" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>728</v>
       </c>
       <c r="L248" s="20"/>
@@ -13645,15 +13861,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G249" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G249" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H249" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="e" cm="1">
@@ -13661,11 +13877,11 @@
         <v>#N/A</v>
       </c>
       <c r="J249" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>732</v>
       </c>
       <c r="L249" s="20"/>
@@ -13675,15 +13891,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G250" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G250" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H250" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="e" cm="1">
@@ -13691,11 +13907,11 @@
         <v>#N/A</v>
       </c>
       <c r="J250" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>736</v>
       </c>
       <c r="L250" s="20"/>
@@ -13705,15 +13921,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G251" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G251" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H251" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="e" cm="1">
@@ -13721,11 +13937,11 @@
         <v>#N/A</v>
       </c>
       <c r="J251" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>740</v>
       </c>
       <c r="L251" s="20"/>
@@ -13735,15 +13951,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G252" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G252" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H252" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="e" cm="1">
@@ -13751,11 +13967,11 @@
         <v>#N/A</v>
       </c>
       <c r="J252" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>744</v>
       </c>
       <c r="L252" s="20"/>
@@ -13765,15 +13981,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G253" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G253" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H253" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="e" cm="1">
@@ -13781,11 +13997,11 @@
         <v>#N/A</v>
       </c>
       <c r="J253" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>748</v>
       </c>
       <c r="L253" s="20"/>
@@ -13795,15 +14011,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G254" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G254" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H254" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="e" cm="1">
@@ -13811,11 +14027,11 @@
         <v>#N/A</v>
       </c>
       <c r="J254" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>752</v>
       </c>
       <c r="L254" s="20"/>
@@ -13825,15 +14041,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G255" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G255" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H255" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="e" cm="1">
@@ -13841,11 +14057,11 @@
         <v>#N/A</v>
       </c>
       <c r="J255" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>756</v>
       </c>
       <c r="L255" s="20"/>
@@ -13855,15 +14071,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G256" s="10" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
+      <c r="G256" s="10" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
       <c r="H256" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="e" cm="1">
@@ -13871,11 +14087,11 @@
         <v>#N/A</v>
       </c>
       <c r="J256" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>760</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AA099-1DF4-4A19-9629-29C90FFEC695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3339CF-9FDE-4840-9C31-3B9040AB8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,6 +330,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5605,6 +5605,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <f>VLOOKUP(A202,Balance!E:J,3,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="C202" s="1" t="str">
+        <f>VLOOKUP(A202,Balance!E:J,2,FALSE)</f>
+        <v>1절</v>
+      </c>
+      <c r="D202" s="24">
+        <v>20</v>
+      </c>
+      <c r="E202" s="1">
+        <f>VLOOKUP(A202,Balance!E:K,7,FALSE)</f>
+        <v>572</v>
+      </c>
+      <c r="F202" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <f>VLOOKUP(A203,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="C203" s="1" t="str">
+        <f>VLOOKUP(A203,Balance!E:J,2,FALSE)</f>
+        <v>5절</v>
+      </c>
+      <c r="D203" s="24">
+        <v>20</v>
+      </c>
+      <c r="E203" s="1">
+        <f>VLOOKUP(A203,Balance!E:K,7,FALSE)</f>
+        <v>576</v>
+      </c>
+      <c r="F203" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <f>VLOOKUP(A204,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C204" s="1" t="str">
+        <f>VLOOKUP(A204,Balance!E:J,2,FALSE)</f>
+        <v>10절</v>
+      </c>
+      <c r="D204" s="24">
+        <v>20</v>
+      </c>
+      <c r="E204" s="1">
+        <f>VLOOKUP(A204,Balance!E:K,7,FALSE)</f>
+        <v>580</v>
+      </c>
+      <c r="F204" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <f>VLOOKUP(A205,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="C205" s="1" t="str">
+        <f>VLOOKUP(A205,Balance!E:J,2,FALSE)</f>
+        <v>50절</v>
+      </c>
+      <c r="D205" s="24">
+        <v>20</v>
+      </c>
+      <c r="E205" s="1">
+        <f>VLOOKUP(A205,Balance!E:K,7,FALSE)</f>
+        <v>584</v>
+      </c>
+      <c r="F205" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <f>VLOOKUP(A206,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="C206" s="1" t="str">
+        <f>VLOOKUP(A206,Balance!E:J,2,FALSE)</f>
+        <v>100절</v>
+      </c>
+      <c r="D206" s="24">
+        <v>20</v>
+      </c>
+      <c r="E206" s="1">
+        <f>VLOOKUP(A206,Balance!E:K,7,FALSE)</f>
+        <v>588</v>
+      </c>
+      <c r="F206" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <f>VLOOKUP(A207,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="C207" s="1" t="str">
+        <f>VLOOKUP(A207,Balance!E:J,2,FALSE)</f>
+        <v>500절</v>
+      </c>
+      <c r="D207" s="24">
+        <v>20</v>
+      </c>
+      <c r="E207" s="1">
+        <f>VLOOKUP(A207,Balance!E:K,7,FALSE)</f>
+        <v>592</v>
+      </c>
+      <c r="F207" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <f>VLOOKUP(A208,Balance!E:J,3,FALSE)</f>
+        <v>1E+167</v>
+      </c>
+      <c r="C208" s="1" t="str">
+        <f>VLOOKUP(A208,Balance!E:J,2,FALSE)</f>
+        <v>1000절</v>
+      </c>
+      <c r="D208" s="24">
+        <v>20</v>
+      </c>
+      <c r="E208" s="1">
+        <f>VLOOKUP(A208,Balance!E:K,7,FALSE)</f>
+        <v>596</v>
+      </c>
+      <c r="F208" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <f>VLOOKUP(A209,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="C209" s="1" t="str">
+        <f>VLOOKUP(A209,Balance!E:J,2,FALSE)</f>
+        <v>5000절</v>
+      </c>
+      <c r="D209" s="24">
+        <v>20</v>
+      </c>
+      <c r="E209" s="1">
+        <f>VLOOKUP(A209,Balance!E:K,7,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="F209" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5617,8 +5801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView topLeftCell="B191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7505,7 +7689,7 @@
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N46" s="9">
         <v>156</v>
@@ -7558,7 +7742,7 @@
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N47" s="9">
         <v>160</v>
@@ -7611,7 +7795,7 @@
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N48" s="9">
         <v>164</v>
@@ -7664,7 +7848,7 @@
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N49" s="9">
         <v>168</v>
@@ -7717,7 +7901,7 @@
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N50" s="9">
         <v>172</v>
@@ -12662,7 +12846,7 @@
       </c>
       <c r="F209" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>1a</v>
+        <v>1절</v>
       </c>
       <c r="G209" s="10">
         <f t="shared" si="39"/>
@@ -12674,7 +12858,7 @@
       </c>
       <c r="I209" s="9" t="str" cm="1">
         <f t="array" ref="I209">IF(AND(H208&gt;1000,H209&lt;2),INDEX(M:M,MATCH(I208,M:M,0)+1,0),I208)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J209" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12692,7 +12876,7 @@
       </c>
       <c r="F210" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>5a</v>
+        <v>5절</v>
       </c>
       <c r="G210" s="10">
         <f t="shared" si="39"/>
@@ -12704,7 +12888,7 @@
       </c>
       <c r="I210" s="9" t="str" cm="1">
         <f t="array" ref="I210">IF(AND(H209&gt;1000,H210&lt;2),INDEX(M:M,MATCH(I209,M:M,0)+1,0),I209)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J210" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12722,7 +12906,7 @@
       </c>
       <c r="F211" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>10a</v>
+        <v>10절</v>
       </c>
       <c r="G211" s="10">
         <f t="shared" si="39"/>
@@ -12734,7 +12918,7 @@
       </c>
       <c r="I211" s="9" t="str" cm="1">
         <f t="array" ref="I211">IF(AND(H210&gt;1000,H211&lt;2),INDEX(M:M,MATCH(I210,M:M,0)+1,0),I210)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J211" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12752,7 +12936,7 @@
       </c>
       <c r="F212" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>50a</v>
+        <v>50절</v>
       </c>
       <c r="G212" s="10">
         <f t="shared" si="39"/>
@@ -12764,7 +12948,7 @@
       </c>
       <c r="I212" s="9" t="str" cm="1">
         <f t="array" ref="I212">IF(AND(H211&gt;1000,H212&lt;2),INDEX(M:M,MATCH(I211,M:M,0)+1,0),I211)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J212" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12782,7 +12966,7 @@
       </c>
       <c r="F213" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>100a</v>
+        <v>100절</v>
       </c>
       <c r="G213" s="10">
         <f t="shared" si="39"/>
@@ -12794,7 +12978,7 @@
       </c>
       <c r="I213" s="9" t="str" cm="1">
         <f t="array" ref="I213">IF(AND(H212&gt;1000,H213&lt;2),INDEX(M:M,MATCH(I212,M:M,0)+1,0),I212)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J213" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12812,7 +12996,7 @@
       </c>
       <c r="F214" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>500a</v>
+        <v>500절</v>
       </c>
       <c r="G214" s="10">
         <f t="shared" si="39"/>
@@ -12824,7 +13008,7 @@
       </c>
       <c r="I214" s="9" t="str" cm="1">
         <f t="array" ref="I214">IF(AND(H213&gt;1000,H214&lt;2),INDEX(M:M,MATCH(I213,M:M,0)+1,0),I213)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J214" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12842,7 +13026,7 @@
       </c>
       <c r="F215" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>1000a</v>
+        <v>1000절</v>
       </c>
       <c r="G215" s="10">
         <f t="shared" si="39"/>
@@ -12854,7 +13038,7 @@
       </c>
       <c r="I215" s="9" t="str" cm="1">
         <f t="array" ref="I215">IF(AND(H214&gt;1000,H215&lt;2),INDEX(M:M,MATCH(I214,M:M,0)+1,0),I214)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J215" s="9" t="str">
         <f t="shared" si="38"/>
@@ -12872,7 +13056,7 @@
       </c>
       <c r="F216" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>5000a</v>
+        <v>5000절</v>
       </c>
       <c r="G216" s="10">
         <f t="shared" si="39"/>
@@ -12884,7 +13068,7 @@
       </c>
       <c r="I216" s="9" t="str" cm="1">
         <f t="array" ref="I216">IF(AND(H215&gt;1000,H216&lt;2),INDEX(M:M,MATCH(I215,M:M,0)+1,0),I215)</f>
-        <v>a</v>
+        <v>절</v>
       </c>
       <c r="J216" s="9" t="str">
         <f t="shared" si="38"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3339CF-9FDE-4840-9C31-3B9040AB8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE312A-F493-47D7-9AC2-7C4E568E677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -325,15 +325,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5789,6 +5789,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <f>VLOOKUP(A210,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C210" s="1" t="str">
+        <f>VLOOKUP(A210,Balance!E:J,2,FALSE)</f>
+        <v>1격</v>
+      </c>
+      <c r="D210" s="24">
+        <v>20</v>
+      </c>
+      <c r="E210" s="1">
+        <f>VLOOKUP(A210,Balance!E:K,7,FALSE)</f>
+        <v>605</v>
+      </c>
+      <c r="F210" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <f>VLOOKUP(A211,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999997E+168</v>
+      </c>
+      <c r="C211" s="1" t="str">
+        <f>VLOOKUP(A211,Balance!E:J,2,FALSE)</f>
+        <v>5격</v>
+      </c>
+      <c r="D211" s="24">
+        <v>20</v>
+      </c>
+      <c r="E211" s="1">
+        <f>VLOOKUP(A211,Balance!E:K,7,FALSE)</f>
+        <v>610</v>
+      </c>
+      <c r="F211" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <f>VLOOKUP(A212,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C212" s="1" t="str">
+        <f>VLOOKUP(A212,Balance!E:J,2,FALSE)</f>
+        <v>10격</v>
+      </c>
+      <c r="D212" s="24">
+        <v>20</v>
+      </c>
+      <c r="E212" s="1">
+        <f>VLOOKUP(A212,Balance!E:K,7,FALSE)</f>
+        <v>615</v>
+      </c>
+      <c r="F212" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <f>VLOOKUP(A213,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999995E+169</v>
+      </c>
+      <c r="C213" s="1" t="str">
+        <f>VLOOKUP(A213,Balance!E:J,2,FALSE)</f>
+        <v>50격</v>
+      </c>
+      <c r="D213" s="24">
+        <v>20</v>
+      </c>
+      <c r="E213" s="1">
+        <f>VLOOKUP(A213,Balance!E:K,7,FALSE)</f>
+        <v>620</v>
+      </c>
+      <c r="F213" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <f>VLOOKUP(A214,Balance!E:J,3,FALSE)</f>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C214" s="1" t="str">
+        <f>VLOOKUP(A214,Balance!E:J,2,FALSE)</f>
+        <v>100격</v>
+      </c>
+      <c r="D214" s="24">
+        <v>20</v>
+      </c>
+      <c r="E214" s="1">
+        <f>VLOOKUP(A214,Balance!E:K,7,FALSE)</f>
+        <v>625</v>
+      </c>
+      <c r="F214" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <f>VLOOKUP(A215,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999998E+170</v>
+      </c>
+      <c r="C215" s="1" t="str">
+        <f>VLOOKUP(A215,Balance!E:J,2,FALSE)</f>
+        <v>500격</v>
+      </c>
+      <c r="D215" s="24">
+        <v>20</v>
+      </c>
+      <c r="E215" s="1">
+        <f>VLOOKUP(A215,Balance!E:K,7,FALSE)</f>
+        <v>630</v>
+      </c>
+      <c r="F215" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <f>VLOOKUP(A216,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C216" s="1" t="str">
+        <f>VLOOKUP(A216,Balance!E:J,2,FALSE)</f>
+        <v>1000격</v>
+      </c>
+      <c r="D216" s="24">
+        <v>20</v>
+      </c>
+      <c r="E216" s="1">
+        <f>VLOOKUP(A216,Balance!E:K,7,FALSE)</f>
+        <v>635</v>
+      </c>
+      <c r="F216" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <f>VLOOKUP(A217,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999996E+171</v>
+      </c>
+      <c r="C217" s="1" t="str">
+        <f>VLOOKUP(A217,Balance!E:J,2,FALSE)</f>
+        <v>5000격</v>
+      </c>
+      <c r="D217" s="24">
+        <v>20</v>
+      </c>
+      <c r="E217" s="1">
+        <f>VLOOKUP(A217,Balance!E:K,7,FALSE)</f>
+        <v>640</v>
+      </c>
+      <c r="F217" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5801,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256"/>
+    <sheetView topLeftCell="B205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K217" sqref="K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7795,7 +7979,7 @@
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N48" s="9">
         <v>164</v>
@@ -7848,7 +8032,7 @@
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N49" s="9">
         <v>168</v>
@@ -7901,7 +8085,7 @@
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N50" s="9">
         <v>172</v>
@@ -13086,7 +13270,7 @@
       </c>
       <c r="F217" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>1b</v>
+        <v>1격</v>
       </c>
       <c r="G217" s="10">
         <f t="shared" si="39"/>
@@ -13098,15 +13282,15 @@
       </c>
       <c r="I217" s="9" t="str" cm="1">
         <f t="array" ref="I217">IF(AND(H216&gt;1000,H217&lt;2),INDEX(M:M,MATCH(I216,M:M,0)+1,0),I216)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J217" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K217" s="5">
-        <f t="shared" si="36"/>
-        <v>604</v>
+        <f>K216+5</f>
+        <v>605</v>
       </c>
       <c r="L217" s="20"/>
     </row>
@@ -13116,7 +13300,7 @@
       </c>
       <c r="F218" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>5b</v>
+        <v>5격</v>
       </c>
       <c r="G218" s="10">
         <f t="shared" si="39"/>
@@ -13128,15 +13312,15 @@
       </c>
       <c r="I218" s="9" t="str" cm="1">
         <f t="array" ref="I218">IF(AND(H217&gt;1000,H218&lt;2),INDEX(M:M,MATCH(I217,M:M,0)+1,0),I217)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J218" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" si="36"/>
-        <v>608</v>
+        <f t="shared" ref="K218:K256" si="41">K217+5</f>
+        <v>610</v>
       </c>
       <c r="L218" s="20"/>
     </row>
@@ -13146,7 +13330,7 @@
       </c>
       <c r="F219" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>10b</v>
+        <v>10격</v>
       </c>
       <c r="G219" s="10">
         <f t="shared" si="39"/>
@@ -13158,15 +13342,15 @@
       </c>
       <c r="I219" s="9" t="str" cm="1">
         <f t="array" ref="I219">IF(AND(H218&gt;1000,H219&lt;2),INDEX(M:M,MATCH(I218,M:M,0)+1,0),I218)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J219" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="36"/>
-        <v>612</v>
+        <f t="shared" si="41"/>
+        <v>615</v>
       </c>
       <c r="L219" s="20"/>
     </row>
@@ -13176,7 +13360,7 @@
       </c>
       <c r="F220" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>50b</v>
+        <v>50격</v>
       </c>
       <c r="G220" s="10">
         <f t="shared" si="39"/>
@@ -13188,15 +13372,15 @@
       </c>
       <c r="I220" s="9" t="str" cm="1">
         <f t="array" ref="I220">IF(AND(H219&gt;1000,H220&lt;2),INDEX(M:M,MATCH(I219,M:M,0)+1,0),I219)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J220" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="36"/>
-        <v>616</v>
+        <f t="shared" si="41"/>
+        <v>620</v>
       </c>
       <c r="L220" s="20"/>
     </row>
@@ -13206,7 +13390,7 @@
       </c>
       <c r="F221" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>100b</v>
+        <v>100격</v>
       </c>
       <c r="G221" s="10">
         <f t="shared" si="39"/>
@@ -13218,15 +13402,15 @@
       </c>
       <c r="I221" s="9" t="str" cm="1">
         <f t="array" ref="I221">IF(AND(H220&gt;1000,H221&lt;2),INDEX(M:M,MATCH(I220,M:M,0)+1,0),I220)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J221" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="36"/>
-        <v>620</v>
+        <f t="shared" si="41"/>
+        <v>625</v>
       </c>
       <c r="L221" s="20"/>
     </row>
@@ -13236,7 +13420,7 @@
       </c>
       <c r="F222" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>500b</v>
+        <v>500격</v>
       </c>
       <c r="G222" s="10">
         <f t="shared" si="39"/>
@@ -13248,15 +13432,15 @@
       </c>
       <c r="I222" s="9" t="str" cm="1">
         <f t="array" ref="I222">IF(AND(H221&gt;1000,H222&lt;2),INDEX(M:M,MATCH(I221,M:M,0)+1,0),I221)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J222" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="36"/>
-        <v>624</v>
+        <f t="shared" si="41"/>
+        <v>630</v>
       </c>
       <c r="L222" s="20"/>
     </row>
@@ -13266,7 +13450,7 @@
       </c>
       <c r="F223" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>1000b</v>
+        <v>1000격</v>
       </c>
       <c r="G223" s="10">
         <f t="shared" si="39"/>
@@ -13278,15 +13462,15 @@
       </c>
       <c r="I223" s="9" t="str" cm="1">
         <f t="array" ref="I223">IF(AND(H222&gt;1000,H223&lt;2),INDEX(M:M,MATCH(I222,M:M,0)+1,0),I222)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J223" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="36"/>
-        <v>628</v>
+        <f t="shared" si="41"/>
+        <v>635</v>
       </c>
       <c r="L223" s="20"/>
     </row>
@@ -13296,7 +13480,7 @@
       </c>
       <c r="F224" s="10" t="str">
         <f t="shared" si="37"/>
-        <v>5000b</v>
+        <v>5000격</v>
       </c>
       <c r="G224" s="10">
         <f t="shared" si="39"/>
@@ -13308,15 +13492,15 @@
       </c>
       <c r="I224" s="9" t="str" cm="1">
         <f t="array" ref="I224">IF(AND(H223&gt;1000,H224&lt;2),INDEX(M:M,MATCH(I223,M:M,0)+1,0),I223)</f>
-        <v>b</v>
+        <v>격</v>
       </c>
       <c r="J224" s="9" t="str">
         <f t="shared" si="38"/>
         <v>1E+168</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="36"/>
-        <v>632</v>
+        <f t="shared" si="41"/>
+        <v>640</v>
       </c>
       <c r="L224" s="20"/>
     </row>
@@ -13345,8 +13529,8 @@
         <v>1E+172</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="36"/>
-        <v>636</v>
+        <f t="shared" si="41"/>
+        <v>645</v>
       </c>
       <c r="L225" s="20"/>
     </row>
@@ -13375,8 +13559,8 @@
         <v>1E+172</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="36"/>
-        <v>640</v>
+        <f t="shared" si="41"/>
+        <v>650</v>
       </c>
       <c r="L226" s="20"/>
     </row>
@@ -13405,8 +13589,8 @@
         <v>1E+172</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="36"/>
-        <v>644</v>
+        <f t="shared" si="41"/>
+        <v>655</v>
       </c>
       <c r="L227" s="20"/>
     </row>
@@ -13435,8 +13619,8 @@
         <v>1E+172</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="36"/>
-        <v>648</v>
+        <f t="shared" si="41"/>
+        <v>660</v>
       </c>
       <c r="L228" s="20"/>
     </row>
@@ -13465,8 +13649,8 @@
         <v>1E+172</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="36"/>
-        <v>652</v>
+        <f t="shared" si="41"/>
+        <v>665</v>
       </c>
       <c r="L229" s="20"/>
     </row>
@@ -13495,8 +13679,8 @@
         <v>1E+172</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="36"/>
-        <v>656</v>
+        <f t="shared" si="41"/>
+        <v>670</v>
       </c>
       <c r="L230" s="20"/>
     </row>
@@ -13525,8 +13709,8 @@
         <v>1E+172</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="36"/>
-        <v>660</v>
+        <f t="shared" si="41"/>
+        <v>675</v>
       </c>
       <c r="L231" s="20"/>
     </row>
@@ -13555,8 +13739,8 @@
         <v>1E+172</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="36"/>
-        <v>664</v>
+        <f t="shared" si="41"/>
+        <v>680</v>
       </c>
       <c r="L232" s="20"/>
     </row>
@@ -13585,8 +13769,8 @@
         <v>#N/A</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="36"/>
-        <v>668</v>
+        <f t="shared" si="41"/>
+        <v>685</v>
       </c>
       <c r="L233" s="20"/>
     </row>
@@ -13615,8 +13799,8 @@
         <v>#N/A</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="36"/>
-        <v>672</v>
+        <f t="shared" si="41"/>
+        <v>690</v>
       </c>
       <c r="L234" s="20"/>
     </row>
@@ -13645,8 +13829,8 @@
         <v>#N/A</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="36"/>
-        <v>676</v>
+        <f t="shared" si="41"/>
+        <v>695</v>
       </c>
       <c r="L235" s="20"/>
     </row>
@@ -13675,8 +13859,8 @@
         <v>#N/A</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="36"/>
-        <v>680</v>
+        <f t="shared" si="41"/>
+        <v>700</v>
       </c>
       <c r="L236" s="20"/>
     </row>
@@ -13705,8 +13889,8 @@
         <v>#N/A</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="36"/>
-        <v>684</v>
+        <f t="shared" si="41"/>
+        <v>705</v>
       </c>
       <c r="L237" s="20"/>
     </row>
@@ -13735,8 +13919,8 @@
         <v>#N/A</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="36"/>
-        <v>688</v>
+        <f t="shared" si="41"/>
+        <v>710</v>
       </c>
       <c r="L238" s="20"/>
     </row>
@@ -13765,8 +13949,8 @@
         <v>#N/A</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="36"/>
-        <v>692</v>
+        <f t="shared" si="41"/>
+        <v>715</v>
       </c>
       <c r="L239" s="20"/>
     </row>
@@ -13795,8 +13979,8 @@
         <v>#N/A</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="36"/>
-        <v>696</v>
+        <f t="shared" si="41"/>
+        <v>720</v>
       </c>
       <c r="L240" s="20"/>
     </row>
@@ -13825,8 +14009,8 @@
         <v>#N/A</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="36"/>
-        <v>700</v>
+        <f t="shared" si="41"/>
+        <v>725</v>
       </c>
       <c r="L241" s="20"/>
     </row>
@@ -13855,8 +14039,8 @@
         <v>#N/A</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" ref="K242:K256" si="41">K241+4</f>
-        <v>704</v>
+        <f t="shared" si="41"/>
+        <v>730</v>
       </c>
       <c r="L242" s="20"/>
     </row>
@@ -13886,7 +14070,7 @@
       </c>
       <c r="K243" s="5">
         <f t="shared" si="41"/>
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="L243" s="20"/>
     </row>
@@ -13916,7 +14100,7 @@
       </c>
       <c r="K244" s="5">
         <f t="shared" si="41"/>
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="L244" s="20"/>
     </row>
@@ -13946,7 +14130,7 @@
       </c>
       <c r="K245" s="5">
         <f t="shared" si="41"/>
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="L245" s="20"/>
     </row>
@@ -13976,7 +14160,7 @@
       </c>
       <c r="K246" s="5">
         <f t="shared" si="41"/>
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="L246" s="20"/>
     </row>
@@ -14006,7 +14190,7 @@
       </c>
       <c r="K247" s="5">
         <f t="shared" si="41"/>
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="L247" s="20"/>
     </row>
@@ -14036,7 +14220,7 @@
       </c>
       <c r="K248" s="5">
         <f t="shared" si="41"/>
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="L248" s="20"/>
     </row>
@@ -14066,7 +14250,7 @@
       </c>
       <c r="K249" s="5">
         <f t="shared" si="41"/>
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="L249" s="20"/>
     </row>
@@ -14096,7 +14280,7 @@
       </c>
       <c r="K250" s="5">
         <f t="shared" si="41"/>
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="L250" s="20"/>
     </row>
@@ -14126,7 +14310,7 @@
       </c>
       <c r="K251" s="5">
         <f t="shared" si="41"/>
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="L251" s="20"/>
     </row>
@@ -14156,7 +14340,7 @@
       </c>
       <c r="K252" s="5">
         <f t="shared" si="41"/>
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="L252" s="20"/>
     </row>
@@ -14186,7 +14370,7 @@
       </c>
       <c r="K253" s="5">
         <f t="shared" si="41"/>
-        <v>748</v>
+        <v>785</v>
       </c>
       <c r="L253" s="20"/>
     </row>
@@ -14216,7 +14400,7 @@
       </c>
       <c r="K254" s="5">
         <f t="shared" si="41"/>
-        <v>752</v>
+        <v>790</v>
       </c>
       <c r="L254" s="20"/>
     </row>
@@ -14246,7 +14430,7 @@
       </c>
       <c r="K255" s="5">
         <f t="shared" si="41"/>
-        <v>756</v>
+        <v>795</v>
       </c>
       <c r="L255" s="20"/>
     </row>
@@ -14276,7 +14460,7 @@
       </c>
       <c r="K256" s="5">
         <f t="shared" si="41"/>
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="L256" s="20"/>
     </row>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE312A-F493-47D7-9AC2-7C4E568E677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369E39B-7741-4D6A-AC8B-CF25F4C8193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,15 +325,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5973,6 +5981,374 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <f>VLOOKUP(A218,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="C218" s="1" t="str">
+        <f>VLOOKUP(A218,Balance!E:J,2,FALSE)</f>
+        <v>1창</v>
+      </c>
+      <c r="D218" s="24">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1">
+        <f>VLOOKUP(A218,Balance!E:K,7,FALSE)</f>
+        <v>645</v>
+      </c>
+      <c r="F218" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <f>VLOOKUP(A219,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+172</v>
+      </c>
+      <c r="C219" s="1" t="str">
+        <f>VLOOKUP(A219,Balance!E:J,2,FALSE)</f>
+        <v>5창</v>
+      </c>
+      <c r="D219" s="24">
+        <v>20</v>
+      </c>
+      <c r="E219" s="1">
+        <f>VLOOKUP(A219,Balance!E:K,7,FALSE)</f>
+        <v>650</v>
+      </c>
+      <c r="F219" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <f>VLOOKUP(A220,Balance!E:J,3,FALSE)</f>
+        <v>1E+173</v>
+      </c>
+      <c r="C220" s="1" t="str">
+        <f>VLOOKUP(A220,Balance!E:J,2,FALSE)</f>
+        <v>10창</v>
+      </c>
+      <c r="D220" s="24">
+        <v>20</v>
+      </c>
+      <c r="E220" s="1">
+        <f>VLOOKUP(A220,Balance!E:K,7,FALSE)</f>
+        <v>655</v>
+      </c>
+      <c r="F220" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <f>VLOOKUP(A221,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+173</v>
+      </c>
+      <c r="C221" s="1" t="str">
+        <f>VLOOKUP(A221,Balance!E:J,2,FALSE)</f>
+        <v>50창</v>
+      </c>
+      <c r="D221" s="24">
+        <v>20</v>
+      </c>
+      <c r="E221" s="1">
+        <f>VLOOKUP(A221,Balance!E:K,7,FALSE)</f>
+        <v>660</v>
+      </c>
+      <c r="F221" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <f>VLOOKUP(A222,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="C222" s="1" t="str">
+        <f>VLOOKUP(A222,Balance!E:J,2,FALSE)</f>
+        <v>100창</v>
+      </c>
+      <c r="D222" s="24">
+        <v>20</v>
+      </c>
+      <c r="E222" s="1">
+        <f>VLOOKUP(A222,Balance!E:K,7,FALSE)</f>
+        <v>665</v>
+      </c>
+      <c r="F222" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <f>VLOOKUP(A223,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000006E+174</v>
+      </c>
+      <c r="C223" s="1" t="str">
+        <f>VLOOKUP(A223,Balance!E:J,2,FALSE)</f>
+        <v>500창</v>
+      </c>
+      <c r="D223" s="24">
+        <v>20</v>
+      </c>
+      <c r="E223" s="1">
+        <f>VLOOKUP(A223,Balance!E:K,7,FALSE)</f>
+        <v>670</v>
+      </c>
+      <c r="F223" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <f>VLOOKUP(A224,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="C224" s="1" t="str">
+        <f>VLOOKUP(A224,Balance!E:J,2,FALSE)</f>
+        <v>1000창</v>
+      </c>
+      <c r="D224" s="24">
+        <v>20</v>
+      </c>
+      <c r="E224" s="1">
+        <f>VLOOKUP(A224,Balance!E:K,7,FALSE)</f>
+        <v>675</v>
+      </c>
+      <c r="F224" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <f>VLOOKUP(A225,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000007E+175</v>
+      </c>
+      <c r="C225" s="1" t="str">
+        <f>VLOOKUP(A225,Balance!E:J,2,FALSE)</f>
+        <v>5000창</v>
+      </c>
+      <c r="D225" s="24">
+        <v>20</v>
+      </c>
+      <c r="E225" s="1">
+        <f>VLOOKUP(A225,Balance!E:K,7,FALSE)</f>
+        <v>680</v>
+      </c>
+      <c r="F225" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <f>VLOOKUP(A226,Balance!E:J,3,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="C226" s="1" t="str">
+        <f>VLOOKUP(A226,Balance!E:J,2,FALSE)</f>
+        <v>1공</v>
+      </c>
+      <c r="D226" s="24">
+        <v>20</v>
+      </c>
+      <c r="E226" s="1">
+        <f>VLOOKUP(A226,Balance!E:K,7,FALSE)</f>
+        <v>685</v>
+      </c>
+      <c r="F226" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <f>VLOOKUP(A227,Balance!E:J,3,FALSE)</f>
+        <v>5E+176</v>
+      </c>
+      <c r="C227" s="1" t="str">
+        <f>VLOOKUP(A227,Balance!E:J,2,FALSE)</f>
+        <v>5공</v>
+      </c>
+      <c r="D227" s="24">
+        <v>20</v>
+      </c>
+      <c r="E227" s="1">
+        <f>VLOOKUP(A227,Balance!E:K,7,FALSE)</f>
+        <v>690</v>
+      </c>
+      <c r="F227" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <f>VLOOKUP(A228,Balance!E:J,3,FALSE)</f>
+        <v>1E+177</v>
+      </c>
+      <c r="C228" s="1" t="str">
+        <f>VLOOKUP(A228,Balance!E:J,2,FALSE)</f>
+        <v>10공</v>
+      </c>
+      <c r="D228" s="24">
+        <v>20</v>
+      </c>
+      <c r="E228" s="1">
+        <f>VLOOKUP(A228,Balance!E:K,7,FALSE)</f>
+        <v>695</v>
+      </c>
+      <c r="F228" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <f>VLOOKUP(A229,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+177</v>
+      </c>
+      <c r="C229" s="1" t="str">
+        <f>VLOOKUP(A229,Balance!E:J,2,FALSE)</f>
+        <v>50공</v>
+      </c>
+      <c r="D229" s="24">
+        <v>20</v>
+      </c>
+      <c r="E229" s="1">
+        <f>VLOOKUP(A229,Balance!E:K,7,FALSE)</f>
+        <v>700</v>
+      </c>
+      <c r="F229" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <f>VLOOKUP(A230,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="C230" s="1" t="str">
+        <f>VLOOKUP(A230,Balance!E:J,2,FALSE)</f>
+        <v>100공</v>
+      </c>
+      <c r="D230" s="24">
+        <v>20</v>
+      </c>
+      <c r="E230" s="1">
+        <f>VLOOKUP(A230,Balance!E:K,7,FALSE)</f>
+        <v>705</v>
+      </c>
+      <c r="F230" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <f>VLOOKUP(A231,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+178</v>
+      </c>
+      <c r="C231" s="1" t="str">
+        <f>VLOOKUP(A231,Balance!E:J,2,FALSE)</f>
+        <v>500공</v>
+      </c>
+      <c r="D231" s="24">
+        <v>20</v>
+      </c>
+      <c r="E231" s="1">
+        <f>VLOOKUP(A231,Balance!E:K,7,FALSE)</f>
+        <v>710</v>
+      </c>
+      <c r="F231" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <f>VLOOKUP(A232,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="C232" s="1" t="str">
+        <f>VLOOKUP(A232,Balance!E:J,2,FALSE)</f>
+        <v>1000공</v>
+      </c>
+      <c r="D232" s="24">
+        <v>20</v>
+      </c>
+      <c r="E232" s="1">
+        <f>VLOOKUP(A232,Balance!E:K,7,FALSE)</f>
+        <v>715</v>
+      </c>
+      <c r="F232" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <f>VLOOKUP(A233,Balance!E:J,3,FALSE)</f>
+        <v>5E+179</v>
+      </c>
+      <c r="C233" s="1" t="str">
+        <f>VLOOKUP(A233,Balance!E:J,2,FALSE)</f>
+        <v>5000공</v>
+      </c>
+      <c r="D233" s="24">
+        <v>20</v>
+      </c>
+      <c r="E233" s="1">
+        <f>VLOOKUP(A233,Balance!E:K,7,FALSE)</f>
+        <v>720</v>
+      </c>
+      <c r="F233" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5985,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K217" sqref="K217"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7979,7 +8355,7 @@
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N48" s="9">
         <v>164</v>
@@ -8032,17 +8408,17 @@
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N49" s="9">
         <v>168</v>
       </c>
       <c r="O49" s="10">
-        <f t="shared" ref="O49:O50" si="24">POWER(10,N49)</f>
+        <f t="shared" ref="O49:O51" si="24">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="10" t="str">
-        <f t="shared" ref="P49:P50" si="25">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49:P51" si="25">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="5"/>
@@ -8085,7 +8461,7 @@
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N50" s="9">
         <v>172</v>
@@ -8137,8 +8513,20 @@
         <v>26</v>
       </c>
       <c r="L51" s="20"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="M51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="9">
+        <v>176</v>
+      </c>
+      <c r="O51" s="10">
+        <f t="shared" ref="O51:O52" si="26">POWER(10,N51)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="P51" s="10" t="str">
+        <f t="shared" ref="P51:P52" si="27">RIGHT(O51,N51)</f>
+        <v>1E+176</v>
+      </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
@@ -8178,8 +8566,20 @@
         <v>27</v>
       </c>
       <c r="L52" s="20"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="M52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="9">
+        <v>180</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" si="26"/>
+        <v>1E+180</v>
+      </c>
+      <c r="P52" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+180</v>
+      </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
@@ -8748,7 +9148,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="26">K65+3</f>
+        <f t="shared" ref="K66:K112" si="28">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -8789,7 +9189,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -8819,7 +9219,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -8829,7 +9229,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="27">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="29">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -8849,7 +9249,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -8859,7 +9259,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -8879,7 +9279,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -8889,7 +9289,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -8909,7 +9309,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -8919,7 +9319,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -8939,7 +9339,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -8949,7 +9349,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -8965,11 +9365,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="28">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="30">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -8979,11 +9379,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="29">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="31">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -8995,11 +9395,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="26"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -9009,11 +9409,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -9025,11 +9425,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="26"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -9039,11 +9439,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -9055,11 +9455,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="26"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -9069,11 +9469,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -9085,11 +9485,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="26"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -9099,11 +9499,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -9115,11 +9515,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="26"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -9129,11 +9529,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -9145,11 +9545,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="26"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -9159,11 +9559,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -9175,11 +9575,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="28"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="26"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -9189,11 +9589,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -9205,11 +9605,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="26"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -9219,15 +9619,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="30">H74</f>
+        <f t="shared" ref="H82:H145" si="32">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -9235,11 +9635,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="26"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -9249,15 +9649,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -9265,11 +9665,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -9279,15 +9679,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -9295,11 +9695,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="26"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -9309,15 +9709,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -9325,11 +9725,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="26"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -9339,15 +9739,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -9355,11 +9755,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -9369,15 +9769,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -9385,11 +9785,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -9399,15 +9799,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -9415,11 +9815,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="28"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="26"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -9429,15 +9829,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -9445,7 +9845,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -9459,15 +9859,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -9475,11 +9875,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="26"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -9489,15 +9889,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -9505,11 +9905,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="26"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -9519,15 +9919,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -9535,11 +9935,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="26"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -9549,15 +9949,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -9565,11 +9965,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -9579,15 +9979,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -9595,11 +9995,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="26"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -9609,15 +10009,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -9625,11 +10025,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="26"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -9639,15 +10039,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -9655,11 +10055,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="28"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="26"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -9669,15 +10069,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -9685,11 +10085,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="26"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -9699,15 +10099,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -9715,11 +10115,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="26"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -9729,15 +10129,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -9745,11 +10145,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="26"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -9759,15 +10159,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -9775,11 +10175,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="26"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -9789,15 +10189,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -9805,11 +10205,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="26"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -9819,15 +10219,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -9835,11 +10235,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="26"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -9849,15 +10249,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -9865,11 +10265,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="26"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -9879,15 +10279,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -9895,11 +10295,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -9909,15 +10309,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -9925,11 +10325,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="26"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -9939,15 +10339,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -9955,11 +10355,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="26"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -9969,15 +10369,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -9985,11 +10385,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="26"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -9999,15 +10399,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -10015,11 +10415,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="26"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -10029,15 +10429,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -10045,11 +10445,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="26"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -10059,15 +10459,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -10075,11 +10475,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="26"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -10089,15 +10489,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -10105,11 +10505,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="26"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -10119,15 +10519,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -10135,11 +10535,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="28"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="26"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -10149,15 +10549,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -10165,7 +10565,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -10179,15 +10579,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -10195,11 +10595,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="31">K113+4</f>
+        <f t="shared" ref="K114:K177" si="33">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -10209,15 +10609,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -10225,11 +10625,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -10239,15 +10639,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -10255,11 +10655,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -10269,15 +10669,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -10285,11 +10685,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -10299,15 +10699,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -10315,11 +10715,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -10329,15 +10729,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -10345,11 +10745,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -10359,15 +10759,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -10375,11 +10775,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -10389,15 +10789,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -10405,11 +10805,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -10419,15 +10819,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -10435,11 +10835,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -10449,15 +10849,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -10465,11 +10865,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -10479,15 +10879,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -10495,11 +10895,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -10509,15 +10909,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -10525,11 +10925,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -10539,15 +10939,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -10555,11 +10955,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -10569,15 +10969,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -10585,11 +10985,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -10599,15 +10999,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -10615,11 +11015,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -10629,15 +11029,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -10645,11 +11045,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -10659,15 +11059,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -10675,11 +11075,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -10689,15 +11089,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -10705,11 +11105,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -10719,15 +11119,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -10735,11 +11135,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -10749,15 +11149,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="32">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="34">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -10765,11 +11165,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -10779,15 +11179,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="32"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="29"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -10795,11 +11195,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -10809,15 +11209,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="32"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="29"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -10825,11 +11225,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -10839,15 +11239,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="32"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="29"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -10855,11 +11255,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -10869,15 +11269,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="31"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="32"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="29"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -10885,11 +11285,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="33">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="35">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -10899,15 +11299,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="36">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="32"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="34">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -10915,11 +11315,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="31"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -10929,15 +11329,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="36"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="32"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="34"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -10945,11 +11345,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="31"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -10959,15 +11359,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="36"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="32"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -10975,11 +11375,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="31"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -10989,15 +11389,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="36"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="32"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="34"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -11005,11 +11405,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="31"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -11019,15 +11419,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="36"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="32"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -11035,11 +11435,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="31"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -11049,15 +11449,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="36"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="32"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="34"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -11065,11 +11465,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="31"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -11079,15 +11479,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="36"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="32"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="34"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -11095,11 +11495,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="31"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -11109,15 +11509,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="36"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="32"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="34"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -11125,11 +11525,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="31"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -11139,15 +11539,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="35">H138</f>
+        <f t="shared" ref="H146:H209" si="37">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -11155,11 +11555,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="31"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -11169,15 +11569,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -11185,11 +11585,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="31"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -11199,15 +11599,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -11215,11 +11615,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="31"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -11229,15 +11629,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -11245,11 +11645,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="31"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -11259,15 +11659,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -11275,11 +11675,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="31"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -11289,15 +11689,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -11305,11 +11705,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="31"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -11319,15 +11719,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -11335,11 +11735,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="33"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="31"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -11349,15 +11749,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -11365,11 +11765,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="31"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -11379,15 +11779,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -11395,11 +11795,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="31"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -11409,15 +11809,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -11425,11 +11825,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="31"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -11439,15 +11839,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -11455,11 +11855,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="31"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -11469,15 +11869,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -11485,11 +11885,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -11499,15 +11899,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -11515,11 +11915,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="31"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -11529,15 +11929,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -11545,11 +11945,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="31"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -11559,15 +11959,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -11575,11 +11975,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="33"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="31"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -11589,15 +11989,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -11605,11 +12005,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="31"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -11619,15 +12019,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -11635,11 +12035,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="31"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -11649,15 +12049,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -11665,11 +12065,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="31"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -11679,15 +12079,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -11695,11 +12095,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="31"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -11709,15 +12109,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -11725,11 +12125,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="31"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -11739,15 +12139,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -11755,11 +12155,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -11769,15 +12169,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -11785,11 +12185,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="31"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -11799,15 +12199,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -11815,11 +12215,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="33"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="31"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -11829,15 +12229,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -11845,11 +12245,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="31"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -11859,15 +12259,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -11875,11 +12275,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="31"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -11889,15 +12289,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -11905,11 +12305,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="31"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -11919,15 +12319,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -11935,11 +12335,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="31"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -11949,15 +12349,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -11965,11 +12365,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="31"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -11979,15 +12379,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -11995,11 +12395,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="31"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -12009,15 +12409,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -12025,11 +12425,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="31"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -12039,15 +12439,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -12055,11 +12455,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="33"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="31"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -12069,15 +12469,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -12085,11 +12485,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="33"/>
-        <v>1E+148</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="31"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -12099,15 +12499,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -12115,11 +12515,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K241" si="36">K177+4</f>
+        <f t="shared" ref="K178:K216" si="38">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -12129,15 +12529,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -12145,11 +12545,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -12159,15 +12559,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -12175,11 +12575,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -12189,15 +12589,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -12205,11 +12605,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -12219,15 +12619,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -12235,11 +12635,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -12249,15 +12649,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -12265,11 +12665,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -12279,15 +12679,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -12295,11 +12695,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -12309,15 +12709,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1월</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="str" cm="1">
@@ -12325,11 +12725,11 @@
         <v>월</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -12339,15 +12739,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5월</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="str" cm="1">
@@ -12355,11 +12755,11 @@
         <v>월</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -12369,15 +12769,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10월</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="str" cm="1">
@@ -12385,11 +12785,11 @@
         <v>월</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -12399,15 +12799,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50월</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="str" cm="1">
@@ -12415,11 +12815,11 @@
         <v>월</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -12429,15 +12829,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100월</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="str" cm="1">
@@ -12445,11 +12845,11 @@
         <v>월</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -12459,15 +12859,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500월</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="str" cm="1">
@@ -12475,11 +12875,11 @@
         <v>월</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -12489,15 +12889,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000월</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="str" cm="1">
@@ -12505,11 +12905,11 @@
         <v>월</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -12519,15 +12919,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000월</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="str" cm="1">
@@ -12535,11 +12935,11 @@
         <v>월</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -12549,15 +12949,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1후</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="str" cm="1">
@@ -12565,11 +12965,11 @@
         <v>후</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -12579,15 +12979,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5후</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="str" cm="1">
@@ -12595,11 +12995,11 @@
         <v>후</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -12609,15 +13009,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10후</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="str" cm="1">
@@ -12625,11 +13025,11 @@
         <v>후</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -12639,15 +13039,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50후</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="str" cm="1">
@@ -12655,11 +13055,11 @@
         <v>후</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -12669,15 +13069,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="str">
-        <f t="shared" ref="F197:F256" si="37">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="39">H197&amp;I197</f>
         <v>100후</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="str" cm="1">
@@ -12685,11 +13085,11 @@
         <v>후</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -12699,15 +13099,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>500후</v>
+      </c>
+      <c r="G198" s="10">
+        <f t="shared" si="36"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="37"/>
-        <v>500후</v>
-      </c>
-      <c r="G198" s="10">
-        <f t="shared" si="34"/>
-        <v>4.9999999999999996E+158</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="str" cm="1">
@@ -12715,11 +13115,11 @@
         <v>후</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -12729,15 +13129,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>1000후</v>
+      </c>
+      <c r="G199" s="10">
+        <f t="shared" si="36"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="37"/>
-        <v>1000후</v>
-      </c>
-      <c r="G199" s="10">
-        <f t="shared" si="34"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="str" cm="1">
@@ -12745,11 +13145,11 @@
         <v>후</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -12759,15 +13159,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>5000후</v>
+      </c>
+      <c r="G200" s="10">
+        <f t="shared" si="36"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="37"/>
-        <v>5000후</v>
-      </c>
-      <c r="G200" s="10">
-        <f t="shared" si="34"/>
-        <v>5E+159</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="str" cm="1">
@@ -12775,11 +13175,11 @@
         <v>후</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -12789,15 +13189,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>1단</v>
+      </c>
+      <c r="G201" s="10">
+        <f t="shared" si="36"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="37"/>
-        <v>1단</v>
-      </c>
-      <c r="G201" s="10">
-        <f t="shared" si="34"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="str" cm="1">
@@ -12805,11 +13205,11 @@
         <v>단</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" ref="J201:J256" si="38">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="40">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -12819,15 +13219,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>5단</v>
+      </c>
+      <c r="G202" s="10">
+        <f t="shared" ref="G202:G256" si="41">H202*J202</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="37"/>
-        <v>5단</v>
-      </c>
-      <c r="G202" s="10">
-        <f t="shared" ref="G202:G256" si="39">H202*J202</f>
-        <v>5.0000000000000002E+160</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="str" cm="1">
@@ -12835,11 +13235,11 @@
         <v>단</v>
       </c>
       <c r="J202" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="36"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -12849,15 +13249,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>10단</v>
+      </c>
+      <c r="G203" s="10">
+        <f t="shared" si="41"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="37"/>
-        <v>10단</v>
-      </c>
-      <c r="G203" s="10">
-        <f t="shared" si="39"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="str" cm="1">
@@ -12865,11 +13265,11 @@
         <v>단</v>
       </c>
       <c r="J203" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="36"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -12879,15 +13279,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>50단</v>
+      </c>
+      <c r="G204" s="10">
+        <f t="shared" si="41"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="37"/>
-        <v>50단</v>
-      </c>
-      <c r="G204" s="10">
-        <f t="shared" si="39"/>
-        <v>4.9999999999999997E+161</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="str" cm="1">
@@ -12895,11 +13295,11 @@
         <v>단</v>
       </c>
       <c r="J204" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="36"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -12909,15 +13309,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>100단</v>
+      </c>
+      <c r="G205" s="10">
+        <f t="shared" si="41"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="37"/>
-        <v>100단</v>
-      </c>
-      <c r="G205" s="10">
-        <f t="shared" si="39"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="str" cm="1">
@@ -12925,11 +13325,11 @@
         <v>단</v>
       </c>
       <c r="J205" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="36"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -12939,15 +13339,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>500단</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="41"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="37"/>
-        <v>500단</v>
-      </c>
-      <c r="G206" s="10">
-        <f t="shared" si="39"/>
-        <v>4.9999999999999997E+162</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="str" cm="1">
@@ -12955,11 +13355,11 @@
         <v>단</v>
       </c>
       <c r="J206" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="36"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -12969,15 +13369,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>1000단</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="41"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="37"/>
-        <v>1000단</v>
-      </c>
-      <c r="G207" s="10">
-        <f t="shared" si="39"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="str" cm="1">
@@ -12985,11 +13385,11 @@
         <v>단</v>
       </c>
       <c r="J207" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="36"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -12999,15 +13399,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>5000단</v>
+      </c>
+      <c r="G208" s="10">
+        <f t="shared" si="41"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="37"/>
-        <v>5000단</v>
-      </c>
-      <c r="G208" s="10">
-        <f t="shared" si="39"/>
-        <v>5E+163</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="35"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="str" cm="1">
@@ -13015,11 +13415,11 @@
         <v>단</v>
       </c>
       <c r="J208" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="36"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -13029,15 +13429,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>1절</v>
+      </c>
+      <c r="G209" s="10">
+        <f t="shared" si="41"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="37"/>
-        <v>1절</v>
-      </c>
-      <c r="G209" s="10">
-        <f t="shared" si="39"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="str" cm="1">
@@ -13045,11 +13445,11 @@
         <v>절</v>
       </c>
       <c r="J209" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="36"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -13059,15 +13459,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5절</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000005E+164</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="40">H202</f>
+        <f t="shared" ref="H210:H256" si="42">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="str" cm="1">
@@ -13075,11 +13475,11 @@
         <v>절</v>
       </c>
       <c r="J210" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="36"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -13089,15 +13489,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10절</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="str" cm="1">
@@ -13105,11 +13505,11 @@
         <v>절</v>
       </c>
       <c r="J211" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="36"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -13119,15 +13519,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50절</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999997E+165</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="str" cm="1">
@@ -13135,11 +13535,11 @@
         <v>절</v>
       </c>
       <c r="J212" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="36"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -13149,15 +13549,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100절</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="str" cm="1">
@@ -13165,11 +13565,11 @@
         <v>절</v>
       </c>
       <c r="J213" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="36"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -13179,15 +13579,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500절</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000002E+166</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="str" cm="1">
@@ -13195,11 +13595,11 @@
         <v>절</v>
       </c>
       <c r="J214" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="36"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -13209,15 +13609,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000절</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+167</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="str" cm="1">
@@ -13225,11 +13625,11 @@
         <v>절</v>
       </c>
       <c r="J215" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="36"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -13239,15 +13639,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000절</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999997E+167</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="str" cm="1">
@@ -13255,11 +13655,11 @@
         <v>절</v>
       </c>
       <c r="J216" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="38"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="36"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -13269,15 +13669,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1격</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="str" cm="1">
@@ -13285,7 +13685,7 @@
         <v>격</v>
       </c>
       <c r="J217" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K217" s="5">
@@ -13299,15 +13699,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5격</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999997E+168</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="str" cm="1">
@@ -13315,11 +13715,11 @@
         <v>격</v>
       </c>
       <c r="J218" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" ref="K218:K256" si="41">K217+5</f>
+        <f t="shared" ref="K218:K256" si="43">K217+5</f>
         <v>610</v>
       </c>
       <c r="L218" s="20"/>
@@ -13329,15 +13729,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10격</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="str" cm="1">
@@ -13345,11 +13745,11 @@
         <v>격</v>
       </c>
       <c r="J219" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>615</v>
       </c>
       <c r="L219" s="20"/>
@@ -13359,15 +13759,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50격</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999995E+169</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="str" cm="1">
@@ -13375,11 +13775,11 @@
         <v>격</v>
       </c>
       <c r="J220" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>620</v>
       </c>
       <c r="L220" s="20"/>
@@ -13389,15 +13789,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100격</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="str" cm="1">
@@ -13405,11 +13805,11 @@
         <v>격</v>
       </c>
       <c r="J221" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>625</v>
       </c>
       <c r="L221" s="20"/>
@@ -13419,15 +13819,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500격</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999998E+170</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="str" cm="1">
@@ -13435,11 +13835,11 @@
         <v>격</v>
       </c>
       <c r="J222" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>630</v>
       </c>
       <c r="L222" s="20"/>
@@ -13449,15 +13849,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000격</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="str" cm="1">
@@ -13465,11 +13865,11 @@
         <v>격</v>
       </c>
       <c r="J223" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>635</v>
       </c>
       <c r="L223" s="20"/>
@@ -13479,15 +13879,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000격</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999996E+171</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="str" cm="1">
@@ -13495,11 +13895,11 @@
         <v>격</v>
       </c>
       <c r="J224" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+168</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>640</v>
       </c>
       <c r="L224" s="20"/>
@@ -13509,27 +13909,27 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>1c</v>
+        <f t="shared" si="39"/>
+        <v>1창</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="str" cm="1">
         <f t="array" ref="I225">IF(AND(H224&gt;1000,H225&lt;2),INDEX(M:M,MATCH(I224,M:M,0)+1,0),I224)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J225" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>645</v>
       </c>
       <c r="L225" s="20"/>
@@ -13539,27 +13939,27 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>5c</v>
+        <f t="shared" si="39"/>
+        <v>5창</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000001E+172</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="str" cm="1">
         <f t="array" ref="I226">IF(AND(H225&gt;1000,H226&lt;2),INDEX(M:M,MATCH(I225,M:M,0)+1,0),I225)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J226" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>650</v>
       </c>
       <c r="L226" s="20"/>
@@ -13569,27 +13969,27 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>10c</v>
+        <f t="shared" si="39"/>
+        <v>10창</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+173</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="str" cm="1">
         <f t="array" ref="I227">IF(AND(H226&gt;1000,H227&lt;2),INDEX(M:M,MATCH(I226,M:M,0)+1,0),I226)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J227" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>655</v>
       </c>
       <c r="L227" s="20"/>
@@ -13599,27 +13999,27 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>50c</v>
+        <f t="shared" si="39"/>
+        <v>50창</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000003E+173</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="str" cm="1">
         <f t="array" ref="I228">IF(AND(H227&gt;1000,H228&lt;2),INDEX(M:M,MATCH(I227,M:M,0)+1,0),I227)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J228" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>660</v>
       </c>
       <c r="L228" s="20"/>
@@ -13629,27 +14029,27 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>100c</v>
+        <f t="shared" si="39"/>
+        <v>100창</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="str" cm="1">
         <f t="array" ref="I229">IF(AND(H228&gt;1000,H229&lt;2),INDEX(M:M,MATCH(I228,M:M,0)+1,0),I228)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J229" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>665</v>
       </c>
       <c r="L229" s="20"/>
@@ -13659,27 +14059,27 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>500c</v>
+        <f t="shared" si="39"/>
+        <v>500창</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000006E+174</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="str" cm="1">
         <f t="array" ref="I230">IF(AND(H229&gt;1000,H230&lt;2),INDEX(M:M,MATCH(I229,M:M,0)+1,0),I229)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J230" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>670</v>
       </c>
       <c r="L230" s="20"/>
@@ -13689,27 +14089,27 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>1000c</v>
+        <f t="shared" si="39"/>
+        <v>1000창</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="str" cm="1">
         <f t="array" ref="I231">IF(AND(H230&gt;1000,H231&lt;2),INDEX(M:M,MATCH(I230,M:M,0)+1,0),I230)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J231" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>675</v>
       </c>
       <c r="L231" s="20"/>
@@ -13719,27 +14119,27 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>5000c</v>
+        <f t="shared" si="39"/>
+        <v>5000창</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000007E+175</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="str" cm="1">
         <f t="array" ref="I232">IF(AND(H231&gt;1000,H232&lt;2),INDEX(M:M,MATCH(I231,M:M,0)+1,0),I231)</f>
-        <v>c</v>
+        <v>창</v>
       </c>
       <c r="J232" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+172</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>680</v>
       </c>
       <c r="L232" s="20"/>
@@ -13749,27 +14149,27 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="G233" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>1공</v>
+      </c>
+      <c r="G233" s="10">
+        <f t="shared" si="41"/>
+        <v>1E+176</v>
       </c>
       <c r="H233" s="10">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="I233" s="9" t="str" cm="1">
+        <f t="array" ref="I233">IF(AND(H232&gt;1000,H233&lt;2),INDEX(M:M,MATCH(I232,M:M,0)+1,0),I232)</f>
+        <v>공</v>
+      </c>
+      <c r="J233" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="I233" s="9" cm="1">
-        <f t="array" ref="I233">IF(AND(H232&gt;1000,H233&lt;2),INDEX(M:M,MATCH(I232,M:M,0)+1,0),I232)</f>
-        <v>0</v>
-      </c>
-      <c r="J233" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>685</v>
       </c>
       <c r="L233" s="20"/>
@@ -13779,27 +14179,27 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>50</v>
-      </c>
-      <c r="G234" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>5공</v>
+      </c>
+      <c r="G234" s="10">
+        <f t="shared" si="41"/>
+        <v>5E+176</v>
       </c>
       <c r="H234" s="10">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="I234" s="9" t="str" cm="1">
+        <f t="array" ref="I234">IF(AND(H233&gt;1000,H234&lt;2),INDEX(M:M,MATCH(I233,M:M,0)+1,0),I233)</f>
+        <v>공</v>
+      </c>
+      <c r="J234" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="I234" s="9" cm="1">
-        <f t="array" ref="I234">IF(AND(H233&gt;1000,H234&lt;2),INDEX(M:M,MATCH(I233,M:M,0)+1,0),I233)</f>
-        <v>0</v>
-      </c>
-      <c r="J234" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>690</v>
       </c>
       <c r="L234" s="20"/>
@@ -13809,27 +14209,27 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>100</v>
-      </c>
-      <c r="G235" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>10공</v>
+      </c>
+      <c r="G235" s="10">
+        <f t="shared" si="41"/>
+        <v>1E+177</v>
       </c>
       <c r="H235" s="10">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="I235" s="9" t="str" cm="1">
+        <f t="array" ref="I235">IF(AND(H234&gt;1000,H235&lt;2),INDEX(M:M,MATCH(I234,M:M,0)+1,0),I234)</f>
+        <v>공</v>
+      </c>
+      <c r="J235" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>10</v>
-      </c>
-      <c r="I235" s="9" cm="1">
-        <f t="array" ref="I235">IF(AND(H234&gt;1000,H235&lt;2),INDEX(M:M,MATCH(I234,M:M,0)+1,0),I234)</f>
-        <v>0</v>
-      </c>
-      <c r="J235" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>695</v>
       </c>
       <c r="L235" s="20"/>
@@ -13839,27 +14239,27 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>500</v>
-      </c>
-      <c r="G236" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>50공</v>
+      </c>
+      <c r="G236" s="10">
+        <f t="shared" si="41"/>
+        <v>5.0000000000000003E+177</v>
       </c>
       <c r="H236" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="I236" s="9" t="str" cm="1">
+        <f t="array" ref="I236">IF(AND(H235&gt;1000,H236&lt;2),INDEX(M:M,MATCH(I235,M:M,0)+1,0),I235)</f>
+        <v>공</v>
+      </c>
+      <c r="J236" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>50</v>
-      </c>
-      <c r="I236" s="9" cm="1">
-        <f t="array" ref="I236">IF(AND(H235&gt;1000,H236&lt;2),INDEX(M:M,MATCH(I235,M:M,0)+1,0),I235)</f>
-        <v>0</v>
-      </c>
-      <c r="J236" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>700</v>
       </c>
       <c r="L236" s="20"/>
@@ -13869,27 +14269,27 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>1000</v>
-      </c>
-      <c r="G237" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>100공</v>
+      </c>
+      <c r="G237" s="10">
+        <f t="shared" si="41"/>
+        <v>1.0000000000000001E+178</v>
       </c>
       <c r="H237" s="10">
+        <f t="shared" si="42"/>
+        <v>100</v>
+      </c>
+      <c r="I237" s="9" t="str" cm="1">
+        <f t="array" ref="I237">IF(AND(H236&gt;1000,H237&lt;2),INDEX(M:M,MATCH(I236,M:M,0)+1,0),I236)</f>
+        <v>공</v>
+      </c>
+      <c r="J237" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="I237" s="9" cm="1">
-        <f t="array" ref="I237">IF(AND(H236&gt;1000,H237&lt;2),INDEX(M:M,MATCH(I236,M:M,0)+1,0),I236)</f>
-        <v>0</v>
-      </c>
-      <c r="J237" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>705</v>
       </c>
       <c r="L237" s="20"/>
@@ -13899,27 +14299,27 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>5000</v>
-      </c>
-      <c r="G238" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>500공</v>
+      </c>
+      <c r="G238" s="10">
+        <f t="shared" si="41"/>
+        <v>4.9999999999999999E+178</v>
       </c>
       <c r="H238" s="10">
+        <f t="shared" si="42"/>
+        <v>500</v>
+      </c>
+      <c r="I238" s="9" t="str" cm="1">
+        <f t="array" ref="I238">IF(AND(H237&gt;1000,H238&lt;2),INDEX(M:M,MATCH(I237,M:M,0)+1,0),I237)</f>
+        <v>공</v>
+      </c>
+      <c r="J238" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>500</v>
-      </c>
-      <c r="I238" s="9" cm="1">
-        <f t="array" ref="I238">IF(AND(H237&gt;1000,H238&lt;2),INDEX(M:M,MATCH(I237,M:M,0)+1,0),I237)</f>
-        <v>0</v>
-      </c>
-      <c r="J238" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>710</v>
       </c>
       <c r="L238" s="20"/>
@@ -13929,27 +14329,27 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>10000</v>
-      </c>
-      <c r="G239" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>1000공</v>
+      </c>
+      <c r="G239" s="10">
+        <f t="shared" si="41"/>
+        <v>9.9999999999999998E+178</v>
       </c>
       <c r="H239" s="10">
+        <f t="shared" si="42"/>
+        <v>1000</v>
+      </c>
+      <c r="I239" s="9" t="str" cm="1">
+        <f t="array" ref="I239">IF(AND(H238&gt;1000,H239&lt;2),INDEX(M:M,MATCH(I238,M:M,0)+1,0),I238)</f>
+        <v>공</v>
+      </c>
+      <c r="J239" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>1000</v>
-      </c>
-      <c r="I239" s="9" cm="1">
-        <f t="array" ref="I239">IF(AND(H238&gt;1000,H239&lt;2),INDEX(M:M,MATCH(I238,M:M,0)+1,0),I238)</f>
-        <v>0</v>
-      </c>
-      <c r="J239" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>715</v>
       </c>
       <c r="L239" s="20"/>
@@ -13959,27 +14359,27 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>50000</v>
-      </c>
-      <c r="G240" s="10" t="e">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>5000공</v>
+      </c>
+      <c r="G240" s="10">
+        <f t="shared" si="41"/>
+        <v>5E+179</v>
       </c>
       <c r="H240" s="10">
+        <f t="shared" si="42"/>
+        <v>5000</v>
+      </c>
+      <c r="I240" s="9" t="str" cm="1">
+        <f t="array" ref="I240">IF(AND(H239&gt;1000,H240&lt;2),INDEX(M:M,MATCH(I239,M:M,0)+1,0),I239)</f>
+        <v>공</v>
+      </c>
+      <c r="J240" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>5000</v>
-      </c>
-      <c r="I240" s="9" cm="1">
-        <f t="array" ref="I240">IF(AND(H239&gt;1000,H240&lt;2),INDEX(M:M,MATCH(I239,M:M,0)+1,0),I239)</f>
-        <v>0</v>
-      </c>
-      <c r="J240" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+176</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>720</v>
       </c>
       <c r="L240" s="20"/>
@@ -13988,28 +14388,28 @@
       <c r="E241" s="9">
         <v>232</v>
       </c>
-      <c r="F241" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G241" s="10" t="e">
+      <c r="F241" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>1a</v>
+      </c>
+      <c r="G241" s="10">
+        <f t="shared" si="41"/>
+        <v>1E+180</v>
       </c>
       <c r="H241" s="10">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="str" cm="1">
+        <f t="array" ref="I241">IF(AND(H240&gt;1000,H241&lt;2),INDEX(M:M,MATCH(I240,M:M,0)+1,0),I240)</f>
+        <v>a</v>
+      </c>
+      <c r="J241" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="e" cm="1">
-        <f t="array" ref="I241">IF(AND(H240&gt;1000,H241&lt;2),INDEX(M:M,MATCH(I240,M:M,0)+1,0),I240)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J241" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>725</v>
       </c>
       <c r="L241" s="20"/>
@@ -14018,28 +14418,28 @@
       <c r="E242" s="9">
         <v>233</v>
       </c>
-      <c r="F242" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G242" s="10" t="e">
+      <c r="F242" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>5a</v>
+      </c>
+      <c r="G242" s="10">
+        <f t="shared" si="41"/>
+        <v>4.9999999999999996E+180</v>
       </c>
       <c r="H242" s="10">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="I242" s="9" t="str" cm="1">
+        <f t="array" ref="I242">IF(AND(H241&gt;1000,H242&lt;2),INDEX(M:M,MATCH(I241,M:M,0)+1,0),I241)</f>
+        <v>a</v>
+      </c>
+      <c r="J242" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="I242" s="9" t="e" cm="1">
-        <f t="array" ref="I242">IF(AND(H241&gt;1000,H242&lt;2),INDEX(M:M,MATCH(I241,M:M,0)+1,0),I241)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J242" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>730</v>
       </c>
       <c r="L242" s="20"/>
@@ -14048,28 +14448,28 @@
       <c r="E243" s="9">
         <v>234</v>
       </c>
-      <c r="F243" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G243" s="10" t="e">
+      <c r="F243" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>10a</v>
+      </c>
+      <c r="G243" s="10">
+        <f t="shared" si="41"/>
+        <v>9.9999999999999992E+180</v>
       </c>
       <c r="H243" s="10">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="I243" s="9" t="str" cm="1">
+        <f t="array" ref="I243">IF(AND(H242&gt;1000,H243&lt;2),INDEX(M:M,MATCH(I242,M:M,0)+1,0),I242)</f>
+        <v>a</v>
+      </c>
+      <c r="J243" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>10</v>
-      </c>
-      <c r="I243" s="9" t="e" cm="1">
-        <f t="array" ref="I243">IF(AND(H242&gt;1000,H243&lt;2),INDEX(M:M,MATCH(I242,M:M,0)+1,0),I242)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J243" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>735</v>
       </c>
       <c r="L243" s="20"/>
@@ -14078,28 +14478,28 @@
       <c r="E244" s="9">
         <v>235</v>
       </c>
-      <c r="F244" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G244" s="10" t="e">
+      <c r="F244" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>50a</v>
+      </c>
+      <c r="G244" s="10">
+        <f t="shared" si="41"/>
+        <v>5.0000000000000003E+181</v>
       </c>
       <c r="H244" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="I244" s="9" t="str" cm="1">
+        <f t="array" ref="I244">IF(AND(H243&gt;1000,H244&lt;2),INDEX(M:M,MATCH(I243,M:M,0)+1,0),I243)</f>
+        <v>a</v>
+      </c>
+      <c r="J244" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>50</v>
-      </c>
-      <c r="I244" s="9" t="e" cm="1">
-        <f t="array" ref="I244">IF(AND(H243&gt;1000,H244&lt;2),INDEX(M:M,MATCH(I243,M:M,0)+1,0),I243)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J244" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>740</v>
       </c>
       <c r="L244" s="20"/>
@@ -14108,28 +14508,28 @@
       <c r="E245" s="9">
         <v>236</v>
       </c>
-      <c r="F245" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G245" s="10" t="e">
+      <c r="F245" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>100a</v>
+      </c>
+      <c r="G245" s="10">
+        <f t="shared" si="41"/>
+        <v>1.0000000000000001E+182</v>
       </c>
       <c r="H245" s="10">
+        <f t="shared" si="42"/>
+        <v>100</v>
+      </c>
+      <c r="I245" s="9" t="str" cm="1">
+        <f t="array" ref="I245">IF(AND(H244&gt;1000,H245&lt;2),INDEX(M:M,MATCH(I244,M:M,0)+1,0),I244)</f>
+        <v>a</v>
+      </c>
+      <c r="J245" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="I245" s="9" t="e" cm="1">
-        <f t="array" ref="I245">IF(AND(H244&gt;1000,H245&lt;2),INDEX(M:M,MATCH(I244,M:M,0)+1,0),I244)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J245" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>745</v>
       </c>
       <c r="L245" s="20"/>
@@ -14138,28 +14538,28 @@
       <c r="E246" s="9">
         <v>237</v>
       </c>
-      <c r="F246" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G246" s="10" t="e">
+      <c r="F246" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>500a</v>
+      </c>
+      <c r="G246" s="10">
+        <f t="shared" si="41"/>
+        <v>5.0000000000000003E+182</v>
       </c>
       <c r="H246" s="10">
+        <f t="shared" si="42"/>
+        <v>500</v>
+      </c>
+      <c r="I246" s="9" t="str" cm="1">
+        <f t="array" ref="I246">IF(AND(H245&gt;1000,H246&lt;2),INDEX(M:M,MATCH(I245,M:M,0)+1,0),I245)</f>
+        <v>a</v>
+      </c>
+      <c r="J246" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>500</v>
-      </c>
-      <c r="I246" s="9" t="e" cm="1">
-        <f t="array" ref="I246">IF(AND(H245&gt;1000,H246&lt;2),INDEX(M:M,MATCH(I245,M:M,0)+1,0),I245)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J246" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>750</v>
       </c>
       <c r="L246" s="20"/>
@@ -14168,28 +14568,28 @@
       <c r="E247" s="9">
         <v>238</v>
       </c>
-      <c r="F247" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G247" s="10" t="e">
+      <c r="F247" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>1000a</v>
+      </c>
+      <c r="G247" s="10">
+        <f t="shared" si="41"/>
+        <v>1.0000000000000001E+183</v>
       </c>
       <c r="H247" s="10">
+        <f t="shared" si="42"/>
+        <v>1000</v>
+      </c>
+      <c r="I247" s="9" t="str" cm="1">
+        <f t="array" ref="I247">IF(AND(H246&gt;1000,H247&lt;2),INDEX(M:M,MATCH(I246,M:M,0)+1,0),I246)</f>
+        <v>a</v>
+      </c>
+      <c r="J247" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>1000</v>
-      </c>
-      <c r="I247" s="9" t="e" cm="1">
-        <f t="array" ref="I247">IF(AND(H246&gt;1000,H247&lt;2),INDEX(M:M,MATCH(I246,M:M,0)+1,0),I246)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J247" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>755</v>
       </c>
       <c r="L247" s="20"/>
@@ -14198,28 +14598,28 @@
       <c r="E248" s="9">
         <v>239</v>
       </c>
-      <c r="F248" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G248" s="10" t="e">
+      <c r="F248" s="10" t="str">
         <f t="shared" si="39"/>
-        <v>#N/A</v>
+        <v>5000a</v>
+      </c>
+      <c r="G248" s="10">
+        <f t="shared" si="41"/>
+        <v>5.0000000000000001E+183</v>
       </c>
       <c r="H248" s="10">
+        <f t="shared" si="42"/>
+        <v>5000</v>
+      </c>
+      <c r="I248" s="9" t="str" cm="1">
+        <f t="array" ref="I248">IF(AND(H247&gt;1000,H248&lt;2),INDEX(M:M,MATCH(I247,M:M,0)+1,0),I247)</f>
+        <v>a</v>
+      </c>
+      <c r="J248" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>5000</v>
-      </c>
-      <c r="I248" s="9" t="e" cm="1">
-        <f t="array" ref="I248">IF(AND(H247&gt;1000,H248&lt;2),INDEX(M:M,MATCH(I247,M:M,0)+1,0),I247)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J248" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
+        <v>1E+180</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>760</v>
       </c>
       <c r="L248" s="20"/>
@@ -14228,28 +14628,28 @@
       <c r="E249" s="9">
         <v>240</v>
       </c>
-      <c r="F249" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F249" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="G249" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G249" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H249" s="10">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" cm="1">
+        <f t="array" ref="I249">IF(AND(H248&gt;1000,H249&lt;2),INDEX(M:M,MATCH(I248,M:M,0)+1,0),I248)</f>
+        <v>0</v>
+      </c>
+      <c r="J249" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H249" s="10">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="e" cm="1">
-        <f t="array" ref="I249">IF(AND(H248&gt;1000,H249&lt;2),INDEX(M:M,MATCH(I248,M:M,0)+1,0),I248)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J249" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K249" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>765</v>
       </c>
       <c r="L249" s="20"/>
@@ -14258,28 +14658,28 @@
       <c r="E250" s="9">
         <v>241</v>
       </c>
-      <c r="F250" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F250" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>50</v>
+      </c>
+      <c r="G250" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G250" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H250" s="10">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="I250" s="9" cm="1">
+        <f t="array" ref="I250">IF(AND(H249&gt;1000,H250&lt;2),INDEX(M:M,MATCH(I249,M:M,0)+1,0),I249)</f>
+        <v>0</v>
+      </c>
+      <c r="J250" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H250" s="10">
-        <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="I250" s="9" t="e" cm="1">
-        <f t="array" ref="I250">IF(AND(H249&gt;1000,H250&lt;2),INDEX(M:M,MATCH(I249,M:M,0)+1,0),I249)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J250" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K250" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>770</v>
       </c>
       <c r="L250" s="20"/>
@@ -14288,28 +14688,28 @@
       <c r="E251" s="9">
         <v>242</v>
       </c>
-      <c r="F251" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F251" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+      <c r="G251" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G251" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H251" s="10">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="I251" s="9" cm="1">
+        <f t="array" ref="I251">IF(AND(H250&gt;1000,H251&lt;2),INDEX(M:M,MATCH(I250,M:M,0)+1,0),I250)</f>
+        <v>0</v>
+      </c>
+      <c r="J251" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H251" s="10">
-        <f t="shared" si="40"/>
-        <v>10</v>
-      </c>
-      <c r="I251" s="9" t="e" cm="1">
-        <f t="array" ref="I251">IF(AND(H250&gt;1000,H251&lt;2),INDEX(M:M,MATCH(I250,M:M,0)+1,0),I250)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J251" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K251" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>775</v>
       </c>
       <c r="L251" s="20"/>
@@ -14318,28 +14718,28 @@
       <c r="E252" s="9">
         <v>243</v>
       </c>
-      <c r="F252" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F252" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>500</v>
+      </c>
+      <c r="G252" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G252" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H252" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="I252" s="9" cm="1">
+        <f t="array" ref="I252">IF(AND(H251&gt;1000,H252&lt;2),INDEX(M:M,MATCH(I251,M:M,0)+1,0),I251)</f>
+        <v>0</v>
+      </c>
+      <c r="J252" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H252" s="10">
-        <f t="shared" si="40"/>
-        <v>50</v>
-      </c>
-      <c r="I252" s="9" t="e" cm="1">
-        <f t="array" ref="I252">IF(AND(H251&gt;1000,H252&lt;2),INDEX(M:M,MATCH(I251,M:M,0)+1,0),I251)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J252" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K252" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>780</v>
       </c>
       <c r="L252" s="20"/>
@@ -14348,28 +14748,28 @@
       <c r="E253" s="9">
         <v>244</v>
       </c>
-      <c r="F253" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F253" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>1000</v>
+      </c>
+      <c r="G253" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G253" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H253" s="10">
+        <f t="shared" si="42"/>
+        <v>100</v>
+      </c>
+      <c r="I253" s="9" cm="1">
+        <f t="array" ref="I253">IF(AND(H252&gt;1000,H253&lt;2),INDEX(M:M,MATCH(I252,M:M,0)+1,0),I252)</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H253" s="10">
-        <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="I253" s="9" t="e" cm="1">
-        <f t="array" ref="I253">IF(AND(H252&gt;1000,H253&lt;2),INDEX(M:M,MATCH(I252,M:M,0)+1,0),I252)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J253" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K253" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>785</v>
       </c>
       <c r="L253" s="20"/>
@@ -14378,28 +14778,28 @@
       <c r="E254" s="9">
         <v>245</v>
       </c>
-      <c r="F254" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F254" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>5000</v>
+      </c>
+      <c r="G254" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G254" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H254" s="10">
+        <f t="shared" si="42"/>
+        <v>500</v>
+      </c>
+      <c r="I254" s="9" cm="1">
+        <f t="array" ref="I254">IF(AND(H253&gt;1000,H254&lt;2),INDEX(M:M,MATCH(I253,M:M,0)+1,0),I253)</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H254" s="10">
-        <f t="shared" si="40"/>
-        <v>500</v>
-      </c>
-      <c r="I254" s="9" t="e" cm="1">
-        <f t="array" ref="I254">IF(AND(H253&gt;1000,H254&lt;2),INDEX(M:M,MATCH(I253,M:M,0)+1,0),I253)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J254" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K254" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>790</v>
       </c>
       <c r="L254" s="20"/>
@@ -14408,28 +14808,28 @@
       <c r="E255" s="9">
         <v>246</v>
       </c>
-      <c r="F255" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F255" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>10000</v>
+      </c>
+      <c r="G255" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G255" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H255" s="10">
+        <f t="shared" si="42"/>
+        <v>1000</v>
+      </c>
+      <c r="I255" s="9" cm="1">
+        <f t="array" ref="I255">IF(AND(H254&gt;1000,H255&lt;2),INDEX(M:M,MATCH(I254,M:M,0)+1,0),I254)</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H255" s="10">
-        <f t="shared" si="40"/>
-        <v>1000</v>
-      </c>
-      <c r="I255" s="9" t="e" cm="1">
-        <f t="array" ref="I255">IF(AND(H254&gt;1000,H255&lt;2),INDEX(M:M,MATCH(I254,M:M,0)+1,0),I254)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J255" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K255" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>795</v>
       </c>
       <c r="L255" s="20"/>
@@ -14438,28 +14838,28 @@
       <c r="E256" s="9">
         <v>247</v>
       </c>
-      <c r="F256" s="10" t="e">
-        <f t="shared" si="37"/>
+      <c r="F256" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>50000</v>
+      </c>
+      <c r="G256" s="10" t="e">
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G256" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="H256" s="10">
+        <f t="shared" si="42"/>
+        <v>5000</v>
+      </c>
+      <c r="I256" s="9" cm="1">
+        <f t="array" ref="I256">IF(AND(H255&gt;1000,H256&lt;2),INDEX(M:M,MATCH(I255,M:M,0)+1,0),I255)</f>
+        <v>0</v>
+      </c>
+      <c r="J256" s="9" t="e">
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="H256" s="10">
-        <f t="shared" si="40"/>
-        <v>5000</v>
-      </c>
-      <c r="I256" s="9" t="e" cm="1">
-        <f t="array" ref="I256">IF(AND(H255&gt;1000,H256&lt;2),INDEX(M:M,MATCH(I255,M:M,0)+1,0),I255)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J256" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
       <c r="K256" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>800</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369E39B-7741-4D6A-AC8B-CF25F4C8193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F009ECBC-5C7C-4E87-ADFA-432E6FBA3851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,7 +341,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6349,6 +6353,374 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <f>VLOOKUP(A234,Balance!E:J,3,FALSE)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="C234" s="1" t="str">
+        <f>VLOOKUP(A234,Balance!E:J,2,FALSE)</f>
+        <v>1채</v>
+      </c>
+      <c r="D234" s="24">
+        <v>20</v>
+      </c>
+      <c r="E234" s="1">
+        <f>VLOOKUP(A234,Balance!E:K,7,FALSE)</f>
+        <v>725</v>
+      </c>
+      <c r="F234" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <f>VLOOKUP(A235,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999996E+180</v>
+      </c>
+      <c r="C235" s="1" t="str">
+        <f>VLOOKUP(A235,Balance!E:J,2,FALSE)</f>
+        <v>5채</v>
+      </c>
+      <c r="D235" s="24">
+        <v>20</v>
+      </c>
+      <c r="E235" s="1">
+        <f>VLOOKUP(A235,Balance!E:K,7,FALSE)</f>
+        <v>730</v>
+      </c>
+      <c r="F235" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <f>VLOOKUP(A236,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999992E+180</v>
+      </c>
+      <c r="C236" s="1" t="str">
+        <f>VLOOKUP(A236,Balance!E:J,2,FALSE)</f>
+        <v>10채</v>
+      </c>
+      <c r="D236" s="24">
+        <v>20</v>
+      </c>
+      <c r="E236" s="1">
+        <f>VLOOKUP(A236,Balance!E:K,7,FALSE)</f>
+        <v>735</v>
+      </c>
+      <c r="F236" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <f>VLOOKUP(A237,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+181</v>
+      </c>
+      <c r="C237" s="1" t="str">
+        <f>VLOOKUP(A237,Balance!E:J,2,FALSE)</f>
+        <v>50채</v>
+      </c>
+      <c r="D237" s="24">
+        <v>20</v>
+      </c>
+      <c r="E237" s="1">
+        <f>VLOOKUP(A237,Balance!E:K,7,FALSE)</f>
+        <v>740</v>
+      </c>
+      <c r="F237" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <f>VLOOKUP(A238,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="C238" s="1" t="str">
+        <f>VLOOKUP(A238,Balance!E:J,2,FALSE)</f>
+        <v>100채</v>
+      </c>
+      <c r="D238" s="24">
+        <v>20</v>
+      </c>
+      <c r="E238" s="1">
+        <f>VLOOKUP(A238,Balance!E:K,7,FALSE)</f>
+        <v>745</v>
+      </c>
+      <c r="F238" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <f>VLOOKUP(A239,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+182</v>
+      </c>
+      <c r="C239" s="1" t="str">
+        <f>VLOOKUP(A239,Balance!E:J,2,FALSE)</f>
+        <v>500채</v>
+      </c>
+      <c r="D239" s="24">
+        <v>20</v>
+      </c>
+      <c r="E239" s="1">
+        <f>VLOOKUP(A239,Balance!E:K,7,FALSE)</f>
+        <v>750</v>
+      </c>
+      <c r="F239" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <f>VLOOKUP(A240,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="C240" s="1" t="str">
+        <f>VLOOKUP(A240,Balance!E:J,2,FALSE)</f>
+        <v>1000채</v>
+      </c>
+      <c r="D240" s="24">
+        <v>20</v>
+      </c>
+      <c r="E240" s="1">
+        <f>VLOOKUP(A240,Balance!E:K,7,FALSE)</f>
+        <v>755</v>
+      </c>
+      <c r="F240" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <f>VLOOKUP(A241,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+183</v>
+      </c>
+      <c r="C241" s="1" t="str">
+        <f>VLOOKUP(A241,Balance!E:J,2,FALSE)</f>
+        <v>5000채</v>
+      </c>
+      <c r="D241" s="24">
+        <v>20</v>
+      </c>
+      <c r="E241" s="1">
+        <f>VLOOKUP(A241,Balance!E:K,7,FALSE)</f>
+        <v>760</v>
+      </c>
+      <c r="F241" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <f>VLOOKUP(A242,Balance!E:J,3,FALSE)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="C242" s="1" t="str">
+        <f>VLOOKUP(A242,Balance!E:J,2,FALSE)</f>
+        <v>1연</v>
+      </c>
+      <c r="D242" s="24">
+        <v>20</v>
+      </c>
+      <c r="E242" s="1">
+        <f>VLOOKUP(A242,Balance!E:K,7,FALSE)</f>
+        <v>765</v>
+      </c>
+      <c r="F242" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <f>VLOOKUP(A243,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+184</v>
+      </c>
+      <c r="C243" s="1" t="str">
+        <f>VLOOKUP(A243,Balance!E:J,2,FALSE)</f>
+        <v>5연</v>
+      </c>
+      <c r="D243" s="24">
+        <v>20</v>
+      </c>
+      <c r="E243" s="1">
+        <f>VLOOKUP(A243,Balance!E:K,7,FALSE)</f>
+        <v>770</v>
+      </c>
+      <c r="F243" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <f>VLOOKUP(A244,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="C244" s="1" t="str">
+        <f>VLOOKUP(A244,Balance!E:J,2,FALSE)</f>
+        <v>10연</v>
+      </c>
+      <c r="D244" s="24">
+        <v>20</v>
+      </c>
+      <c r="E244" s="1">
+        <f>VLOOKUP(A244,Balance!E:K,7,FALSE)</f>
+        <v>775</v>
+      </c>
+      <c r="F244" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <f>VLOOKUP(A245,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+185</v>
+      </c>
+      <c r="C245" s="1" t="str">
+        <f>VLOOKUP(A245,Balance!E:J,2,FALSE)</f>
+        <v>50연</v>
+      </c>
+      <c r="D245" s="24">
+        <v>20</v>
+      </c>
+      <c r="E245" s="1">
+        <f>VLOOKUP(A245,Balance!E:K,7,FALSE)</f>
+        <v>780</v>
+      </c>
+      <c r="F245" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <f>VLOOKUP(A246,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="C246" s="1" t="str">
+        <f>VLOOKUP(A246,Balance!E:J,2,FALSE)</f>
+        <v>100연</v>
+      </c>
+      <c r="D246" s="24">
+        <v>20</v>
+      </c>
+      <c r="E246" s="1">
+        <f>VLOOKUP(A246,Balance!E:K,7,FALSE)</f>
+        <v>785</v>
+      </c>
+      <c r="F246" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <f>VLOOKUP(A247,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000005E+186</v>
+      </c>
+      <c r="C247" s="1" t="str">
+        <f>VLOOKUP(A247,Balance!E:J,2,FALSE)</f>
+        <v>500연</v>
+      </c>
+      <c r="D247" s="24">
+        <v>20</v>
+      </c>
+      <c r="E247" s="1">
+        <f>VLOOKUP(A247,Balance!E:K,7,FALSE)</f>
+        <v>790</v>
+      </c>
+      <c r="F247" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <f>VLOOKUP(A248,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+187</v>
+      </c>
+      <c r="C248" s="1" t="str">
+        <f>VLOOKUP(A248,Balance!E:J,2,FALSE)</f>
+        <v>1000연</v>
+      </c>
+      <c r="D248" s="24">
+        <v>20</v>
+      </c>
+      <c r="E248" s="1">
+        <f>VLOOKUP(A248,Balance!E:K,7,FALSE)</f>
+        <v>795</v>
+      </c>
+      <c r="F248" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <f>VLOOKUP(A249,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+187</v>
+      </c>
+      <c r="C249" s="1" t="str">
+        <f>VLOOKUP(A249,Balance!E:J,2,FALSE)</f>
+        <v>5000연</v>
+      </c>
+      <c r="D249" s="24">
+        <v>20</v>
+      </c>
+      <c r="E249" s="1">
+        <f>VLOOKUP(A249,Balance!E:K,7,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="F249" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6361,8 +6733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView topLeftCell="B234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8414,11 +8786,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="10">
-        <f t="shared" ref="O49:O51" si="24">POWER(10,N49)</f>
+        <f t="shared" ref="O49:O50" si="24">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="10" t="str">
-        <f t="shared" ref="P49:P51" si="25">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49:P50" si="25">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="5"/>
@@ -8520,11 +8892,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="10">
-        <f t="shared" ref="O51:O52" si="26">POWER(10,N51)</f>
+        <f t="shared" ref="O51:O53" si="26">POWER(10,N51)</f>
         <v>1E+176</v>
       </c>
       <c r="P51" s="10" t="str">
-        <f t="shared" ref="P51:P52" si="27">RIGHT(O51,N51)</f>
+        <f t="shared" ref="P51:P53" si="27">RIGHT(O51,N51)</f>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="5"/>
@@ -8619,8 +8991,20 @@
         <v>28</v>
       </c>
       <c r="L53" s="20"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="M53" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="9">
+        <v>184</v>
+      </c>
+      <c r="O53" s="10">
+        <f t="shared" ref="O53" si="28">POWER(10,N53)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="P53" s="10" t="str">
+        <f t="shared" ref="P53" si="29">RIGHT(O53,N53)</f>
+        <v>1E+184</v>
+      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
@@ -9148,7 +9532,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="28">K65+3</f>
+        <f t="shared" ref="K66:K112" si="30">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -9189,7 +9573,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -9219,7 +9603,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -9229,7 +9613,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="29">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="31">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -9249,7 +9633,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -9259,7 +9643,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -9279,7 +9663,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -9289,7 +9673,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -9309,7 +9693,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -9319,7 +9703,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -9339,7 +9723,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -9349,7 +9733,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -9365,11 +9749,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="30">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="32">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -9379,11 +9763,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="31">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="33">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -9395,11 +9779,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="28"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -9409,11 +9793,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -9425,11 +9809,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="28"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -9439,11 +9823,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -9455,11 +9839,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="28"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -9469,11 +9853,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -9485,11 +9869,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="28"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -9499,11 +9883,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -9515,11 +9899,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="28"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -9529,11 +9913,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -9545,11 +9929,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="28"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -9559,11 +9943,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -9575,11 +9959,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="30"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="28"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -9589,11 +9973,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -9605,11 +9989,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -9619,15 +10003,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="32">H74</f>
+        <f t="shared" ref="H82:H145" si="34">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -9635,11 +10019,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="28"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -9649,15 +10033,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -9665,11 +10049,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="28"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -9679,15 +10063,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -9695,11 +10079,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="28"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -9709,15 +10093,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -9725,11 +10109,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="28"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -9739,15 +10123,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -9755,11 +10139,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="28"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -9769,15 +10153,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -9785,11 +10169,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -9799,15 +10183,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -9815,11 +10199,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="30"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="28"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -9829,15 +10213,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -9845,7 +10229,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -9859,15 +10243,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -9875,11 +10259,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="28"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -9889,15 +10273,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -9905,11 +10289,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="28"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -9919,15 +10303,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -9935,11 +10319,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="28"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -9949,15 +10333,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -9965,11 +10349,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="28"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -9979,15 +10363,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -9995,11 +10379,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="28"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -10009,15 +10393,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -10025,11 +10409,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="28"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -10039,15 +10423,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -10055,11 +10439,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="30"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="28"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -10069,15 +10453,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -10085,11 +10469,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="28"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -10099,15 +10483,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -10115,11 +10499,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="28"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -10129,15 +10513,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -10145,11 +10529,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="28"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -10159,15 +10543,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -10175,11 +10559,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="28"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -10189,15 +10573,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -10205,11 +10589,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="28"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -10219,15 +10603,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -10235,11 +10619,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="28"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -10249,15 +10633,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -10265,11 +10649,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="28"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -10279,15 +10663,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -10295,11 +10679,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="28"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -10309,15 +10693,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -10325,11 +10709,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="28"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -10339,15 +10723,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -10355,11 +10739,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="28"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -10369,15 +10753,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -10385,11 +10769,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -10399,15 +10783,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -10415,11 +10799,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="28"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -10429,15 +10813,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -10445,11 +10829,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="28"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -10459,15 +10843,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -10475,11 +10859,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="28"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -10489,15 +10873,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -10505,11 +10889,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="28"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -10519,15 +10903,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -10535,11 +10919,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="30"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="28"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -10549,15 +10933,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -10565,7 +10949,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -10579,15 +10963,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -10595,11 +10979,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="33">K113+4</f>
+        <f t="shared" ref="K114:K177" si="35">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -10609,15 +10993,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -10625,11 +11009,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -10639,15 +11023,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -10655,11 +11039,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -10669,15 +11053,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -10685,11 +11069,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -10699,15 +11083,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -10715,11 +11099,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -10729,15 +11113,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -10745,11 +11129,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -10759,15 +11143,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -10775,11 +11159,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -10789,15 +11173,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -10805,11 +11189,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -10819,15 +11203,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -10835,11 +11219,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -10849,15 +11233,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -10865,11 +11249,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -10879,15 +11263,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -10895,11 +11279,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -10909,15 +11293,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -10925,11 +11309,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -10939,15 +11323,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -10955,11 +11339,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -10969,15 +11353,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -10985,11 +11369,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -10999,15 +11383,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -11015,11 +11399,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -11029,15 +11413,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -11045,11 +11429,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -11059,15 +11443,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -11075,11 +11459,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -11089,15 +11473,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -11105,11 +11489,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -11119,15 +11503,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -11135,11 +11519,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -11149,15 +11533,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="34">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="36">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -11165,11 +11549,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -11179,15 +11563,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="33"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="34"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="31"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -11195,11 +11579,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -11209,15 +11593,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="33"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="34"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="31"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -11225,11 +11609,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -11239,15 +11623,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="33"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="34"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="31"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -11255,11 +11639,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -11269,15 +11653,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="33"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="34"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="31"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -11285,11 +11669,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="35">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="37">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -11299,15 +11683,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="38">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="34"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="36">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -11315,11 +11699,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="33"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -11329,15 +11713,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="38"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="34"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="36"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -11345,11 +11729,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="33"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -11359,15 +11743,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="38"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="34"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="36"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -11375,11 +11759,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="33"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -11389,15 +11773,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="34"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="36"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -11405,11 +11789,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="33"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -11419,15 +11803,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="38"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="34"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="36"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -11435,11 +11819,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="33"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -11449,15 +11833,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="34"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="36"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -11465,11 +11849,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="33"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -11479,15 +11863,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="38"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="34"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="36"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -11495,11 +11879,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="35"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="33"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -11509,15 +11893,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="34"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="36"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -11525,11 +11909,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="33"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -11539,15 +11923,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="37">H138</f>
+        <f t="shared" ref="H146:H209" si="39">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -11555,11 +11939,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="33"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -11569,15 +11953,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -11585,11 +11969,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -11599,15 +11983,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -11615,11 +11999,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="33"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -11629,15 +12013,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -11645,11 +12029,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="33"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -11659,15 +12043,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -11675,11 +12059,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="33"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -11689,15 +12073,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -11705,11 +12089,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="33"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -11719,15 +12103,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -11735,11 +12119,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="35"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="33"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -11749,15 +12133,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -11765,11 +12149,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="33"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -11779,15 +12163,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -11795,11 +12179,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="33"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -11809,15 +12193,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -11825,11 +12209,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="33"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -11839,15 +12223,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -11855,11 +12239,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="33"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -11869,15 +12253,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -11885,11 +12269,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="33"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -11899,15 +12283,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -11915,11 +12299,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="33"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -11929,15 +12313,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -11945,11 +12329,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="33"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -11959,15 +12343,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -11975,11 +12359,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="35"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="33"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -11989,15 +12373,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -12005,11 +12389,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="33"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -12019,15 +12403,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -12035,11 +12419,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="33"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -12049,15 +12433,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -12065,11 +12449,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="33"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -12079,15 +12463,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -12095,11 +12479,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="33"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -12109,15 +12493,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -12125,11 +12509,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="33"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -12139,15 +12523,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -12155,11 +12539,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="33"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -12169,15 +12553,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -12185,11 +12569,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="33"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -12199,15 +12583,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -12215,11 +12599,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="35"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="33"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -12229,15 +12613,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -12245,11 +12629,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="33"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -12259,15 +12643,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -12275,11 +12659,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="33"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -12289,15 +12673,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -12305,11 +12689,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="33"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -12319,15 +12703,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -12335,11 +12719,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="33"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -12349,15 +12733,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -12365,11 +12749,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="33"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -12379,15 +12763,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -12395,11 +12779,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="33"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -12409,15 +12793,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -12425,11 +12809,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="33"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -12439,15 +12823,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -12455,11 +12839,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="35"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="33"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -12469,15 +12853,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -12485,11 +12869,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="35"/>
-        <v>1E+148</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="33"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -12499,15 +12883,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -12515,11 +12899,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K216" si="38">K177+4</f>
+        <f t="shared" ref="K178:K216" si="40">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -12529,15 +12913,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -12545,11 +12929,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -12559,15 +12943,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -12575,11 +12959,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -12589,15 +12973,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -12605,11 +12989,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -12619,15 +13003,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -12635,11 +13019,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -12649,15 +13033,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -12665,11 +13049,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -12679,15 +13063,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -12695,11 +13079,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -12709,15 +13093,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1월</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="str" cm="1">
@@ -12725,11 +13109,11 @@
         <v>월</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -12739,15 +13123,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5월</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="str" cm="1">
@@ -12755,11 +13139,11 @@
         <v>월</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -12769,15 +13153,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10월</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="str" cm="1">
@@ -12785,11 +13169,11 @@
         <v>월</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -12799,15 +13183,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50월</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="str" cm="1">
@@ -12815,11 +13199,11 @@
         <v>월</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -12829,15 +13213,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100월</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="str" cm="1">
@@ -12845,11 +13229,11 @@
         <v>월</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -12859,15 +13243,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500월</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="str" cm="1">
@@ -12875,11 +13259,11 @@
         <v>월</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -12889,15 +13273,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000월</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="str" cm="1">
@@ -12905,11 +13289,11 @@
         <v>월</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -12919,15 +13303,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000월</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="str" cm="1">
@@ -12935,11 +13319,11 @@
         <v>월</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -12949,15 +13333,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1후</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="str" cm="1">
@@ -12965,11 +13349,11 @@
         <v>후</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -12979,15 +13363,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5후</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="str" cm="1">
@@ -12995,11 +13379,11 @@
         <v>후</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -13009,15 +13393,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10후</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="str" cm="1">
@@ -13025,11 +13409,11 @@
         <v>후</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -13039,15 +13423,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50후</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="str" cm="1">
@@ -13055,11 +13439,11 @@
         <v>후</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -13069,15 +13453,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="str">
-        <f t="shared" ref="F197:F256" si="39">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="41">H197&amp;I197</f>
         <v>100후</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="str" cm="1">
@@ -13085,11 +13469,11 @@
         <v>후</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -13099,15 +13483,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>500후</v>
+      </c>
+      <c r="G198" s="10">
+        <f t="shared" si="38"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="39"/>
-        <v>500후</v>
-      </c>
-      <c r="G198" s="10">
-        <f t="shared" si="36"/>
-        <v>4.9999999999999996E+158</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="str" cm="1">
@@ -13115,11 +13499,11 @@
         <v>후</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -13129,15 +13513,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>1000후</v>
+      </c>
+      <c r="G199" s="10">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="39"/>
-        <v>1000후</v>
-      </c>
-      <c r="G199" s="10">
-        <f t="shared" si="36"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="str" cm="1">
@@ -13145,11 +13529,11 @@
         <v>후</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -13159,15 +13543,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>5000후</v>
+      </c>
+      <c r="G200" s="10">
+        <f t="shared" si="38"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="39"/>
-        <v>5000후</v>
-      </c>
-      <c r="G200" s="10">
-        <f t="shared" si="36"/>
-        <v>5E+159</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="str" cm="1">
@@ -13175,11 +13559,11 @@
         <v>후</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -13189,15 +13573,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>1단</v>
+      </c>
+      <c r="G201" s="10">
+        <f t="shared" si="38"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="39"/>
-        <v>1단</v>
-      </c>
-      <c r="G201" s="10">
-        <f t="shared" si="36"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="str" cm="1">
@@ -13205,11 +13589,11 @@
         <v>단</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" ref="J201:J256" si="40">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="42">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -13219,15 +13603,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>5단</v>
+      </c>
+      <c r="G202" s="10">
+        <f t="shared" ref="G202:G256" si="43">H202*J202</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="39"/>
-        <v>5단</v>
-      </c>
-      <c r="G202" s="10">
-        <f t="shared" ref="G202:G256" si="41">H202*J202</f>
-        <v>5.0000000000000002E+160</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="str" cm="1">
@@ -13235,11 +13619,11 @@
         <v>단</v>
       </c>
       <c r="J202" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="38"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -13249,15 +13633,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>10단</v>
+      </c>
+      <c r="G203" s="10">
+        <f t="shared" si="43"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="39"/>
-        <v>10단</v>
-      </c>
-      <c r="G203" s="10">
-        <f t="shared" si="41"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="str" cm="1">
@@ -13265,11 +13649,11 @@
         <v>단</v>
       </c>
       <c r="J203" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="38"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -13279,15 +13663,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>50단</v>
+      </c>
+      <c r="G204" s="10">
+        <f t="shared" si="43"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="39"/>
-        <v>50단</v>
-      </c>
-      <c r="G204" s="10">
-        <f t="shared" si="41"/>
-        <v>4.9999999999999997E+161</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="str" cm="1">
@@ -13295,11 +13679,11 @@
         <v>단</v>
       </c>
       <c r="J204" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="38"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -13309,15 +13693,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>100단</v>
+      </c>
+      <c r="G205" s="10">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="39"/>
-        <v>100단</v>
-      </c>
-      <c r="G205" s="10">
-        <f t="shared" si="41"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="str" cm="1">
@@ -13325,11 +13709,11 @@
         <v>단</v>
       </c>
       <c r="J205" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="38"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -13339,15 +13723,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>500단</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="43"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="39"/>
-        <v>500단</v>
-      </c>
-      <c r="G206" s="10">
-        <f t="shared" si="41"/>
-        <v>4.9999999999999997E+162</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="str" cm="1">
@@ -13355,11 +13739,11 @@
         <v>단</v>
       </c>
       <c r="J206" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="38"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -13369,15 +13753,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>1000단</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="39"/>
-        <v>1000단</v>
-      </c>
-      <c r="G207" s="10">
-        <f t="shared" si="41"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="str" cm="1">
@@ -13385,11 +13769,11 @@
         <v>단</v>
       </c>
       <c r="J207" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="38"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -13399,15 +13783,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>5000단</v>
+      </c>
+      <c r="G208" s="10">
+        <f t="shared" si="43"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="39"/>
-        <v>5000단</v>
-      </c>
-      <c r="G208" s="10">
-        <f t="shared" si="41"/>
-        <v>5E+163</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="37"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="str" cm="1">
@@ -13415,11 +13799,11 @@
         <v>단</v>
       </c>
       <c r="J208" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="38"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -13429,15 +13813,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v>1절</v>
+      </c>
+      <c r="G209" s="10">
+        <f t="shared" si="43"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="39"/>
-        <v>1절</v>
-      </c>
-      <c r="G209" s="10">
-        <f t="shared" si="41"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="str" cm="1">
@@ -13445,11 +13829,11 @@
         <v>절</v>
       </c>
       <c r="J209" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="38"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -13459,15 +13843,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5절</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000005E+164</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="42">H202</f>
+        <f t="shared" ref="H210:H256" si="44">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="str" cm="1">
@@ -13475,11 +13859,11 @@
         <v>절</v>
       </c>
       <c r="J210" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="38"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -13489,15 +13873,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10절</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="str" cm="1">
@@ -13505,11 +13889,11 @@
         <v>절</v>
       </c>
       <c r="J211" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="38"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -13519,15 +13903,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50절</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999997E+165</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="str" cm="1">
@@ -13535,11 +13919,11 @@
         <v>절</v>
       </c>
       <c r="J212" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="38"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -13549,15 +13933,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100절</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="str" cm="1">
@@ -13565,11 +13949,11 @@
         <v>절</v>
       </c>
       <c r="J213" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="38"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -13579,15 +13963,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500절</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000002E+166</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="str" cm="1">
@@ -13595,11 +13979,11 @@
         <v>절</v>
       </c>
       <c r="J214" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="38"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -13609,15 +13993,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000절</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+167</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="str" cm="1">
@@ -13625,11 +14009,11 @@
         <v>절</v>
       </c>
       <c r="J215" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="38"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -13639,15 +14023,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000절</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999997E+167</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="str" cm="1">
@@ -13655,11 +14039,11 @@
         <v>절</v>
       </c>
       <c r="J216" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="40"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="38"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -13669,15 +14053,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1격</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="str" cm="1">
@@ -13685,7 +14069,7 @@
         <v>격</v>
       </c>
       <c r="J217" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K217" s="5">
@@ -13699,15 +14083,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5격</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999997E+168</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="str" cm="1">
@@ -13715,11 +14099,11 @@
         <v>격</v>
       </c>
       <c r="J218" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" ref="K218:K256" si="43">K217+5</f>
+        <f t="shared" ref="K218:K256" si="45">K217+5</f>
         <v>610</v>
       </c>
       <c r="L218" s="20"/>
@@ -13729,15 +14113,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10격</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="str" cm="1">
@@ -13745,11 +14129,11 @@
         <v>격</v>
       </c>
       <c r="J219" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>615</v>
       </c>
       <c r="L219" s="20"/>
@@ -13759,15 +14143,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50격</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999995E+169</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="str" cm="1">
@@ -13775,11 +14159,11 @@
         <v>격</v>
       </c>
       <c r="J220" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>620</v>
       </c>
       <c r="L220" s="20"/>
@@ -13789,15 +14173,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100격</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="str" cm="1">
@@ -13805,11 +14189,11 @@
         <v>격</v>
       </c>
       <c r="J221" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>625</v>
       </c>
       <c r="L221" s="20"/>
@@ -13819,15 +14203,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500격</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999998E+170</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="str" cm="1">
@@ -13835,11 +14219,11 @@
         <v>격</v>
       </c>
       <c r="J222" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>630</v>
       </c>
       <c r="L222" s="20"/>
@@ -13849,15 +14233,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000격</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="str" cm="1">
@@ -13865,11 +14249,11 @@
         <v>격</v>
       </c>
       <c r="J223" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>635</v>
       </c>
       <c r="L223" s="20"/>
@@ -13879,15 +14263,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000격</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999996E+171</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="str" cm="1">
@@ -13895,11 +14279,11 @@
         <v>격</v>
       </c>
       <c r="J224" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>640</v>
       </c>
       <c r="L224" s="20"/>
@@ -13909,15 +14293,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1창</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="str" cm="1">
@@ -13925,11 +14309,11 @@
         <v>창</v>
       </c>
       <c r="J225" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>645</v>
       </c>
       <c r="L225" s="20"/>
@@ -13939,15 +14323,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5창</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000001E+172</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="str" cm="1">
@@ -13955,11 +14339,11 @@
         <v>창</v>
       </c>
       <c r="J226" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>650</v>
       </c>
       <c r="L226" s="20"/>
@@ -13969,15 +14353,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10창</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+173</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="str" cm="1">
@@ -13985,11 +14369,11 @@
         <v>창</v>
       </c>
       <c r="J227" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>655</v>
       </c>
       <c r="L227" s="20"/>
@@ -13999,15 +14383,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50창</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000003E+173</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="str" cm="1">
@@ -14015,11 +14399,11 @@
         <v>창</v>
       </c>
       <c r="J228" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>660</v>
       </c>
       <c r="L228" s="20"/>
@@ -14029,15 +14413,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100창</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="str" cm="1">
@@ -14045,11 +14429,11 @@
         <v>창</v>
       </c>
       <c r="J229" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>665</v>
       </c>
       <c r="L229" s="20"/>
@@ -14059,15 +14443,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500창</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000006E+174</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="str" cm="1">
@@ -14075,11 +14459,11 @@
         <v>창</v>
       </c>
       <c r="J230" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>670</v>
       </c>
       <c r="L230" s="20"/>
@@ -14089,15 +14473,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000창</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="str" cm="1">
@@ -14105,11 +14489,11 @@
         <v>창</v>
       </c>
       <c r="J231" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>675</v>
       </c>
       <c r="L231" s="20"/>
@@ -14119,15 +14503,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000창</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000007E+175</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="str" cm="1">
@@ -14135,11 +14519,11 @@
         <v>창</v>
       </c>
       <c r="J232" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+172</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>680</v>
       </c>
       <c r="L232" s="20"/>
@@ -14149,15 +14533,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1공</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+176</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="str" cm="1">
@@ -14165,11 +14549,11 @@
         <v>공</v>
       </c>
       <c r="J233" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>685</v>
       </c>
       <c r="L233" s="20"/>
@@ -14179,15 +14563,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5공</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5E+176</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="str" cm="1">
@@ -14195,11 +14579,11 @@
         <v>공</v>
       </c>
       <c r="J234" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>690</v>
       </c>
       <c r="L234" s="20"/>
@@ -14209,15 +14593,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10공</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+177</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="str" cm="1">
@@ -14225,11 +14609,11 @@
         <v>공</v>
       </c>
       <c r="J235" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>695</v>
       </c>
       <c r="L235" s="20"/>
@@ -14239,15 +14623,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50공</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000003E+177</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="str" cm="1">
@@ -14255,11 +14639,11 @@
         <v>공</v>
       </c>
       <c r="J236" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>700</v>
       </c>
       <c r="L236" s="20"/>
@@ -14269,15 +14653,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100공</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="str" cm="1">
@@ -14285,11 +14669,11 @@
         <v>공</v>
       </c>
       <c r="J237" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>705</v>
       </c>
       <c r="L237" s="20"/>
@@ -14299,15 +14683,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500공</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999999E+178</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="str" cm="1">
@@ -14315,11 +14699,11 @@
         <v>공</v>
       </c>
       <c r="J238" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>710</v>
       </c>
       <c r="L238" s="20"/>
@@ -14329,15 +14713,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000공</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="str" cm="1">
@@ -14345,11 +14729,11 @@
         <v>공</v>
       </c>
       <c r="J239" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>715</v>
       </c>
       <c r="L239" s="20"/>
@@ -14359,15 +14743,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000공</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5E+179</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="str" cm="1">
@@ -14375,11 +14759,11 @@
         <v>공</v>
       </c>
       <c r="J240" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>720</v>
       </c>
       <c r="L240" s="20"/>
@@ -14389,27 +14773,27 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>1a</v>
+        <f t="shared" si="41"/>
+        <v>1채</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+180</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="str" cm="1">
         <f t="array" ref="I241">IF(AND(H240&gt;1000,H241&lt;2),INDEX(M:M,MATCH(I240,M:M,0)+1,0),I240)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J241" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>725</v>
       </c>
       <c r="L241" s="20"/>
@@ -14419,27 +14803,27 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>5a</v>
+        <f t="shared" si="41"/>
+        <v>5채</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.9999999999999996E+180</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="str" cm="1">
         <f t="array" ref="I242">IF(AND(H241&gt;1000,H242&lt;2),INDEX(M:M,MATCH(I241,M:M,0)+1,0),I241)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J242" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>730</v>
       </c>
       <c r="L242" s="20"/>
@@ -14449,27 +14833,27 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>10a</v>
+        <f t="shared" si="41"/>
+        <v>10채</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="str" cm="1">
         <f t="array" ref="I243">IF(AND(H242&gt;1000,H243&lt;2),INDEX(M:M,MATCH(I242,M:M,0)+1,0),I242)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J243" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>735</v>
       </c>
       <c r="L243" s="20"/>
@@ -14479,27 +14863,27 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>50a</v>
+        <f t="shared" si="41"/>
+        <v>50채</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000003E+181</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="str" cm="1">
         <f t="array" ref="I244">IF(AND(H243&gt;1000,H244&lt;2),INDEX(M:M,MATCH(I243,M:M,0)+1,0),I243)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J244" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>740</v>
       </c>
       <c r="L244" s="20"/>
@@ -14509,27 +14893,27 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>100a</v>
+        <f t="shared" si="41"/>
+        <v>100채</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="str" cm="1">
         <f t="array" ref="I245">IF(AND(H244&gt;1000,H245&lt;2),INDEX(M:M,MATCH(I244,M:M,0)+1,0),I244)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J245" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>745</v>
       </c>
       <c r="L245" s="20"/>
@@ -14539,27 +14923,27 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>500a</v>
+        <f t="shared" si="41"/>
+        <v>500채</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000003E+182</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="str" cm="1">
         <f t="array" ref="I246">IF(AND(H245&gt;1000,H246&lt;2),INDEX(M:M,MATCH(I245,M:M,0)+1,0),I245)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J246" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>750</v>
       </c>
       <c r="L246" s="20"/>
@@ -14569,27 +14953,27 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>1000a</v>
+        <f t="shared" si="41"/>
+        <v>1000채</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="str" cm="1">
         <f t="array" ref="I247">IF(AND(H246&gt;1000,H247&lt;2),INDEX(M:M,MATCH(I246,M:M,0)+1,0),I246)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J247" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>755</v>
       </c>
       <c r="L247" s="20"/>
@@ -14599,27 +14983,27 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>5000a</v>
+        <f t="shared" si="41"/>
+        <v>5000채</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000001E+183</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="str" cm="1">
         <f t="array" ref="I248">IF(AND(H247&gt;1000,H248&lt;2),INDEX(M:M,MATCH(I247,M:M,0)+1,0),I247)</f>
-        <v>a</v>
+        <v>채</v>
       </c>
       <c r="J248" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>760</v>
       </c>
       <c r="L248" s="20"/>
@@ -14629,27 +15013,27 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="G249" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>1연</v>
+      </c>
+      <c r="G249" s="10">
+        <f t="shared" si="43"/>
+        <v>1E+184</v>
       </c>
       <c r="H249" s="10">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="str" cm="1">
+        <f t="array" ref="I249">IF(AND(H248&gt;1000,H249&lt;2),INDEX(M:M,MATCH(I248,M:M,0)+1,0),I248)</f>
+        <v>연</v>
+      </c>
+      <c r="J249" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" cm="1">
-        <f t="array" ref="I249">IF(AND(H248&gt;1000,H249&lt;2),INDEX(M:M,MATCH(I248,M:M,0)+1,0),I248)</f>
-        <v>0</v>
-      </c>
-      <c r="J249" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>765</v>
       </c>
       <c r="L249" s="20"/>
@@ -14659,27 +15043,27 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>50</v>
-      </c>
-      <c r="G250" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>5연</v>
+      </c>
+      <c r="G250" s="10">
+        <f t="shared" si="43"/>
+        <v>4.9999999999999999E+184</v>
       </c>
       <c r="H250" s="10">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="I250" s="9" t="str" cm="1">
+        <f t="array" ref="I250">IF(AND(H249&gt;1000,H250&lt;2),INDEX(M:M,MATCH(I249,M:M,0)+1,0),I249)</f>
+        <v>연</v>
+      </c>
+      <c r="J250" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="I250" s="9" cm="1">
-        <f t="array" ref="I250">IF(AND(H249&gt;1000,H250&lt;2),INDEX(M:M,MATCH(I249,M:M,0)+1,0),I249)</f>
-        <v>0</v>
-      </c>
-      <c r="J250" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>770</v>
       </c>
       <c r="L250" s="20"/>
@@ -14689,27 +15073,27 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-      <c r="G251" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>10연</v>
+      </c>
+      <c r="G251" s="10">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999998E+184</v>
       </c>
       <c r="H251" s="10">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="I251" s="9" t="str" cm="1">
+        <f t="array" ref="I251">IF(AND(H250&gt;1000,H251&lt;2),INDEX(M:M,MATCH(I250,M:M,0)+1,0),I250)</f>
+        <v>연</v>
+      </c>
+      <c r="J251" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="I251" s="9" cm="1">
-        <f t="array" ref="I251">IF(AND(H250&gt;1000,H251&lt;2),INDEX(M:M,MATCH(I250,M:M,0)+1,0),I250)</f>
-        <v>0</v>
-      </c>
-      <c r="J251" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>775</v>
       </c>
       <c r="L251" s="20"/>
@@ -14719,27 +15103,27 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>500</v>
-      </c>
-      <c r="G252" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>50연</v>
+      </c>
+      <c r="G252" s="10">
+        <f t="shared" si="43"/>
+        <v>4.9999999999999999E+185</v>
       </c>
       <c r="H252" s="10">
+        <f t="shared" si="44"/>
+        <v>50</v>
+      </c>
+      <c r="I252" s="9" t="str" cm="1">
+        <f t="array" ref="I252">IF(AND(H251&gt;1000,H252&lt;2),INDEX(M:M,MATCH(I251,M:M,0)+1,0),I251)</f>
+        <v>연</v>
+      </c>
+      <c r="J252" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>50</v>
-      </c>
-      <c r="I252" s="9" cm="1">
-        <f t="array" ref="I252">IF(AND(H251&gt;1000,H252&lt;2),INDEX(M:M,MATCH(I251,M:M,0)+1,0),I251)</f>
-        <v>0</v>
-      </c>
-      <c r="J252" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>780</v>
       </c>
       <c r="L252" s="20"/>
@@ -14749,27 +15133,27 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>1000</v>
-      </c>
-      <c r="G253" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>100연</v>
+      </c>
+      <c r="G253" s="10">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999998E+185</v>
       </c>
       <c r="H253" s="10">
+        <f t="shared" si="44"/>
+        <v>100</v>
+      </c>
+      <c r="I253" s="9" t="str" cm="1">
+        <f t="array" ref="I253">IF(AND(H252&gt;1000,H253&lt;2),INDEX(M:M,MATCH(I252,M:M,0)+1,0),I252)</f>
+        <v>연</v>
+      </c>
+      <c r="J253" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>100</v>
-      </c>
-      <c r="I253" s="9" cm="1">
-        <f t="array" ref="I253">IF(AND(H252&gt;1000,H253&lt;2),INDEX(M:M,MATCH(I252,M:M,0)+1,0),I252)</f>
-        <v>0</v>
-      </c>
-      <c r="J253" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>785</v>
       </c>
       <c r="L253" s="20"/>
@@ -14779,27 +15163,27 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>5000</v>
-      </c>
-      <c r="G254" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>500연</v>
+      </c>
+      <c r="G254" s="10">
+        <f t="shared" si="43"/>
+        <v>5.0000000000000005E+186</v>
       </c>
       <c r="H254" s="10">
+        <f t="shared" si="44"/>
+        <v>500</v>
+      </c>
+      <c r="I254" s="9" t="str" cm="1">
+        <f t="array" ref="I254">IF(AND(H253&gt;1000,H254&lt;2),INDEX(M:M,MATCH(I253,M:M,0)+1,0),I253)</f>
+        <v>연</v>
+      </c>
+      <c r="J254" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>500</v>
-      </c>
-      <c r="I254" s="9" cm="1">
-        <f t="array" ref="I254">IF(AND(H253&gt;1000,H254&lt;2),INDEX(M:M,MATCH(I253,M:M,0)+1,0),I253)</f>
-        <v>0</v>
-      </c>
-      <c r="J254" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>790</v>
       </c>
       <c r="L254" s="20"/>
@@ -14809,27 +15193,27 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>10000</v>
-      </c>
-      <c r="G255" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>1000연</v>
+      </c>
+      <c r="G255" s="10">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+187</v>
       </c>
       <c r="H255" s="10">
+        <f t="shared" si="44"/>
+        <v>1000</v>
+      </c>
+      <c r="I255" s="9" t="str" cm="1">
+        <f t="array" ref="I255">IF(AND(H254&gt;1000,H255&lt;2),INDEX(M:M,MATCH(I254,M:M,0)+1,0),I254)</f>
+        <v>연</v>
+      </c>
+      <c r="J255" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>1000</v>
-      </c>
-      <c r="I255" s="9" cm="1">
-        <f t="array" ref="I255">IF(AND(H254&gt;1000,H255&lt;2),INDEX(M:M,MATCH(I254,M:M,0)+1,0),I254)</f>
-        <v>0</v>
-      </c>
-      <c r="J255" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>795</v>
       </c>
       <c r="L255" s="20"/>
@@ -14839,27 +15223,27 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>50000</v>
-      </c>
-      <c r="G256" s="10" t="e">
         <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>5000연</v>
+      </c>
+      <c r="G256" s="10">
+        <f t="shared" si="43"/>
+        <v>5.0000000000000001E+187</v>
       </c>
       <c r="H256" s="10">
+        <f t="shared" si="44"/>
+        <v>5000</v>
+      </c>
+      <c r="I256" s="9" t="str" cm="1">
+        <f t="array" ref="I256">IF(AND(H255&gt;1000,H256&lt;2),INDEX(M:M,MATCH(I255,M:M,0)+1,0),I255)</f>
+        <v>연</v>
+      </c>
+      <c r="J256" s="9" t="str">
         <f t="shared" si="42"/>
-        <v>5000</v>
-      </c>
-      <c r="I256" s="9" cm="1">
-        <f t="array" ref="I256">IF(AND(H255&gt;1000,H256&lt;2),INDEX(M:M,MATCH(I255,M:M,0)+1,0),I255)</f>
-        <v>0</v>
-      </c>
-      <c r="J256" s="9" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>1E+184</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>800</v>
       </c>
       <c r="L256" s="20"/>

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F009ECBC-5C7C-4E87-ADFA-432E6FBA3851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43756407-9B7B-4A96-8CA2-97F3E3D382A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VisionTowerTable" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,11 +985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6721,6 +6725,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <f>VLOOKUP(A250,Balance!E:J,3,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="C250" s="1" t="str">
+        <f>VLOOKUP(A250,Balance!E:J,2,FALSE)</f>
+        <v>1동</v>
+      </c>
+      <c r="D250" s="24">
+        <v>20</v>
+      </c>
+      <c r="E250" s="1">
+        <f>VLOOKUP(A250,Balance!E:K,7,FALSE)</f>
+        <v>805</v>
+      </c>
+      <c r="F250" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <f>VLOOKUP(A251,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000001E+188</v>
+      </c>
+      <c r="C251" s="1" t="str">
+        <f>VLOOKUP(A251,Balance!E:J,2,FALSE)</f>
+        <v>5동</v>
+      </c>
+      <c r="D251" s="24">
+        <v>20</v>
+      </c>
+      <c r="E251" s="1">
+        <f>VLOOKUP(A251,Balance!E:K,7,FALSE)</f>
+        <v>810</v>
+      </c>
+      <c r="F251" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <f>VLOOKUP(A252,Balance!E:J,3,FALSE)</f>
+        <v>1E+189</v>
+      </c>
+      <c r="C252" s="1" t="str">
+        <f>VLOOKUP(A252,Balance!E:J,2,FALSE)</f>
+        <v>10동</v>
+      </c>
+      <c r="D252" s="24">
+        <v>20</v>
+      </c>
+      <c r="E252" s="1">
+        <f>VLOOKUP(A252,Balance!E:K,7,FALSE)</f>
+        <v>815</v>
+      </c>
+      <c r="F252" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <f>VLOOKUP(A253,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000004E+189</v>
+      </c>
+      <c r="C253" s="1" t="str">
+        <f>VLOOKUP(A253,Balance!E:J,2,FALSE)</f>
+        <v>50동</v>
+      </c>
+      <c r="D253" s="24">
+        <v>20</v>
+      </c>
+      <c r="E253" s="1">
+        <f>VLOOKUP(A253,Balance!E:K,7,FALSE)</f>
+        <v>820</v>
+      </c>
+      <c r="F253" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <f>VLOOKUP(A254,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="C254" s="1" t="str">
+        <f>VLOOKUP(A254,Balance!E:J,2,FALSE)</f>
+        <v>100동</v>
+      </c>
+      <c r="D254" s="24">
+        <v>20</v>
+      </c>
+      <c r="E254" s="1">
+        <f>VLOOKUP(A254,Balance!E:K,7,FALSE)</f>
+        <v>825</v>
+      </c>
+      <c r="F254" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <f>VLOOKUP(A255,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000004E+190</v>
+      </c>
+      <c r="C255" s="1" t="str">
+        <f>VLOOKUP(A255,Balance!E:J,2,FALSE)</f>
+        <v>500동</v>
+      </c>
+      <c r="D255" s="24">
+        <v>20</v>
+      </c>
+      <c r="E255" s="1">
+        <f>VLOOKUP(A255,Balance!E:K,7,FALSE)</f>
+        <v>830</v>
+      </c>
+      <c r="F255" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <f>VLOOKUP(A256,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+191</v>
+      </c>
+      <c r="C256" s="1" t="str">
+        <f>VLOOKUP(A256,Balance!E:J,2,FALSE)</f>
+        <v>1000동</v>
+      </c>
+      <c r="D256" s="24">
+        <v>20</v>
+      </c>
+      <c r="E256" s="1">
+        <f>VLOOKUP(A256,Balance!E:K,7,FALSE)</f>
+        <v>835</v>
+      </c>
+      <c r="F256" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <f>VLOOKUP(A257,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000002E+191</v>
+      </c>
+      <c r="C257" s="1" t="str">
+        <f>VLOOKUP(A257,Balance!E:J,2,FALSE)</f>
+        <v>5000동</v>
+      </c>
+      <c r="D257" s="24">
+        <v>20</v>
+      </c>
+      <c r="E257" s="1">
+        <f>VLOOKUP(A257,Balance!E:K,7,FALSE)</f>
+        <v>840</v>
+      </c>
+      <c r="F257" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6731,10 +6919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="A1:Y256"/>
+  <dimension ref="A1:Y265"/>
   <sheetViews>
-    <sheetView topLeftCell="B234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView topLeftCell="B243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I257" sqref="I257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8892,11 +9080,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="10">
-        <f t="shared" ref="O51:O53" si="26">POWER(10,N51)</f>
+        <f t="shared" ref="O51:O52" si="26">POWER(10,N51)</f>
         <v>1E+176</v>
       </c>
       <c r="P51" s="10" t="str">
-        <f t="shared" ref="P51:P53" si="27">RIGHT(O51,N51)</f>
+        <f t="shared" ref="P51:P52" si="27">RIGHT(O51,N51)</f>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="5"/>
@@ -9044,8 +9232,20 @@
         <v>29</v>
       </c>
       <c r="L54" s="20"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="M54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N54" s="9">
+        <v>188</v>
+      </c>
+      <c r="O54" s="10">
+        <f t="shared" ref="O54" si="30">POWER(10,N54)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="P54" s="10" t="str">
+        <f t="shared" ref="P54" si="31">RIGHT(O54,N54)</f>
+        <v>1E+188</v>
+      </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
@@ -9532,7 +9732,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="30">K65+3</f>
+        <f t="shared" ref="K66:K112" si="32">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -9573,7 +9773,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -9603,7 +9803,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -9613,7 +9813,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="31">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="33">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -9633,7 +9833,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -9643,7 +9843,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -9663,7 +9863,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -9673,7 +9873,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -9693,7 +9893,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -9703,7 +9903,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -9723,7 +9923,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -9733,7 +9933,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -9749,11 +9949,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="32">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="34">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -9763,11 +9963,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="33">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="35">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -9779,11 +9979,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="30"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -9793,11 +9993,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -9809,11 +10009,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="30"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -9823,11 +10023,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -9839,11 +10039,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -9853,11 +10053,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -9869,11 +10069,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="30"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -9883,11 +10083,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -9899,11 +10099,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="30"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -9913,11 +10113,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -9929,11 +10129,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="30"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -9943,11 +10143,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -9959,11 +10159,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="32"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="30"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -9973,11 +10173,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -9989,11 +10189,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -10003,15 +10203,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="34">H74</f>
+        <f t="shared" ref="H82:H145" si="36">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -10019,11 +10219,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="30"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -10033,15 +10233,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -10049,11 +10249,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="30"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -10063,15 +10263,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -10079,11 +10279,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="30"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -10093,15 +10293,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -10109,11 +10309,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="30"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -10123,15 +10323,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -10139,11 +10339,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="30"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -10153,15 +10353,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -10169,11 +10369,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="30"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -10183,15 +10383,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -10199,11 +10399,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="32"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="30"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -10213,15 +10413,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -10229,7 +10429,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -10243,15 +10443,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -10259,11 +10459,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="30"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -10273,15 +10473,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -10289,11 +10489,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -10303,15 +10503,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -10319,11 +10519,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -10333,15 +10533,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -10349,11 +10549,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="30"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -10363,15 +10563,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -10379,11 +10579,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="30"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -10393,15 +10593,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -10409,11 +10609,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="30"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -10423,15 +10623,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -10439,11 +10639,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="32"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="30"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -10453,15 +10653,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -10469,11 +10669,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="30"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -10483,15 +10683,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -10499,11 +10699,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="30"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -10513,15 +10713,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -10529,11 +10729,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="30"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -10543,15 +10743,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -10559,11 +10759,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="30"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -10573,15 +10773,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -10589,11 +10789,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="30"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -10603,15 +10803,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -10619,11 +10819,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="30"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -10633,15 +10833,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -10649,11 +10849,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="30"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -10663,15 +10863,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -10679,11 +10879,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="32"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="30"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -10693,15 +10893,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -10709,11 +10909,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="30"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -10723,15 +10923,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -10739,11 +10939,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="30"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -10753,15 +10953,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -10769,11 +10969,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="30"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -10783,15 +10983,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -10799,11 +10999,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="30"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -10813,15 +11013,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -10829,11 +11029,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="30"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -10843,15 +11043,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -10859,11 +11059,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="30"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -10873,15 +11073,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -10889,11 +11089,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="30"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -10903,15 +11103,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -10919,11 +11119,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="32"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="30"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -10933,15 +11133,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -10949,7 +11149,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -10963,15 +11163,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -10979,11 +11179,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="35">K113+4</f>
+        <f t="shared" ref="K114:K177" si="37">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -10993,15 +11193,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -11009,11 +11209,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -11023,15 +11223,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -11039,11 +11239,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -11053,15 +11253,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -11069,11 +11269,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -11083,15 +11283,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -11099,11 +11299,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -11113,15 +11313,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -11129,11 +11329,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -11143,15 +11343,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -11159,11 +11359,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -11173,15 +11373,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -11189,11 +11389,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -11203,15 +11403,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -11219,11 +11419,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -11233,15 +11433,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -11249,11 +11449,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -11263,15 +11463,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -11279,11 +11479,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -11293,15 +11493,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -11309,11 +11509,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -11323,15 +11523,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -11339,11 +11539,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -11353,15 +11553,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -11369,11 +11569,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -11383,15 +11583,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -11399,11 +11599,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -11413,15 +11613,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -11429,11 +11629,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -11443,15 +11643,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -11459,11 +11659,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -11473,15 +11673,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -11489,11 +11689,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -11503,15 +11703,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -11519,11 +11719,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -11533,15 +11733,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="36">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="38">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -11549,11 +11749,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -11563,15 +11763,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="36"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="33"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -11579,11 +11779,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -11593,15 +11793,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="36"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="33"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -11609,11 +11809,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -11623,15 +11823,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="36"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="33"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -11639,11 +11839,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -11653,15 +11853,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="35"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="36"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="33"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -11669,11 +11869,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="37">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="39">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -11683,15 +11883,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="40">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="36"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="38">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -11699,11 +11899,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="35"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -11713,15 +11913,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="40"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="36"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="38"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -11729,11 +11929,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="35"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -11743,15 +11943,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="40"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="36"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="38"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -11759,11 +11959,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="35"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -11773,15 +11973,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="36"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="38"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -11789,11 +11989,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="35"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -11803,15 +12003,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="40"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="36"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="38"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -11819,11 +12019,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="35"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -11833,15 +12033,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="36"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="38"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -11849,11 +12049,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="35"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -11863,15 +12063,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="40"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="36"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="38"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -11879,11 +12079,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="37"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="35"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -11893,15 +12093,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="36"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="38"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -11909,11 +12109,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="35"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -11923,15 +12123,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="39">H138</f>
+        <f t="shared" ref="H146:H209" si="41">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -11939,11 +12139,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="35"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -11953,15 +12153,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -11969,11 +12169,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="35"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -11983,15 +12183,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -11999,11 +12199,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="35"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -12013,15 +12213,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -12029,11 +12229,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="35"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -12043,15 +12243,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -12059,11 +12259,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="35"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -12073,15 +12273,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -12089,11 +12289,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="35"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -12103,15 +12303,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -12119,11 +12319,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="37"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="35"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -12133,15 +12333,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -12149,11 +12349,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="35"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -12163,15 +12363,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -12179,11 +12379,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="35"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -12193,15 +12393,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -12209,11 +12409,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="35"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -12223,15 +12423,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -12239,11 +12439,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="35"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -12253,15 +12453,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -12269,11 +12469,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="35"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -12283,15 +12483,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -12299,11 +12499,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="35"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -12313,15 +12513,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -12329,11 +12529,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="35"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -12343,15 +12543,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -12359,11 +12559,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="35"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -12373,15 +12573,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -12389,11 +12589,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="35"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -12403,15 +12603,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -12419,11 +12619,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="35"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -12433,15 +12633,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -12449,11 +12649,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="35"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -12463,15 +12663,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -12479,11 +12679,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="35"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -12493,15 +12693,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -12509,11 +12709,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="35"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -12523,15 +12723,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -12539,11 +12739,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="35"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -12553,15 +12753,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -12569,11 +12769,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="35"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -12583,15 +12783,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -12599,11 +12799,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="37"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="35"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -12613,15 +12813,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -12629,11 +12829,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="35"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -12643,15 +12843,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -12659,11 +12859,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="35"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -12673,15 +12873,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -12689,11 +12889,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="35"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -12703,15 +12903,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -12719,11 +12919,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="35"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -12733,15 +12933,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -12749,11 +12949,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="35"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -12763,15 +12963,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -12779,11 +12979,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="35"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -12793,15 +12993,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -12809,11 +13009,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="35"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -12823,15 +13023,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -12839,11 +13039,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="37"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="35"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -12853,15 +13053,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -12869,11 +13069,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="37"/>
-        <v>1E+148</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="35"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -12883,15 +13083,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -12899,11 +13099,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K216" si="40">K177+4</f>
+        <f t="shared" ref="K178:K216" si="42">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -12913,15 +13113,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -12929,11 +13129,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -12943,15 +13143,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -12959,11 +13159,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -12973,15 +13173,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -12989,11 +13189,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -13003,15 +13203,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -13019,11 +13219,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -13033,15 +13233,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -13049,11 +13249,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -13063,15 +13263,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -13079,11 +13279,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -13093,15 +13293,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1월</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="str" cm="1">
@@ -13109,11 +13309,11 @@
         <v>월</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -13123,15 +13323,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5월</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="str" cm="1">
@@ -13139,11 +13339,11 @@
         <v>월</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -13153,15 +13353,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10월</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="str" cm="1">
@@ -13169,11 +13369,11 @@
         <v>월</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -13183,15 +13383,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50월</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="str" cm="1">
@@ -13199,11 +13399,11 @@
         <v>월</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -13213,15 +13413,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100월</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="str" cm="1">
@@ -13229,11 +13429,11 @@
         <v>월</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -13243,15 +13443,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500월</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="str" cm="1">
@@ -13259,11 +13459,11 @@
         <v>월</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -13273,15 +13473,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000월</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="str" cm="1">
@@ -13289,11 +13489,11 @@
         <v>월</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -13303,15 +13503,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000월</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="str" cm="1">
@@ -13319,11 +13519,11 @@
         <v>월</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -13333,15 +13533,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1후</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="str" cm="1">
@@ -13349,11 +13549,11 @@
         <v>후</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -13363,15 +13563,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5후</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="str" cm="1">
@@ -13379,11 +13579,11 @@
         <v>후</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -13393,15 +13593,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10후</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="str" cm="1">
@@ -13409,11 +13609,11 @@
         <v>후</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -13423,15 +13623,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50후</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="str" cm="1">
@@ -13439,11 +13639,11 @@
         <v>후</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -13453,15 +13653,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="str">
-        <f t="shared" ref="F197:F256" si="41">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="43">H197&amp;I197</f>
         <v>100후</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="str" cm="1">
@@ -13469,11 +13669,11 @@
         <v>후</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -13483,15 +13683,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>500후</v>
+      </c>
+      <c r="G198" s="10">
+        <f t="shared" si="40"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="41"/>
-        <v>500후</v>
-      </c>
-      <c r="G198" s="10">
-        <f t="shared" si="38"/>
-        <v>4.9999999999999996E+158</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="str" cm="1">
@@ -13499,11 +13699,11 @@
         <v>후</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -13513,15 +13713,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>1000후</v>
+      </c>
+      <c r="G199" s="10">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="41"/>
-        <v>1000후</v>
-      </c>
-      <c r="G199" s="10">
-        <f t="shared" si="38"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="str" cm="1">
@@ -13529,11 +13729,11 @@
         <v>후</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -13543,15 +13743,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>5000후</v>
+      </c>
+      <c r="G200" s="10">
+        <f t="shared" si="40"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="41"/>
-        <v>5000후</v>
-      </c>
-      <c r="G200" s="10">
-        <f t="shared" si="38"/>
-        <v>5E+159</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="str" cm="1">
@@ -13559,11 +13759,11 @@
         <v>후</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -13573,15 +13773,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>1단</v>
+      </c>
+      <c r="G201" s="10">
+        <f t="shared" si="40"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="41"/>
-        <v>1단</v>
-      </c>
-      <c r="G201" s="10">
-        <f t="shared" si="38"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="str" cm="1">
@@ -13589,11 +13789,11 @@
         <v>단</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" ref="J201:J256" si="42">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="44">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -13603,15 +13803,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>5단</v>
+      </c>
+      <c r="G202" s="10">
+        <f t="shared" ref="G202:G256" si="45">H202*J202</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="41"/>
-        <v>5단</v>
-      </c>
-      <c r="G202" s="10">
-        <f t="shared" ref="G202:G256" si="43">H202*J202</f>
-        <v>5.0000000000000002E+160</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="str" cm="1">
@@ -13619,11 +13819,11 @@
         <v>단</v>
       </c>
       <c r="J202" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="40"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -13633,15 +13833,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>10단</v>
+      </c>
+      <c r="G203" s="10">
+        <f t="shared" si="45"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="41"/>
-        <v>10단</v>
-      </c>
-      <c r="G203" s="10">
-        <f t="shared" si="43"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="str" cm="1">
@@ -13649,11 +13849,11 @@
         <v>단</v>
       </c>
       <c r="J203" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="40"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -13663,15 +13863,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>50단</v>
+      </c>
+      <c r="G204" s="10">
+        <f t="shared" si="45"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="41"/>
-        <v>50단</v>
-      </c>
-      <c r="G204" s="10">
-        <f t="shared" si="43"/>
-        <v>4.9999999999999997E+161</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="str" cm="1">
@@ -13679,11 +13879,11 @@
         <v>단</v>
       </c>
       <c r="J204" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="40"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -13693,15 +13893,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>100단</v>
+      </c>
+      <c r="G205" s="10">
+        <f t="shared" si="45"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="41"/>
-        <v>100단</v>
-      </c>
-      <c r="G205" s="10">
-        <f t="shared" si="43"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="str" cm="1">
@@ -13709,11 +13909,11 @@
         <v>단</v>
       </c>
       <c r="J205" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="40"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -13723,15 +13923,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>500단</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="45"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="41"/>
-        <v>500단</v>
-      </c>
-      <c r="G206" s="10">
-        <f t="shared" si="43"/>
-        <v>4.9999999999999997E+162</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="39"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="str" cm="1">
@@ -13739,11 +13939,11 @@
         <v>단</v>
       </c>
       <c r="J206" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="40"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -13753,15 +13953,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>1000단</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="45"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="41"/>
-        <v>1000단</v>
-      </c>
-      <c r="G207" s="10">
-        <f t="shared" si="43"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="str" cm="1">
@@ -13769,11 +13969,11 @@
         <v>단</v>
       </c>
       <c r="J207" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="40"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -13783,15 +13983,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>5000단</v>
+      </c>
+      <c r="G208" s="10">
+        <f t="shared" si="45"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="41"/>
-        <v>5000단</v>
-      </c>
-      <c r="G208" s="10">
-        <f t="shared" si="43"/>
-        <v>5E+163</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="39"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="str" cm="1">
@@ -13799,11 +13999,11 @@
         <v>단</v>
       </c>
       <c r="J208" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="42"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="40"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -13813,15 +14013,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>1절</v>
+      </c>
+      <c r="G209" s="10">
+        <f t="shared" si="45"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="41"/>
-        <v>1절</v>
-      </c>
-      <c r="G209" s="10">
-        <f t="shared" si="43"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="str" cm="1">
@@ -13829,11 +14029,11 @@
         <v>절</v>
       </c>
       <c r="J209" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="40"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -13843,15 +14043,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5절</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000005E+164</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H256" si="44">H202</f>
+        <f t="shared" ref="H210:H265" si="46">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="str" cm="1">
@@ -13859,11 +14059,11 @@
         <v>절</v>
       </c>
       <c r="J210" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="40"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -13873,15 +14073,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10절</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="str" cm="1">
@@ -13889,11 +14089,11 @@
         <v>절</v>
       </c>
       <c r="J211" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="40"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -13903,15 +14103,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50절</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999997E+165</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="str" cm="1">
@@ -13919,11 +14119,11 @@
         <v>절</v>
       </c>
       <c r="J212" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="40"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -13933,15 +14133,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100절</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="str" cm="1">
@@ -13949,11 +14149,11 @@
         <v>절</v>
       </c>
       <c r="J213" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="40"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -13963,15 +14163,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500절</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000002E+166</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="str" cm="1">
@@ -13979,11 +14179,11 @@
         <v>절</v>
       </c>
       <c r="J214" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="40"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -13993,15 +14193,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000절</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+167</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="str" cm="1">
@@ -14009,11 +14209,11 @@
         <v>절</v>
       </c>
       <c r="J215" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="40"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -14023,15 +14223,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000절</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999997E+167</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="str" cm="1">
@@ -14039,11 +14239,11 @@
         <v>절</v>
       </c>
       <c r="J216" s="9" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="42"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="40"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -14053,15 +14253,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1격</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="str" cm="1">
@@ -14069,7 +14269,7 @@
         <v>격</v>
       </c>
       <c r="J217" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K217" s="5">
@@ -14083,15 +14283,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5격</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999997E+168</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="str" cm="1">
@@ -14099,11 +14299,11 @@
         <v>격</v>
       </c>
       <c r="J218" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" ref="K218:K256" si="45">K217+5</f>
+        <f t="shared" ref="K218:K265" si="47">K217+5</f>
         <v>610</v>
       </c>
       <c r="L218" s="20"/>
@@ -14113,15 +14313,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10격</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="str" cm="1">
@@ -14129,11 +14329,11 @@
         <v>격</v>
       </c>
       <c r="J219" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>615</v>
       </c>
       <c r="L219" s="20"/>
@@ -14143,15 +14343,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50격</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999995E+169</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="str" cm="1">
@@ -14159,11 +14359,11 @@
         <v>격</v>
       </c>
       <c r="J220" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>620</v>
       </c>
       <c r="L220" s="20"/>
@@ -14173,15 +14373,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100격</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="str" cm="1">
@@ -14189,11 +14389,11 @@
         <v>격</v>
       </c>
       <c r="J221" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>625</v>
       </c>
       <c r="L221" s="20"/>
@@ -14203,15 +14403,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500격</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999998E+170</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="str" cm="1">
@@ -14219,11 +14419,11 @@
         <v>격</v>
       </c>
       <c r="J222" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>630</v>
       </c>
       <c r="L222" s="20"/>
@@ -14233,15 +14433,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000격</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="str" cm="1">
@@ -14249,11 +14449,11 @@
         <v>격</v>
       </c>
       <c r="J223" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>635</v>
       </c>
       <c r="L223" s="20"/>
@@ -14263,15 +14463,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000격</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999996E+171</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="str" cm="1">
@@ -14279,11 +14479,11 @@
         <v>격</v>
       </c>
       <c r="J224" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>640</v>
       </c>
       <c r="L224" s="20"/>
@@ -14293,15 +14493,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1창</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="str" cm="1">
@@ -14309,11 +14509,11 @@
         <v>창</v>
       </c>
       <c r="J225" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>645</v>
       </c>
       <c r="L225" s="20"/>
@@ -14323,15 +14523,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5창</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000001E+172</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="I226" s="9" t="str" cm="1">
@@ -14339,11 +14539,11 @@
         <v>창</v>
       </c>
       <c r="J226" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>650</v>
       </c>
       <c r="L226" s="20"/>
@@ -14353,15 +14553,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10창</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+173</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="I227" s="9" t="str" cm="1">
@@ -14369,11 +14569,11 @@
         <v>창</v>
       </c>
       <c r="J227" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>655</v>
       </c>
       <c r="L227" s="20"/>
@@ -14383,15 +14583,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50창</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000003E+173</v>
       </c>
       <c r="H228" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="I228" s="9" t="str" cm="1">
@@ -14399,11 +14599,11 @@
         <v>창</v>
       </c>
       <c r="J228" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>660</v>
       </c>
       <c r="L228" s="20"/>
@@ -14413,15 +14613,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100창</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H229" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="I229" s="9" t="str" cm="1">
@@ -14429,11 +14629,11 @@
         <v>창</v>
       </c>
       <c r="J229" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>665</v>
       </c>
       <c r="L229" s="20"/>
@@ -14443,15 +14643,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500창</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000006E+174</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500</v>
       </c>
       <c r="I230" s="9" t="str" cm="1">
@@ -14459,11 +14659,11 @@
         <v>창</v>
       </c>
       <c r="J230" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>670</v>
       </c>
       <c r="L230" s="20"/>
@@ -14473,15 +14673,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000창</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="I231" s="9" t="str" cm="1">
@@ -14489,11 +14689,11 @@
         <v>창</v>
       </c>
       <c r="J231" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>675</v>
       </c>
       <c r="L231" s="20"/>
@@ -14503,15 +14703,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000창</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000007E+175</v>
       </c>
       <c r="H232" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000</v>
       </c>
       <c r="I232" s="9" t="str" cm="1">
@@ -14519,11 +14719,11 @@
         <v>창</v>
       </c>
       <c r="J232" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+172</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>680</v>
       </c>
       <c r="L232" s="20"/>
@@ -14533,15 +14733,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1공</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="H233" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I233" s="9" t="str" cm="1">
@@ -14549,11 +14749,11 @@
         <v>공</v>
       </c>
       <c r="J233" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>685</v>
       </c>
       <c r="L233" s="20"/>
@@ -14563,15 +14763,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5공</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5E+176</v>
       </c>
       <c r="H234" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="I234" s="9" t="str" cm="1">
@@ -14579,11 +14779,11 @@
         <v>공</v>
       </c>
       <c r="J234" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>690</v>
       </c>
       <c r="L234" s="20"/>
@@ -14593,15 +14793,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10공</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+177</v>
       </c>
       <c r="H235" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="I235" s="9" t="str" cm="1">
@@ -14609,11 +14809,11 @@
         <v>공</v>
       </c>
       <c r="J235" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>695</v>
       </c>
       <c r="L235" s="20"/>
@@ -14623,15 +14823,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50공</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000003E+177</v>
       </c>
       <c r="H236" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="I236" s="9" t="str" cm="1">
@@ -14639,11 +14839,11 @@
         <v>공</v>
       </c>
       <c r="J236" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>700</v>
       </c>
       <c r="L236" s="20"/>
@@ -14653,15 +14853,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100공</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H237" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="I237" s="9" t="str" cm="1">
@@ -14669,11 +14869,11 @@
         <v>공</v>
       </c>
       <c r="J237" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>705</v>
       </c>
       <c r="L237" s="20"/>
@@ -14683,15 +14883,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500공</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999999E+178</v>
       </c>
       <c r="H238" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500</v>
       </c>
       <c r="I238" s="9" t="str" cm="1">
@@ -14699,11 +14899,11 @@
         <v>공</v>
       </c>
       <c r="J238" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>710</v>
       </c>
       <c r="L238" s="20"/>
@@ -14713,15 +14913,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000공</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="H239" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="I239" s="9" t="str" cm="1">
@@ -14729,11 +14929,11 @@
         <v>공</v>
       </c>
       <c r="J239" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>715</v>
       </c>
       <c r="L239" s="20"/>
@@ -14743,15 +14943,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000공</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5E+179</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000</v>
       </c>
       <c r="I240" s="9" t="str" cm="1">
@@ -14759,11 +14959,11 @@
         <v>공</v>
       </c>
       <c r="J240" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>720</v>
       </c>
       <c r="L240" s="20"/>
@@ -14773,15 +14973,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1채</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+180</v>
       </c>
       <c r="H241" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I241" s="9" t="str" cm="1">
@@ -14789,11 +14989,11 @@
         <v>채</v>
       </c>
       <c r="J241" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>725</v>
       </c>
       <c r="L241" s="20"/>
@@ -14803,15 +15003,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5채</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999996E+180</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="I242" s="9" t="str" cm="1">
@@ -14819,11 +15019,11 @@
         <v>채</v>
       </c>
       <c r="J242" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>730</v>
       </c>
       <c r="L242" s="20"/>
@@ -14833,15 +15033,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10채</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H243" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="I243" s="9" t="str" cm="1">
@@ -14849,11 +15049,11 @@
         <v>채</v>
       </c>
       <c r="J243" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>735</v>
       </c>
       <c r="L243" s="20"/>
@@ -14863,15 +15063,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50채</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000003E+181</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="I244" s="9" t="str" cm="1">
@@ -14879,11 +15079,11 @@
         <v>채</v>
       </c>
       <c r="J244" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>740</v>
       </c>
       <c r="L244" s="20"/>
@@ -14893,15 +15093,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100채</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="I245" s="9" t="str" cm="1">
@@ -14909,11 +15109,11 @@
         <v>채</v>
       </c>
       <c r="J245" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>745</v>
       </c>
       <c r="L245" s="20"/>
@@ -14923,15 +15123,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500채</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000003E+182</v>
       </c>
       <c r="H246" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500</v>
       </c>
       <c r="I246" s="9" t="str" cm="1">
@@ -14939,11 +15139,11 @@
         <v>채</v>
       </c>
       <c r="J246" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>750</v>
       </c>
       <c r="L246" s="20"/>
@@ -14953,15 +15153,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000채</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="I247" s="9" t="str" cm="1">
@@ -14969,11 +15169,11 @@
         <v>채</v>
       </c>
       <c r="J247" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>755</v>
       </c>
       <c r="L247" s="20"/>
@@ -14983,15 +15183,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000채</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000001E+183</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000</v>
       </c>
       <c r="I248" s="9" t="str" cm="1">
@@ -14999,11 +15199,11 @@
         <v>채</v>
       </c>
       <c r="J248" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>760</v>
       </c>
       <c r="L248" s="20"/>
@@ -15013,15 +15213,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1연</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+184</v>
       </c>
       <c r="H249" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I249" s="9" t="str" cm="1">
@@ -15029,11 +15229,11 @@
         <v>연</v>
       </c>
       <c r="J249" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>765</v>
       </c>
       <c r="L249" s="20"/>
@@ -15043,15 +15243,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5연</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999999E+184</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="I250" s="9" t="str" cm="1">
@@ -15059,11 +15259,11 @@
         <v>연</v>
       </c>
       <c r="J250" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>770</v>
       </c>
       <c r="L250" s="20"/>
@@ -15073,15 +15273,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10연</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H251" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="I251" s="9" t="str" cm="1">
@@ -15089,11 +15289,11 @@
         <v>연</v>
       </c>
       <c r="J251" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>775</v>
       </c>
       <c r="L251" s="20"/>
@@ -15103,15 +15303,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50연</v>
       </c>
       <c r="G252" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999999E+185</v>
       </c>
       <c r="H252" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="I252" s="9" t="str" cm="1">
@@ -15119,11 +15319,11 @@
         <v>연</v>
       </c>
       <c r="J252" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>780</v>
       </c>
       <c r="L252" s="20"/>
@@ -15133,15 +15333,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100연</v>
       </c>
       <c r="G253" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="I253" s="9" t="str" cm="1">
@@ -15149,11 +15349,11 @@
         <v>연</v>
       </c>
       <c r="J253" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>785</v>
       </c>
       <c r="L253" s="20"/>
@@ -15163,15 +15363,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500연</v>
       </c>
       <c r="G254" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000005E+186</v>
       </c>
       <c r="H254" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500</v>
       </c>
       <c r="I254" s="9" t="str" cm="1">
@@ -15179,11 +15379,11 @@
         <v>연</v>
       </c>
       <c r="J254" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>790</v>
       </c>
       <c r="L254" s="20"/>
@@ -15193,15 +15393,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000연</v>
       </c>
       <c r="G255" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H255" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000</v>
       </c>
       <c r="I255" s="9" t="str" cm="1">
@@ -15209,11 +15409,11 @@
         <v>연</v>
       </c>
       <c r="J255" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>795</v>
       </c>
       <c r="L255" s="20"/>
@@ -15223,15 +15423,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000연</v>
       </c>
       <c r="G256" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000001E+187</v>
       </c>
       <c r="H256" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000</v>
       </c>
       <c r="I256" s="9" t="str" cm="1">
@@ -15239,14 +15439,254 @@
         <v>연</v>
       </c>
       <c r="J256" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>800</v>
       </c>
       <c r="L256" s="20"/>
+    </row>
+    <row r="257" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E257" s="9">
+        <v>248</v>
+      </c>
+      <c r="F257" s="10" t="str">
+        <f t="shared" ref="F257:F265" si="48">H257&amp;I257</f>
+        <v>1동</v>
+      </c>
+      <c r="G257" s="10">
+        <f t="shared" ref="G257:G265" si="49">H257*J257</f>
+        <v>1E+188</v>
+      </c>
+      <c r="H257" s="10">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="I257" s="9" t="str" cm="1">
+        <f t="array" ref="I257">IF(AND(H256&gt;1000,H257&lt;2),INDEX(M:M,MATCH(I256,M:M,0)+1,0),I256)</f>
+        <v>동</v>
+      </c>
+      <c r="J257" s="9" t="str">
+        <f t="shared" ref="J257:J265" si="50">VLOOKUP(I257,M:P,4,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="K257" s="5">
+        <f t="shared" si="47"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="258" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E258" s="9">
+        <v>249</v>
+      </c>
+      <c r="F258" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>5동</v>
+      </c>
+      <c r="G258" s="10">
+        <f t="shared" si="49"/>
+        <v>5.0000000000000001E+188</v>
+      </c>
+      <c r="H258" s="10">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="I258" s="9" t="str" cm="1">
+        <f t="array" ref="I258">IF(AND(H257&gt;1000,H258&lt;2),INDEX(M:M,MATCH(I257,M:M,0)+1,0),I257)</f>
+        <v>동</v>
+      </c>
+      <c r="J258" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K258" s="5">
+        <f t="shared" si="47"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="259" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E259" s="9">
+        <v>250</v>
+      </c>
+      <c r="F259" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>10동</v>
+      </c>
+      <c r="G259" s="10">
+        <f t="shared" si="49"/>
+        <v>1E+189</v>
+      </c>
+      <c r="H259" s="10">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="I259" s="9" t="str" cm="1">
+        <f t="array" ref="I259">IF(AND(H258&gt;1000,H259&lt;2),INDEX(M:M,MATCH(I258,M:M,0)+1,0),I258)</f>
+        <v>동</v>
+      </c>
+      <c r="J259" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K259" s="5">
+        <f t="shared" si="47"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="260" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E260" s="9">
+        <v>251</v>
+      </c>
+      <c r="F260" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>50동</v>
+      </c>
+      <c r="G260" s="10">
+        <f t="shared" si="49"/>
+        <v>5.0000000000000004E+189</v>
+      </c>
+      <c r="H260" s="10">
+        <f t="shared" si="46"/>
+        <v>50</v>
+      </c>
+      <c r="I260" s="9" t="str" cm="1">
+        <f t="array" ref="I260">IF(AND(H259&gt;1000,H260&lt;2),INDEX(M:M,MATCH(I259,M:M,0)+1,0),I259)</f>
+        <v>동</v>
+      </c>
+      <c r="J260" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K260" s="5">
+        <f t="shared" si="47"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="261" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E261" s="9">
+        <v>252</v>
+      </c>
+      <c r="F261" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>100동</v>
+      </c>
+      <c r="G261" s="10">
+        <f t="shared" si="49"/>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="H261" s="10">
+        <f t="shared" si="46"/>
+        <v>100</v>
+      </c>
+      <c r="I261" s="9" t="str" cm="1">
+        <f t="array" ref="I261">IF(AND(H260&gt;1000,H261&lt;2),INDEX(M:M,MATCH(I260,M:M,0)+1,0),I260)</f>
+        <v>동</v>
+      </c>
+      <c r="J261" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K261" s="5">
+        <f t="shared" si="47"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="262" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E262" s="9">
+        <v>253</v>
+      </c>
+      <c r="F262" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>500동</v>
+      </c>
+      <c r="G262" s="10">
+        <f t="shared" si="49"/>
+        <v>5.0000000000000004E+190</v>
+      </c>
+      <c r="H262" s="10">
+        <f t="shared" si="46"/>
+        <v>500</v>
+      </c>
+      <c r="I262" s="9" t="str" cm="1">
+        <f t="array" ref="I262">IF(AND(H261&gt;1000,H262&lt;2),INDEX(M:M,MATCH(I261,M:M,0)+1,0),I261)</f>
+        <v>동</v>
+      </c>
+      <c r="J262" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K262" s="5">
+        <f t="shared" si="47"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="263" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E263" s="9">
+        <v>254</v>
+      </c>
+      <c r="F263" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>1000동</v>
+      </c>
+      <c r="G263" s="10">
+        <f t="shared" si="49"/>
+        <v>1.0000000000000001E+191</v>
+      </c>
+      <c r="H263" s="10">
+        <f t="shared" si="46"/>
+        <v>1000</v>
+      </c>
+      <c r="I263" s="9" t="str" cm="1">
+        <f t="array" ref="I263">IF(AND(H262&gt;1000,H263&lt;2),INDEX(M:M,MATCH(I262,M:M,0)+1,0),I262)</f>
+        <v>동</v>
+      </c>
+      <c r="J263" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K263" s="5">
+        <f t="shared" si="47"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="264" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E264" s="9">
+        <v>255</v>
+      </c>
+      <c r="F264" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>5000동</v>
+      </c>
+      <c r="G264" s="10">
+        <f t="shared" si="49"/>
+        <v>5.0000000000000002E+191</v>
+      </c>
+      <c r="H264" s="10">
+        <f t="shared" si="46"/>
+        <v>5000</v>
+      </c>
+      <c r="I264" s="9" t="str" cm="1">
+        <f t="array" ref="I264">IF(AND(H263&gt;1000,H264&lt;2),INDEX(M:M,MATCH(I263,M:M,0)+1,0),I263)</f>
+        <v>동</v>
+      </c>
+      <c r="J264" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K264" s="5">
+        <f t="shared" si="47"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="265" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E265" s="9"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/VisionTowerTable.xlsx
+++ b/Assets/06.Table/VisionTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43756407-9B7B-4A96-8CA2-97F3E3D382A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174DDAC4-BB55-47F3-91F0-6659BCDB8884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6909,6 +6913,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <f>VLOOKUP(A258,Balance!E:J,3,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="C258" s="1" t="str">
+        <f>VLOOKUP(A258,Balance!E:J,2,FALSE)</f>
+        <v>1멸</v>
+      </c>
+      <c r="D258" s="24">
+        <v>20</v>
+      </c>
+      <c r="E258" s="1">
+        <f>VLOOKUP(A258,Balance!E:K,7,FALSE)</f>
+        <v>845</v>
+      </c>
+      <c r="F258" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <f>VLOOKUP(A259,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000003E+192</v>
+      </c>
+      <c r="C259" s="1" t="str">
+        <f>VLOOKUP(A259,Balance!E:J,2,FALSE)</f>
+        <v>5멸</v>
+      </c>
+      <c r="D259" s="24">
+        <v>20</v>
+      </c>
+      <c r="E259" s="1">
+        <f>VLOOKUP(A259,Balance!E:K,7,FALSE)</f>
+        <v>850</v>
+      </c>
+      <c r="F259" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <f>VLOOKUP(A260,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+193</v>
+      </c>
+      <c r="C260" s="1" t="str">
+        <f>VLOOKUP(A260,Balance!E:J,2,FALSE)</f>
+        <v>10멸</v>
+      </c>
+      <c r="D260" s="24">
+        <v>20</v>
+      </c>
+      <c r="E260" s="1">
+        <f>VLOOKUP(A260,Balance!E:K,7,FALSE)</f>
+        <v>855</v>
+      </c>
+      <c r="F260" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <f>VLOOKUP(A261,Balance!E:J,3,FALSE)</f>
+        <v>5.0000000000000005E+193</v>
+      </c>
+      <c r="C261" s="1" t="str">
+        <f>VLOOKUP(A261,Balance!E:J,2,FALSE)</f>
+        <v>50멸</v>
+      </c>
+      <c r="D261" s="24">
+        <v>20</v>
+      </c>
+      <c r="E261" s="1">
+        <f>VLOOKUP(A261,Balance!E:K,7,FALSE)</f>
+        <v>860</v>
+      </c>
+      <c r="F261" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <f>VLOOKUP(A262,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+194</v>
+      </c>
+      <c r="C262" s="1" t="str">
+        <f>VLOOKUP(A262,Balance!E:J,2,FALSE)</f>
+        <v>100멸</v>
+      </c>
+      <c r="D262" s="24">
+        <v>20</v>
+      </c>
+      <c r="E262" s="1">
+        <f>VLOOKUP(A262,Balance!E:K,7,FALSE)</f>
+        <v>865</v>
+      </c>
+      <c r="F262" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <f>VLOOKUP(A263,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999999E+194</v>
+      </c>
+      <c r="C263" s="1" t="str">
+        <f>VLOOKUP(A263,Balance!E:J,2,FALSE)</f>
+        <v>500멸</v>
+      </c>
+      <c r="D263" s="24">
+        <v>20</v>
+      </c>
+      <c r="E263" s="1">
+        <f>VLOOKUP(A263,Balance!E:K,7,FALSE)</f>
+        <v>870</v>
+      </c>
+      <c r="F263" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <f>VLOOKUP(A264,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+194</v>
+      </c>
+      <c r="C264" s="1" t="str">
+        <f>VLOOKUP(A264,Balance!E:J,2,FALSE)</f>
+        <v>1000멸</v>
+      </c>
+      <c r="D264" s="24">
+        <v>20</v>
+      </c>
+      <c r="E264" s="1">
+        <f>VLOOKUP(A264,Balance!E:K,7,FALSE)</f>
+        <v>875</v>
+      </c>
+      <c r="F264" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <f>VLOOKUP(A265,Balance!E:J,3,FALSE)</f>
+        <v>4.9999999999999998E+195</v>
+      </c>
+      <c r="C265" s="1" t="str">
+        <f>VLOOKUP(A265,Balance!E:J,2,FALSE)</f>
+        <v>5000멸</v>
+      </c>
+      <c r="D265" s="24">
+        <v>20</v>
+      </c>
+      <c r="E265" s="1">
+        <f>VLOOKUP(A265,Balance!E:K,7,FALSE)</f>
+        <v>880</v>
+      </c>
+      <c r="F265" s="24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6919,10 +7107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="A1:Y265"/>
+  <dimension ref="A1:Y274"/>
   <sheetViews>
-    <sheetView topLeftCell="B243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I257" sqref="I257"/>
+    <sheetView topLeftCell="B250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J269" sqref="I269:J269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9285,8 +9473,20 @@
         <v>30</v>
       </c>
       <c r="L55" s="20"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+      <c r="M55" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" s="9">
+        <v>192</v>
+      </c>
+      <c r="O55" s="10">
+        <f t="shared" ref="O55" si="32">POWER(10,N55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="P55" s="10" t="str">
+        <f t="shared" ref="P55" si="33">RIGHT(O55,N55)</f>
+        <v>1E+192</v>
+      </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -9732,7 +9932,7 @@
         <v>1E+92</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K112" si="32">K65+3</f>
+        <f t="shared" ref="K66:K112" si="34">K65+3</f>
         <v>45</v>
       </c>
       <c r="L66" s="20"/>
@@ -9773,7 +9973,7 @@
         <v>1E+92</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="L67" s="20"/>
@@ -9803,7 +10003,7 @@
         <v>1E+92</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>51</v>
       </c>
       <c r="L68" s="20"/>
@@ -9813,7 +10013,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" ref="F69:F132" si="33">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="35">H69&amp;I69</f>
         <v>100라</v>
       </c>
       <c r="G69" s="10">
@@ -9833,7 +10033,7 @@
         <v>1E+92</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="L69" s="20"/>
@@ -9843,7 +10043,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500라</v>
       </c>
       <c r="G70" s="10">
@@ -9863,7 +10063,7 @@
         <v>1E+92</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="L70" s="20"/>
@@ -9873,7 +10073,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000라</v>
       </c>
       <c r="G71" s="10">
@@ -9893,7 +10093,7 @@
         <v>1E+92</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>60</v>
       </c>
       <c r="L71" s="20"/>
@@ -9903,7 +10103,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000라</v>
       </c>
       <c r="G72" s="10">
@@ -9923,7 +10123,7 @@
         <v>1E+92</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>63</v>
       </c>
       <c r="L72" s="20"/>
@@ -9933,7 +10133,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1가</v>
       </c>
       <c r="G73" s="10">
@@ -9949,11 +10149,11 @@
         <v>가</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J136" si="34">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="36">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>66</v>
       </c>
       <c r="L73" s="20"/>
@@ -9963,11 +10163,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5가</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ref="G74:G137" si="35">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="37">H74*J74</f>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H74" s="10">
@@ -9979,11 +10179,11 @@
         <v>가</v>
       </c>
       <c r="J74" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K74" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="32"/>
         <v>69</v>
       </c>
       <c r="L74" s="20"/>
@@ -9993,11 +10193,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10가</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H75" s="10">
@@ -10009,11 +10209,11 @@
         <v>가</v>
       </c>
       <c r="J75" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K75" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" si="32"/>
         <v>72</v>
       </c>
       <c r="L75" s="20"/>
@@ -10023,11 +10223,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50가</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+97</v>
       </c>
       <c r="H76" s="10">
@@ -10039,11 +10239,11 @@
         <v>가</v>
       </c>
       <c r="J76" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K76" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K76" s="5">
-        <f t="shared" si="32"/>
         <v>75</v>
       </c>
       <c r="L76" s="20"/>
@@ -10053,11 +10253,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100가</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+98</v>
       </c>
       <c r="H77" s="10">
@@ -10069,11 +10269,11 @@
         <v>가</v>
       </c>
       <c r="J77" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K77" s="5">
-        <f t="shared" si="32"/>
         <v>78</v>
       </c>
       <c r="L77" s="20"/>
@@ -10083,11 +10283,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500가</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H78" s="10">
@@ -10099,11 +10299,11 @@
         <v>가</v>
       </c>
       <c r="J78" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K78" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K78" s="5">
-        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="L78" s="20"/>
@@ -10113,11 +10313,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000가</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H79" s="10">
@@ -10129,11 +10329,11 @@
         <v>가</v>
       </c>
       <c r="J79" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K79" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K79" s="5">
-        <f t="shared" si="32"/>
         <v>84</v>
       </c>
       <c r="L79" s="20"/>
@@ -10143,11 +10343,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000가</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H80" s="10">
@@ -10159,11 +10359,11 @@
         <v>가</v>
       </c>
       <c r="J80" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K80" s="5">
         <f t="shared" si="34"/>
-        <v>1E+96</v>
-      </c>
-      <c r="K80" s="5">
-        <f t="shared" si="32"/>
         <v>87</v>
       </c>
       <c r="L80" s="20"/>
@@ -10173,11 +10373,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1언</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+100</v>
       </c>
       <c r="H81" s="10">
@@ -10189,11 +10389,11 @@
         <v>언</v>
       </c>
       <c r="J81" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K81" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="32"/>
         <v>90</v>
       </c>
       <c r="L81" s="20"/>
@@ -10203,15 +10403,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5언</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" ref="H82:H145" si="36">H74</f>
+        <f t="shared" ref="H82:H145" si="38">H74</f>
         <v>5</v>
       </c>
       <c r="I82" s="9" t="str" cm="1">
@@ -10219,11 +10419,11 @@
         <v>언</v>
       </c>
       <c r="J82" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K82" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="32"/>
         <v>93</v>
       </c>
       <c r="L82" s="20"/>
@@ -10233,15 +10433,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10언</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I83" s="9" t="str" cm="1">
@@ -10249,11 +10449,11 @@
         <v>언</v>
       </c>
       <c r="J83" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K83" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="32"/>
         <v>96</v>
       </c>
       <c r="L83" s="20"/>
@@ -10263,15 +10463,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50언</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I84" s="9" t="str" cm="1">
@@ -10279,11 +10479,11 @@
         <v>언</v>
       </c>
       <c r="J84" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K84" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="32"/>
         <v>99</v>
       </c>
       <c r="L84" s="20"/>
@@ -10293,15 +10493,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100언</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I85" s="9" t="str" cm="1">
@@ -10309,11 +10509,11 @@
         <v>언</v>
       </c>
       <c r="J85" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K85" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K85" s="5">
-        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="L85" s="20"/>
@@ -10323,15 +10523,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500언</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+102</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I86" s="9" t="str" cm="1">
@@ -10339,11 +10539,11 @@
         <v>언</v>
       </c>
       <c r="J86" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K86" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K86" s="5">
-        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="L86" s="20"/>
@@ -10353,15 +10553,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000언</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+103</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I87" s="9" t="str" cm="1">
@@ -10369,11 +10569,11 @@
         <v>언</v>
       </c>
       <c r="J87" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K87" s="5">
-        <f t="shared" si="32"/>
         <v>108</v>
       </c>
       <c r="L87" s="20"/>
@@ -10383,15 +10583,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000언</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+103</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I88" s="9" t="str" cm="1">
@@ -10399,11 +10599,11 @@
         <v>언</v>
       </c>
       <c r="J88" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+100</v>
+      </c>
+      <c r="K88" s="5">
         <f t="shared" si="34"/>
-        <v>1E+100</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="32"/>
         <v>111</v>
       </c>
       <c r="L88" s="20"/>
@@ -10413,15 +10613,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1승</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+104</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I89" s="9" t="str" cm="1">
@@ -10429,7 +10629,7 @@
         <v>승</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K89" s="5">
@@ -10443,15 +10643,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5승</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I90" s="9" t="str" cm="1">
@@ -10459,11 +10659,11 @@
         <v>승</v>
       </c>
       <c r="J90" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K90" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="32"/>
         <v>118</v>
       </c>
       <c r="L90" s="20"/>
@@ -10473,15 +10673,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10승</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I91" s="9" t="str" cm="1">
@@ -10489,11 +10689,11 @@
         <v>승</v>
       </c>
       <c r="J91" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K91" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="32"/>
         <v>121</v>
       </c>
       <c r="L91" s="20"/>
@@ -10503,15 +10703,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50승</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I92" s="9" t="str" cm="1">
@@ -10519,11 +10719,11 @@
         <v>승</v>
       </c>
       <c r="J92" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K92" s="5">
-        <f t="shared" si="32"/>
         <v>124</v>
       </c>
       <c r="L92" s="20"/>
@@ -10533,15 +10733,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100승</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I93" s="9" t="str" cm="1">
@@ -10549,11 +10749,11 @@
         <v>승</v>
       </c>
       <c r="J93" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K93" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K93" s="5">
-        <f t="shared" si="32"/>
         <v>127</v>
       </c>
       <c r="L93" s="20"/>
@@ -10563,15 +10763,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500승</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I94" s="9" t="str" cm="1">
@@ -10579,11 +10779,11 @@
         <v>승</v>
       </c>
       <c r="J94" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K94" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="32"/>
         <v>130</v>
       </c>
       <c r="L94" s="20"/>
@@ -10593,15 +10793,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000승</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I95" s="9" t="str" cm="1">
@@ -10609,11 +10809,11 @@
         <v>승</v>
       </c>
       <c r="J95" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K95" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="32"/>
         <v>133</v>
       </c>
       <c r="L95" s="20"/>
@@ -10623,15 +10823,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000승</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I96" s="9" t="str" cm="1">
@@ -10639,11 +10839,11 @@
         <v>승</v>
       </c>
       <c r="J96" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+104</v>
+      </c>
+      <c r="K96" s="5">
         <f t="shared" si="34"/>
-        <v>1E+104</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="32"/>
         <v>136</v>
       </c>
       <c r="L96" s="20"/>
@@ -10653,15 +10853,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1마</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+108</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I97" s="9" t="str" cm="1">
@@ -10669,11 +10869,11 @@
         <v>마</v>
       </c>
       <c r="J97" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K97" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K97" s="5">
-        <f t="shared" si="32"/>
         <v>139</v>
       </c>
       <c r="L97" s="20"/>
@@ -10683,15 +10883,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5마</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I98" s="9" t="str" cm="1">
@@ -10699,11 +10899,11 @@
         <v>마</v>
       </c>
       <c r="J98" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K98" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K98" s="5">
-        <f t="shared" si="32"/>
         <v>142</v>
       </c>
       <c r="L98" s="20"/>
@@ -10713,15 +10913,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10마</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I99" s="9" t="str" cm="1">
@@ -10729,11 +10929,11 @@
         <v>마</v>
       </c>
       <c r="J99" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K99" s="5">
-        <f t="shared" si="32"/>
         <v>145</v>
       </c>
       <c r="L99" s="20"/>
@@ -10743,15 +10943,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50마</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I100" s="9" t="str" cm="1">
@@ -10759,11 +10959,11 @@
         <v>마</v>
       </c>
       <c r="J100" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K100" s="5">
-        <f t="shared" si="32"/>
         <v>148</v>
       </c>
       <c r="L100" s="20"/>
@@ -10773,15 +10973,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100마</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+110</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I101" s="9" t="str" cm="1">
@@ -10789,11 +10989,11 @@
         <v>마</v>
       </c>
       <c r="J101" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K101" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K101" s="5">
-        <f t="shared" si="32"/>
         <v>151</v>
       </c>
       <c r="L101" s="20"/>
@@ -10803,15 +11003,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500마</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I102" s="9" t="str" cm="1">
@@ -10819,11 +11019,11 @@
         <v>마</v>
       </c>
       <c r="J102" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K102" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="32"/>
         <v>154</v>
       </c>
       <c r="L102" s="20"/>
@@ -10833,15 +11033,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000마</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I103" s="9" t="str" cm="1">
@@ -10849,11 +11049,11 @@
         <v>마</v>
       </c>
       <c r="J103" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K103" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K103" s="5">
-        <f t="shared" si="32"/>
         <v>157</v>
       </c>
       <c r="L103" s="20"/>
@@ -10863,15 +11063,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000마</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I104" s="9" t="str" cm="1">
@@ -10879,11 +11079,11 @@
         <v>마</v>
       </c>
       <c r="J104" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K104" s="5">
         <f t="shared" si="34"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K104" s="5">
-        <f t="shared" si="32"/>
         <v>160</v>
       </c>
       <c r="L104" s="20"/>
@@ -10893,15 +11093,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1살</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I105" s="9" t="str" cm="1">
@@ -10909,11 +11109,11 @@
         <v>살</v>
       </c>
       <c r="J105" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K105" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K105" s="5">
-        <f t="shared" si="32"/>
         <v>163</v>
       </c>
       <c r="L105" s="20"/>
@@ -10923,15 +11123,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5살</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I106" s="9" t="str" cm="1">
@@ -10939,11 +11139,11 @@
         <v>살</v>
       </c>
       <c r="J106" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K106" s="5">
-        <f t="shared" si="32"/>
         <v>166</v>
       </c>
       <c r="L106" s="20"/>
@@ -10953,15 +11153,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10살</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+113</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I107" s="9" t="str" cm="1">
@@ -10969,11 +11169,11 @@
         <v>살</v>
       </c>
       <c r="J107" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K107" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K107" s="5">
-        <f t="shared" si="32"/>
         <v>169</v>
       </c>
       <c r="L107" s="20"/>
@@ -10983,15 +11183,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50살</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I108" s="9" t="str" cm="1">
@@ -10999,11 +11199,11 @@
         <v>살</v>
       </c>
       <c r="J108" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K108" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K108" s="5">
-        <f t="shared" si="32"/>
         <v>172</v>
       </c>
       <c r="L108" s="20"/>
@@ -11013,15 +11213,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100살</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I109" s="9" t="str" cm="1">
@@ -11029,11 +11229,11 @@
         <v>살</v>
       </c>
       <c r="J109" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K109" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="32"/>
         <v>175</v>
       </c>
       <c r="L109" s="20"/>
@@ -11043,15 +11243,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500살</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I110" s="9" t="str" cm="1">
@@ -11059,11 +11259,11 @@
         <v>살</v>
       </c>
       <c r="J110" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K110" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K110" s="5">
-        <f t="shared" si="32"/>
         <v>178</v>
       </c>
       <c r="L110" s="20"/>
@@ -11073,15 +11273,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000살</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+115</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I111" s="9" t="str" cm="1">
@@ -11089,11 +11289,11 @@
         <v>살</v>
       </c>
       <c r="J111" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K111" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K111" s="5">
-        <f t="shared" si="32"/>
         <v>181</v>
       </c>
       <c r="L111" s="20"/>
@@ -11103,15 +11303,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000살</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I112" s="9" t="str" cm="1">
@@ -11119,11 +11319,11 @@
         <v>살</v>
       </c>
       <c r="J112" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K112" s="5">
         <f t="shared" si="34"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K112" s="5">
-        <f t="shared" si="32"/>
         <v>184</v>
       </c>
       <c r="L112" s="20"/>
@@ -11133,15 +11333,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1섬</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+116</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I113" s="9" t="str" cm="1">
@@ -11149,7 +11349,7 @@
         <v>섬</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K113" s="5">
@@ -11163,15 +11363,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5섬</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I114" s="9" t="str" cm="1">
@@ -11179,11 +11379,11 @@
         <v>섬</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" ref="K114:K177" si="37">K113+4</f>
+        <f t="shared" ref="K114:K177" si="39">K113+4</f>
         <v>192</v>
       </c>
       <c r="L114" s="20"/>
@@ -11193,15 +11393,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10섬</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I115" s="9" t="str" cm="1">
@@ -11209,11 +11409,11 @@
         <v>섬</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>196</v>
       </c>
       <c r="L115" s="20"/>
@@ -11223,15 +11423,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50섬</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I116" s="9" t="str" cm="1">
@@ -11239,11 +11439,11 @@
         <v>섬</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>200</v>
       </c>
       <c r="L116" s="20"/>
@@ -11253,15 +11453,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100섬</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I117" s="9" t="str" cm="1">
@@ -11269,11 +11469,11 @@
         <v>섬</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>204</v>
       </c>
       <c r="L117" s="20"/>
@@ -11283,15 +11483,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500섬</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I118" s="9" t="str" cm="1">
@@ -11299,11 +11499,11 @@
         <v>섬</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>208</v>
       </c>
       <c r="L118" s="20"/>
@@ -11313,15 +11513,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000섬</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I119" s="9" t="str" cm="1">
@@ -11329,11 +11529,11 @@
         <v>섬</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>212</v>
       </c>
       <c r="L119" s="20"/>
@@ -11343,15 +11543,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000섬</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I120" s="9" t="str" cm="1">
@@ -11359,11 +11559,11 @@
         <v>섬</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>216</v>
       </c>
       <c r="L120" s="20"/>
@@ -11373,15 +11573,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1찰</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I121" s="9" t="str" cm="1">
@@ -11389,11 +11589,11 @@
         <v>찰</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>220</v>
       </c>
       <c r="L121" s="20"/>
@@ -11403,15 +11603,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5찰</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I122" s="9" t="str" cm="1">
@@ -11419,11 +11619,11 @@
         <v>찰</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>224</v>
       </c>
       <c r="L122" s="20"/>
@@ -11433,15 +11633,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10찰</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I123" s="9" t="str" cm="1">
@@ -11449,11 +11649,11 @@
         <v>찰</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>228</v>
       </c>
       <c r="L123" s="20"/>
@@ -11463,15 +11663,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50찰</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I124" s="9" t="str" cm="1">
@@ -11479,11 +11679,11 @@
         <v>찰</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>232</v>
       </c>
       <c r="L124" s="20"/>
@@ -11493,15 +11693,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100찰</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+122</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I125" s="9" t="str" cm="1">
@@ -11509,11 +11709,11 @@
         <v>찰</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>236</v>
       </c>
       <c r="L125" s="20"/>
@@ -11523,15 +11723,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500찰</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I126" s="9" t="str" cm="1">
@@ -11539,11 +11739,11 @@
         <v>찰</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>240</v>
       </c>
       <c r="L126" s="20"/>
@@ -11553,15 +11753,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000찰</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I127" s="9" t="str" cm="1">
@@ -11569,11 +11769,11 @@
         <v>찰</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>244</v>
       </c>
       <c r="L127" s="20"/>
@@ -11583,15 +11783,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000찰</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I128" s="9" t="str" cm="1">
@@ -11599,11 +11799,11 @@
         <v>찰</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+120</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>248</v>
       </c>
       <c r="L128" s="20"/>
@@ -11613,15 +11813,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1교</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I129" s="9" t="str" cm="1">
@@ -11629,11 +11829,11 @@
         <v>교</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>252</v>
       </c>
       <c r="L129" s="20"/>
@@ -11643,15 +11843,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5교</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I130" s="9" t="str" cm="1">
@@ -11659,11 +11859,11 @@
         <v>교</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>256</v>
       </c>
       <c r="L130" s="20"/>
@@ -11673,15 +11873,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10교</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I131" s="9" t="str" cm="1">
@@ -11689,11 +11889,11 @@
         <v>교</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>260</v>
       </c>
       <c r="L131" s="20"/>
@@ -11703,15 +11903,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50교</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I132" s="9" t="str" cm="1">
@@ -11719,11 +11919,11 @@
         <v>교</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>264</v>
       </c>
       <c r="L132" s="20"/>
@@ -11733,15 +11933,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="str">
-        <f t="shared" ref="F133:F196" si="38">H133&amp;I133</f>
+        <f t="shared" ref="F133:F196" si="40">H133&amp;I133</f>
         <v>100교</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I133" s="9" t="str" cm="1">
@@ -11749,11 +11949,11 @@
         <v>교</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>268</v>
       </c>
       <c r="L133" s="20"/>
@@ -11763,15 +11963,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>500교</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H134" s="10">
         <f t="shared" si="38"/>
-        <v>500교</v>
-      </c>
-      <c r="G134" s="10">
-        <f t="shared" si="35"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H134" s="10">
-        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I134" s="9" t="str" cm="1">
@@ -11779,11 +11979,11 @@
         <v>교</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>272</v>
       </c>
       <c r="L134" s="20"/>
@@ -11793,15 +11993,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>1000교</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="37"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H135" s="10">
         <f t="shared" si="38"/>
-        <v>1000교</v>
-      </c>
-      <c r="G135" s="10">
-        <f t="shared" si="35"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H135" s="10">
-        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I135" s="9" t="str" cm="1">
@@ -11809,11 +12009,11 @@
         <v>교</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>276</v>
       </c>
       <c r="L135" s="20"/>
@@ -11823,15 +12023,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>5000교</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H136" s="10">
         <f t="shared" si="38"/>
-        <v>5000교</v>
-      </c>
-      <c r="G136" s="10">
-        <f t="shared" si="35"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H136" s="10">
-        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I136" s="9" t="str" cm="1">
@@ -11839,11 +12039,11 @@
         <v>교</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>280</v>
       </c>
       <c r="L136" s="20"/>
@@ -11853,15 +12053,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>1위</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="37"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H137" s="10">
         <f t="shared" si="38"/>
-        <v>1위</v>
-      </c>
-      <c r="G137" s="10">
-        <f t="shared" si="35"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H137" s="10">
-        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I137" s="9" t="str" cm="1">
@@ -11869,11 +12069,11 @@
         <v>위</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" ref="J137:J200" si="39">VLOOKUP(I137,M:P,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="41">VLOOKUP(I137,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>284</v>
       </c>
       <c r="L137" s="20"/>
@@ -11883,15 +12083,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>5위</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" ref="G138:G201" si="42">H138*J138</f>
+        <v>5E+128</v>
+      </c>
+      <c r="H138" s="10">
         <f t="shared" si="38"/>
-        <v>5위</v>
-      </c>
-      <c r="G138" s="10">
-        <f t="shared" ref="G138:G201" si="40">H138*J138</f>
-        <v>5E+128</v>
-      </c>
-      <c r="H138" s="10">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I138" s="9" t="str" cm="1">
@@ -11899,11 +12099,11 @@
         <v>위</v>
       </c>
       <c r="J138" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K138" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K138" s="5">
-        <f t="shared" si="37"/>
         <v>288</v>
       </c>
       <c r="L138" s="20"/>
@@ -11913,15 +12113,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>10위</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="42"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H139" s="10">
         <f t="shared" si="38"/>
-        <v>10위</v>
-      </c>
-      <c r="G139" s="10">
-        <f t="shared" si="40"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H139" s="10">
-        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="I139" s="9" t="str" cm="1">
@@ -11929,11 +12129,11 @@
         <v>위</v>
       </c>
       <c r="J139" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K139" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K139" s="5">
-        <f t="shared" si="37"/>
         <v>292</v>
       </c>
       <c r="L139" s="20"/>
@@ -11943,15 +12143,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>50위</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H140" s="10">
         <f t="shared" si="38"/>
-        <v>50위</v>
-      </c>
-      <c r="G140" s="10">
-        <f t="shared" si="40"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H140" s="10">
-        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I140" s="9" t="str" cm="1">
@@ -11959,11 +12159,11 @@
         <v>위</v>
       </c>
       <c r="J140" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K140" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K140" s="5">
-        <f t="shared" si="37"/>
         <v>296</v>
       </c>
       <c r="L140" s="20"/>
@@ -11973,15 +12173,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>100위</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H141" s="10">
         <f t="shared" si="38"/>
-        <v>100위</v>
-      </c>
-      <c r="G141" s="10">
-        <f t="shared" si="40"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H141" s="10">
-        <f t="shared" si="36"/>
         <v>100</v>
       </c>
       <c r="I141" s="9" t="str" cm="1">
@@ -11989,11 +12189,11 @@
         <v>위</v>
       </c>
       <c r="J141" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K141" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K141" s="5">
-        <f t="shared" si="37"/>
         <v>300</v>
       </c>
       <c r="L141" s="20"/>
@@ -12003,15 +12203,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>500위</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H142" s="10">
         <f t="shared" si="38"/>
-        <v>500위</v>
-      </c>
-      <c r="G142" s="10">
-        <f t="shared" si="40"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H142" s="10">
-        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="I142" s="9" t="str" cm="1">
@@ -12019,11 +12219,11 @@
         <v>위</v>
       </c>
       <c r="J142" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K142" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K142" s="5">
-        <f t="shared" si="37"/>
         <v>304</v>
       </c>
       <c r="L142" s="20"/>
@@ -12033,15 +12233,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>1000위</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H143" s="10">
         <f t="shared" si="38"/>
-        <v>1000위</v>
-      </c>
-      <c r="G143" s="10">
-        <f t="shared" si="40"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H143" s="10">
-        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="I143" s="9" t="str" cm="1">
@@ -12049,11 +12249,11 @@
         <v>위</v>
       </c>
       <c r="J143" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K143" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K143" s="5">
-        <f t="shared" si="37"/>
         <v>308</v>
       </c>
       <c r="L143" s="20"/>
@@ -12063,15 +12263,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>5000위</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H144" s="10">
         <f t="shared" si="38"/>
-        <v>5000위</v>
-      </c>
-      <c r="G144" s="10">
-        <f t="shared" si="40"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H144" s="10">
-        <f t="shared" si="36"/>
         <v>5000</v>
       </c>
       <c r="I144" s="9" t="str" cm="1">
@@ -12079,11 +12279,11 @@
         <v>위</v>
       </c>
       <c r="J144" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K144" s="5">
         <f t="shared" si="39"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K144" s="5">
-        <f t="shared" si="37"/>
         <v>312</v>
       </c>
       <c r="L144" s="20"/>
@@ -12093,15 +12293,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>1설</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H145" s="10">
         <f t="shared" si="38"/>
-        <v>1설</v>
-      </c>
-      <c r="G145" s="10">
-        <f t="shared" si="40"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="H145" s="10">
-        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I145" s="9" t="str" cm="1">
@@ -12109,11 +12309,11 @@
         <v>설</v>
       </c>
       <c r="J145" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K145" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K145" s="5">
-        <f t="shared" si="37"/>
         <v>316</v>
       </c>
       <c r="L145" s="20"/>
@@ -12123,15 +12323,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5설</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" ref="H146:H209" si="41">H138</f>
+        <f t="shared" ref="H146:H209" si="43">H138</f>
         <v>5</v>
       </c>
       <c r="I146" s="9" t="str" cm="1">
@@ -12139,11 +12339,11 @@
         <v>설</v>
       </c>
       <c r="J146" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K146" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K146" s="5">
-        <f t="shared" si="37"/>
         <v>320</v>
       </c>
       <c r="L146" s="20"/>
@@ -12153,15 +12353,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10설</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+133</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I147" s="9" t="str" cm="1">
@@ -12169,11 +12369,11 @@
         <v>설</v>
       </c>
       <c r="J147" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K147" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K147" s="5">
-        <f t="shared" si="37"/>
         <v>324</v>
       </c>
       <c r="L147" s="20"/>
@@ -12183,15 +12383,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50설</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I148" s="9" t="str" cm="1">
@@ -12199,11 +12399,11 @@
         <v>설</v>
       </c>
       <c r="J148" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K148" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K148" s="5">
-        <f t="shared" si="37"/>
         <v>328</v>
       </c>
       <c r="L148" s="20"/>
@@ -12213,15 +12413,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100설</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I149" s="9" t="str" cm="1">
@@ -12229,11 +12429,11 @@
         <v>설</v>
       </c>
       <c r="J149" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K149" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K149" s="5">
-        <f t="shared" si="37"/>
         <v>332</v>
       </c>
       <c r="L149" s="20"/>
@@ -12243,15 +12443,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500설</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500</v>
       </c>
       <c r="I150" s="9" t="str" cm="1">
@@ -12259,11 +12459,11 @@
         <v>설</v>
       </c>
       <c r="J150" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K150" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K150" s="5">
-        <f t="shared" si="37"/>
         <v>336</v>
       </c>
       <c r="L150" s="20"/>
@@ -12273,15 +12473,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000설</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I151" s="9" t="str" cm="1">
@@ -12289,11 +12489,11 @@
         <v>설</v>
       </c>
       <c r="J151" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K151" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K151" s="5">
-        <f t="shared" si="37"/>
         <v>340</v>
       </c>
       <c r="L151" s="20"/>
@@ -12303,15 +12503,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000설</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000</v>
       </c>
       <c r="I152" s="9" t="str" cm="1">
@@ -12319,11 +12519,11 @@
         <v>설</v>
       </c>
       <c r="J152" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K152" s="5">
         <f t="shared" si="39"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K152" s="5">
-        <f t="shared" si="37"/>
         <v>344</v>
       </c>
       <c r="L152" s="20"/>
@@ -12333,15 +12533,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1적</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I153" s="9" t="str" cm="1">
@@ -12349,11 +12549,11 @@
         <v>적</v>
       </c>
       <c r="J153" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K153" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K153" s="5">
-        <f t="shared" si="37"/>
         <v>348</v>
       </c>
       <c r="L153" s="20"/>
@@ -12363,15 +12563,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5적</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I154" s="9" t="str" cm="1">
@@ -12379,11 +12579,11 @@
         <v>적</v>
       </c>
       <c r="J154" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K154" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K154" s="5">
-        <f t="shared" si="37"/>
         <v>352</v>
       </c>
       <c r="L154" s="20"/>
@@ -12393,15 +12593,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10적</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+137</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I155" s="9" t="str" cm="1">
@@ -12409,11 +12609,11 @@
         <v>적</v>
       </c>
       <c r="J155" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K155" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K155" s="5">
-        <f t="shared" si="37"/>
         <v>356</v>
       </c>
       <c r="L155" s="20"/>
@@ -12423,15 +12623,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50적</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I156" s="9" t="str" cm="1">
@@ -12439,11 +12639,11 @@
         <v>적</v>
       </c>
       <c r="J156" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K156" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K156" s="5">
-        <f t="shared" si="37"/>
         <v>360</v>
       </c>
       <c r="L156" s="20"/>
@@ -12453,15 +12653,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100적</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+138</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I157" s="9" t="str" cm="1">
@@ -12469,11 +12669,11 @@
         <v>적</v>
       </c>
       <c r="J157" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K157" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K157" s="5">
-        <f t="shared" si="37"/>
         <v>364</v>
       </c>
       <c r="L157" s="20"/>
@@ -12483,15 +12683,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500적</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500</v>
       </c>
       <c r="I158" s="9" t="str" cm="1">
@@ -12499,11 +12699,11 @@
         <v>적</v>
       </c>
       <c r="J158" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K158" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K158" s="5">
-        <f t="shared" si="37"/>
         <v>368</v>
       </c>
       <c r="L158" s="20"/>
@@ -12513,15 +12713,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000적</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+139</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I159" s="9" t="str" cm="1">
@@ -12529,11 +12729,11 @@
         <v>적</v>
       </c>
       <c r="J159" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K159" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K159" s="5">
-        <f t="shared" si="37"/>
         <v>372</v>
       </c>
       <c r="L159" s="20"/>
@@ -12543,15 +12743,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000적</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000</v>
       </c>
       <c r="I160" s="9" t="str" cm="1">
@@ -12559,11 +12759,11 @@
         <v>적</v>
       </c>
       <c r="J160" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K160" s="5">
         <f t="shared" si="39"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K160" s="5">
-        <f t="shared" si="37"/>
         <v>376</v>
       </c>
       <c r="L160" s="20"/>
@@ -12573,15 +12773,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1고</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I161" s="9" t="str" cm="1">
@@ -12589,11 +12789,11 @@
         <v>고</v>
       </c>
       <c r="J161" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K161" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K161" s="5">
-        <f t="shared" si="37"/>
         <v>380</v>
       </c>
       <c r="L161" s="20"/>
@@ -12603,15 +12803,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5고</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I162" s="9" t="str" cm="1">
@@ -12619,11 +12819,11 @@
         <v>고</v>
       </c>
       <c r="J162" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K162" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K162" s="5">
-        <f t="shared" si="37"/>
         <v>384</v>
       </c>
       <c r="L162" s="20"/>
@@ -12633,15 +12833,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10고</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+141</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I163" s="9" t="str" cm="1">
@@ -12649,11 +12849,11 @@
         <v>고</v>
       </c>
       <c r="J163" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K163" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K163" s="5">
-        <f t="shared" si="37"/>
         <v>388</v>
       </c>
       <c r="L163" s="20"/>
@@ -12663,15 +12863,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50고</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I164" s="9" t="str" cm="1">
@@ -12679,11 +12879,11 @@
         <v>고</v>
       </c>
       <c r="J164" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K164" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K164" s="5">
-        <f t="shared" si="37"/>
         <v>392</v>
       </c>
       <c r="L164" s="20"/>
@@ -12693,15 +12893,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100고</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I165" s="9" t="str" cm="1">
@@ -12709,11 +12909,11 @@
         <v>고</v>
       </c>
       <c r="J165" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K165" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K165" s="5">
-        <f t="shared" si="37"/>
         <v>396</v>
       </c>
       <c r="L165" s="20"/>
@@ -12723,15 +12923,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500고</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500</v>
       </c>
       <c r="I166" s="9" t="str" cm="1">
@@ -12739,11 +12939,11 @@
         <v>고</v>
       </c>
       <c r="J166" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K166" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K166" s="5">
-        <f t="shared" si="37"/>
         <v>400</v>
       </c>
       <c r="L166" s="20"/>
@@ -12753,15 +12953,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000고</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+143</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I167" s="9" t="str" cm="1">
@@ -12769,11 +12969,11 @@
         <v>고</v>
       </c>
       <c r="J167" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K167" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K167" s="5">
-        <f t="shared" si="37"/>
         <v>404</v>
       </c>
       <c r="L167" s="20"/>
@@ -12783,15 +12983,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000고</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000</v>
       </c>
       <c r="I168" s="9" t="str" cm="1">
@@ -12799,11 +12999,11 @@
         <v>고</v>
       </c>
       <c r="J168" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K168" s="5">
         <f t="shared" si="39"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K168" s="5">
-        <f t="shared" si="37"/>
         <v>408</v>
       </c>
       <c r="L168" s="20"/>
@@ -12813,15 +13013,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1화</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I169" s="9" t="str" cm="1">
@@ -12829,11 +13029,11 @@
         <v>화</v>
       </c>
       <c r="J169" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K169" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K169" s="5">
-        <f t="shared" si="37"/>
         <v>412</v>
       </c>
       <c r="L169" s="20"/>
@@ -12843,15 +13043,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5화</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I170" s="9" t="str" cm="1">
@@ -12859,11 +13059,11 @@
         <v>화</v>
       </c>
       <c r="J170" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K170" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K170" s="5">
-        <f t="shared" si="37"/>
         <v>416</v>
       </c>
       <c r="L170" s="20"/>
@@ -12873,15 +13073,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10화</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I171" s="9" t="str" cm="1">
@@ -12889,11 +13089,11 @@
         <v>화</v>
       </c>
       <c r="J171" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K171" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K171" s="5">
-        <f t="shared" si="37"/>
         <v>420</v>
       </c>
       <c r="L171" s="20"/>
@@ -12903,15 +13103,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50화</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I172" s="9" t="str" cm="1">
@@ -12919,11 +13119,11 @@
         <v>화</v>
       </c>
       <c r="J172" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K172" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K172" s="5">
-        <f t="shared" si="37"/>
         <v>424</v>
       </c>
       <c r="L172" s="20"/>
@@ -12933,15 +13133,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100화</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I173" s="9" t="str" cm="1">
@@ -12949,11 +13149,11 @@
         <v>화</v>
       </c>
       <c r="J173" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K173" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K173" s="5">
-        <f t="shared" si="37"/>
         <v>428</v>
       </c>
       <c r="L173" s="20"/>
@@ -12963,15 +13163,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500화</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500</v>
       </c>
       <c r="I174" s="9" t="str" cm="1">
@@ -12979,11 +13179,11 @@
         <v>화</v>
       </c>
       <c r="J174" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K174" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K174" s="5">
-        <f t="shared" si="37"/>
         <v>432</v>
       </c>
       <c r="L174" s="20"/>
@@ -12993,15 +13193,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000화</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I175" s="9" t="str" cm="1">
@@ -13009,11 +13209,11 @@
         <v>화</v>
       </c>
       <c r="J175" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K175" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K175" s="5">
-        <f t="shared" si="37"/>
         <v>436</v>
       </c>
       <c r="L175" s="20"/>
@@ -13023,15 +13223,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000화</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000</v>
       </c>
       <c r="I176" s="9" t="str" cm="1">
@@ -13039,11 +13239,11 @@
         <v>화</v>
       </c>
       <c r="J176" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K176" s="5">
         <f t="shared" si="39"/>
-        <v>1E+144</v>
-      </c>
-      <c r="K176" s="5">
-        <f t="shared" si="37"/>
         <v>440</v>
       </c>
       <c r="L176" s="20"/>
@@ -13053,15 +13253,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1명</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+148</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I177" s="9" t="str" cm="1">
@@ -13069,11 +13269,11 @@
         <v>명</v>
       </c>
       <c r="J177" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K177" s="5">
         <f t="shared" si="39"/>
-        <v>1E+148</v>
-      </c>
-      <c r="K177" s="5">
-        <f t="shared" si="37"/>
         <v>444</v>
       </c>
       <c r="L177" s="20"/>
@@ -13083,15 +13283,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5명</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I178" s="9" t="str" cm="1">
@@ -13099,11 +13299,11 @@
         <v>명</v>
       </c>
       <c r="J178" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" ref="K178:K216" si="42">K177+4</f>
+        <f t="shared" ref="K178:K216" si="44">K177+4</f>
         <v>448</v>
       </c>
       <c r="L178" s="20"/>
@@ -13113,15 +13313,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10명</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+149</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I179" s="9" t="str" cm="1">
@@ -13129,11 +13329,11 @@
         <v>명</v>
       </c>
       <c r="J179" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>452</v>
       </c>
       <c r="L179" s="20"/>
@@ -13143,15 +13343,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50명</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I180" s="9" t="str" cm="1">
@@ -13159,11 +13359,11 @@
         <v>명</v>
       </c>
       <c r="J180" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>456</v>
       </c>
       <c r="L180" s="20"/>
@@ -13173,15 +13373,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100명</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I181" s="9" t="str" cm="1">
@@ -13189,11 +13389,11 @@
         <v>명</v>
       </c>
       <c r="J181" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>460</v>
       </c>
       <c r="L181" s="20"/>
@@ -13203,15 +13403,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500명</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500</v>
       </c>
       <c r="I182" s="9" t="str" cm="1">
@@ -13219,11 +13419,11 @@
         <v>명</v>
       </c>
       <c r="J182" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>464</v>
       </c>
       <c r="L182" s="20"/>
@@ -13233,15 +13433,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000명</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+151</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I183" s="9" t="str" cm="1">
@@ -13249,11 +13449,11 @@
         <v>명</v>
       </c>
       <c r="J183" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>468</v>
       </c>
       <c r="L183" s="20"/>
@@ -13263,15 +13463,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000명</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000</v>
       </c>
       <c r="I184" s="9" t="str" cm="1">
@@ -13279,11 +13479,11 @@
         <v>명</v>
       </c>
       <c r="J184" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>472</v>
       </c>
       <c r="L184" s="20"/>
@@ -13293,15 +13493,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1월</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+152</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I185" s="9" t="str" cm="1">
@@ -13309,11 +13509,11 @@
         <v>월</v>
       </c>
       <c r="J185" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>476</v>
       </c>
       <c r="L185" s="20"/>
@@ -13323,15 +13523,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5월</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5E+152</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I186" s="9" t="str" cm="1">
@@ -13339,11 +13539,11 @@
         <v>월</v>
       </c>
       <c r="J186" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>480</v>
       </c>
       <c r="L186" s="20"/>
@@ -13353,15 +13553,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10월</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+153</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I187" s="9" t="str" cm="1">
@@ -13369,11 +13569,11 @@
         <v>월</v>
       </c>
       <c r="J187" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>484</v>
       </c>
       <c r="L187" s="20"/>
@@ -13383,15 +13583,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50월</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I188" s="9" t="str" cm="1">
@@ -13399,11 +13599,11 @@
         <v>월</v>
       </c>
       <c r="J188" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>488</v>
       </c>
       <c r="L188" s="20"/>
@@ -13413,15 +13613,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100월</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+154</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I189" s="9" t="str" cm="1">
@@ -13429,11 +13629,11 @@
         <v>월</v>
       </c>
       <c r="J189" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>492</v>
       </c>
       <c r="L189" s="20"/>
@@ -13443,15 +13643,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500월</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5E+154</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500</v>
       </c>
       <c r="I190" s="9" t="str" cm="1">
@@ -13459,11 +13659,11 @@
         <v>월</v>
       </c>
       <c r="J190" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>496</v>
       </c>
       <c r="L190" s="20"/>
@@ -13473,15 +13673,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000월</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+155</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I191" s="9" t="str" cm="1">
@@ -13489,11 +13689,11 @@
         <v>월</v>
       </c>
       <c r="J191" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="L191" s="20"/>
@@ -13503,15 +13703,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000월</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000</v>
       </c>
       <c r="I192" s="9" t="str" cm="1">
@@ -13519,11 +13719,11 @@
         <v>월</v>
       </c>
       <c r="J192" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>504</v>
       </c>
       <c r="L192" s="20"/>
@@ -13533,15 +13733,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1후</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I193" s="9" t="str" cm="1">
@@ -13549,11 +13749,11 @@
         <v>후</v>
       </c>
       <c r="J193" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>508</v>
       </c>
       <c r="L193" s="20"/>
@@ -13563,15 +13763,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5후</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I194" s="9" t="str" cm="1">
@@ -13579,11 +13779,11 @@
         <v>후</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>512</v>
       </c>
       <c r="L194" s="20"/>
@@ -13593,15 +13793,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10후</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I195" s="9" t="str" cm="1">
@@ -13609,11 +13809,11 @@
         <v>후</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>516</v>
       </c>
       <c r="L195" s="20"/>
@@ -13623,15 +13823,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50후</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="I196" s="9" t="str" cm="1">
@@ -13639,11 +13839,11 @@
         <v>후</v>
       </c>
       <c r="J196" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>520</v>
       </c>
       <c r="L196" s="20"/>
@@ -13653,15 +13853,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="10" t="str">
-        <f t="shared" ref="F197:F256" si="43">H197&amp;I197</f>
+        <f t="shared" ref="F197:F256" si="45">H197&amp;I197</f>
         <v>100후</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I197" s="9" t="str" cm="1">
@@ -13669,11 +13869,11 @@
         <v>후</v>
       </c>
       <c r="J197" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>524</v>
       </c>
       <c r="L197" s="20"/>
@@ -13683,15 +13883,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>500후</v>
+      </c>
+      <c r="G198" s="10">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H198" s="10">
         <f t="shared" si="43"/>
-        <v>500후</v>
-      </c>
-      <c r="G198" s="10">
-        <f t="shared" si="40"/>
-        <v>4.9999999999999996E+158</v>
-      </c>
-      <c r="H198" s="10">
-        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I198" s="9" t="str" cm="1">
@@ -13699,11 +13899,11 @@
         <v>후</v>
       </c>
       <c r="J198" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>528</v>
       </c>
       <c r="L198" s="20"/>
@@ -13713,15 +13913,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>1000후</v>
+      </c>
+      <c r="G199" s="10">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H199" s="10">
         <f t="shared" si="43"/>
-        <v>1000후</v>
-      </c>
-      <c r="G199" s="10">
-        <f t="shared" si="40"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H199" s="10">
-        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I199" s="9" t="str" cm="1">
@@ -13729,11 +13929,11 @@
         <v>후</v>
       </c>
       <c r="J199" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>532</v>
       </c>
       <c r="L199" s="20"/>
@@ -13743,15 +13943,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>5000후</v>
+      </c>
+      <c r="G200" s="10">
+        <f t="shared" si="42"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H200" s="10">
         <f t="shared" si="43"/>
-        <v>5000후</v>
-      </c>
-      <c r="G200" s="10">
-        <f t="shared" si="40"/>
-        <v>5E+159</v>
-      </c>
-      <c r="H200" s="10">
-        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I200" s="9" t="str" cm="1">
@@ -13759,11 +13959,11 @@
         <v>후</v>
       </c>
       <c r="J200" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>536</v>
       </c>
       <c r="L200" s="20"/>
@@ -13773,15 +13973,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>1단</v>
+      </c>
+      <c r="G201" s="10">
+        <f t="shared" si="42"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H201" s="10">
         <f t="shared" si="43"/>
-        <v>1단</v>
-      </c>
-      <c r="G201" s="10">
-        <f t="shared" si="40"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H201" s="10">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I201" s="9" t="str" cm="1">
@@ -13789,11 +13989,11 @@
         <v>단</v>
       </c>
       <c r="J201" s="9" t="str">
-        <f t="shared" ref="J201:J256" si="44">VLOOKUP(I201,M:P,4,FALSE)</f>
+        <f t="shared" ref="J201:J256" si="46">VLOOKUP(I201,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>540</v>
       </c>
       <c r="L201" s="20"/>
@@ -13803,15 +14003,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>5단</v>
+      </c>
+      <c r="G202" s="10">
+        <f t="shared" ref="G202:G256" si="47">H202*J202</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H202" s="10">
         <f t="shared" si="43"/>
-        <v>5단</v>
-      </c>
-      <c r="G202" s="10">
-        <f t="shared" ref="G202:G256" si="45">H202*J202</f>
-        <v>5.0000000000000002E+160</v>
-      </c>
-      <c r="H202" s="10">
-        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I202" s="9" t="str" cm="1">
@@ -13819,11 +14019,11 @@
         <v>단</v>
       </c>
       <c r="J202" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K202" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K202" s="5">
-        <f t="shared" si="42"/>
         <v>544</v>
       </c>
       <c r="L202" s="20"/>
@@ -13833,15 +14033,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>10단</v>
+      </c>
+      <c r="G203" s="10">
+        <f t="shared" si="47"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H203" s="10">
         <f t="shared" si="43"/>
-        <v>10단</v>
-      </c>
-      <c r="G203" s="10">
-        <f t="shared" si="45"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H203" s="10">
-        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I203" s="9" t="str" cm="1">
@@ -13849,11 +14049,11 @@
         <v>단</v>
       </c>
       <c r="J203" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K203" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K203" s="5">
-        <f t="shared" si="42"/>
         <v>548</v>
       </c>
       <c r="L203" s="20"/>
@@ -13863,15 +14063,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>50단</v>
+      </c>
+      <c r="G204" s="10">
+        <f t="shared" si="47"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H204" s="10">
         <f t="shared" si="43"/>
-        <v>50단</v>
-      </c>
-      <c r="G204" s="10">
-        <f t="shared" si="45"/>
-        <v>4.9999999999999997E+161</v>
-      </c>
-      <c r="H204" s="10">
-        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="I204" s="9" t="str" cm="1">
@@ -13879,11 +14079,11 @@
         <v>단</v>
       </c>
       <c r="J204" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K204" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K204" s="5">
-        <f t="shared" si="42"/>
         <v>552</v>
       </c>
       <c r="L204" s="20"/>
@@ -13893,15 +14093,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>100단</v>
+      </c>
+      <c r="G205" s="10">
+        <f t="shared" si="47"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H205" s="10">
         <f t="shared" si="43"/>
-        <v>100단</v>
-      </c>
-      <c r="G205" s="10">
-        <f t="shared" si="45"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H205" s="10">
-        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I205" s="9" t="str" cm="1">
@@ -13909,11 +14109,11 @@
         <v>단</v>
       </c>
       <c r="J205" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K205" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K205" s="5">
-        <f t="shared" si="42"/>
         <v>556</v>
       </c>
       <c r="L205" s="20"/>
@@ -13923,15 +14123,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>500단</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="47"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H206" s="10">
         <f t="shared" si="43"/>
-        <v>500단</v>
-      </c>
-      <c r="G206" s="10">
-        <f t="shared" si="45"/>
-        <v>4.9999999999999997E+162</v>
-      </c>
-      <c r="H206" s="10">
-        <f t="shared" si="41"/>
         <v>500</v>
       </c>
       <c r="I206" s="9" t="str" cm="1">
@@ -13939,11 +14139,11 @@
         <v>단</v>
       </c>
       <c r="J206" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K206" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K206" s="5">
-        <f t="shared" si="42"/>
         <v>560</v>
       </c>
       <c r="L206" s="20"/>
@@ -13953,15 +14153,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>1000단</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="47"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H207" s="10">
         <f t="shared" si="43"/>
-        <v>1000단</v>
-      </c>
-      <c r="G207" s="10">
-        <f t="shared" si="45"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H207" s="10">
-        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I207" s="9" t="str" cm="1">
@@ -13969,11 +14169,11 @@
         <v>단</v>
       </c>
       <c r="J207" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K207" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K207" s="5">
-        <f t="shared" si="42"/>
         <v>564</v>
       </c>
       <c r="L207" s="20"/>
@@ -13983,15 +14183,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>5000단</v>
+      </c>
+      <c r="G208" s="10">
+        <f t="shared" si="47"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H208" s="10">
         <f t="shared" si="43"/>
-        <v>5000단</v>
-      </c>
-      <c r="G208" s="10">
-        <f t="shared" si="45"/>
-        <v>5E+163</v>
-      </c>
-      <c r="H208" s="10">
-        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="I208" s="9" t="str" cm="1">
@@ -13999,11 +14199,11 @@
         <v>단</v>
       </c>
       <c r="J208" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K208" s="5">
         <f t="shared" si="44"/>
-        <v>1E+160</v>
-      </c>
-      <c r="K208" s="5">
-        <f t="shared" si="42"/>
         <v>568</v>
       </c>
       <c r="L208" s="20"/>
@@ -14013,15 +14213,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v>1절</v>
+      </c>
+      <c r="G209" s="10">
+        <f t="shared" si="47"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H209" s="10">
         <f t="shared" si="43"/>
-        <v>1절</v>
-      </c>
-      <c r="G209" s="10">
-        <f t="shared" si="45"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H209" s="10">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I209" s="9" t="str" cm="1">
@@ -14029,11 +14229,11 @@
         <v>절</v>
       </c>
       <c r="J209" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K209" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K209" s="5">
-        <f t="shared" si="42"/>
         <v>572</v>
       </c>
       <c r="L209" s="20"/>
@@ -14043,15 +14243,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5절</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000005E+164</v>
       </c>
       <c r="H210" s="10">
-        <f t="shared" ref="H210:H265" si="46">H202</f>
+        <f t="shared" ref="H210:H274" si="48">H202</f>
         <v>5</v>
       </c>
       <c r="I210" s="9" t="str" cm="1">
@@ -14059,11 +14259,11 @@
         <v>절</v>
       </c>
       <c r="J210" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K210" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="42"/>
         <v>576</v>
       </c>
       <c r="L210" s="20"/>
@@ -14073,15 +14273,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10절</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H211" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="I211" s="9" t="str" cm="1">
@@ -14089,11 +14289,11 @@
         <v>절</v>
       </c>
       <c r="J211" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K211" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K211" s="5">
-        <f t="shared" si="42"/>
         <v>580</v>
       </c>
       <c r="L211" s="20"/>
@@ -14103,15 +14303,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>50절</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999997E+165</v>
       </c>
       <c r="H212" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>50</v>
       </c>
       <c r="I212" s="9" t="str" cm="1">
@@ -14119,11 +14319,11 @@
         <v>절</v>
       </c>
       <c r="J212" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K212" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K212" s="5">
-        <f t="shared" si="42"/>
         <v>584</v>
       </c>
       <c r="L212" s="20"/>
@@ -14133,15 +14333,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100절</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100</v>
       </c>
       <c r="I213" s="9" t="str" cm="1">
@@ -14149,11 +14349,11 @@
         <v>절</v>
       </c>
       <c r="J213" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K213" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K213" s="5">
-        <f t="shared" si="42"/>
         <v>588</v>
       </c>
       <c r="L213" s="20"/>
@@ -14163,15 +14363,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>500절</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000002E+166</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>500</v>
       </c>
       <c r="I214" s="9" t="str" cm="1">
@@ -14179,11 +14379,11 @@
         <v>절</v>
       </c>
       <c r="J214" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K214" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K214" s="5">
-        <f t="shared" si="42"/>
         <v>592</v>
       </c>
       <c r="L214" s="20"/>
@@ -14193,15 +14393,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000절</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+167</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000</v>
       </c>
       <c r="I215" s="9" t="str" cm="1">
@@ -14209,11 +14409,11 @@
         <v>절</v>
       </c>
       <c r="J215" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K215" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K215" s="5">
-        <f t="shared" si="42"/>
         <v>596</v>
       </c>
       <c r="L215" s="20"/>
@@ -14223,15 +14423,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5000절</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999997E+167</v>
       </c>
       <c r="H216" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5000</v>
       </c>
       <c r="I216" s="9" t="str" cm="1">
@@ -14239,11 +14439,11 @@
         <v>절</v>
       </c>
       <c r="J216" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K216" s="5">
         <f t="shared" si="44"/>
-        <v>1E+164</v>
-      </c>
-      <c r="K216" s="5">
-        <f t="shared" si="42"/>
         <v>600</v>
       </c>
       <c r="L216" s="20"/>
@@ -14253,15 +14453,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1격</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="I217" s="9" t="str" cm="1">
@@ -14269,7 +14469,7 @@
         <v>격</v>
       </c>
       <c r="J217" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K217" s="5">
@@ -14283,15 +14483,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5격</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999997E+168</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="I218" s="9" t="str" cm="1">
@@ -14299,11 +14499,11 @@
         <v>격</v>
       </c>
       <c r="J218" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" ref="K218:K265" si="47">K217+5</f>
+        <f t="shared" ref="K218:K274" si="49">K217+5</f>
         <v>610</v>
       </c>
       <c r="L218" s="20"/>
@@ -14313,15 +14513,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10격</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="I219" s="9" t="str" cm="1">
@@ -14329,11 +14529,11 @@
         <v>격</v>
       </c>
       <c r="J219" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>615</v>
       </c>
       <c r="L219" s="20"/>
@@ -14343,15 +14543,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>50격</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999995E+169</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>50</v>
       </c>
       <c r="I220" s="9" t="str" cm="1">
@@ -14359,11 +14559,11 @@
         <v>격</v>
       </c>
       <c r="J220" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>620</v>
       </c>
       <c r="L220" s="20"/>
@@ -14373,15 +14573,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100격</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100</v>
       </c>
       <c r="I221" s="9" t="str" cm="1">
@@ -14389,11 +14589,11 @@
         <v>격</v>
       </c>
       <c r="J221" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>625</v>
       </c>
       <c r="L221" s="20"/>
@@ -14403,15 +14603,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>500격</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999998E+170</v>
       </c>
       <c r="H222" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>500</v>
       </c>
       <c r="I222" s="9" t="str" cm="1">
@@ -14419,11 +14619,11 @@
         <v>격</v>
       </c>
       <c r="J222" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>630</v>
       </c>
       <c r="L222" s="20"/>
@@ -14433,15 +14633,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000격</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H223" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000</v>
       </c>
       <c r="I223" s="9" t="str" cm="1">
@@ -14449,11 +14649,11 @@
         <v>격</v>
       </c>
       <c r="J223" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>635</v>
       </c>
       <c r="L223" s="20"/>
@@ -14463,15 +14663,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5000격</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999996E+171</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5000</v>
       </c>
       <c r="I224" s="9" t="str" cm="1">
@@ -14479,11 +14679,11 @@
         <v>격</v>
       </c>
       <c r="J224" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>640</v>
       </c>
       <c r="L224" s="20"/>
@@ -14493,15 +14693,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1창</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H225" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="I225" s="9" t="str" cm="1">
@@ -14509,11 +14709,11 @@
         <v>창</v>
       </c>
       <c r="J225" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+172</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>645</v>
       </c>
       <c r="L225" s="20"/>
@@ -14523,15 +14723,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5창</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000001E+172</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="